--- a/game_design/game_config.xlsx
+++ b/game_design/game_config.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="difficulties" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="tokens" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="spawn_probabilities" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="tokens" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="chests">difficulties!$E$2</definedName>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>level</t>
   </si>
@@ -58,6 +59,72 @@
     <t>4_chest_diamond</t>
   </si>
   <si>
+    <t>landscape</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>level_up</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>wildcard</t>
+  </si>
+  <si>
+    <t>remove_all</t>
+  </si>
+  <si>
+    <t>0_grass</t>
+  </si>
+  <si>
+    <t>1_bush</t>
+  </si>
+  <si>
+    <t>2_tree</t>
+  </si>
+  <si>
+    <t>3_big_tree</t>
+  </si>
+  <si>
+    <t>0_grave</t>
+  </si>
+  <si>
+    <t>0_lamp</t>
+  </si>
+  <si>
+    <t>1_gate</t>
+  </si>
+  <si>
+    <t>2_house</t>
+  </si>
+  <si>
+    <t>3_cottage</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>monokelo</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>token_id</t>
   </si>
   <si>
@@ -67,19 +134,7 @@
     <t>reward_value</t>
   </si>
   <si>
-    <t>0_grass</t>
-  </si>
-  <si>
     <t>points</t>
-  </si>
-  <si>
-    <t>1_bush</t>
-  </si>
-  <si>
-    <t>0_lamp</t>
-  </si>
-  <si>
-    <t>1_gate</t>
   </si>
 </sst>
 </file>
@@ -99,12 +154,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,13 +204,37 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -137,6 +252,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -473,50 +592,768 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>17.0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>17.0</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10">
+        <v>20.0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" ref="B18:F18" si="1">SUM(B2:B17)</f>
+        <v>100</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="2"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
+        <v>39</v>
+      </c>
+      <c r="C3" s="15">
         <v>100.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>200.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
@@ -524,2993 +1361,2993 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>200.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9">
-      <c r="B9" s="2"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10">
-      <c r="B10" s="2"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11">
-      <c r="B11" s="2"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12">
-      <c r="B12" s="2"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13">
-      <c r="B13" s="2"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14">
-      <c r="B14" s="2"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15">
-      <c r="B15" s="2"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16">
-      <c r="B16" s="2"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17">
-      <c r="B17" s="2"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18">
-      <c r="B18" s="2"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19">
-      <c r="B19" s="2"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20">
-      <c r="B20" s="2"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21">
-      <c r="B21" s="2"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22">
-      <c r="B22" s="2"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23">
-      <c r="B23" s="2"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24">
-      <c r="B24" s="2"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26">
-      <c r="B26" s="2"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27">
-      <c r="B27" s="2"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28">
-      <c r="B28" s="2"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29">
-      <c r="B29" s="2"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30">
-      <c r="B30" s="2"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31">
-      <c r="B31" s="2"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32">
-      <c r="B32" s="2"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33">
-      <c r="B33" s="2"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34">
-      <c r="B34" s="2"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35">
-      <c r="B35" s="2"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36">
-      <c r="B36" s="2"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37">
-      <c r="B37" s="2"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38">
-      <c r="B38" s="2"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39">
-      <c r="B39" s="2"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40">
-      <c r="B40" s="2"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41">
-      <c r="B41" s="2"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42">
-      <c r="B42" s="2"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43">
-      <c r="B43" s="2"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44">
-      <c r="B44" s="2"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45">
-      <c r="B45" s="2"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46">
-      <c r="B46" s="2"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47">
-      <c r="B47" s="2"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48">
-      <c r="B48" s="2"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49">
-      <c r="B49" s="2"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50">
-      <c r="B50" s="2"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51">
-      <c r="B51" s="2"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52">
-      <c r="B52" s="2"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53">
-      <c r="B53" s="2"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54">
-      <c r="B54" s="2"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55">
-      <c r="B55" s="2"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56">
-      <c r="B56" s="2"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57">
-      <c r="B57" s="2"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58">
-      <c r="B58" s="2"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59">
-      <c r="B59" s="2"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60">
-      <c r="B60" s="2"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61">
-      <c r="B61" s="2"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62">
-      <c r="B62" s="2"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63">
-      <c r="B63" s="2"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64">
-      <c r="B64" s="2"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65">
-      <c r="B65" s="2"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66">
-      <c r="B66" s="2"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67">
-      <c r="B67" s="2"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68">
-      <c r="B68" s="2"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69">
-      <c r="B69" s="2"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70">
-      <c r="B70" s="2"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71">
-      <c r="B71" s="2"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72">
-      <c r="B72" s="2"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73">
-      <c r="B73" s="2"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74">
-      <c r="B74" s="2"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75">
-      <c r="B75" s="2"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76">
-      <c r="B76" s="2"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77">
-      <c r="B77" s="2"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78">
-      <c r="B78" s="2"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79">
-      <c r="B79" s="2"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80">
-      <c r="B80" s="2"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81">
-      <c r="B81" s="2"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82">
-      <c r="B82" s="2"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83">
-      <c r="B83" s="2"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84">
-      <c r="B84" s="2"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85">
-      <c r="B85" s="2"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86">
-      <c r="B86" s="2"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87">
-      <c r="B87" s="2"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88">
-      <c r="B88" s="2"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89">
-      <c r="B89" s="2"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90">
-      <c r="B90" s="2"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91">
-      <c r="B91" s="2"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92">
-      <c r="B92" s="2"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93">
-      <c r="B93" s="2"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94">
-      <c r="B94" s="2"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95">
-      <c r="B95" s="2"/>
+      <c r="B95" s="14"/>
     </row>
     <row r="96">
-      <c r="B96" s="2"/>
+      <c r="B96" s="14"/>
     </row>
     <row r="97">
-      <c r="B97" s="2"/>
+      <c r="B97" s="14"/>
     </row>
     <row r="98">
-      <c r="B98" s="2"/>
+      <c r="B98" s="14"/>
     </row>
     <row r="99">
-      <c r="B99" s="2"/>
+      <c r="B99" s="14"/>
     </row>
     <row r="100">
-      <c r="B100" s="2"/>
+      <c r="B100" s="14"/>
     </row>
     <row r="101">
-      <c r="B101" s="2"/>
+      <c r="B101" s="14"/>
     </row>
     <row r="102">
-      <c r="B102" s="2"/>
+      <c r="B102" s="14"/>
     </row>
     <row r="103">
-      <c r="B103" s="2"/>
+      <c r="B103" s="14"/>
     </row>
     <row r="104">
-      <c r="B104" s="2"/>
+      <c r="B104" s="14"/>
     </row>
     <row r="105">
-      <c r="B105" s="2"/>
+      <c r="B105" s="14"/>
     </row>
     <row r="106">
-      <c r="B106" s="2"/>
+      <c r="B106" s="14"/>
     </row>
     <row r="107">
-      <c r="B107" s="2"/>
+      <c r="B107" s="14"/>
     </row>
     <row r="108">
-      <c r="B108" s="2"/>
+      <c r="B108" s="14"/>
     </row>
     <row r="109">
-      <c r="B109" s="2"/>
+      <c r="B109" s="14"/>
     </row>
     <row r="110">
-      <c r="B110" s="2"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111">
-      <c r="B111" s="2"/>
+      <c r="B111" s="14"/>
     </row>
     <row r="112">
-      <c r="B112" s="2"/>
+      <c r="B112" s="14"/>
     </row>
     <row r="113">
-      <c r="B113" s="2"/>
+      <c r="B113" s="14"/>
     </row>
     <row r="114">
-      <c r="B114" s="2"/>
+      <c r="B114" s="14"/>
     </row>
     <row r="115">
-      <c r="B115" s="2"/>
+      <c r="B115" s="14"/>
     </row>
     <row r="116">
-      <c r="B116" s="2"/>
+      <c r="B116" s="14"/>
     </row>
     <row r="117">
-      <c r="B117" s="2"/>
+      <c r="B117" s="14"/>
     </row>
     <row r="118">
-      <c r="B118" s="2"/>
+      <c r="B118" s="14"/>
     </row>
     <row r="119">
-      <c r="B119" s="2"/>
+      <c r="B119" s="14"/>
     </row>
     <row r="120">
-      <c r="B120" s="2"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121">
-      <c r="B121" s="2"/>
+      <c r="B121" s="14"/>
     </row>
     <row r="122">
-      <c r="B122" s="2"/>
+      <c r="B122" s="14"/>
     </row>
     <row r="123">
-      <c r="B123" s="2"/>
+      <c r="B123" s="14"/>
     </row>
     <row r="124">
-      <c r="B124" s="2"/>
+      <c r="B124" s="14"/>
     </row>
     <row r="125">
-      <c r="B125" s="2"/>
+      <c r="B125" s="14"/>
     </row>
     <row r="126">
-      <c r="B126" s="2"/>
+      <c r="B126" s="14"/>
     </row>
     <row r="127">
-      <c r="B127" s="2"/>
+      <c r="B127" s="14"/>
     </row>
     <row r="128">
-      <c r="B128" s="2"/>
+      <c r="B128" s="14"/>
     </row>
     <row r="129">
-      <c r="B129" s="2"/>
+      <c r="B129" s="14"/>
     </row>
     <row r="130">
-      <c r="B130" s="2"/>
+      <c r="B130" s="14"/>
     </row>
     <row r="131">
-      <c r="B131" s="2"/>
+      <c r="B131" s="14"/>
     </row>
     <row r="132">
-      <c r="B132" s="2"/>
+      <c r="B132" s="14"/>
     </row>
     <row r="133">
-      <c r="B133" s="2"/>
+      <c r="B133" s="14"/>
     </row>
     <row r="134">
-      <c r="B134" s="2"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135">
-      <c r="B135" s="2"/>
+      <c r="B135" s="14"/>
     </row>
     <row r="136">
-      <c r="B136" s="2"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137">
-      <c r="B137" s="2"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138">
-      <c r="B138" s="2"/>
+      <c r="B138" s="14"/>
     </row>
     <row r="139">
-      <c r="B139" s="2"/>
+      <c r="B139" s="14"/>
     </row>
     <row r="140">
-      <c r="B140" s="2"/>
+      <c r="B140" s="14"/>
     </row>
     <row r="141">
-      <c r="B141" s="2"/>
+      <c r="B141" s="14"/>
     </row>
     <row r="142">
-      <c r="B142" s="2"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143">
-      <c r="B143" s="2"/>
+      <c r="B143" s="14"/>
     </row>
     <row r="144">
-      <c r="B144" s="2"/>
+      <c r="B144" s="14"/>
     </row>
     <row r="145">
-      <c r="B145" s="2"/>
+      <c r="B145" s="14"/>
     </row>
     <row r="146">
-      <c r="B146" s="2"/>
+      <c r="B146" s="14"/>
     </row>
     <row r="147">
-      <c r="B147" s="2"/>
+      <c r="B147" s="14"/>
     </row>
     <row r="148">
-      <c r="B148" s="2"/>
+      <c r="B148" s="14"/>
     </row>
     <row r="149">
-      <c r="B149" s="2"/>
+      <c r="B149" s="14"/>
     </row>
     <row r="150">
-      <c r="B150" s="2"/>
+      <c r="B150" s="14"/>
     </row>
     <row r="151">
-      <c r="B151" s="2"/>
+      <c r="B151" s="14"/>
     </row>
     <row r="152">
-      <c r="B152" s="2"/>
+      <c r="B152" s="14"/>
     </row>
     <row r="153">
-      <c r="B153" s="2"/>
+      <c r="B153" s="14"/>
     </row>
     <row r="154">
-      <c r="B154" s="2"/>
+      <c r="B154" s="14"/>
     </row>
     <row r="155">
-      <c r="B155" s="2"/>
+      <c r="B155" s="14"/>
     </row>
     <row r="156">
-      <c r="B156" s="2"/>
+      <c r="B156" s="14"/>
     </row>
     <row r="157">
-      <c r="B157" s="2"/>
+      <c r="B157" s="14"/>
     </row>
     <row r="158">
-      <c r="B158" s="2"/>
+      <c r="B158" s="14"/>
     </row>
     <row r="159">
-      <c r="B159" s="2"/>
+      <c r="B159" s="14"/>
     </row>
     <row r="160">
-      <c r="B160" s="2"/>
+      <c r="B160" s="14"/>
     </row>
     <row r="161">
-      <c r="B161" s="2"/>
+      <c r="B161" s="14"/>
     </row>
     <row r="162">
-      <c r="B162" s="2"/>
+      <c r="B162" s="14"/>
     </row>
     <row r="163">
-      <c r="B163" s="2"/>
+      <c r="B163" s="14"/>
     </row>
     <row r="164">
-      <c r="B164" s="2"/>
+      <c r="B164" s="14"/>
     </row>
     <row r="165">
-      <c r="B165" s="2"/>
+      <c r="B165" s="14"/>
     </row>
     <row r="166">
-      <c r="B166" s="2"/>
+      <c r="B166" s="14"/>
     </row>
     <row r="167">
-      <c r="B167" s="2"/>
+      <c r="B167" s="14"/>
     </row>
     <row r="168">
-      <c r="B168" s="2"/>
+      <c r="B168" s="14"/>
     </row>
     <row r="169">
-      <c r="B169" s="2"/>
+      <c r="B169" s="14"/>
     </row>
     <row r="170">
-      <c r="B170" s="2"/>
+      <c r="B170" s="14"/>
     </row>
     <row r="171">
-      <c r="B171" s="2"/>
+      <c r="B171" s="14"/>
     </row>
     <row r="172">
-      <c r="B172" s="2"/>
+      <c r="B172" s="14"/>
     </row>
     <row r="173">
-      <c r="B173" s="2"/>
+      <c r="B173" s="14"/>
     </row>
     <row r="174">
-      <c r="B174" s="2"/>
+      <c r="B174" s="14"/>
     </row>
     <row r="175">
-      <c r="B175" s="2"/>
+      <c r="B175" s="14"/>
     </row>
     <row r="176">
-      <c r="B176" s="2"/>
+      <c r="B176" s="14"/>
     </row>
     <row r="177">
-      <c r="B177" s="2"/>
+      <c r="B177" s="14"/>
     </row>
     <row r="178">
-      <c r="B178" s="2"/>
+      <c r="B178" s="14"/>
     </row>
     <row r="179">
-      <c r="B179" s="2"/>
+      <c r="B179" s="14"/>
     </row>
     <row r="180">
-      <c r="B180" s="2"/>
+      <c r="B180" s="14"/>
     </row>
     <row r="181">
-      <c r="B181" s="2"/>
+      <c r="B181" s="14"/>
     </row>
     <row r="182">
-      <c r="B182" s="2"/>
+      <c r="B182" s="14"/>
     </row>
     <row r="183">
-      <c r="B183" s="2"/>
+      <c r="B183" s="14"/>
     </row>
     <row r="184">
-      <c r="B184" s="2"/>
+      <c r="B184" s="14"/>
     </row>
     <row r="185">
-      <c r="B185" s="2"/>
+      <c r="B185" s="14"/>
     </row>
     <row r="186">
-      <c r="B186" s="2"/>
+      <c r="B186" s="14"/>
     </row>
     <row r="187">
-      <c r="B187" s="2"/>
+      <c r="B187" s="14"/>
     </row>
     <row r="188">
-      <c r="B188" s="2"/>
+      <c r="B188" s="14"/>
     </row>
     <row r="189">
-      <c r="B189" s="2"/>
+      <c r="B189" s="14"/>
     </row>
     <row r="190">
-      <c r="B190" s="2"/>
+      <c r="B190" s="14"/>
     </row>
     <row r="191">
-      <c r="B191" s="2"/>
+      <c r="B191" s="14"/>
     </row>
     <row r="192">
-      <c r="B192" s="2"/>
+      <c r="B192" s="14"/>
     </row>
     <row r="193">
-      <c r="B193" s="2"/>
+      <c r="B193" s="14"/>
     </row>
     <row r="194">
-      <c r="B194" s="2"/>
+      <c r="B194" s="14"/>
     </row>
     <row r="195">
-      <c r="B195" s="2"/>
+      <c r="B195" s="14"/>
     </row>
     <row r="196">
-      <c r="B196" s="2"/>
+      <c r="B196" s="14"/>
     </row>
     <row r="197">
-      <c r="B197" s="2"/>
+      <c r="B197" s="14"/>
     </row>
     <row r="198">
-      <c r="B198" s="2"/>
+      <c r="B198" s="14"/>
     </row>
     <row r="199">
-      <c r="B199" s="2"/>
+      <c r="B199" s="14"/>
     </row>
     <row r="200">
-      <c r="B200" s="2"/>
+      <c r="B200" s="14"/>
     </row>
     <row r="201">
-      <c r="B201" s="2"/>
+      <c r="B201" s="14"/>
     </row>
     <row r="202">
-      <c r="B202" s="2"/>
+      <c r="B202" s="14"/>
     </row>
     <row r="203">
-      <c r="B203" s="2"/>
+      <c r="B203" s="14"/>
     </row>
     <row r="204">
-      <c r="B204" s="2"/>
+      <c r="B204" s="14"/>
     </row>
     <row r="205">
-      <c r="B205" s="2"/>
+      <c r="B205" s="14"/>
     </row>
     <row r="206">
-      <c r="B206" s="2"/>
+      <c r="B206" s="14"/>
     </row>
     <row r="207">
-      <c r="B207" s="2"/>
+      <c r="B207" s="14"/>
     </row>
     <row r="208">
-      <c r="B208" s="2"/>
+      <c r="B208" s="14"/>
     </row>
     <row r="209">
-      <c r="B209" s="2"/>
+      <c r="B209" s="14"/>
     </row>
     <row r="210">
-      <c r="B210" s="2"/>
+      <c r="B210" s="14"/>
     </row>
     <row r="211">
-      <c r="B211" s="2"/>
+      <c r="B211" s="14"/>
     </row>
     <row r="212">
-      <c r="B212" s="2"/>
+      <c r="B212" s="14"/>
     </row>
     <row r="213">
-      <c r="B213" s="2"/>
+      <c r="B213" s="14"/>
     </row>
     <row r="214">
-      <c r="B214" s="2"/>
+      <c r="B214" s="14"/>
     </row>
     <row r="215">
-      <c r="B215" s="2"/>
+      <c r="B215" s="14"/>
     </row>
     <row r="216">
-      <c r="B216" s="2"/>
+      <c r="B216" s="14"/>
     </row>
     <row r="217">
-      <c r="B217" s="2"/>
+      <c r="B217" s="14"/>
     </row>
     <row r="218">
-      <c r="B218" s="2"/>
+      <c r="B218" s="14"/>
     </row>
     <row r="219">
-      <c r="B219" s="2"/>
+      <c r="B219" s="14"/>
     </row>
     <row r="220">
-      <c r="B220" s="2"/>
+      <c r="B220" s="14"/>
     </row>
     <row r="221">
-      <c r="B221" s="2"/>
+      <c r="B221" s="14"/>
     </row>
     <row r="222">
-      <c r="B222" s="2"/>
+      <c r="B222" s="14"/>
     </row>
     <row r="223">
-      <c r="B223" s="2"/>
+      <c r="B223" s="14"/>
     </row>
     <row r="224">
-      <c r="B224" s="2"/>
+      <c r="B224" s="14"/>
     </row>
     <row r="225">
-      <c r="B225" s="2"/>
+      <c r="B225" s="14"/>
     </row>
     <row r="226">
-      <c r="B226" s="2"/>
+      <c r="B226" s="14"/>
     </row>
     <row r="227">
-      <c r="B227" s="2"/>
+      <c r="B227" s="14"/>
     </row>
     <row r="228">
-      <c r="B228" s="2"/>
+      <c r="B228" s="14"/>
     </row>
     <row r="229">
-      <c r="B229" s="2"/>
+      <c r="B229" s="14"/>
     </row>
     <row r="230">
-      <c r="B230" s="2"/>
+      <c r="B230" s="14"/>
     </row>
     <row r="231">
-      <c r="B231" s="2"/>
+      <c r="B231" s="14"/>
     </row>
     <row r="232">
-      <c r="B232" s="2"/>
+      <c r="B232" s="14"/>
     </row>
     <row r="233">
-      <c r="B233" s="2"/>
+      <c r="B233" s="14"/>
     </row>
     <row r="234">
-      <c r="B234" s="2"/>
+      <c r="B234" s="14"/>
     </row>
     <row r="235">
-      <c r="B235" s="2"/>
+      <c r="B235" s="14"/>
     </row>
     <row r="236">
-      <c r="B236" s="2"/>
+      <c r="B236" s="14"/>
     </row>
     <row r="237">
-      <c r="B237" s="2"/>
+      <c r="B237" s="14"/>
     </row>
     <row r="238">
-      <c r="B238" s="2"/>
+      <c r="B238" s="14"/>
     </row>
     <row r="239">
-      <c r="B239" s="2"/>
+      <c r="B239" s="14"/>
     </row>
     <row r="240">
-      <c r="B240" s="2"/>
+      <c r="B240" s="14"/>
     </row>
     <row r="241">
-      <c r="B241" s="2"/>
+      <c r="B241" s="14"/>
     </row>
     <row r="242">
-      <c r="B242" s="2"/>
+      <c r="B242" s="14"/>
     </row>
     <row r="243">
-      <c r="B243" s="2"/>
+      <c r="B243" s="14"/>
     </row>
     <row r="244">
-      <c r="B244" s="2"/>
+      <c r="B244" s="14"/>
     </row>
     <row r="245">
-      <c r="B245" s="2"/>
+      <c r="B245" s="14"/>
     </row>
     <row r="246">
-      <c r="B246" s="2"/>
+      <c r="B246" s="14"/>
     </row>
     <row r="247">
-      <c r="B247" s="2"/>
+      <c r="B247" s="14"/>
     </row>
     <row r="248">
-      <c r="B248" s="2"/>
+      <c r="B248" s="14"/>
     </row>
     <row r="249">
-      <c r="B249" s="2"/>
+      <c r="B249" s="14"/>
     </row>
     <row r="250">
-      <c r="B250" s="2"/>
+      <c r="B250" s="14"/>
     </row>
     <row r="251">
-      <c r="B251" s="2"/>
+      <c r="B251" s="14"/>
     </row>
     <row r="252">
-      <c r="B252" s="2"/>
+      <c r="B252" s="14"/>
     </row>
     <row r="253">
-      <c r="B253" s="2"/>
+      <c r="B253" s="14"/>
     </row>
     <row r="254">
-      <c r="B254" s="2"/>
+      <c r="B254" s="14"/>
     </row>
     <row r="255">
-      <c r="B255" s="2"/>
+      <c r="B255" s="14"/>
     </row>
     <row r="256">
-      <c r="B256" s="2"/>
+      <c r="B256" s="14"/>
     </row>
     <row r="257">
-      <c r="B257" s="2"/>
+      <c r="B257" s="14"/>
     </row>
     <row r="258">
-      <c r="B258" s="2"/>
+      <c r="B258" s="14"/>
     </row>
     <row r="259">
-      <c r="B259" s="2"/>
+      <c r="B259" s="14"/>
     </row>
     <row r="260">
-      <c r="B260" s="2"/>
+      <c r="B260" s="14"/>
     </row>
     <row r="261">
-      <c r="B261" s="2"/>
+      <c r="B261" s="14"/>
     </row>
     <row r="262">
-      <c r="B262" s="2"/>
+      <c r="B262" s="14"/>
     </row>
     <row r="263">
-      <c r="B263" s="2"/>
+      <c r="B263" s="14"/>
     </row>
     <row r="264">
-      <c r="B264" s="2"/>
+      <c r="B264" s="14"/>
     </row>
     <row r="265">
-      <c r="B265" s="2"/>
+      <c r="B265" s="14"/>
     </row>
     <row r="266">
-      <c r="B266" s="2"/>
+      <c r="B266" s="14"/>
     </row>
     <row r="267">
-      <c r="B267" s="2"/>
+      <c r="B267" s="14"/>
     </row>
     <row r="268">
-      <c r="B268" s="2"/>
+      <c r="B268" s="14"/>
     </row>
     <row r="269">
-      <c r="B269" s="2"/>
+      <c r="B269" s="14"/>
     </row>
     <row r="270">
-      <c r="B270" s="2"/>
+      <c r="B270" s="14"/>
     </row>
     <row r="271">
-      <c r="B271" s="2"/>
+      <c r="B271" s="14"/>
     </row>
     <row r="272">
-      <c r="B272" s="2"/>
+      <c r="B272" s="14"/>
     </row>
     <row r="273">
-      <c r="B273" s="2"/>
+      <c r="B273" s="14"/>
     </row>
     <row r="274">
-      <c r="B274" s="2"/>
+      <c r="B274" s="14"/>
     </row>
     <row r="275">
-      <c r="B275" s="2"/>
+      <c r="B275" s="14"/>
     </row>
     <row r="276">
-      <c r="B276" s="2"/>
+      <c r="B276" s="14"/>
     </row>
     <row r="277">
-      <c r="B277" s="2"/>
+      <c r="B277" s="14"/>
     </row>
     <row r="278">
-      <c r="B278" s="2"/>
+      <c r="B278" s="14"/>
     </row>
     <row r="279">
-      <c r="B279" s="2"/>
+      <c r="B279" s="14"/>
     </row>
     <row r="280">
-      <c r="B280" s="2"/>
+      <c r="B280" s="14"/>
     </row>
     <row r="281">
-      <c r="B281" s="2"/>
+      <c r="B281" s="14"/>
     </row>
     <row r="282">
-      <c r="B282" s="2"/>
+      <c r="B282" s="14"/>
     </row>
     <row r="283">
-      <c r="B283" s="2"/>
+      <c r="B283" s="14"/>
     </row>
     <row r="284">
-      <c r="B284" s="2"/>
+      <c r="B284" s="14"/>
     </row>
     <row r="285">
-      <c r="B285" s="2"/>
+      <c r="B285" s="14"/>
     </row>
     <row r="286">
-      <c r="B286" s="2"/>
+      <c r="B286" s="14"/>
     </row>
     <row r="287">
-      <c r="B287" s="2"/>
+      <c r="B287" s="14"/>
     </row>
     <row r="288">
-      <c r="B288" s="2"/>
+      <c r="B288" s="14"/>
     </row>
     <row r="289">
-      <c r="B289" s="2"/>
+      <c r="B289" s="14"/>
     </row>
     <row r="290">
-      <c r="B290" s="2"/>
+      <c r="B290" s="14"/>
     </row>
     <row r="291">
-      <c r="B291" s="2"/>
+      <c r="B291" s="14"/>
     </row>
     <row r="292">
-      <c r="B292" s="2"/>
+      <c r="B292" s="14"/>
     </row>
     <row r="293">
-      <c r="B293" s="2"/>
+      <c r="B293" s="14"/>
     </row>
     <row r="294">
-      <c r="B294" s="2"/>
+      <c r="B294" s="14"/>
     </row>
     <row r="295">
-      <c r="B295" s="2"/>
+      <c r="B295" s="14"/>
     </row>
     <row r="296">
-      <c r="B296" s="2"/>
+      <c r="B296" s="14"/>
     </row>
     <row r="297">
-      <c r="B297" s="2"/>
+      <c r="B297" s="14"/>
     </row>
     <row r="298">
-      <c r="B298" s="2"/>
+      <c r="B298" s="14"/>
     </row>
     <row r="299">
-      <c r="B299" s="2"/>
+      <c r="B299" s="14"/>
     </row>
     <row r="300">
-      <c r="B300" s="2"/>
+      <c r="B300" s="14"/>
     </row>
     <row r="301">
-      <c r="B301" s="2"/>
+      <c r="B301" s="14"/>
     </row>
     <row r="302">
-      <c r="B302" s="2"/>
+      <c r="B302" s="14"/>
     </row>
     <row r="303">
-      <c r="B303" s="2"/>
+      <c r="B303" s="14"/>
     </row>
     <row r="304">
-      <c r="B304" s="2"/>
+      <c r="B304" s="14"/>
     </row>
     <row r="305">
-      <c r="B305" s="2"/>
+      <c r="B305" s="14"/>
     </row>
     <row r="306">
-      <c r="B306" s="2"/>
+      <c r="B306" s="14"/>
     </row>
     <row r="307">
-      <c r="B307" s="2"/>
+      <c r="B307" s="14"/>
     </row>
     <row r="308">
-      <c r="B308" s="2"/>
+      <c r="B308" s="14"/>
     </row>
     <row r="309">
-      <c r="B309" s="2"/>
+      <c r="B309" s="14"/>
     </row>
     <row r="310">
-      <c r="B310" s="2"/>
+      <c r="B310" s="14"/>
     </row>
     <row r="311">
-      <c r="B311" s="2"/>
+      <c r="B311" s="14"/>
     </row>
     <row r="312">
-      <c r="B312" s="2"/>
+      <c r="B312" s="14"/>
     </row>
     <row r="313">
-      <c r="B313" s="2"/>
+      <c r="B313" s="14"/>
     </row>
     <row r="314">
-      <c r="B314" s="2"/>
+      <c r="B314" s="14"/>
     </row>
     <row r="315">
-      <c r="B315" s="2"/>
+      <c r="B315" s="14"/>
     </row>
     <row r="316">
-      <c r="B316" s="2"/>
+      <c r="B316" s="14"/>
     </row>
     <row r="317">
-      <c r="B317" s="2"/>
+      <c r="B317" s="14"/>
     </row>
     <row r="318">
-      <c r="B318" s="2"/>
+      <c r="B318" s="14"/>
     </row>
     <row r="319">
-      <c r="B319" s="2"/>
+      <c r="B319" s="14"/>
     </row>
     <row r="320">
-      <c r="B320" s="2"/>
+      <c r="B320" s="14"/>
     </row>
     <row r="321">
-      <c r="B321" s="2"/>
+      <c r="B321" s="14"/>
     </row>
     <row r="322">
-      <c r="B322" s="2"/>
+      <c r="B322" s="14"/>
     </row>
     <row r="323">
-      <c r="B323" s="2"/>
+      <c r="B323" s="14"/>
     </row>
     <row r="324">
-      <c r="B324" s="2"/>
+      <c r="B324" s="14"/>
     </row>
     <row r="325">
-      <c r="B325" s="2"/>
+      <c r="B325" s="14"/>
     </row>
     <row r="326">
-      <c r="B326" s="2"/>
+      <c r="B326" s="14"/>
     </row>
     <row r="327">
-      <c r="B327" s="2"/>
+      <c r="B327" s="14"/>
     </row>
     <row r="328">
-      <c r="B328" s="2"/>
+      <c r="B328" s="14"/>
     </row>
     <row r="329">
-      <c r="B329" s="2"/>
+      <c r="B329" s="14"/>
     </row>
     <row r="330">
-      <c r="B330" s="2"/>
+      <c r="B330" s="14"/>
     </row>
     <row r="331">
-      <c r="B331" s="2"/>
+      <c r="B331" s="14"/>
     </row>
     <row r="332">
-      <c r="B332" s="2"/>
+      <c r="B332" s="14"/>
     </row>
     <row r="333">
-      <c r="B333" s="2"/>
+      <c r="B333" s="14"/>
     </row>
     <row r="334">
-      <c r="B334" s="2"/>
+      <c r="B334" s="14"/>
     </row>
     <row r="335">
-      <c r="B335" s="2"/>
+      <c r="B335" s="14"/>
     </row>
     <row r="336">
-      <c r="B336" s="2"/>
+      <c r="B336" s="14"/>
     </row>
     <row r="337">
-      <c r="B337" s="2"/>
+      <c r="B337" s="14"/>
     </row>
     <row r="338">
-      <c r="B338" s="2"/>
+      <c r="B338" s="14"/>
     </row>
     <row r="339">
-      <c r="B339" s="2"/>
+      <c r="B339" s="14"/>
     </row>
     <row r="340">
-      <c r="B340" s="2"/>
+      <c r="B340" s="14"/>
     </row>
     <row r="341">
-      <c r="B341" s="2"/>
+      <c r="B341" s="14"/>
     </row>
     <row r="342">
-      <c r="B342" s="2"/>
+      <c r="B342" s="14"/>
     </row>
     <row r="343">
-      <c r="B343" s="2"/>
+      <c r="B343" s="14"/>
     </row>
     <row r="344">
-      <c r="B344" s="2"/>
+      <c r="B344" s="14"/>
     </row>
     <row r="345">
-      <c r="B345" s="2"/>
+      <c r="B345" s="14"/>
     </row>
     <row r="346">
-      <c r="B346" s="2"/>
+      <c r="B346" s="14"/>
     </row>
     <row r="347">
-      <c r="B347" s="2"/>
+      <c r="B347" s="14"/>
     </row>
     <row r="348">
-      <c r="B348" s="2"/>
+      <c r="B348" s="14"/>
     </row>
     <row r="349">
-      <c r="B349" s="2"/>
+      <c r="B349" s="14"/>
     </row>
     <row r="350">
-      <c r="B350" s="2"/>
+      <c r="B350" s="14"/>
     </row>
     <row r="351">
-      <c r="B351" s="2"/>
+      <c r="B351" s="14"/>
     </row>
     <row r="352">
-      <c r="B352" s="2"/>
+      <c r="B352" s="14"/>
     </row>
     <row r="353">
-      <c r="B353" s="2"/>
+      <c r="B353" s="14"/>
     </row>
     <row r="354">
-      <c r="B354" s="2"/>
+      <c r="B354" s="14"/>
     </row>
     <row r="355">
-      <c r="B355" s="2"/>
+      <c r="B355" s="14"/>
     </row>
     <row r="356">
-      <c r="B356" s="2"/>
+      <c r="B356" s="14"/>
     </row>
     <row r="357">
-      <c r="B357" s="2"/>
+      <c r="B357" s="14"/>
     </row>
     <row r="358">
-      <c r="B358" s="2"/>
+      <c r="B358" s="14"/>
     </row>
     <row r="359">
-      <c r="B359" s="2"/>
+      <c r="B359" s="14"/>
     </row>
     <row r="360">
-      <c r="B360" s="2"/>
+      <c r="B360" s="14"/>
     </row>
     <row r="361">
-      <c r="B361" s="2"/>
+      <c r="B361" s="14"/>
     </row>
     <row r="362">
-      <c r="B362" s="2"/>
+      <c r="B362" s="14"/>
     </row>
     <row r="363">
-      <c r="B363" s="2"/>
+      <c r="B363" s="14"/>
     </row>
     <row r="364">
-      <c r="B364" s="2"/>
+      <c r="B364" s="14"/>
     </row>
     <row r="365">
-      <c r="B365" s="2"/>
+      <c r="B365" s="14"/>
     </row>
     <row r="366">
-      <c r="B366" s="2"/>
+      <c r="B366" s="14"/>
     </row>
     <row r="367">
-      <c r="B367" s="2"/>
+      <c r="B367" s="14"/>
     </row>
     <row r="368">
-      <c r="B368" s="2"/>
+      <c r="B368" s="14"/>
     </row>
     <row r="369">
-      <c r="B369" s="2"/>
+      <c r="B369" s="14"/>
     </row>
     <row r="370">
-      <c r="B370" s="2"/>
+      <c r="B370" s="14"/>
     </row>
     <row r="371">
-      <c r="B371" s="2"/>
+      <c r="B371" s="14"/>
     </row>
     <row r="372">
-      <c r="B372" s="2"/>
+      <c r="B372" s="14"/>
     </row>
     <row r="373">
-      <c r="B373" s="2"/>
+      <c r="B373" s="14"/>
     </row>
     <row r="374">
-      <c r="B374" s="2"/>
+      <c r="B374" s="14"/>
     </row>
     <row r="375">
-      <c r="B375" s="2"/>
+      <c r="B375" s="14"/>
     </row>
     <row r="376">
-      <c r="B376" s="2"/>
+      <c r="B376" s="14"/>
     </row>
     <row r="377">
-      <c r="B377" s="2"/>
+      <c r="B377" s="14"/>
     </row>
     <row r="378">
-      <c r="B378" s="2"/>
+      <c r="B378" s="14"/>
     </row>
     <row r="379">
-      <c r="B379" s="2"/>
+      <c r="B379" s="14"/>
     </row>
     <row r="380">
-      <c r="B380" s="2"/>
+      <c r="B380" s="14"/>
     </row>
     <row r="381">
-      <c r="B381" s="2"/>
+      <c r="B381" s="14"/>
     </row>
     <row r="382">
-      <c r="B382" s="2"/>
+      <c r="B382" s="14"/>
     </row>
     <row r="383">
-      <c r="B383" s="2"/>
+      <c r="B383" s="14"/>
     </row>
     <row r="384">
-      <c r="B384" s="2"/>
+      <c r="B384" s="14"/>
     </row>
     <row r="385">
-      <c r="B385" s="2"/>
+      <c r="B385" s="14"/>
     </row>
     <row r="386">
-      <c r="B386" s="2"/>
+      <c r="B386" s="14"/>
     </row>
     <row r="387">
-      <c r="B387" s="2"/>
+      <c r="B387" s="14"/>
     </row>
     <row r="388">
-      <c r="B388" s="2"/>
+      <c r="B388" s="14"/>
     </row>
     <row r="389">
-      <c r="B389" s="2"/>
+      <c r="B389" s="14"/>
     </row>
     <row r="390">
-      <c r="B390" s="2"/>
+      <c r="B390" s="14"/>
     </row>
     <row r="391">
-      <c r="B391" s="2"/>
+      <c r="B391" s="14"/>
     </row>
     <row r="392">
-      <c r="B392" s="2"/>
+      <c r="B392" s="14"/>
     </row>
     <row r="393">
-      <c r="B393" s="2"/>
+      <c r="B393" s="14"/>
     </row>
     <row r="394">
-      <c r="B394" s="2"/>
+      <c r="B394" s="14"/>
     </row>
     <row r="395">
-      <c r="B395" s="2"/>
+      <c r="B395" s="14"/>
     </row>
     <row r="396">
-      <c r="B396" s="2"/>
+      <c r="B396" s="14"/>
     </row>
     <row r="397">
-      <c r="B397" s="2"/>
+      <c r="B397" s="14"/>
     </row>
     <row r="398">
-      <c r="B398" s="2"/>
+      <c r="B398" s="14"/>
     </row>
     <row r="399">
-      <c r="B399" s="2"/>
+      <c r="B399" s="14"/>
     </row>
     <row r="400">
-      <c r="B400" s="2"/>
+      <c r="B400" s="14"/>
     </row>
     <row r="401">
-      <c r="B401" s="2"/>
+      <c r="B401" s="14"/>
     </row>
     <row r="402">
-      <c r="B402" s="2"/>
+      <c r="B402" s="14"/>
     </row>
     <row r="403">
-      <c r="B403" s="2"/>
+      <c r="B403" s="14"/>
     </row>
     <row r="404">
-      <c r="B404" s="2"/>
+      <c r="B404" s="14"/>
     </row>
     <row r="405">
-      <c r="B405" s="2"/>
+      <c r="B405" s="14"/>
     </row>
     <row r="406">
-      <c r="B406" s="2"/>
+      <c r="B406" s="14"/>
     </row>
     <row r="407">
-      <c r="B407" s="2"/>
+      <c r="B407" s="14"/>
     </row>
     <row r="408">
-      <c r="B408" s="2"/>
+      <c r="B408" s="14"/>
     </row>
     <row r="409">
-      <c r="B409" s="2"/>
+      <c r="B409" s="14"/>
     </row>
     <row r="410">
-      <c r="B410" s="2"/>
+      <c r="B410" s="14"/>
     </row>
     <row r="411">
-      <c r="B411" s="2"/>
+      <c r="B411" s="14"/>
     </row>
     <row r="412">
-      <c r="B412" s="2"/>
+      <c r="B412" s="14"/>
     </row>
     <row r="413">
-      <c r="B413" s="2"/>
+      <c r="B413" s="14"/>
     </row>
     <row r="414">
-      <c r="B414" s="2"/>
+      <c r="B414" s="14"/>
     </row>
     <row r="415">
-      <c r="B415" s="2"/>
+      <c r="B415" s="14"/>
     </row>
     <row r="416">
-      <c r="B416" s="2"/>
+      <c r="B416" s="14"/>
     </row>
     <row r="417">
-      <c r="B417" s="2"/>
+      <c r="B417" s="14"/>
     </row>
     <row r="418">
-      <c r="B418" s="2"/>
+      <c r="B418" s="14"/>
     </row>
     <row r="419">
-      <c r="B419" s="2"/>
+      <c r="B419" s="14"/>
     </row>
     <row r="420">
-      <c r="B420" s="2"/>
+      <c r="B420" s="14"/>
     </row>
     <row r="421">
-      <c r="B421" s="2"/>
+      <c r="B421" s="14"/>
     </row>
     <row r="422">
-      <c r="B422" s="2"/>
+      <c r="B422" s="14"/>
     </row>
     <row r="423">
-      <c r="B423" s="2"/>
+      <c r="B423" s="14"/>
     </row>
     <row r="424">
-      <c r="B424" s="2"/>
+      <c r="B424" s="14"/>
     </row>
     <row r="425">
-      <c r="B425" s="2"/>
+      <c r="B425" s="14"/>
     </row>
     <row r="426">
-      <c r="B426" s="2"/>
+      <c r="B426" s="14"/>
     </row>
     <row r="427">
-      <c r="B427" s="2"/>
+      <c r="B427" s="14"/>
     </row>
     <row r="428">
-      <c r="B428" s="2"/>
+      <c r="B428" s="14"/>
     </row>
     <row r="429">
-      <c r="B429" s="2"/>
+      <c r="B429" s="14"/>
     </row>
     <row r="430">
-      <c r="B430" s="2"/>
+      <c r="B430" s="14"/>
     </row>
     <row r="431">
-      <c r="B431" s="2"/>
+      <c r="B431" s="14"/>
     </row>
     <row r="432">
-      <c r="B432" s="2"/>
+      <c r="B432" s="14"/>
     </row>
     <row r="433">
-      <c r="B433" s="2"/>
+      <c r="B433" s="14"/>
     </row>
     <row r="434">
-      <c r="B434" s="2"/>
+      <c r="B434" s="14"/>
     </row>
     <row r="435">
-      <c r="B435" s="2"/>
+      <c r="B435" s="14"/>
     </row>
     <row r="436">
-      <c r="B436" s="2"/>
+      <c r="B436" s="14"/>
     </row>
     <row r="437">
-      <c r="B437" s="2"/>
+      <c r="B437" s="14"/>
     </row>
     <row r="438">
-      <c r="B438" s="2"/>
+      <c r="B438" s="14"/>
     </row>
     <row r="439">
-      <c r="B439" s="2"/>
+      <c r="B439" s="14"/>
     </row>
     <row r="440">
-      <c r="B440" s="2"/>
+      <c r="B440" s="14"/>
     </row>
     <row r="441">
-      <c r="B441" s="2"/>
+      <c r="B441" s="14"/>
     </row>
     <row r="442">
-      <c r="B442" s="2"/>
+      <c r="B442" s="14"/>
     </row>
     <row r="443">
-      <c r="B443" s="2"/>
+      <c r="B443" s="14"/>
     </row>
     <row r="444">
-      <c r="B444" s="2"/>
+      <c r="B444" s="14"/>
     </row>
     <row r="445">
-      <c r="B445" s="2"/>
+      <c r="B445" s="14"/>
     </row>
     <row r="446">
-      <c r="B446" s="2"/>
+      <c r="B446" s="14"/>
     </row>
     <row r="447">
-      <c r="B447" s="2"/>
+      <c r="B447" s="14"/>
     </row>
     <row r="448">
-      <c r="B448" s="2"/>
+      <c r="B448" s="14"/>
     </row>
     <row r="449">
-      <c r="B449" s="2"/>
+      <c r="B449" s="14"/>
     </row>
     <row r="450">
-      <c r="B450" s="2"/>
+      <c r="B450" s="14"/>
     </row>
     <row r="451">
-      <c r="B451" s="2"/>
+      <c r="B451" s="14"/>
     </row>
     <row r="452">
-      <c r="B452" s="2"/>
+      <c r="B452" s="14"/>
     </row>
     <row r="453">
-      <c r="B453" s="2"/>
+      <c r="B453" s="14"/>
     </row>
     <row r="454">
-      <c r="B454" s="2"/>
+      <c r="B454" s="14"/>
     </row>
     <row r="455">
-      <c r="B455" s="2"/>
+      <c r="B455" s="14"/>
     </row>
     <row r="456">
-      <c r="B456" s="2"/>
+      <c r="B456" s="14"/>
     </row>
     <row r="457">
-      <c r="B457" s="2"/>
+      <c r="B457" s="14"/>
     </row>
     <row r="458">
-      <c r="B458" s="2"/>
+      <c r="B458" s="14"/>
     </row>
     <row r="459">
-      <c r="B459" s="2"/>
+      <c r="B459" s="14"/>
     </row>
     <row r="460">
-      <c r="B460" s="2"/>
+      <c r="B460" s="14"/>
     </row>
     <row r="461">
-      <c r="B461" s="2"/>
+      <c r="B461" s="14"/>
     </row>
     <row r="462">
-      <c r="B462" s="2"/>
+      <c r="B462" s="14"/>
     </row>
     <row r="463">
-      <c r="B463" s="2"/>
+      <c r="B463" s="14"/>
     </row>
     <row r="464">
-      <c r="B464" s="2"/>
+      <c r="B464" s="14"/>
     </row>
     <row r="465">
-      <c r="B465" s="2"/>
+      <c r="B465" s="14"/>
     </row>
     <row r="466">
-      <c r="B466" s="2"/>
+      <c r="B466" s="14"/>
     </row>
     <row r="467">
-      <c r="B467" s="2"/>
+      <c r="B467" s="14"/>
     </row>
     <row r="468">
-      <c r="B468" s="2"/>
+      <c r="B468" s="14"/>
     </row>
     <row r="469">
-      <c r="B469" s="2"/>
+      <c r="B469" s="14"/>
     </row>
     <row r="470">
-      <c r="B470" s="2"/>
+      <c r="B470" s="14"/>
     </row>
     <row r="471">
-      <c r="B471" s="2"/>
+      <c r="B471" s="14"/>
     </row>
     <row r="472">
-      <c r="B472" s="2"/>
+      <c r="B472" s="14"/>
     </row>
     <row r="473">
-      <c r="B473" s="2"/>
+      <c r="B473" s="14"/>
     </row>
     <row r="474">
-      <c r="B474" s="2"/>
+      <c r="B474" s="14"/>
     </row>
     <row r="475">
-      <c r="B475" s="2"/>
+      <c r="B475" s="14"/>
     </row>
     <row r="476">
-      <c r="B476" s="2"/>
+      <c r="B476" s="14"/>
     </row>
     <row r="477">
-      <c r="B477" s="2"/>
+      <c r="B477" s="14"/>
     </row>
     <row r="478">
-      <c r="B478" s="2"/>
+      <c r="B478" s="14"/>
     </row>
     <row r="479">
-      <c r="B479" s="2"/>
+      <c r="B479" s="14"/>
     </row>
     <row r="480">
-      <c r="B480" s="2"/>
+      <c r="B480" s="14"/>
     </row>
     <row r="481">
-      <c r="B481" s="2"/>
+      <c r="B481" s="14"/>
     </row>
     <row r="482">
-      <c r="B482" s="2"/>
+      <c r="B482" s="14"/>
     </row>
     <row r="483">
-      <c r="B483" s="2"/>
+      <c r="B483" s="14"/>
     </row>
     <row r="484">
-      <c r="B484" s="2"/>
+      <c r="B484" s="14"/>
     </row>
     <row r="485">
-      <c r="B485" s="2"/>
+      <c r="B485" s="14"/>
     </row>
     <row r="486">
-      <c r="B486" s="2"/>
+      <c r="B486" s="14"/>
     </row>
     <row r="487">
-      <c r="B487" s="2"/>
+      <c r="B487" s="14"/>
     </row>
     <row r="488">
-      <c r="B488" s="2"/>
+      <c r="B488" s="14"/>
     </row>
     <row r="489">
-      <c r="B489" s="2"/>
+      <c r="B489" s="14"/>
     </row>
     <row r="490">
-      <c r="B490" s="2"/>
+      <c r="B490" s="14"/>
     </row>
     <row r="491">
-      <c r="B491" s="2"/>
+      <c r="B491" s="14"/>
     </row>
     <row r="492">
-      <c r="B492" s="2"/>
+      <c r="B492" s="14"/>
     </row>
     <row r="493">
-      <c r="B493" s="2"/>
+      <c r="B493" s="14"/>
     </row>
     <row r="494">
-      <c r="B494" s="2"/>
+      <c r="B494" s="14"/>
     </row>
     <row r="495">
-      <c r="B495" s="2"/>
+      <c r="B495" s="14"/>
     </row>
     <row r="496">
-      <c r="B496" s="2"/>
+      <c r="B496" s="14"/>
     </row>
     <row r="497">
-      <c r="B497" s="2"/>
+      <c r="B497" s="14"/>
     </row>
     <row r="498">
-      <c r="B498" s="2"/>
+      <c r="B498" s="14"/>
     </row>
     <row r="499">
-      <c r="B499" s="2"/>
+      <c r="B499" s="14"/>
     </row>
     <row r="500">
-      <c r="B500" s="2"/>
+      <c r="B500" s="14"/>
     </row>
     <row r="501">
-      <c r="B501" s="2"/>
+      <c r="B501" s="14"/>
     </row>
     <row r="502">
-      <c r="B502" s="2"/>
+      <c r="B502" s="14"/>
     </row>
     <row r="503">
-      <c r="B503" s="2"/>
+      <c r="B503" s="14"/>
     </row>
     <row r="504">
-      <c r="B504" s="2"/>
+      <c r="B504" s="14"/>
     </row>
     <row r="505">
-      <c r="B505" s="2"/>
+      <c r="B505" s="14"/>
     </row>
     <row r="506">
-      <c r="B506" s="2"/>
+      <c r="B506" s="14"/>
     </row>
     <row r="507">
-      <c r="B507" s="2"/>
+      <c r="B507" s="14"/>
     </row>
     <row r="508">
-      <c r="B508" s="2"/>
+      <c r="B508" s="14"/>
     </row>
     <row r="509">
-      <c r="B509" s="2"/>
+      <c r="B509" s="14"/>
     </row>
     <row r="510">
-      <c r="B510" s="2"/>
+      <c r="B510" s="14"/>
     </row>
     <row r="511">
-      <c r="B511" s="2"/>
+      <c r="B511" s="14"/>
     </row>
     <row r="512">
-      <c r="B512" s="2"/>
+      <c r="B512" s="14"/>
     </row>
     <row r="513">
-      <c r="B513" s="2"/>
+      <c r="B513" s="14"/>
     </row>
     <row r="514">
-      <c r="B514" s="2"/>
+      <c r="B514" s="14"/>
     </row>
     <row r="515">
-      <c r="B515" s="2"/>
+      <c r="B515" s="14"/>
     </row>
     <row r="516">
-      <c r="B516" s="2"/>
+      <c r="B516" s="14"/>
     </row>
     <row r="517">
-      <c r="B517" s="2"/>
+      <c r="B517" s="14"/>
     </row>
     <row r="518">
-      <c r="B518" s="2"/>
+      <c r="B518" s="14"/>
     </row>
     <row r="519">
-      <c r="B519" s="2"/>
+      <c r="B519" s="14"/>
     </row>
     <row r="520">
-      <c r="B520" s="2"/>
+      <c r="B520" s="14"/>
     </row>
     <row r="521">
-      <c r="B521" s="2"/>
+      <c r="B521" s="14"/>
     </row>
     <row r="522">
-      <c r="B522" s="2"/>
+      <c r="B522" s="14"/>
     </row>
     <row r="523">
-      <c r="B523" s="2"/>
+      <c r="B523" s="14"/>
     </row>
     <row r="524">
-      <c r="B524" s="2"/>
+      <c r="B524" s="14"/>
     </row>
     <row r="525">
-      <c r="B525" s="2"/>
+      <c r="B525" s="14"/>
     </row>
     <row r="526">
-      <c r="B526" s="2"/>
+      <c r="B526" s="14"/>
     </row>
     <row r="527">
-      <c r="B527" s="2"/>
+      <c r="B527" s="14"/>
     </row>
     <row r="528">
-      <c r="B528" s="2"/>
+      <c r="B528" s="14"/>
     </row>
     <row r="529">
-      <c r="B529" s="2"/>
+      <c r="B529" s="14"/>
     </row>
     <row r="530">
-      <c r="B530" s="2"/>
+      <c r="B530" s="14"/>
     </row>
     <row r="531">
-      <c r="B531" s="2"/>
+      <c r="B531" s="14"/>
     </row>
     <row r="532">
-      <c r="B532" s="2"/>
+      <c r="B532" s="14"/>
     </row>
     <row r="533">
-      <c r="B533" s="2"/>
+      <c r="B533" s="14"/>
     </row>
     <row r="534">
-      <c r="B534" s="2"/>
+      <c r="B534" s="14"/>
     </row>
     <row r="535">
-      <c r="B535" s="2"/>
+      <c r="B535" s="14"/>
     </row>
     <row r="536">
-      <c r="B536" s="2"/>
+      <c r="B536" s="14"/>
     </row>
     <row r="537">
-      <c r="B537" s="2"/>
+      <c r="B537" s="14"/>
     </row>
     <row r="538">
-      <c r="B538" s="2"/>
+      <c r="B538" s="14"/>
     </row>
     <row r="539">
-      <c r="B539" s="2"/>
+      <c r="B539" s="14"/>
     </row>
     <row r="540">
-      <c r="B540" s="2"/>
+      <c r="B540" s="14"/>
     </row>
     <row r="541">
-      <c r="B541" s="2"/>
+      <c r="B541" s="14"/>
     </row>
     <row r="542">
-      <c r="B542" s="2"/>
+      <c r="B542" s="14"/>
     </row>
     <row r="543">
-      <c r="B543" s="2"/>
+      <c r="B543" s="14"/>
     </row>
     <row r="544">
-      <c r="B544" s="2"/>
+      <c r="B544" s="14"/>
     </row>
     <row r="545">
-      <c r="B545" s="2"/>
+      <c r="B545" s="14"/>
     </row>
     <row r="546">
-      <c r="B546" s="2"/>
+      <c r="B546" s="14"/>
     </row>
     <row r="547">
-      <c r="B547" s="2"/>
+      <c r="B547" s="14"/>
     </row>
     <row r="548">
-      <c r="B548" s="2"/>
+      <c r="B548" s="14"/>
     </row>
     <row r="549">
-      <c r="B549" s="2"/>
+      <c r="B549" s="14"/>
     </row>
     <row r="550">
-      <c r="B550" s="2"/>
+      <c r="B550" s="14"/>
     </row>
     <row r="551">
-      <c r="B551" s="2"/>
+      <c r="B551" s="14"/>
     </row>
     <row r="552">
-      <c r="B552" s="2"/>
+      <c r="B552" s="14"/>
     </row>
     <row r="553">
-      <c r="B553" s="2"/>
+      <c r="B553" s="14"/>
     </row>
     <row r="554">
-      <c r="B554" s="2"/>
+      <c r="B554" s="14"/>
     </row>
     <row r="555">
-      <c r="B555" s="2"/>
+      <c r="B555" s="14"/>
     </row>
     <row r="556">
-      <c r="B556" s="2"/>
+      <c r="B556" s="14"/>
     </row>
     <row r="557">
-      <c r="B557" s="2"/>
+      <c r="B557" s="14"/>
     </row>
     <row r="558">
-      <c r="B558" s="2"/>
+      <c r="B558" s="14"/>
     </row>
     <row r="559">
-      <c r="B559" s="2"/>
+      <c r="B559" s="14"/>
     </row>
     <row r="560">
-      <c r="B560" s="2"/>
+      <c r="B560" s="14"/>
     </row>
     <row r="561">
-      <c r="B561" s="2"/>
+      <c r="B561" s="14"/>
     </row>
     <row r="562">
-      <c r="B562" s="2"/>
+      <c r="B562" s="14"/>
     </row>
     <row r="563">
-      <c r="B563" s="2"/>
+      <c r="B563" s="14"/>
     </row>
     <row r="564">
-      <c r="B564" s="2"/>
+      <c r="B564" s="14"/>
     </row>
     <row r="565">
-      <c r="B565" s="2"/>
+      <c r="B565" s="14"/>
     </row>
     <row r="566">
-      <c r="B566" s="2"/>
+      <c r="B566" s="14"/>
     </row>
     <row r="567">
-      <c r="B567" s="2"/>
+      <c r="B567" s="14"/>
     </row>
     <row r="568">
-      <c r="B568" s="2"/>
+      <c r="B568" s="14"/>
     </row>
     <row r="569">
-      <c r="B569" s="2"/>
+      <c r="B569" s="14"/>
     </row>
     <row r="570">
-      <c r="B570" s="2"/>
+      <c r="B570" s="14"/>
     </row>
     <row r="571">
-      <c r="B571" s="2"/>
+      <c r="B571" s="14"/>
     </row>
     <row r="572">
-      <c r="B572" s="2"/>
+      <c r="B572" s="14"/>
     </row>
     <row r="573">
-      <c r="B573" s="2"/>
+      <c r="B573" s="14"/>
     </row>
     <row r="574">
-      <c r="B574" s="2"/>
+      <c r="B574" s="14"/>
     </row>
     <row r="575">
-      <c r="B575" s="2"/>
+      <c r="B575" s="14"/>
     </row>
     <row r="576">
-      <c r="B576" s="2"/>
+      <c r="B576" s="14"/>
     </row>
     <row r="577">
-      <c r="B577" s="2"/>
+      <c r="B577" s="14"/>
     </row>
     <row r="578">
-      <c r="B578" s="2"/>
+      <c r="B578" s="14"/>
     </row>
     <row r="579">
-      <c r="B579" s="2"/>
+      <c r="B579" s="14"/>
     </row>
     <row r="580">
-      <c r="B580" s="2"/>
+      <c r="B580" s="14"/>
     </row>
     <row r="581">
-      <c r="B581" s="2"/>
+      <c r="B581" s="14"/>
     </row>
     <row r="582">
-      <c r="B582" s="2"/>
+      <c r="B582" s="14"/>
     </row>
     <row r="583">
-      <c r="B583" s="2"/>
+      <c r="B583" s="14"/>
     </row>
     <row r="584">
-      <c r="B584" s="2"/>
+      <c r="B584" s="14"/>
     </row>
     <row r="585">
-      <c r="B585" s="2"/>
+      <c r="B585" s="14"/>
     </row>
     <row r="586">
-      <c r="B586" s="2"/>
+      <c r="B586" s="14"/>
     </row>
     <row r="587">
-      <c r="B587" s="2"/>
+      <c r="B587" s="14"/>
     </row>
     <row r="588">
-      <c r="B588" s="2"/>
+      <c r="B588" s="14"/>
     </row>
     <row r="589">
-      <c r="B589" s="2"/>
+      <c r="B589" s="14"/>
     </row>
     <row r="590">
-      <c r="B590" s="2"/>
+      <c r="B590" s="14"/>
     </row>
     <row r="591">
-      <c r="B591" s="2"/>
+      <c r="B591" s="14"/>
     </row>
     <row r="592">
-      <c r="B592" s="2"/>
+      <c r="B592" s="14"/>
     </row>
     <row r="593">
-      <c r="B593" s="2"/>
+      <c r="B593" s="14"/>
     </row>
     <row r="594">
-      <c r="B594" s="2"/>
+      <c r="B594" s="14"/>
     </row>
     <row r="595">
-      <c r="B595" s="2"/>
+      <c r="B595" s="14"/>
     </row>
     <row r="596">
-      <c r="B596" s="2"/>
+      <c r="B596" s="14"/>
     </row>
     <row r="597">
-      <c r="B597" s="2"/>
+      <c r="B597" s="14"/>
     </row>
     <row r="598">
-      <c r="B598" s="2"/>
+      <c r="B598" s="14"/>
     </row>
     <row r="599">
-      <c r="B599" s="2"/>
+      <c r="B599" s="14"/>
     </row>
     <row r="600">
-      <c r="B600" s="2"/>
+      <c r="B600" s="14"/>
     </row>
     <row r="601">
-      <c r="B601" s="2"/>
+      <c r="B601" s="14"/>
     </row>
     <row r="602">
-      <c r="B602" s="2"/>
+      <c r="B602" s="14"/>
     </row>
     <row r="603">
-      <c r="B603" s="2"/>
+      <c r="B603" s="14"/>
     </row>
     <row r="604">
-      <c r="B604" s="2"/>
+      <c r="B604" s="14"/>
     </row>
     <row r="605">
-      <c r="B605" s="2"/>
+      <c r="B605" s="14"/>
     </row>
     <row r="606">
-      <c r="B606" s="2"/>
+      <c r="B606" s="14"/>
     </row>
     <row r="607">
-      <c r="B607" s="2"/>
+      <c r="B607" s="14"/>
     </row>
     <row r="608">
-      <c r="B608" s="2"/>
+      <c r="B608" s="14"/>
     </row>
     <row r="609">
-      <c r="B609" s="2"/>
+      <c r="B609" s="14"/>
     </row>
     <row r="610">
-      <c r="B610" s="2"/>
+      <c r="B610" s="14"/>
     </row>
     <row r="611">
-      <c r="B611" s="2"/>
+      <c r="B611" s="14"/>
     </row>
     <row r="612">
-      <c r="B612" s="2"/>
+      <c r="B612" s="14"/>
     </row>
     <row r="613">
-      <c r="B613" s="2"/>
+      <c r="B613" s="14"/>
     </row>
     <row r="614">
-      <c r="B614" s="2"/>
+      <c r="B614" s="14"/>
     </row>
     <row r="615">
-      <c r="B615" s="2"/>
+      <c r="B615" s="14"/>
     </row>
     <row r="616">
-      <c r="B616" s="2"/>
+      <c r="B616" s="14"/>
     </row>
     <row r="617">
-      <c r="B617" s="2"/>
+      <c r="B617" s="14"/>
     </row>
     <row r="618">
-      <c r="B618" s="2"/>
+      <c r="B618" s="14"/>
     </row>
     <row r="619">
-      <c r="B619" s="2"/>
+      <c r="B619" s="14"/>
     </row>
     <row r="620">
-      <c r="B620" s="2"/>
+      <c r="B620" s="14"/>
     </row>
     <row r="621">
-      <c r="B621" s="2"/>
+      <c r="B621" s="14"/>
     </row>
     <row r="622">
-      <c r="B622" s="2"/>
+      <c r="B622" s="14"/>
     </row>
     <row r="623">
-      <c r="B623" s="2"/>
+      <c r="B623" s="14"/>
     </row>
     <row r="624">
-      <c r="B624" s="2"/>
+      <c r="B624" s="14"/>
     </row>
     <row r="625">
-      <c r="B625" s="2"/>
+      <c r="B625" s="14"/>
     </row>
     <row r="626">
-      <c r="B626" s="2"/>
+      <c r="B626" s="14"/>
     </row>
     <row r="627">
-      <c r="B627" s="2"/>
+      <c r="B627" s="14"/>
     </row>
     <row r="628">
-      <c r="B628" s="2"/>
+      <c r="B628" s="14"/>
     </row>
     <row r="629">
-      <c r="B629" s="2"/>
+      <c r="B629" s="14"/>
     </row>
     <row r="630">
-      <c r="B630" s="2"/>
+      <c r="B630" s="14"/>
     </row>
     <row r="631">
-      <c r="B631" s="2"/>
+      <c r="B631" s="14"/>
     </row>
     <row r="632">
-      <c r="B632" s="2"/>
+      <c r="B632" s="14"/>
     </row>
     <row r="633">
-      <c r="B633" s="2"/>
+      <c r="B633" s="14"/>
     </row>
     <row r="634">
-      <c r="B634" s="2"/>
+      <c r="B634" s="14"/>
     </row>
     <row r="635">
-      <c r="B635" s="2"/>
+      <c r="B635" s="14"/>
     </row>
     <row r="636">
-      <c r="B636" s="2"/>
+      <c r="B636" s="14"/>
     </row>
     <row r="637">
-      <c r="B637" s="2"/>
+      <c r="B637" s="14"/>
     </row>
     <row r="638">
-      <c r="B638" s="2"/>
+      <c r="B638" s="14"/>
     </row>
     <row r="639">
-      <c r="B639" s="2"/>
+      <c r="B639" s="14"/>
     </row>
     <row r="640">
-      <c r="B640" s="2"/>
+      <c r="B640" s="14"/>
     </row>
     <row r="641">
-      <c r="B641" s="2"/>
+      <c r="B641" s="14"/>
     </row>
     <row r="642">
-      <c r="B642" s="2"/>
+      <c r="B642" s="14"/>
     </row>
     <row r="643">
-      <c r="B643" s="2"/>
+      <c r="B643" s="14"/>
     </row>
     <row r="644">
-      <c r="B644" s="2"/>
+      <c r="B644" s="14"/>
     </row>
     <row r="645">
-      <c r="B645" s="2"/>
+      <c r="B645" s="14"/>
     </row>
     <row r="646">
-      <c r="B646" s="2"/>
+      <c r="B646" s="14"/>
     </row>
     <row r="647">
-      <c r="B647" s="2"/>
+      <c r="B647" s="14"/>
     </row>
     <row r="648">
-      <c r="B648" s="2"/>
+      <c r="B648" s="14"/>
     </row>
     <row r="649">
-      <c r="B649" s="2"/>
+      <c r="B649" s="14"/>
     </row>
     <row r="650">
-      <c r="B650" s="2"/>
+      <c r="B650" s="14"/>
     </row>
     <row r="651">
-      <c r="B651" s="2"/>
+      <c r="B651" s="14"/>
     </row>
     <row r="652">
-      <c r="B652" s="2"/>
+      <c r="B652" s="14"/>
     </row>
     <row r="653">
-      <c r="B653" s="2"/>
+      <c r="B653" s="14"/>
     </row>
     <row r="654">
-      <c r="B654" s="2"/>
+      <c r="B654" s="14"/>
     </row>
     <row r="655">
-      <c r="B655" s="2"/>
+      <c r="B655" s="14"/>
     </row>
     <row r="656">
-      <c r="B656" s="2"/>
+      <c r="B656" s="14"/>
     </row>
     <row r="657">
-      <c r="B657" s="2"/>
+      <c r="B657" s="14"/>
     </row>
     <row r="658">
-      <c r="B658" s="2"/>
+      <c r="B658" s="14"/>
     </row>
     <row r="659">
-      <c r="B659" s="2"/>
+      <c r="B659" s="14"/>
     </row>
     <row r="660">
-      <c r="B660" s="2"/>
+      <c r="B660" s="14"/>
     </row>
     <row r="661">
-      <c r="B661" s="2"/>
+      <c r="B661" s="14"/>
     </row>
     <row r="662">
-      <c r="B662" s="2"/>
+      <c r="B662" s="14"/>
     </row>
     <row r="663">
-      <c r="B663" s="2"/>
+      <c r="B663" s="14"/>
     </row>
     <row r="664">
-      <c r="B664" s="2"/>
+      <c r="B664" s="14"/>
     </row>
     <row r="665">
-      <c r="B665" s="2"/>
+      <c r="B665" s="14"/>
     </row>
     <row r="666">
-      <c r="B666" s="2"/>
+      <c r="B666" s="14"/>
     </row>
     <row r="667">
-      <c r="B667" s="2"/>
+      <c r="B667" s="14"/>
     </row>
     <row r="668">
-      <c r="B668" s="2"/>
+      <c r="B668" s="14"/>
     </row>
     <row r="669">
-      <c r="B669" s="2"/>
+      <c r="B669" s="14"/>
     </row>
     <row r="670">
-      <c r="B670" s="2"/>
+      <c r="B670" s="14"/>
     </row>
     <row r="671">
-      <c r="B671" s="2"/>
+      <c r="B671" s="14"/>
     </row>
     <row r="672">
-      <c r="B672" s="2"/>
+      <c r="B672" s="14"/>
     </row>
     <row r="673">
-      <c r="B673" s="2"/>
+      <c r="B673" s="14"/>
     </row>
     <row r="674">
-      <c r="B674" s="2"/>
+      <c r="B674" s="14"/>
     </row>
     <row r="675">
-      <c r="B675" s="2"/>
+      <c r="B675" s="14"/>
     </row>
     <row r="676">
-      <c r="B676" s="2"/>
+      <c r="B676" s="14"/>
     </row>
     <row r="677">
-      <c r="B677" s="2"/>
+      <c r="B677" s="14"/>
     </row>
     <row r="678">
-      <c r="B678" s="2"/>
+      <c r="B678" s="14"/>
     </row>
     <row r="679">
-      <c r="B679" s="2"/>
+      <c r="B679" s="14"/>
     </row>
     <row r="680">
-      <c r="B680" s="2"/>
+      <c r="B680" s="14"/>
     </row>
     <row r="681">
-      <c r="B681" s="2"/>
+      <c r="B681" s="14"/>
     </row>
     <row r="682">
-      <c r="B682" s="2"/>
+      <c r="B682" s="14"/>
     </row>
     <row r="683">
-      <c r="B683" s="2"/>
+      <c r="B683" s="14"/>
     </row>
     <row r="684">
-      <c r="B684" s="2"/>
+      <c r="B684" s="14"/>
     </row>
     <row r="685">
-      <c r="B685" s="2"/>
+      <c r="B685" s="14"/>
     </row>
     <row r="686">
-      <c r="B686" s="2"/>
+      <c r="B686" s="14"/>
     </row>
     <row r="687">
-      <c r="B687" s="2"/>
+      <c r="B687" s="14"/>
     </row>
     <row r="688">
-      <c r="B688" s="2"/>
+      <c r="B688" s="14"/>
     </row>
     <row r="689">
-      <c r="B689" s="2"/>
+      <c r="B689" s="14"/>
     </row>
     <row r="690">
-      <c r="B690" s="2"/>
+      <c r="B690" s="14"/>
     </row>
     <row r="691">
-      <c r="B691" s="2"/>
+      <c r="B691" s="14"/>
     </row>
     <row r="692">
-      <c r="B692" s="2"/>
+      <c r="B692" s="14"/>
     </row>
     <row r="693">
-      <c r="B693" s="2"/>
+      <c r="B693" s="14"/>
     </row>
     <row r="694">
-      <c r="B694" s="2"/>
+      <c r="B694" s="14"/>
     </row>
     <row r="695">
-      <c r="B695" s="2"/>
+      <c r="B695" s="14"/>
     </row>
     <row r="696">
-      <c r="B696" s="2"/>
+      <c r="B696" s="14"/>
     </row>
     <row r="697">
-      <c r="B697" s="2"/>
+      <c r="B697" s="14"/>
     </row>
     <row r="698">
-      <c r="B698" s="2"/>
+      <c r="B698" s="14"/>
     </row>
     <row r="699">
-      <c r="B699" s="2"/>
+      <c r="B699" s="14"/>
     </row>
     <row r="700">
-      <c r="B700" s="2"/>
+      <c r="B700" s="14"/>
     </row>
     <row r="701">
-      <c r="B701" s="2"/>
+      <c r="B701" s="14"/>
     </row>
     <row r="702">
-      <c r="B702" s="2"/>
+      <c r="B702" s="14"/>
     </row>
     <row r="703">
-      <c r="B703" s="2"/>
+      <c r="B703" s="14"/>
     </row>
     <row r="704">
-      <c r="B704" s="2"/>
+      <c r="B704" s="14"/>
     </row>
     <row r="705">
-      <c r="B705" s="2"/>
+      <c r="B705" s="14"/>
     </row>
     <row r="706">
-      <c r="B706" s="2"/>
+      <c r="B706" s="14"/>
     </row>
     <row r="707">
-      <c r="B707" s="2"/>
+      <c r="B707" s="14"/>
     </row>
     <row r="708">
-      <c r="B708" s="2"/>
+      <c r="B708" s="14"/>
     </row>
     <row r="709">
-      <c r="B709" s="2"/>
+      <c r="B709" s="14"/>
     </row>
     <row r="710">
-      <c r="B710" s="2"/>
+      <c r="B710" s="14"/>
     </row>
     <row r="711">
-      <c r="B711" s="2"/>
+      <c r="B711" s="14"/>
     </row>
     <row r="712">
-      <c r="B712" s="2"/>
+      <c r="B712" s="14"/>
     </row>
     <row r="713">
-      <c r="B713" s="2"/>
+      <c r="B713" s="14"/>
     </row>
     <row r="714">
-      <c r="B714" s="2"/>
+      <c r="B714" s="14"/>
     </row>
     <row r="715">
-      <c r="B715" s="2"/>
+      <c r="B715" s="14"/>
     </row>
     <row r="716">
-      <c r="B716" s="2"/>
+      <c r="B716" s="14"/>
     </row>
     <row r="717">
-      <c r="B717" s="2"/>
+      <c r="B717" s="14"/>
     </row>
     <row r="718">
-      <c r="B718" s="2"/>
+      <c r="B718" s="14"/>
     </row>
     <row r="719">
-      <c r="B719" s="2"/>
+      <c r="B719" s="14"/>
     </row>
     <row r="720">
-      <c r="B720" s="2"/>
+      <c r="B720" s="14"/>
     </row>
     <row r="721">
-      <c r="B721" s="2"/>
+      <c r="B721" s="14"/>
     </row>
     <row r="722">
-      <c r="B722" s="2"/>
+      <c r="B722" s="14"/>
     </row>
     <row r="723">
-      <c r="B723" s="2"/>
+      <c r="B723" s="14"/>
     </row>
     <row r="724">
-      <c r="B724" s="2"/>
+      <c r="B724" s="14"/>
     </row>
     <row r="725">
-      <c r="B725" s="2"/>
+      <c r="B725" s="14"/>
     </row>
     <row r="726">
-      <c r="B726" s="2"/>
+      <c r="B726" s="14"/>
     </row>
     <row r="727">
-      <c r="B727" s="2"/>
+      <c r="B727" s="14"/>
     </row>
     <row r="728">
-      <c r="B728" s="2"/>
+      <c r="B728" s="14"/>
     </row>
     <row r="729">
-      <c r="B729" s="2"/>
+      <c r="B729" s="14"/>
     </row>
     <row r="730">
-      <c r="B730" s="2"/>
+      <c r="B730" s="14"/>
     </row>
     <row r="731">
-      <c r="B731" s="2"/>
+      <c r="B731" s="14"/>
     </row>
     <row r="732">
-      <c r="B732" s="2"/>
+      <c r="B732" s="14"/>
     </row>
     <row r="733">
-      <c r="B733" s="2"/>
+      <c r="B733" s="14"/>
     </row>
     <row r="734">
-      <c r="B734" s="2"/>
+      <c r="B734" s="14"/>
     </row>
     <row r="735">
-      <c r="B735" s="2"/>
+      <c r="B735" s="14"/>
     </row>
     <row r="736">
-      <c r="B736" s="2"/>
+      <c r="B736" s="14"/>
     </row>
     <row r="737">
-      <c r="B737" s="2"/>
+      <c r="B737" s="14"/>
     </row>
     <row r="738">
-      <c r="B738" s="2"/>
+      <c r="B738" s="14"/>
     </row>
     <row r="739">
-      <c r="B739" s="2"/>
+      <c r="B739" s="14"/>
     </row>
     <row r="740">
-      <c r="B740" s="2"/>
+      <c r="B740" s="14"/>
     </row>
     <row r="741">
-      <c r="B741" s="2"/>
+      <c r="B741" s="14"/>
     </row>
     <row r="742">
-      <c r="B742" s="2"/>
+      <c r="B742" s="14"/>
     </row>
     <row r="743">
-      <c r="B743" s="2"/>
+      <c r="B743" s="14"/>
     </row>
     <row r="744">
-      <c r="B744" s="2"/>
+      <c r="B744" s="14"/>
     </row>
     <row r="745">
-      <c r="B745" s="2"/>
+      <c r="B745" s="14"/>
     </row>
     <row r="746">
-      <c r="B746" s="2"/>
+      <c r="B746" s="14"/>
     </row>
     <row r="747">
-      <c r="B747" s="2"/>
+      <c r="B747" s="14"/>
     </row>
     <row r="748">
-      <c r="B748" s="2"/>
+      <c r="B748" s="14"/>
     </row>
     <row r="749">
-      <c r="B749" s="2"/>
+      <c r="B749" s="14"/>
     </row>
     <row r="750">
-      <c r="B750" s="2"/>
+      <c r="B750" s="14"/>
     </row>
     <row r="751">
-      <c r="B751" s="2"/>
+      <c r="B751" s="14"/>
     </row>
     <row r="752">
-      <c r="B752" s="2"/>
+      <c r="B752" s="14"/>
     </row>
     <row r="753">
-      <c r="B753" s="2"/>
+      <c r="B753" s="14"/>
     </row>
     <row r="754">
-      <c r="B754" s="2"/>
+      <c r="B754" s="14"/>
     </row>
     <row r="755">
-      <c r="B755" s="2"/>
+      <c r="B755" s="14"/>
     </row>
     <row r="756">
-      <c r="B756" s="2"/>
+      <c r="B756" s="14"/>
     </row>
     <row r="757">
-      <c r="B757" s="2"/>
+      <c r="B757" s="14"/>
     </row>
     <row r="758">
-      <c r="B758" s="2"/>
+      <c r="B758" s="14"/>
     </row>
     <row r="759">
-      <c r="B759" s="2"/>
+      <c r="B759" s="14"/>
     </row>
     <row r="760">
-      <c r="B760" s="2"/>
+      <c r="B760" s="14"/>
     </row>
     <row r="761">
-      <c r="B761" s="2"/>
+      <c r="B761" s="14"/>
     </row>
     <row r="762">
-      <c r="B762" s="2"/>
+      <c r="B762" s="14"/>
     </row>
     <row r="763">
-      <c r="B763" s="2"/>
+      <c r="B763" s="14"/>
     </row>
     <row r="764">
-      <c r="B764" s="2"/>
+      <c r="B764" s="14"/>
     </row>
     <row r="765">
-      <c r="B765" s="2"/>
+      <c r="B765" s="14"/>
     </row>
     <row r="766">
-      <c r="B766" s="2"/>
+      <c r="B766" s="14"/>
     </row>
     <row r="767">
-      <c r="B767" s="2"/>
+      <c r="B767" s="14"/>
     </row>
     <row r="768">
-      <c r="B768" s="2"/>
+      <c r="B768" s="14"/>
     </row>
     <row r="769">
-      <c r="B769" s="2"/>
+      <c r="B769" s="14"/>
     </row>
     <row r="770">
-      <c r="B770" s="2"/>
+      <c r="B770" s="14"/>
     </row>
     <row r="771">
-      <c r="B771" s="2"/>
+      <c r="B771" s="14"/>
     </row>
     <row r="772">
-      <c r="B772" s="2"/>
+      <c r="B772" s="14"/>
     </row>
     <row r="773">
-      <c r="B773" s="2"/>
+      <c r="B773" s="14"/>
     </row>
     <row r="774">
-      <c r="B774" s="2"/>
+      <c r="B774" s="14"/>
     </row>
     <row r="775">
-      <c r="B775" s="2"/>
+      <c r="B775" s="14"/>
     </row>
     <row r="776">
-      <c r="B776" s="2"/>
+      <c r="B776" s="14"/>
     </row>
     <row r="777">
-      <c r="B777" s="2"/>
+      <c r="B777" s="14"/>
     </row>
     <row r="778">
-      <c r="B778" s="2"/>
+      <c r="B778" s="14"/>
     </row>
     <row r="779">
-      <c r="B779" s="2"/>
+      <c r="B779" s="14"/>
     </row>
     <row r="780">
-      <c r="B780" s="2"/>
+      <c r="B780" s="14"/>
     </row>
     <row r="781">
-      <c r="B781" s="2"/>
+      <c r="B781" s="14"/>
     </row>
     <row r="782">
-      <c r="B782" s="2"/>
+      <c r="B782" s="14"/>
     </row>
     <row r="783">
-      <c r="B783" s="2"/>
+      <c r="B783" s="14"/>
     </row>
     <row r="784">
-      <c r="B784" s="2"/>
+      <c r="B784" s="14"/>
     </row>
     <row r="785">
-      <c r="B785" s="2"/>
+      <c r="B785" s="14"/>
     </row>
     <row r="786">
-      <c r="B786" s="2"/>
+      <c r="B786" s="14"/>
     </row>
     <row r="787">
-      <c r="B787" s="2"/>
+      <c r="B787" s="14"/>
     </row>
     <row r="788">
-      <c r="B788" s="2"/>
+      <c r="B788" s="14"/>
     </row>
     <row r="789">
-      <c r="B789" s="2"/>
+      <c r="B789" s="14"/>
     </row>
     <row r="790">
-      <c r="B790" s="2"/>
+      <c r="B790" s="14"/>
     </row>
     <row r="791">
-      <c r="B791" s="2"/>
+      <c r="B791" s="14"/>
     </row>
     <row r="792">
-      <c r="B792" s="2"/>
+      <c r="B792" s="14"/>
     </row>
     <row r="793">
-      <c r="B793" s="2"/>
+      <c r="B793" s="14"/>
     </row>
     <row r="794">
-      <c r="B794" s="2"/>
+      <c r="B794" s="14"/>
     </row>
     <row r="795">
-      <c r="B795" s="2"/>
+      <c r="B795" s="14"/>
     </row>
     <row r="796">
-      <c r="B796" s="2"/>
+      <c r="B796" s="14"/>
     </row>
     <row r="797">
-      <c r="B797" s="2"/>
+      <c r="B797" s="14"/>
     </row>
     <row r="798">
-      <c r="B798" s="2"/>
+      <c r="B798" s="14"/>
     </row>
     <row r="799">
-      <c r="B799" s="2"/>
+      <c r="B799" s="14"/>
     </row>
     <row r="800">
-      <c r="B800" s="2"/>
+      <c r="B800" s="14"/>
     </row>
     <row r="801">
-      <c r="B801" s="2"/>
+      <c r="B801" s="14"/>
     </row>
     <row r="802">
-      <c r="B802" s="2"/>
+      <c r="B802" s="14"/>
     </row>
     <row r="803">
-      <c r="B803" s="2"/>
+      <c r="B803" s="14"/>
     </row>
     <row r="804">
-      <c r="B804" s="2"/>
+      <c r="B804" s="14"/>
     </row>
     <row r="805">
-      <c r="B805" s="2"/>
+      <c r="B805" s="14"/>
     </row>
     <row r="806">
-      <c r="B806" s="2"/>
+      <c r="B806" s="14"/>
     </row>
     <row r="807">
-      <c r="B807" s="2"/>
+      <c r="B807" s="14"/>
     </row>
     <row r="808">
-      <c r="B808" s="2"/>
+      <c r="B808" s="14"/>
     </row>
     <row r="809">
-      <c r="B809" s="2"/>
+      <c r="B809" s="14"/>
     </row>
     <row r="810">
-      <c r="B810" s="2"/>
+      <c r="B810" s="14"/>
     </row>
     <row r="811">
-      <c r="B811" s="2"/>
+      <c r="B811" s="14"/>
     </row>
     <row r="812">
-      <c r="B812" s="2"/>
+      <c r="B812" s="14"/>
     </row>
     <row r="813">
-      <c r="B813" s="2"/>
+      <c r="B813" s="14"/>
     </row>
     <row r="814">
-      <c r="B814" s="2"/>
+      <c r="B814" s="14"/>
     </row>
     <row r="815">
-      <c r="B815" s="2"/>
+      <c r="B815" s="14"/>
     </row>
     <row r="816">
-      <c r="B816" s="2"/>
+      <c r="B816" s="14"/>
     </row>
     <row r="817">
-      <c r="B817" s="2"/>
+      <c r="B817" s="14"/>
     </row>
     <row r="818">
-      <c r="B818" s="2"/>
+      <c r="B818" s="14"/>
     </row>
     <row r="819">
-      <c r="B819" s="2"/>
+      <c r="B819" s="14"/>
     </row>
     <row r="820">
-      <c r="B820" s="2"/>
+      <c r="B820" s="14"/>
     </row>
     <row r="821">
-      <c r="B821" s="2"/>
+      <c r="B821" s="14"/>
     </row>
     <row r="822">
-      <c r="B822" s="2"/>
+      <c r="B822" s="14"/>
     </row>
     <row r="823">
-      <c r="B823" s="2"/>
+      <c r="B823" s="14"/>
     </row>
     <row r="824">
-      <c r="B824" s="2"/>
+      <c r="B824" s="14"/>
     </row>
     <row r="825">
-      <c r="B825" s="2"/>
+      <c r="B825" s="14"/>
     </row>
     <row r="826">
-      <c r="B826" s="2"/>
+      <c r="B826" s="14"/>
     </row>
     <row r="827">
-      <c r="B827" s="2"/>
+      <c r="B827" s="14"/>
     </row>
     <row r="828">
-      <c r="B828" s="2"/>
+      <c r="B828" s="14"/>
     </row>
     <row r="829">
-      <c r="B829" s="2"/>
+      <c r="B829" s="14"/>
     </row>
     <row r="830">
-      <c r="B830" s="2"/>
+      <c r="B830" s="14"/>
     </row>
     <row r="831">
-      <c r="B831" s="2"/>
+      <c r="B831" s="14"/>
     </row>
     <row r="832">
-      <c r="B832" s="2"/>
+      <c r="B832" s="14"/>
     </row>
     <row r="833">
-      <c r="B833" s="2"/>
+      <c r="B833" s="14"/>
     </row>
     <row r="834">
-      <c r="B834" s="2"/>
+      <c r="B834" s="14"/>
     </row>
     <row r="835">
-      <c r="B835" s="2"/>
+      <c r="B835" s="14"/>
     </row>
     <row r="836">
-      <c r="B836" s="2"/>
+      <c r="B836" s="14"/>
     </row>
     <row r="837">
-      <c r="B837" s="2"/>
+      <c r="B837" s="14"/>
     </row>
     <row r="838">
-      <c r="B838" s="2"/>
+      <c r="B838" s="14"/>
     </row>
     <row r="839">
-      <c r="B839" s="2"/>
+      <c r="B839" s="14"/>
     </row>
     <row r="840">
-      <c r="B840" s="2"/>
+      <c r="B840" s="14"/>
     </row>
     <row r="841">
-      <c r="B841" s="2"/>
+      <c r="B841" s="14"/>
     </row>
     <row r="842">
-      <c r="B842" s="2"/>
+      <c r="B842" s="14"/>
     </row>
     <row r="843">
-      <c r="B843" s="2"/>
+      <c r="B843" s="14"/>
     </row>
     <row r="844">
-      <c r="B844" s="2"/>
+      <c r="B844" s="14"/>
     </row>
     <row r="845">
-      <c r="B845" s="2"/>
+      <c r="B845" s="14"/>
     </row>
     <row r="846">
-      <c r="B846" s="2"/>
+      <c r="B846" s="14"/>
     </row>
     <row r="847">
-      <c r="B847" s="2"/>
+      <c r="B847" s="14"/>
     </row>
     <row r="848">
-      <c r="B848" s="2"/>
+      <c r="B848" s="14"/>
     </row>
     <row r="849">
-      <c r="B849" s="2"/>
+      <c r="B849" s="14"/>
     </row>
     <row r="850">
-      <c r="B850" s="2"/>
+      <c r="B850" s="14"/>
     </row>
     <row r="851">
-      <c r="B851" s="2"/>
+      <c r="B851" s="14"/>
     </row>
     <row r="852">
-      <c r="B852" s="2"/>
+      <c r="B852" s="14"/>
     </row>
     <row r="853">
-      <c r="B853" s="2"/>
+      <c r="B853" s="14"/>
     </row>
     <row r="854">
-      <c r="B854" s="2"/>
+      <c r="B854" s="14"/>
     </row>
     <row r="855">
-      <c r="B855" s="2"/>
+      <c r="B855" s="14"/>
     </row>
     <row r="856">
-      <c r="B856" s="2"/>
+      <c r="B856" s="14"/>
     </row>
     <row r="857">
-      <c r="B857" s="2"/>
+      <c r="B857" s="14"/>
     </row>
     <row r="858">
-      <c r="B858" s="2"/>
+      <c r="B858" s="14"/>
     </row>
     <row r="859">
-      <c r="B859" s="2"/>
+      <c r="B859" s="14"/>
     </row>
     <row r="860">
-      <c r="B860" s="2"/>
+      <c r="B860" s="14"/>
     </row>
     <row r="861">
-      <c r="B861" s="2"/>
+      <c r="B861" s="14"/>
     </row>
     <row r="862">
-      <c r="B862" s="2"/>
+      <c r="B862" s="14"/>
     </row>
     <row r="863">
-      <c r="B863" s="2"/>
+      <c r="B863" s="14"/>
     </row>
     <row r="864">
-      <c r="B864" s="2"/>
+      <c r="B864" s="14"/>
     </row>
     <row r="865">
-      <c r="B865" s="2"/>
+      <c r="B865" s="14"/>
     </row>
     <row r="866">
-      <c r="B866" s="2"/>
+      <c r="B866" s="14"/>
     </row>
     <row r="867">
-      <c r="B867" s="2"/>
+      <c r="B867" s="14"/>
     </row>
     <row r="868">
-      <c r="B868" s="2"/>
+      <c r="B868" s="14"/>
     </row>
     <row r="869">
-      <c r="B869" s="2"/>
+      <c r="B869" s="14"/>
     </row>
     <row r="870">
-      <c r="B870" s="2"/>
+      <c r="B870" s="14"/>
     </row>
     <row r="871">
-      <c r="B871" s="2"/>
+      <c r="B871" s="14"/>
     </row>
     <row r="872">
-      <c r="B872" s="2"/>
+      <c r="B872" s="14"/>
     </row>
     <row r="873">
-      <c r="B873" s="2"/>
+      <c r="B873" s="14"/>
     </row>
     <row r="874">
-      <c r="B874" s="2"/>
+      <c r="B874" s="14"/>
     </row>
     <row r="875">
-      <c r="B875" s="2"/>
+      <c r="B875" s="14"/>
     </row>
     <row r="876">
-      <c r="B876" s="2"/>
+      <c r="B876" s="14"/>
     </row>
     <row r="877">
-      <c r="B877" s="2"/>
+      <c r="B877" s="14"/>
     </row>
     <row r="878">
-      <c r="B878" s="2"/>
+      <c r="B878" s="14"/>
     </row>
     <row r="879">
-      <c r="B879" s="2"/>
+      <c r="B879" s="14"/>
     </row>
     <row r="880">
-      <c r="B880" s="2"/>
+      <c r="B880" s="14"/>
     </row>
     <row r="881">
-      <c r="B881" s="2"/>
+      <c r="B881" s="14"/>
     </row>
     <row r="882">
-      <c r="B882" s="2"/>
+      <c r="B882" s="14"/>
     </row>
     <row r="883">
-      <c r="B883" s="2"/>
+      <c r="B883" s="14"/>
     </row>
     <row r="884">
-      <c r="B884" s="2"/>
+      <c r="B884" s="14"/>
     </row>
     <row r="885">
-      <c r="B885" s="2"/>
+      <c r="B885" s="14"/>
     </row>
     <row r="886">
-      <c r="B886" s="2"/>
+      <c r="B886" s="14"/>
     </row>
     <row r="887">
-      <c r="B887" s="2"/>
+      <c r="B887" s="14"/>
     </row>
     <row r="888">
-      <c r="B888" s="2"/>
+      <c r="B888" s="14"/>
     </row>
     <row r="889">
-      <c r="B889" s="2"/>
+      <c r="B889" s="14"/>
     </row>
     <row r="890">
-      <c r="B890" s="2"/>
+      <c r="B890" s="14"/>
     </row>
     <row r="891">
-      <c r="B891" s="2"/>
+      <c r="B891" s="14"/>
     </row>
     <row r="892">
-      <c r="B892" s="2"/>
+      <c r="B892" s="14"/>
     </row>
     <row r="893">
-      <c r="B893" s="2"/>
+      <c r="B893" s="14"/>
     </row>
     <row r="894">
-      <c r="B894" s="2"/>
+      <c r="B894" s="14"/>
     </row>
     <row r="895">
-      <c r="B895" s="2"/>
+      <c r="B895" s="14"/>
     </row>
     <row r="896">
-      <c r="B896" s="2"/>
+      <c r="B896" s="14"/>
     </row>
     <row r="897">
-      <c r="B897" s="2"/>
+      <c r="B897" s="14"/>
     </row>
     <row r="898">
-      <c r="B898" s="2"/>
+      <c r="B898" s="14"/>
     </row>
     <row r="899">
-      <c r="B899" s="2"/>
+      <c r="B899" s="14"/>
     </row>
     <row r="900">
-      <c r="B900" s="2"/>
+      <c r="B900" s="14"/>
     </row>
     <row r="901">
-      <c r="B901" s="2"/>
+      <c r="B901" s="14"/>
     </row>
     <row r="902">
-      <c r="B902" s="2"/>
+      <c r="B902" s="14"/>
     </row>
     <row r="903">
-      <c r="B903" s="2"/>
+      <c r="B903" s="14"/>
     </row>
     <row r="904">
-      <c r="B904" s="2"/>
+      <c r="B904" s="14"/>
     </row>
     <row r="905">
-      <c r="B905" s="2"/>
+      <c r="B905" s="14"/>
     </row>
     <row r="906">
-      <c r="B906" s="2"/>
+      <c r="B906" s="14"/>
     </row>
     <row r="907">
-      <c r="B907" s="2"/>
+      <c r="B907" s="14"/>
     </row>
     <row r="908">
-      <c r="B908" s="2"/>
+      <c r="B908" s="14"/>
     </row>
     <row r="909">
-      <c r="B909" s="2"/>
+      <c r="B909" s="14"/>
     </row>
     <row r="910">
-      <c r="B910" s="2"/>
+      <c r="B910" s="14"/>
     </row>
     <row r="911">
-      <c r="B911" s="2"/>
+      <c r="B911" s="14"/>
     </row>
     <row r="912">
-      <c r="B912" s="2"/>
+      <c r="B912" s="14"/>
     </row>
     <row r="913">
-      <c r="B913" s="2"/>
+      <c r="B913" s="14"/>
     </row>
     <row r="914">
-      <c r="B914" s="2"/>
+      <c r="B914" s="14"/>
     </row>
     <row r="915">
-      <c r="B915" s="2"/>
+      <c r="B915" s="14"/>
     </row>
     <row r="916">
-      <c r="B916" s="2"/>
+      <c r="B916" s="14"/>
     </row>
     <row r="917">
-      <c r="B917" s="2"/>
+      <c r="B917" s="14"/>
     </row>
     <row r="918">
-      <c r="B918" s="2"/>
+      <c r="B918" s="14"/>
     </row>
     <row r="919">
-      <c r="B919" s="2"/>
+      <c r="B919" s="14"/>
     </row>
     <row r="920">
-      <c r="B920" s="2"/>
+      <c r="B920" s="14"/>
     </row>
     <row r="921">
-      <c r="B921" s="2"/>
+      <c r="B921" s="14"/>
     </row>
     <row r="922">
-      <c r="B922" s="2"/>
+      <c r="B922" s="14"/>
     </row>
     <row r="923">
-      <c r="B923" s="2"/>
+      <c r="B923" s="14"/>
     </row>
     <row r="924">
-      <c r="B924" s="2"/>
+      <c r="B924" s="14"/>
     </row>
     <row r="925">
-      <c r="B925" s="2"/>
+      <c r="B925" s="14"/>
     </row>
     <row r="926">
-      <c r="B926" s="2"/>
+      <c r="B926" s="14"/>
     </row>
     <row r="927">
-      <c r="B927" s="2"/>
+      <c r="B927" s="14"/>
     </row>
     <row r="928">
-      <c r="B928" s="2"/>
+      <c r="B928" s="14"/>
     </row>
     <row r="929">
-      <c r="B929" s="2"/>
+      <c r="B929" s="14"/>
     </row>
     <row r="930">
-      <c r="B930" s="2"/>
+      <c r="B930" s="14"/>
     </row>
     <row r="931">
-      <c r="B931" s="2"/>
+      <c r="B931" s="14"/>
     </row>
     <row r="932">
-      <c r="B932" s="2"/>
+      <c r="B932" s="14"/>
     </row>
     <row r="933">
-      <c r="B933" s="2"/>
+      <c r="B933" s="14"/>
     </row>
     <row r="934">
-      <c r="B934" s="2"/>
+      <c r="B934" s="14"/>
     </row>
     <row r="935">
-      <c r="B935" s="2"/>
+      <c r="B935" s="14"/>
     </row>
     <row r="936">
-      <c r="B936" s="2"/>
+      <c r="B936" s="14"/>
     </row>
     <row r="937">
-      <c r="B937" s="2"/>
+      <c r="B937" s="14"/>
     </row>
     <row r="938">
-      <c r="B938" s="2"/>
+      <c r="B938" s="14"/>
     </row>
     <row r="939">
-      <c r="B939" s="2"/>
+      <c r="B939" s="14"/>
     </row>
     <row r="940">
-      <c r="B940" s="2"/>
+      <c r="B940" s="14"/>
     </row>
     <row r="941">
-      <c r="B941" s="2"/>
+      <c r="B941" s="14"/>
     </row>
     <row r="942">
-      <c r="B942" s="2"/>
+      <c r="B942" s="14"/>
     </row>
     <row r="943">
-      <c r="B943" s="2"/>
+      <c r="B943" s="14"/>
     </row>
     <row r="944">
-      <c r="B944" s="2"/>
+      <c r="B944" s="14"/>
     </row>
     <row r="945">
-      <c r="B945" s="2"/>
+      <c r="B945" s="14"/>
     </row>
     <row r="946">
-      <c r="B946" s="2"/>
+      <c r="B946" s="14"/>
     </row>
     <row r="947">
-      <c r="B947" s="2"/>
+      <c r="B947" s="14"/>
     </row>
     <row r="948">
-      <c r="B948" s="2"/>
+      <c r="B948" s="14"/>
     </row>
     <row r="949">
-      <c r="B949" s="2"/>
+      <c r="B949" s="14"/>
     </row>
     <row r="950">
-      <c r="B950" s="2"/>
+      <c r="B950" s="14"/>
     </row>
     <row r="951">
-      <c r="B951" s="2"/>
+      <c r="B951" s="14"/>
     </row>
     <row r="952">
-      <c r="B952" s="2"/>
+      <c r="B952" s="14"/>
     </row>
     <row r="953">
-      <c r="B953" s="2"/>
+      <c r="B953" s="14"/>
     </row>
     <row r="954">
-      <c r="B954" s="2"/>
+      <c r="B954" s="14"/>
     </row>
     <row r="955">
-      <c r="B955" s="2"/>
+      <c r="B955" s="14"/>
     </row>
     <row r="956">
-      <c r="B956" s="2"/>
+      <c r="B956" s="14"/>
     </row>
     <row r="957">
-      <c r="B957" s="2"/>
+      <c r="B957" s="14"/>
     </row>
     <row r="958">
-      <c r="B958" s="2"/>
+      <c r="B958" s="14"/>
     </row>
     <row r="959">
-      <c r="B959" s="2"/>
+      <c r="B959" s="14"/>
     </row>
     <row r="960">
-      <c r="B960" s="2"/>
+      <c r="B960" s="14"/>
     </row>
     <row r="961">
-      <c r="B961" s="2"/>
+      <c r="B961" s="14"/>
     </row>
     <row r="962">
-      <c r="B962" s="2"/>
+      <c r="B962" s="14"/>
     </row>
     <row r="963">
-      <c r="B963" s="2"/>
+      <c r="B963" s="14"/>
     </row>
     <row r="964">
-      <c r="B964" s="2"/>
+      <c r="B964" s="14"/>
     </row>
     <row r="965">
-      <c r="B965" s="2"/>
+      <c r="B965" s="14"/>
     </row>
     <row r="966">
-      <c r="B966" s="2"/>
+      <c r="B966" s="14"/>
     </row>
     <row r="967">
-      <c r="B967" s="2"/>
+      <c r="B967" s="14"/>
     </row>
     <row r="968">
-      <c r="B968" s="2"/>
+      <c r="B968" s="14"/>
     </row>
     <row r="969">
-      <c r="B969" s="2"/>
+      <c r="B969" s="14"/>
     </row>
     <row r="970">
-      <c r="B970" s="2"/>
+      <c r="B970" s="14"/>
     </row>
     <row r="971">
-      <c r="B971" s="2"/>
+      <c r="B971" s="14"/>
     </row>
     <row r="972">
-      <c r="B972" s="2"/>
+      <c r="B972" s="14"/>
     </row>
     <row r="973">
-      <c r="B973" s="2"/>
+      <c r="B973" s="14"/>
     </row>
     <row r="974">
-      <c r="B974" s="2"/>
+      <c r="B974" s="14"/>
     </row>
     <row r="975">
-      <c r="B975" s="2"/>
+      <c r="B975" s="14"/>
     </row>
     <row r="976">
-      <c r="B976" s="2"/>
+      <c r="B976" s="14"/>
     </row>
     <row r="977">
-      <c r="B977" s="2"/>
+      <c r="B977" s="14"/>
     </row>
     <row r="978">
-      <c r="B978" s="2"/>
+      <c r="B978" s="14"/>
     </row>
     <row r="979">
-      <c r="B979" s="2"/>
+      <c r="B979" s="14"/>
     </row>
     <row r="980">
-      <c r="B980" s="2"/>
+      <c r="B980" s="14"/>
     </row>
     <row r="981">
-      <c r="B981" s="2"/>
+      <c r="B981" s="14"/>
     </row>
     <row r="982">
-      <c r="B982" s="2"/>
+      <c r="B982" s="14"/>
     </row>
     <row r="983">
-      <c r="B983" s="2"/>
+      <c r="B983" s="14"/>
     </row>
     <row r="984">
-      <c r="B984" s="2"/>
+      <c r="B984" s="14"/>
     </row>
     <row r="985">
-      <c r="B985" s="2"/>
+      <c r="B985" s="14"/>
     </row>
     <row r="986">
-      <c r="B986" s="2"/>
+      <c r="B986" s="14"/>
     </row>
     <row r="987">
-      <c r="B987" s="2"/>
+      <c r="B987" s="14"/>
     </row>
     <row r="988">
-      <c r="B988" s="2"/>
+      <c r="B988" s="14"/>
     </row>
     <row r="989">
-      <c r="B989" s="2"/>
+      <c r="B989" s="14"/>
     </row>
     <row r="990">
-      <c r="B990" s="2"/>
+      <c r="B990" s="14"/>
     </row>
     <row r="991">
-      <c r="B991" s="2"/>
+      <c r="B991" s="14"/>
     </row>
     <row r="992">
-      <c r="B992" s="2"/>
+      <c r="B992" s="14"/>
     </row>
     <row r="993">
-      <c r="B993" s="2"/>
+      <c r="B993" s="14"/>
     </row>
     <row r="994">
-      <c r="B994" s="2"/>
+      <c r="B994" s="14"/>
     </row>
     <row r="995">
-      <c r="B995" s="2"/>
+      <c r="B995" s="14"/>
     </row>
     <row r="996">
-      <c r="B996" s="2"/>
+      <c r="B996" s="14"/>
     </row>
     <row r="997">
-      <c r="B997" s="2"/>
+      <c r="B997" s="14"/>
     </row>
     <row r="998">
-      <c r="B998" s="2"/>
+      <c r="B998" s="14"/>
     </row>
     <row r="999">
-      <c r="B999" s="2"/>
+      <c r="B999" s="14"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="2"/>
+      <c r="B1000" s="14"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/game_design/game_config.xlsx
+++ b/game_design/game_config.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="tokens" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="difficulties" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="spawn_probabilities" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="file_info" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="chests">difficulties!$E$2</definedName>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>token_id</t>
   </si>
@@ -204,6 +205,18 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Ignore this line</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>config_file_version_test</t>
+  </si>
+  <si>
+    <t>0.0.2</t>
   </si>
 </sst>
 </file>
@@ -223,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +333,12 @@
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF980000"/>
+        <bgColor rgb="FF980000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -327,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -395,6 +414,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -412,6 +435,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5668,4 +5695,59 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/game_design/game_config.xlsx
+++ b/game_design/game_config.xlsx
@@ -6,7 +6,8 @@
     <sheet state="visible" name="tokens" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="difficulties" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="spawn_probabilities" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="file_info" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="chest_prizes" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="file_info" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="chests">difficulties!$E$2</definedName>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>token_id</t>
   </si>
@@ -153,6 +154,15 @@
     <t>cat_gold</t>
   </si>
   <si>
+    <t>flowers</t>
+  </si>
+  <si>
+    <t>small_coins</t>
+  </si>
+  <si>
+    <t>flower_point</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -207,6 +217,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>probs/chest</t>
+  </si>
+  <si>
     <t>Ignore this line</t>
   </si>
   <si>
@@ -236,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +348,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF980000"/>
         <bgColor rgb="FF980000"/>
       </patternFill>
@@ -346,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -417,12 +442,76 @@
     <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="chest_prizes-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -440,6 +529,28 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A2:E19" displayName="Table_1" id="1">
+  <tableColumns count="5">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="chest_prizes-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1873,7 +1984,9 @@
       <c r="AA32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -1904,9 +2017,15 @@
       <c r="AA33" s="22"/>
     </row>
     <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C34" s="23"/>
     </row>
     <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C35" s="23"/>
     </row>
     <row r="36">
@@ -4826,24 +4945,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
         <v>3000.0</v>
@@ -4860,7 +4979,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
         <v>4000.0</v>
@@ -4877,7 +4996,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1">
         <v>5000.0</v>
@@ -4894,7 +5013,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1">
         <v>6000.0</v>
@@ -4911,7 +5030,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>10000.0</v>
@@ -4951,25 +5070,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -5665,7 +5784,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B18" s="23">
         <f t="shared" ref="B18:G18" si="1">SUM(B2:B17)</f>
@@ -5708,43 +5827,6154 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="33">
+        <v>20.0</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="C3" s="33">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="C4" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>50.0</v>
+      </c>
+      <c r="E4" s="33">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="35">
+        <v>30.0</v>
+      </c>
+      <c r="D5" s="35">
+        <v>30.0</v>
+      </c>
+      <c r="E5" s="35">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="35">
+        <f t="shared" ref="B7:E7" si="1">SUM(B2:B6)</f>
+        <v>100</v>
+      </c>
+      <c r="C7" s="35">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="35">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="20"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="20"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="20"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="20"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="20"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="20"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="20"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="20"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="20"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="20"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="20"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="20"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="20"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="20"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="20"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="20"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="20"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="20"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="20"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="20"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="20"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="20"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="20"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="20"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="20"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="20"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="20"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="20"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="20"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="20"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="20"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="20"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="20"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="30"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="20"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="20"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="20"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="30"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="20"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="30"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="20"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="30"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="20"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="30"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="20"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="30"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="20"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="30"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="20"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="30"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="20"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="30"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="20"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="30"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="20"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="20"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="30"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="20"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="30"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="20"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="20"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="20"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="20"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="30"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="20"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="30"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="20"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="30"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="20"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="30"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="20"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="30"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="20"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="20"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="30"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="20"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="30"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="20"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="30"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="20"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="30"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="20"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="20"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="20"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="30"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="20"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="30"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="20"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="30"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="20"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="30"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="20"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="30"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="20"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="30"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="20"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="30"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="20"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="30"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="20"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="30"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="20"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="30"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="20"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="30"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="20"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="30"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="20"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="30"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="20"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="30"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="20"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="30"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="20"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="30"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="20"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="30"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="20"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="30"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="20"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="30"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="20"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="30"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="20"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="30"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="20"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="30"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="20"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="30"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="20"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="30"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="20"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="30"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="20"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="30"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="20"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="30"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="20"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="30"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="20"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="30"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="20"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="30"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="20"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="30"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="20"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="30"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="20"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="30"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="20"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="30"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="20"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="30"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="20"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="30"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="20"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="30"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="20"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="30"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="20"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="30"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="20"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="30"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="20"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="30"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="20"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="30"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="20"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="30"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="20"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="30"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="20"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="30"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="20"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="30"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="20"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="30"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="20"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="30"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="20"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="30"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="20"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="30"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="20"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="30"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="20"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="30"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="20"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="30"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="20"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="30"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="20"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="30"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="20"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="30"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="20"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="30"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="20"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="30"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="20"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="30"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="20"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="30"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="20"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="30"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="20"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="30"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="20"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="30"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="20"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="30"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="20"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="30"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="20"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="30"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="20"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="30"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="20"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="30"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="20"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="30"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="20"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="30"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="20"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="30"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="20"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="30"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="20"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="30"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="20"/>
+      <c r="C156" s="38"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="30"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="20"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="30"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="20"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="30"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="20"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="30"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="20"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="30"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="20"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="30"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="20"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="30"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="20"/>
+      <c r="C163" s="38"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="30"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="20"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="30"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="20"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="30"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="20"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="30"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="20"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="30"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="20"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="30"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="20"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="30"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="20"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="30"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="20"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="30"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="20"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="30"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="20"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="30"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="20"/>
+      <c r="C174" s="38"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="30"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="20"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="30"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="20"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="30"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="20"/>
+      <c r="C177" s="38"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="30"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="20"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="30"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="20"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="30"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="20"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="30"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="20"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="30"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="20"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="30"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="20"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="30"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="20"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="30"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="20"/>
+      <c r="C185" s="38"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="30"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="20"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="30"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="20"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="30"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="20"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="30"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="20"/>
+      <c r="C189" s="38"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="30"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="20"/>
+      <c r="C190" s="38"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="30"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="20"/>
+      <c r="C191" s="38"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="30"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="20"/>
+      <c r="C192" s="38"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="30"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="20"/>
+      <c r="C193" s="38"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="30"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="20"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="30"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="20"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="30"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="20"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="39"/>
+      <c r="E196" s="30"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="20"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="30"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="20"/>
+      <c r="C198" s="38"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="30"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="20"/>
+      <c r="C199" s="38"/>
+      <c r="D199" s="39"/>
+      <c r="E199" s="30"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="20"/>
+      <c r="C200" s="38"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="30"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="20"/>
+      <c r="C201" s="38"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="30"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="20"/>
+      <c r="C202" s="38"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="30"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="20"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="30"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="20"/>
+      <c r="C204" s="38"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="30"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="20"/>
+      <c r="C205" s="38"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="30"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="20"/>
+      <c r="C206" s="38"/>
+      <c r="D206" s="39"/>
+      <c r="E206" s="30"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="20"/>
+      <c r="C207" s="38"/>
+      <c r="D207" s="39"/>
+      <c r="E207" s="30"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="20"/>
+      <c r="C208" s="38"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="30"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="20"/>
+      <c r="C209" s="38"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="30"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="20"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="30"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="20"/>
+      <c r="C211" s="38"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="30"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="20"/>
+      <c r="C212" s="38"/>
+      <c r="D212" s="39"/>
+      <c r="E212" s="30"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="20"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="39"/>
+      <c r="E213" s="30"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="20"/>
+      <c r="C214" s="38"/>
+      <c r="D214" s="39"/>
+      <c r="E214" s="30"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="20"/>
+      <c r="C215" s="38"/>
+      <c r="D215" s="39"/>
+      <c r="E215" s="30"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="20"/>
+      <c r="C216" s="38"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="30"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="20"/>
+      <c r="C217" s="38"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="30"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="20"/>
+      <c r="C218" s="38"/>
+      <c r="D218" s="39"/>
+      <c r="E218" s="30"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="20"/>
+      <c r="C219" s="38"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="30"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="20"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="39"/>
+      <c r="E220" s="30"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="20"/>
+      <c r="C221" s="38"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="30"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="20"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="39"/>
+      <c r="E222" s="30"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="20"/>
+      <c r="C223" s="38"/>
+      <c r="D223" s="39"/>
+      <c r="E223" s="30"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="20"/>
+      <c r="C224" s="38"/>
+      <c r="D224" s="39"/>
+      <c r="E224" s="30"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="20"/>
+      <c r="C225" s="38"/>
+      <c r="D225" s="39"/>
+      <c r="E225" s="30"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="20"/>
+      <c r="C226" s="38"/>
+      <c r="D226" s="39"/>
+      <c r="E226" s="30"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="20"/>
+      <c r="C227" s="38"/>
+      <c r="D227" s="39"/>
+      <c r="E227" s="30"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="20"/>
+      <c r="C228" s="38"/>
+      <c r="D228" s="39"/>
+      <c r="E228" s="30"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="20"/>
+      <c r="C229" s="38"/>
+      <c r="D229" s="39"/>
+      <c r="E229" s="30"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="20"/>
+      <c r="C230" s="38"/>
+      <c r="D230" s="39"/>
+      <c r="E230" s="30"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="20"/>
+      <c r="C231" s="38"/>
+      <c r="D231" s="39"/>
+      <c r="E231" s="30"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="20"/>
+      <c r="C232" s="38"/>
+      <c r="D232" s="39"/>
+      <c r="E232" s="30"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="20"/>
+      <c r="C233" s="38"/>
+      <c r="D233" s="39"/>
+      <c r="E233" s="30"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="20"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="39"/>
+      <c r="E234" s="30"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="20"/>
+      <c r="C235" s="38"/>
+      <c r="D235" s="39"/>
+      <c r="E235" s="30"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="20"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="30"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="20"/>
+      <c r="C237" s="38"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="30"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="20"/>
+      <c r="C238" s="38"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="30"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="20"/>
+      <c r="C239" s="38"/>
+      <c r="D239" s="39"/>
+      <c r="E239" s="30"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="20"/>
+      <c r="C240" s="38"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="30"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="20"/>
+      <c r="C241" s="38"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="30"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="20"/>
+      <c r="C242" s="38"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="30"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="20"/>
+      <c r="C243" s="38"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="30"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="20"/>
+      <c r="C244" s="38"/>
+      <c r="D244" s="39"/>
+      <c r="E244" s="30"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="20"/>
+      <c r="C245" s="38"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="30"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="20"/>
+      <c r="C246" s="38"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="30"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="20"/>
+      <c r="C247" s="38"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="30"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="20"/>
+      <c r="C248" s="38"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="30"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="20"/>
+      <c r="C249" s="38"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="30"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="20"/>
+      <c r="C250" s="38"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="30"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="20"/>
+      <c r="C251" s="38"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="30"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="20"/>
+      <c r="C252" s="38"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="30"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="20"/>
+      <c r="C253" s="38"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="30"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="20"/>
+      <c r="C254" s="38"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="30"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="20"/>
+      <c r="C255" s="38"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="30"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="20"/>
+      <c r="C256" s="38"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="30"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="20"/>
+      <c r="C257" s="38"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="30"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="20"/>
+      <c r="C258" s="38"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="30"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="20"/>
+      <c r="C259" s="38"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="30"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="20"/>
+      <c r="C260" s="38"/>
+      <c r="D260" s="39"/>
+      <c r="E260" s="30"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="20"/>
+      <c r="C261" s="38"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="30"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="20"/>
+      <c r="C262" s="38"/>
+      <c r="D262" s="39"/>
+      <c r="E262" s="30"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="20"/>
+      <c r="C263" s="38"/>
+      <c r="D263" s="39"/>
+      <c r="E263" s="30"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="20"/>
+      <c r="C264" s="38"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="30"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="20"/>
+      <c r="C265" s="38"/>
+      <c r="D265" s="39"/>
+      <c r="E265" s="30"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="20"/>
+      <c r="C266" s="38"/>
+      <c r="D266" s="39"/>
+      <c r="E266" s="30"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="20"/>
+      <c r="C267" s="38"/>
+      <c r="D267" s="39"/>
+      <c r="E267" s="30"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="20"/>
+      <c r="C268" s="38"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="30"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="20"/>
+      <c r="C269" s="38"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="30"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="20"/>
+      <c r="C270" s="38"/>
+      <c r="D270" s="39"/>
+      <c r="E270" s="30"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="20"/>
+      <c r="C271" s="38"/>
+      <c r="D271" s="39"/>
+      <c r="E271" s="30"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="20"/>
+      <c r="C272" s="38"/>
+      <c r="D272" s="39"/>
+      <c r="E272" s="30"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="20"/>
+      <c r="C273" s="38"/>
+      <c r="D273" s="39"/>
+      <c r="E273" s="30"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="20"/>
+      <c r="C274" s="38"/>
+      <c r="D274" s="39"/>
+      <c r="E274" s="30"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="20"/>
+      <c r="C275" s="38"/>
+      <c r="D275" s="39"/>
+      <c r="E275" s="30"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="20"/>
+      <c r="C276" s="38"/>
+      <c r="D276" s="39"/>
+      <c r="E276" s="30"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="20"/>
+      <c r="C277" s="38"/>
+      <c r="D277" s="39"/>
+      <c r="E277" s="30"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="20"/>
+      <c r="C278" s="38"/>
+      <c r="D278" s="39"/>
+      <c r="E278" s="30"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="20"/>
+      <c r="C279" s="38"/>
+      <c r="D279" s="39"/>
+      <c r="E279" s="30"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="20"/>
+      <c r="C280" s="38"/>
+      <c r="D280" s="39"/>
+      <c r="E280" s="30"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="20"/>
+      <c r="C281" s="38"/>
+      <c r="D281" s="39"/>
+      <c r="E281" s="30"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="20"/>
+      <c r="C282" s="38"/>
+      <c r="D282" s="39"/>
+      <c r="E282" s="30"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="20"/>
+      <c r="C283" s="38"/>
+      <c r="D283" s="39"/>
+      <c r="E283" s="30"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="20"/>
+      <c r="C284" s="38"/>
+      <c r="D284" s="39"/>
+      <c r="E284" s="30"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="20"/>
+      <c r="C285" s="38"/>
+      <c r="D285" s="39"/>
+      <c r="E285" s="30"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="20"/>
+      <c r="C286" s="38"/>
+      <c r="D286" s="39"/>
+      <c r="E286" s="30"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="20"/>
+      <c r="C287" s="38"/>
+      <c r="D287" s="39"/>
+      <c r="E287" s="30"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="20"/>
+      <c r="C288" s="38"/>
+      <c r="D288" s="39"/>
+      <c r="E288" s="30"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="20"/>
+      <c r="C289" s="38"/>
+      <c r="D289" s="39"/>
+      <c r="E289" s="30"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="20"/>
+      <c r="C290" s="38"/>
+      <c r="D290" s="39"/>
+      <c r="E290" s="30"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="20"/>
+      <c r="C291" s="38"/>
+      <c r="D291" s="39"/>
+      <c r="E291" s="30"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="20"/>
+      <c r="C292" s="38"/>
+      <c r="D292" s="39"/>
+      <c r="E292" s="30"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="20"/>
+      <c r="C293" s="38"/>
+      <c r="D293" s="39"/>
+      <c r="E293" s="30"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="20"/>
+      <c r="C294" s="38"/>
+      <c r="D294" s="39"/>
+      <c r="E294" s="30"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="20"/>
+      <c r="C295" s="38"/>
+      <c r="D295" s="39"/>
+      <c r="E295" s="30"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="20"/>
+      <c r="C296" s="38"/>
+      <c r="D296" s="39"/>
+      <c r="E296" s="30"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="20"/>
+      <c r="C297" s="38"/>
+      <c r="D297" s="39"/>
+      <c r="E297" s="30"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="20"/>
+      <c r="C298" s="38"/>
+      <c r="D298" s="39"/>
+      <c r="E298" s="30"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="20"/>
+      <c r="C299" s="38"/>
+      <c r="D299" s="39"/>
+      <c r="E299" s="30"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="20"/>
+      <c r="C300" s="38"/>
+      <c r="D300" s="39"/>
+      <c r="E300" s="30"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="20"/>
+      <c r="C301" s="38"/>
+      <c r="D301" s="39"/>
+      <c r="E301" s="30"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="20"/>
+      <c r="C302" s="38"/>
+      <c r="D302" s="39"/>
+      <c r="E302" s="30"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="20"/>
+      <c r="C303" s="38"/>
+      <c r="D303" s="39"/>
+      <c r="E303" s="30"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="20"/>
+      <c r="C304" s="38"/>
+      <c r="D304" s="39"/>
+      <c r="E304" s="30"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="20"/>
+      <c r="C305" s="38"/>
+      <c r="D305" s="39"/>
+      <c r="E305" s="30"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="20"/>
+      <c r="C306" s="38"/>
+      <c r="D306" s="39"/>
+      <c r="E306" s="30"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="20"/>
+      <c r="C307" s="38"/>
+      <c r="D307" s="39"/>
+      <c r="E307" s="30"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="20"/>
+      <c r="C308" s="38"/>
+      <c r="D308" s="39"/>
+      <c r="E308" s="30"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="20"/>
+      <c r="C309" s="38"/>
+      <c r="D309" s="39"/>
+      <c r="E309" s="30"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="20"/>
+      <c r="C310" s="38"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="30"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="20"/>
+      <c r="C311" s="38"/>
+      <c r="D311" s="39"/>
+      <c r="E311" s="30"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="20"/>
+      <c r="C312" s="38"/>
+      <c r="D312" s="39"/>
+      <c r="E312" s="30"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="20"/>
+      <c r="C313" s="38"/>
+      <c r="D313" s="39"/>
+      <c r="E313" s="30"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="20"/>
+      <c r="C314" s="38"/>
+      <c r="D314" s="39"/>
+      <c r="E314" s="30"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="20"/>
+      <c r="C315" s="38"/>
+      <c r="D315" s="39"/>
+      <c r="E315" s="30"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="20"/>
+      <c r="C316" s="38"/>
+      <c r="D316" s="39"/>
+      <c r="E316" s="30"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="20"/>
+      <c r="C317" s="38"/>
+      <c r="D317" s="39"/>
+      <c r="E317" s="30"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="20"/>
+      <c r="C318" s="38"/>
+      <c r="D318" s="39"/>
+      <c r="E318" s="30"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="20"/>
+      <c r="C319" s="38"/>
+      <c r="D319" s="39"/>
+      <c r="E319" s="30"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="20"/>
+      <c r="C320" s="38"/>
+      <c r="D320" s="39"/>
+      <c r="E320" s="30"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="20"/>
+      <c r="C321" s="38"/>
+      <c r="D321" s="39"/>
+      <c r="E321" s="30"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="20"/>
+      <c r="C322" s="38"/>
+      <c r="D322" s="39"/>
+      <c r="E322" s="30"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="20"/>
+      <c r="C323" s="38"/>
+      <c r="D323" s="39"/>
+      <c r="E323" s="30"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="20"/>
+      <c r="C324" s="38"/>
+      <c r="D324" s="39"/>
+      <c r="E324" s="30"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="20"/>
+      <c r="C325" s="38"/>
+      <c r="D325" s="39"/>
+      <c r="E325" s="30"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="20"/>
+      <c r="C326" s="38"/>
+      <c r="D326" s="39"/>
+      <c r="E326" s="30"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="20"/>
+      <c r="C327" s="38"/>
+      <c r="D327" s="39"/>
+      <c r="E327" s="30"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="20"/>
+      <c r="C328" s="38"/>
+      <c r="D328" s="39"/>
+      <c r="E328" s="30"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="20"/>
+      <c r="C329" s="38"/>
+      <c r="D329" s="39"/>
+      <c r="E329" s="30"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="20"/>
+      <c r="C330" s="38"/>
+      <c r="D330" s="39"/>
+      <c r="E330" s="30"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="20"/>
+      <c r="C331" s="38"/>
+      <c r="D331" s="39"/>
+      <c r="E331" s="30"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="20"/>
+      <c r="C332" s="38"/>
+      <c r="D332" s="39"/>
+      <c r="E332" s="30"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="20"/>
+      <c r="C333" s="38"/>
+      <c r="D333" s="39"/>
+      <c r="E333" s="30"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="20"/>
+      <c r="C334" s="38"/>
+      <c r="D334" s="39"/>
+      <c r="E334" s="30"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="20"/>
+      <c r="C335" s="38"/>
+      <c r="D335" s="39"/>
+      <c r="E335" s="30"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="20"/>
+      <c r="C336" s="38"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="30"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="20"/>
+      <c r="C337" s="38"/>
+      <c r="D337" s="39"/>
+      <c r="E337" s="30"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="20"/>
+      <c r="C338" s="38"/>
+      <c r="D338" s="39"/>
+      <c r="E338" s="30"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="20"/>
+      <c r="C339" s="38"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="30"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="20"/>
+      <c r="C340" s="38"/>
+      <c r="D340" s="39"/>
+      <c r="E340" s="30"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="20"/>
+      <c r="C341" s="38"/>
+      <c r="D341" s="39"/>
+      <c r="E341" s="30"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="20"/>
+      <c r="C342" s="38"/>
+      <c r="D342" s="39"/>
+      <c r="E342" s="30"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="20"/>
+      <c r="C343" s="38"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="30"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="20"/>
+      <c r="C344" s="38"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="30"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="20"/>
+      <c r="C345" s="38"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="30"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="20"/>
+      <c r="C346" s="38"/>
+      <c r="D346" s="39"/>
+      <c r="E346" s="30"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="20"/>
+      <c r="C347" s="38"/>
+      <c r="D347" s="39"/>
+      <c r="E347" s="30"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="20"/>
+      <c r="C348" s="38"/>
+      <c r="D348" s="39"/>
+      <c r="E348" s="30"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="20"/>
+      <c r="C349" s="38"/>
+      <c r="D349" s="39"/>
+      <c r="E349" s="30"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="20"/>
+      <c r="C350" s="38"/>
+      <c r="D350" s="39"/>
+      <c r="E350" s="30"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="20"/>
+      <c r="C351" s="38"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="30"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="20"/>
+      <c r="C352" s="38"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="30"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="20"/>
+      <c r="C353" s="38"/>
+      <c r="D353" s="39"/>
+      <c r="E353" s="30"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="20"/>
+      <c r="C354" s="38"/>
+      <c r="D354" s="39"/>
+      <c r="E354" s="30"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="20"/>
+      <c r="C355" s="38"/>
+      <c r="D355" s="39"/>
+      <c r="E355" s="30"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="20"/>
+      <c r="C356" s="38"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="30"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="20"/>
+      <c r="C357" s="38"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="30"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="20"/>
+      <c r="C358" s="38"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="30"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="20"/>
+      <c r="C359" s="38"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="30"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="20"/>
+      <c r="C360" s="38"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="30"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="20"/>
+      <c r="C361" s="38"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="30"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="20"/>
+      <c r="C362" s="38"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="30"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="20"/>
+      <c r="C363" s="38"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="30"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="20"/>
+      <c r="C364" s="38"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="30"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="20"/>
+      <c r="C365" s="38"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="30"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="20"/>
+      <c r="C366" s="38"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="30"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="20"/>
+      <c r="C367" s="38"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="30"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="20"/>
+      <c r="C368" s="38"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="30"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="20"/>
+      <c r="C369" s="38"/>
+      <c r="D369" s="39"/>
+      <c r="E369" s="30"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="20"/>
+      <c r="C370" s="38"/>
+      <c r="D370" s="39"/>
+      <c r="E370" s="30"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="20"/>
+      <c r="C371" s="38"/>
+      <c r="D371" s="39"/>
+      <c r="E371" s="30"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="20"/>
+      <c r="C372" s="38"/>
+      <c r="D372" s="39"/>
+      <c r="E372" s="30"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="20"/>
+      <c r="C373" s="38"/>
+      <c r="D373" s="39"/>
+      <c r="E373" s="30"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="20"/>
+      <c r="C374" s="38"/>
+      <c r="D374" s="39"/>
+      <c r="E374" s="30"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="20"/>
+      <c r="C375" s="38"/>
+      <c r="D375" s="39"/>
+      <c r="E375" s="30"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="20"/>
+      <c r="C376" s="38"/>
+      <c r="D376" s="39"/>
+      <c r="E376" s="30"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="20"/>
+      <c r="C377" s="38"/>
+      <c r="D377" s="39"/>
+      <c r="E377" s="30"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="20"/>
+      <c r="C378" s="38"/>
+      <c r="D378" s="39"/>
+      <c r="E378" s="30"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="20"/>
+      <c r="C379" s="38"/>
+      <c r="D379" s="39"/>
+      <c r="E379" s="30"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="20"/>
+      <c r="C380" s="38"/>
+      <c r="D380" s="39"/>
+      <c r="E380" s="30"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="20"/>
+      <c r="C381" s="38"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="30"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="20"/>
+      <c r="C382" s="38"/>
+      <c r="D382" s="39"/>
+      <c r="E382" s="30"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="20"/>
+      <c r="C383" s="38"/>
+      <c r="D383" s="39"/>
+      <c r="E383" s="30"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="20"/>
+      <c r="C384" s="38"/>
+      <c r="D384" s="39"/>
+      <c r="E384" s="30"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="20"/>
+      <c r="C385" s="38"/>
+      <c r="D385" s="39"/>
+      <c r="E385" s="30"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="20"/>
+      <c r="C386" s="38"/>
+      <c r="D386" s="39"/>
+      <c r="E386" s="30"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="20"/>
+      <c r="C387" s="38"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="30"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="20"/>
+      <c r="C388" s="38"/>
+      <c r="D388" s="39"/>
+      <c r="E388" s="30"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="20"/>
+      <c r="C389" s="38"/>
+      <c r="D389" s="39"/>
+      <c r="E389" s="30"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="20"/>
+      <c r="C390" s="38"/>
+      <c r="D390" s="39"/>
+      <c r="E390" s="30"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="20"/>
+      <c r="C391" s="38"/>
+      <c r="D391" s="39"/>
+      <c r="E391" s="30"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="20"/>
+      <c r="C392" s="38"/>
+      <c r="D392" s="39"/>
+      <c r="E392" s="30"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="20"/>
+      <c r="C393" s="38"/>
+      <c r="D393" s="39"/>
+      <c r="E393" s="30"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="20"/>
+      <c r="C394" s="38"/>
+      <c r="D394" s="39"/>
+      <c r="E394" s="30"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="20"/>
+      <c r="C395" s="38"/>
+      <c r="D395" s="39"/>
+      <c r="E395" s="30"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="20"/>
+      <c r="C396" s="38"/>
+      <c r="D396" s="39"/>
+      <c r="E396" s="30"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="20"/>
+      <c r="C397" s="38"/>
+      <c r="D397" s="39"/>
+      <c r="E397" s="30"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="20"/>
+      <c r="C398" s="38"/>
+      <c r="D398" s="39"/>
+      <c r="E398" s="30"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="20"/>
+      <c r="C399" s="38"/>
+      <c r="D399" s="39"/>
+      <c r="E399" s="30"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="20"/>
+      <c r="C400" s="38"/>
+      <c r="D400" s="39"/>
+      <c r="E400" s="30"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="20"/>
+      <c r="C401" s="38"/>
+      <c r="D401" s="39"/>
+      <c r="E401" s="30"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="20"/>
+      <c r="C402" s="38"/>
+      <c r="D402" s="39"/>
+      <c r="E402" s="30"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="20"/>
+      <c r="C403" s="38"/>
+      <c r="D403" s="39"/>
+      <c r="E403" s="30"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="20"/>
+      <c r="C404" s="38"/>
+      <c r="D404" s="39"/>
+      <c r="E404" s="30"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="20"/>
+      <c r="C405" s="38"/>
+      <c r="D405" s="39"/>
+      <c r="E405" s="30"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="20"/>
+      <c r="C406" s="38"/>
+      <c r="D406" s="39"/>
+      <c r="E406" s="30"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="20"/>
+      <c r="C407" s="38"/>
+      <c r="D407" s="39"/>
+      <c r="E407" s="30"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="20"/>
+      <c r="C408" s="38"/>
+      <c r="D408" s="39"/>
+      <c r="E408" s="30"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="20"/>
+      <c r="C409" s="38"/>
+      <c r="D409" s="39"/>
+      <c r="E409" s="30"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="20"/>
+      <c r="C410" s="38"/>
+      <c r="D410" s="39"/>
+      <c r="E410" s="30"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="20"/>
+      <c r="C411" s="38"/>
+      <c r="D411" s="39"/>
+      <c r="E411" s="30"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="20"/>
+      <c r="C412" s="38"/>
+      <c r="D412" s="39"/>
+      <c r="E412" s="30"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="20"/>
+      <c r="C413" s="38"/>
+      <c r="D413" s="39"/>
+      <c r="E413" s="30"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="20"/>
+      <c r="C414" s="38"/>
+      <c r="D414" s="39"/>
+      <c r="E414" s="30"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="20"/>
+      <c r="C415" s="38"/>
+      <c r="D415" s="39"/>
+      <c r="E415" s="30"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="20"/>
+      <c r="C416" s="38"/>
+      <c r="D416" s="39"/>
+      <c r="E416" s="30"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="20"/>
+      <c r="C417" s="38"/>
+      <c r="D417" s="39"/>
+      <c r="E417" s="30"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="20"/>
+      <c r="C418" s="38"/>
+      <c r="D418" s="39"/>
+      <c r="E418" s="30"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="20"/>
+      <c r="C419" s="38"/>
+      <c r="D419" s="39"/>
+      <c r="E419" s="30"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="20"/>
+      <c r="C420" s="38"/>
+      <c r="D420" s="39"/>
+      <c r="E420" s="30"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="20"/>
+      <c r="C421" s="38"/>
+      <c r="D421" s="39"/>
+      <c r="E421" s="30"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="20"/>
+      <c r="C422" s="38"/>
+      <c r="D422" s="39"/>
+      <c r="E422" s="30"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="20"/>
+      <c r="C423" s="38"/>
+      <c r="D423" s="39"/>
+      <c r="E423" s="30"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="20"/>
+      <c r="C424" s="38"/>
+      <c r="D424" s="39"/>
+      <c r="E424" s="30"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="20"/>
+      <c r="C425" s="38"/>
+      <c r="D425" s="39"/>
+      <c r="E425" s="30"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="20"/>
+      <c r="C426" s="38"/>
+      <c r="D426" s="39"/>
+      <c r="E426" s="30"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="20"/>
+      <c r="C427" s="38"/>
+      <c r="D427" s="39"/>
+      <c r="E427" s="30"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="20"/>
+      <c r="C428" s="38"/>
+      <c r="D428" s="39"/>
+      <c r="E428" s="30"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="20"/>
+      <c r="C429" s="38"/>
+      <c r="D429" s="39"/>
+      <c r="E429" s="30"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="20"/>
+      <c r="C430" s="38"/>
+      <c r="D430" s="39"/>
+      <c r="E430" s="30"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="20"/>
+      <c r="C431" s="38"/>
+      <c r="D431" s="39"/>
+      <c r="E431" s="30"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="20"/>
+      <c r="C432" s="38"/>
+      <c r="D432" s="39"/>
+      <c r="E432" s="30"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="20"/>
+      <c r="C433" s="38"/>
+      <c r="D433" s="39"/>
+      <c r="E433" s="30"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="20"/>
+      <c r="C434" s="38"/>
+      <c r="D434" s="39"/>
+      <c r="E434" s="30"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="20"/>
+      <c r="C435" s="38"/>
+      <c r="D435" s="39"/>
+      <c r="E435" s="30"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="20"/>
+      <c r="C436" s="38"/>
+      <c r="D436" s="39"/>
+      <c r="E436" s="30"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="20"/>
+      <c r="C437" s="38"/>
+      <c r="D437" s="39"/>
+      <c r="E437" s="30"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="20"/>
+      <c r="C438" s="38"/>
+      <c r="D438" s="39"/>
+      <c r="E438" s="30"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="20"/>
+      <c r="C439" s="38"/>
+      <c r="D439" s="39"/>
+      <c r="E439" s="30"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="20"/>
+      <c r="C440" s="38"/>
+      <c r="D440" s="39"/>
+      <c r="E440" s="30"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="20"/>
+      <c r="C441" s="38"/>
+      <c r="D441" s="39"/>
+      <c r="E441" s="30"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="20"/>
+      <c r="C442" s="38"/>
+      <c r="D442" s="39"/>
+      <c r="E442" s="30"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="20"/>
+      <c r="C443" s="38"/>
+      <c r="D443" s="39"/>
+      <c r="E443" s="30"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="20"/>
+      <c r="C444" s="38"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="30"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="20"/>
+      <c r="C445" s="38"/>
+      <c r="D445" s="39"/>
+      <c r="E445" s="30"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="20"/>
+      <c r="C446" s="38"/>
+      <c r="D446" s="39"/>
+      <c r="E446" s="30"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="20"/>
+      <c r="C447" s="38"/>
+      <c r="D447" s="39"/>
+      <c r="E447" s="30"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="20"/>
+      <c r="C448" s="38"/>
+      <c r="D448" s="39"/>
+      <c r="E448" s="30"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="20"/>
+      <c r="C449" s="38"/>
+      <c r="D449" s="39"/>
+      <c r="E449" s="30"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="20"/>
+      <c r="C450" s="38"/>
+      <c r="D450" s="39"/>
+      <c r="E450" s="30"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="20"/>
+      <c r="C451" s="38"/>
+      <c r="D451" s="39"/>
+      <c r="E451" s="30"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="20"/>
+      <c r="C452" s="38"/>
+      <c r="D452" s="39"/>
+      <c r="E452" s="30"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="20"/>
+      <c r="C453" s="38"/>
+      <c r="D453" s="39"/>
+      <c r="E453" s="30"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="20"/>
+      <c r="C454" s="38"/>
+      <c r="D454" s="39"/>
+      <c r="E454" s="30"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="20"/>
+      <c r="C455" s="38"/>
+      <c r="D455" s="39"/>
+      <c r="E455" s="30"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="20"/>
+      <c r="C456" s="38"/>
+      <c r="D456" s="39"/>
+      <c r="E456" s="30"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="20"/>
+      <c r="C457" s="38"/>
+      <c r="D457" s="39"/>
+      <c r="E457" s="30"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="20"/>
+      <c r="C458" s="38"/>
+      <c r="D458" s="39"/>
+      <c r="E458" s="30"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="20"/>
+      <c r="C459" s="38"/>
+      <c r="D459" s="39"/>
+      <c r="E459" s="30"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="20"/>
+      <c r="C460" s="38"/>
+      <c r="D460" s="39"/>
+      <c r="E460" s="30"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="20"/>
+      <c r="C461" s="38"/>
+      <c r="D461" s="39"/>
+      <c r="E461" s="30"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="20"/>
+      <c r="C462" s="38"/>
+      <c r="D462" s="39"/>
+      <c r="E462" s="30"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="20"/>
+      <c r="C463" s="38"/>
+      <c r="D463" s="39"/>
+      <c r="E463" s="30"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="20"/>
+      <c r="C464" s="38"/>
+      <c r="D464" s="39"/>
+      <c r="E464" s="30"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="20"/>
+      <c r="C465" s="38"/>
+      <c r="D465" s="39"/>
+      <c r="E465" s="30"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="20"/>
+      <c r="C466" s="38"/>
+      <c r="D466" s="39"/>
+      <c r="E466" s="30"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="20"/>
+      <c r="C467" s="38"/>
+      <c r="D467" s="39"/>
+      <c r="E467" s="30"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="20"/>
+      <c r="C468" s="38"/>
+      <c r="D468" s="39"/>
+      <c r="E468" s="30"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="20"/>
+      <c r="C469" s="38"/>
+      <c r="D469" s="39"/>
+      <c r="E469" s="30"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="20"/>
+      <c r="C470" s="38"/>
+      <c r="D470" s="39"/>
+      <c r="E470" s="30"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="20"/>
+      <c r="C471" s="38"/>
+      <c r="D471" s="39"/>
+      <c r="E471" s="30"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="20"/>
+      <c r="C472" s="38"/>
+      <c r="D472" s="39"/>
+      <c r="E472" s="30"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="20"/>
+      <c r="C473" s="38"/>
+      <c r="D473" s="39"/>
+      <c r="E473" s="30"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="20"/>
+      <c r="C474" s="38"/>
+      <c r="D474" s="39"/>
+      <c r="E474" s="30"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="20"/>
+      <c r="C475" s="38"/>
+      <c r="D475" s="39"/>
+      <c r="E475" s="30"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="20"/>
+      <c r="C476" s="38"/>
+      <c r="D476" s="39"/>
+      <c r="E476" s="30"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="20"/>
+      <c r="C477" s="38"/>
+      <c r="D477" s="39"/>
+      <c r="E477" s="30"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="20"/>
+      <c r="C478" s="38"/>
+      <c r="D478" s="39"/>
+      <c r="E478" s="30"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="20"/>
+      <c r="C479" s="38"/>
+      <c r="D479" s="39"/>
+      <c r="E479" s="30"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="20"/>
+      <c r="C480" s="38"/>
+      <c r="D480" s="39"/>
+      <c r="E480" s="30"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="20"/>
+      <c r="C481" s="38"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="30"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="20"/>
+      <c r="C482" s="38"/>
+      <c r="D482" s="39"/>
+      <c r="E482" s="30"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="20"/>
+      <c r="C483" s="38"/>
+      <c r="D483" s="39"/>
+      <c r="E483" s="30"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="20"/>
+      <c r="C484" s="38"/>
+      <c r="D484" s="39"/>
+      <c r="E484" s="30"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="20"/>
+      <c r="C485" s="38"/>
+      <c r="D485" s="39"/>
+      <c r="E485" s="30"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="20"/>
+      <c r="C486" s="38"/>
+      <c r="D486" s="39"/>
+      <c r="E486" s="30"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="20"/>
+      <c r="C487" s="38"/>
+      <c r="D487" s="39"/>
+      <c r="E487" s="30"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="20"/>
+      <c r="C488" s="38"/>
+      <c r="D488" s="39"/>
+      <c r="E488" s="30"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="20"/>
+      <c r="C489" s="38"/>
+      <c r="D489" s="39"/>
+      <c r="E489" s="30"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="20"/>
+      <c r="C490" s="38"/>
+      <c r="D490" s="39"/>
+      <c r="E490" s="30"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="20"/>
+      <c r="C491" s="38"/>
+      <c r="D491" s="39"/>
+      <c r="E491" s="30"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="20"/>
+      <c r="C492" s="38"/>
+      <c r="D492" s="39"/>
+      <c r="E492" s="30"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="20"/>
+      <c r="C493" s="38"/>
+      <c r="D493" s="39"/>
+      <c r="E493" s="30"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="20"/>
+      <c r="C494" s="38"/>
+      <c r="D494" s="39"/>
+      <c r="E494" s="30"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="20"/>
+      <c r="C495" s="38"/>
+      <c r="D495" s="39"/>
+      <c r="E495" s="30"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="20"/>
+      <c r="C496" s="38"/>
+      <c r="D496" s="39"/>
+      <c r="E496" s="30"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="20"/>
+      <c r="C497" s="38"/>
+      <c r="D497" s="39"/>
+      <c r="E497" s="30"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="20"/>
+      <c r="C498" s="38"/>
+      <c r="D498" s="39"/>
+      <c r="E498" s="30"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="20"/>
+      <c r="C499" s="38"/>
+      <c r="D499" s="39"/>
+      <c r="E499" s="30"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="20"/>
+      <c r="C500" s="38"/>
+      <c r="D500" s="39"/>
+      <c r="E500" s="30"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="20"/>
+      <c r="C501" s="38"/>
+      <c r="D501" s="39"/>
+      <c r="E501" s="30"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="20"/>
+      <c r="C502" s="38"/>
+      <c r="D502" s="39"/>
+      <c r="E502" s="30"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="20"/>
+      <c r="C503" s="38"/>
+      <c r="D503" s="39"/>
+      <c r="E503" s="30"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="20"/>
+      <c r="C504" s="38"/>
+      <c r="D504" s="39"/>
+      <c r="E504" s="30"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="20"/>
+      <c r="C505" s="38"/>
+      <c r="D505" s="39"/>
+      <c r="E505" s="30"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="20"/>
+      <c r="C506" s="38"/>
+      <c r="D506" s="39"/>
+      <c r="E506" s="30"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="20"/>
+      <c r="C507" s="38"/>
+      <c r="D507" s="39"/>
+      <c r="E507" s="30"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="20"/>
+      <c r="C508" s="38"/>
+      <c r="D508" s="39"/>
+      <c r="E508" s="30"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="20"/>
+      <c r="C509" s="38"/>
+      <c r="D509" s="39"/>
+      <c r="E509" s="30"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="20"/>
+      <c r="C510" s="38"/>
+      <c r="D510" s="39"/>
+      <c r="E510" s="30"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="20"/>
+      <c r="C511" s="38"/>
+      <c r="D511" s="39"/>
+      <c r="E511" s="30"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="20"/>
+      <c r="C512" s="38"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="30"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="20"/>
+      <c r="C513" s="38"/>
+      <c r="D513" s="39"/>
+      <c r="E513" s="30"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="20"/>
+      <c r="C514" s="38"/>
+      <c r="D514" s="39"/>
+      <c r="E514" s="30"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="20"/>
+      <c r="C515" s="38"/>
+      <c r="D515" s="39"/>
+      <c r="E515" s="30"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="20"/>
+      <c r="C516" s="38"/>
+      <c r="D516" s="39"/>
+      <c r="E516" s="30"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="20"/>
+      <c r="C517" s="38"/>
+      <c r="D517" s="39"/>
+      <c r="E517" s="30"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="20"/>
+      <c r="C518" s="38"/>
+      <c r="D518" s="39"/>
+      <c r="E518" s="30"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="20"/>
+      <c r="C519" s="38"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="30"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="20"/>
+      <c r="C520" s="38"/>
+      <c r="D520" s="39"/>
+      <c r="E520" s="30"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="20"/>
+      <c r="C521" s="38"/>
+      <c r="D521" s="39"/>
+      <c r="E521" s="30"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="20"/>
+      <c r="C522" s="38"/>
+      <c r="D522" s="39"/>
+      <c r="E522" s="30"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="20"/>
+      <c r="C523" s="38"/>
+      <c r="D523" s="39"/>
+      <c r="E523" s="30"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="20"/>
+      <c r="C524" s="38"/>
+      <c r="D524" s="39"/>
+      <c r="E524" s="30"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="20"/>
+      <c r="C525" s="38"/>
+      <c r="D525" s="39"/>
+      <c r="E525" s="30"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="20"/>
+      <c r="C526" s="38"/>
+      <c r="D526" s="39"/>
+      <c r="E526" s="30"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="20"/>
+      <c r="C527" s="38"/>
+      <c r="D527" s="39"/>
+      <c r="E527" s="30"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="20"/>
+      <c r="C528" s="38"/>
+      <c r="D528" s="39"/>
+      <c r="E528" s="30"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="20"/>
+      <c r="C529" s="38"/>
+      <c r="D529" s="39"/>
+      <c r="E529" s="30"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="20"/>
+      <c r="C530" s="38"/>
+      <c r="D530" s="39"/>
+      <c r="E530" s="30"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="20"/>
+      <c r="C531" s="38"/>
+      <c r="D531" s="39"/>
+      <c r="E531" s="30"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="20"/>
+      <c r="C532" s="38"/>
+      <c r="D532" s="39"/>
+      <c r="E532" s="30"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="20"/>
+      <c r="C533" s="38"/>
+      <c r="D533" s="39"/>
+      <c r="E533" s="30"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="20"/>
+      <c r="C534" s="38"/>
+      <c r="D534" s="39"/>
+      <c r="E534" s="30"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="20"/>
+      <c r="C535" s="38"/>
+      <c r="D535" s="39"/>
+      <c r="E535" s="30"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="20"/>
+      <c r="C536" s="38"/>
+      <c r="D536" s="39"/>
+      <c r="E536" s="30"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="20"/>
+      <c r="C537" s="38"/>
+      <c r="D537" s="39"/>
+      <c r="E537" s="30"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="20"/>
+      <c r="C538" s="38"/>
+      <c r="D538" s="39"/>
+      <c r="E538" s="30"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="20"/>
+      <c r="C539" s="38"/>
+      <c r="D539" s="39"/>
+      <c r="E539" s="30"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="20"/>
+      <c r="C540" s="38"/>
+      <c r="D540" s="39"/>
+      <c r="E540" s="30"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="20"/>
+      <c r="C541" s="38"/>
+      <c r="D541" s="39"/>
+      <c r="E541" s="30"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="20"/>
+      <c r="C542" s="38"/>
+      <c r="D542" s="39"/>
+      <c r="E542" s="30"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="20"/>
+      <c r="C543" s="38"/>
+      <c r="D543" s="39"/>
+      <c r="E543" s="30"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="20"/>
+      <c r="C544" s="38"/>
+      <c r="D544" s="39"/>
+      <c r="E544" s="30"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="20"/>
+      <c r="C545" s="38"/>
+      <c r="D545" s="39"/>
+      <c r="E545" s="30"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="20"/>
+      <c r="C546" s="38"/>
+      <c r="D546" s="39"/>
+      <c r="E546" s="30"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="20"/>
+      <c r="C547" s="38"/>
+      <c r="D547" s="39"/>
+      <c r="E547" s="30"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="20"/>
+      <c r="C548" s="38"/>
+      <c r="D548" s="39"/>
+      <c r="E548" s="30"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="20"/>
+      <c r="C549" s="38"/>
+      <c r="D549" s="39"/>
+      <c r="E549" s="30"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="20"/>
+      <c r="C550" s="38"/>
+      <c r="D550" s="39"/>
+      <c r="E550" s="30"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="20"/>
+      <c r="C551" s="38"/>
+      <c r="D551" s="39"/>
+      <c r="E551" s="30"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="20"/>
+      <c r="C552" s="38"/>
+      <c r="D552" s="39"/>
+      <c r="E552" s="30"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="20"/>
+      <c r="C553" s="38"/>
+      <c r="D553" s="39"/>
+      <c r="E553" s="30"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="20"/>
+      <c r="C554" s="38"/>
+      <c r="D554" s="39"/>
+      <c r="E554" s="30"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="20"/>
+      <c r="C555" s="38"/>
+      <c r="D555" s="39"/>
+      <c r="E555" s="30"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="20"/>
+      <c r="C556" s="38"/>
+      <c r="D556" s="39"/>
+      <c r="E556" s="30"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="20"/>
+      <c r="C557" s="38"/>
+      <c r="D557" s="39"/>
+      <c r="E557" s="30"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="20"/>
+      <c r="C558" s="38"/>
+      <c r="D558" s="39"/>
+      <c r="E558" s="30"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="20"/>
+      <c r="C559" s="38"/>
+      <c r="D559" s="39"/>
+      <c r="E559" s="30"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="20"/>
+      <c r="C560" s="38"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="30"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="20"/>
+      <c r="C561" s="38"/>
+      <c r="D561" s="39"/>
+      <c r="E561" s="30"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="20"/>
+      <c r="C562" s="38"/>
+      <c r="D562" s="39"/>
+      <c r="E562" s="30"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="20"/>
+      <c r="C563" s="38"/>
+      <c r="D563" s="39"/>
+      <c r="E563" s="30"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="20"/>
+      <c r="C564" s="38"/>
+      <c r="D564" s="39"/>
+      <c r="E564" s="30"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="20"/>
+      <c r="C565" s="38"/>
+      <c r="D565" s="39"/>
+      <c r="E565" s="30"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="20"/>
+      <c r="C566" s="38"/>
+      <c r="D566" s="39"/>
+      <c r="E566" s="30"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="20"/>
+      <c r="C567" s="38"/>
+      <c r="D567" s="39"/>
+      <c r="E567" s="30"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="20"/>
+      <c r="C568" s="38"/>
+      <c r="D568" s="39"/>
+      <c r="E568" s="30"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="20"/>
+      <c r="C569" s="38"/>
+      <c r="D569" s="39"/>
+      <c r="E569" s="30"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="20"/>
+      <c r="C570" s="38"/>
+      <c r="D570" s="39"/>
+      <c r="E570" s="30"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="20"/>
+      <c r="C571" s="38"/>
+      <c r="D571" s="39"/>
+      <c r="E571" s="30"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="20"/>
+      <c r="C572" s="38"/>
+      <c r="D572" s="39"/>
+      <c r="E572" s="30"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="20"/>
+      <c r="C573" s="38"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="30"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="20"/>
+      <c r="C574" s="38"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="30"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="20"/>
+      <c r="C575" s="38"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="30"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="20"/>
+      <c r="C576" s="38"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="30"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="20"/>
+      <c r="C577" s="38"/>
+      <c r="D577" s="39"/>
+      <c r="E577" s="30"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="20"/>
+      <c r="C578" s="38"/>
+      <c r="D578" s="39"/>
+      <c r="E578" s="30"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="20"/>
+      <c r="C579" s="38"/>
+      <c r="D579" s="39"/>
+      <c r="E579" s="30"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="20"/>
+      <c r="C580" s="38"/>
+      <c r="D580" s="39"/>
+      <c r="E580" s="30"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="20"/>
+      <c r="C581" s="38"/>
+      <c r="D581" s="39"/>
+      <c r="E581" s="30"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="20"/>
+      <c r="C582" s="38"/>
+      <c r="D582" s="39"/>
+      <c r="E582" s="30"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="20"/>
+      <c r="C583" s="38"/>
+      <c r="D583" s="39"/>
+      <c r="E583" s="30"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="20"/>
+      <c r="C584" s="38"/>
+      <c r="D584" s="39"/>
+      <c r="E584" s="30"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="20"/>
+      <c r="C585" s="38"/>
+      <c r="D585" s="39"/>
+      <c r="E585" s="30"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="20"/>
+      <c r="C586" s="38"/>
+      <c r="D586" s="39"/>
+      <c r="E586" s="30"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="20"/>
+      <c r="C587" s="38"/>
+      <c r="D587" s="39"/>
+      <c r="E587" s="30"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="20"/>
+      <c r="C588" s="38"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="30"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="20"/>
+      <c r="C589" s="38"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="30"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="20"/>
+      <c r="C590" s="38"/>
+      <c r="D590" s="39"/>
+      <c r="E590" s="30"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="20"/>
+      <c r="C591" s="38"/>
+      <c r="D591" s="39"/>
+      <c r="E591" s="30"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="20"/>
+      <c r="C592" s="38"/>
+      <c r="D592" s="39"/>
+      <c r="E592" s="30"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="20"/>
+      <c r="C593" s="38"/>
+      <c r="D593" s="39"/>
+      <c r="E593" s="30"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="20"/>
+      <c r="C594" s="38"/>
+      <c r="D594" s="39"/>
+      <c r="E594" s="30"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="20"/>
+      <c r="C595" s="38"/>
+      <c r="D595" s="39"/>
+      <c r="E595" s="30"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="20"/>
+      <c r="C596" s="38"/>
+      <c r="D596" s="39"/>
+      <c r="E596" s="30"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="20"/>
+      <c r="C597" s="38"/>
+      <c r="D597" s="39"/>
+      <c r="E597" s="30"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="20"/>
+      <c r="C598" s="38"/>
+      <c r="D598" s="39"/>
+      <c r="E598" s="30"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="20"/>
+      <c r="C599" s="38"/>
+      <c r="D599" s="39"/>
+      <c r="E599" s="30"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="20"/>
+      <c r="C600" s="38"/>
+      <c r="D600" s="39"/>
+      <c r="E600" s="30"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="20"/>
+      <c r="C601" s="38"/>
+      <c r="D601" s="39"/>
+      <c r="E601" s="30"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="20"/>
+      <c r="C602" s="38"/>
+      <c r="D602" s="39"/>
+      <c r="E602" s="30"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="20"/>
+      <c r="C603" s="38"/>
+      <c r="D603" s="39"/>
+      <c r="E603" s="30"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="20"/>
+      <c r="C604" s="38"/>
+      <c r="D604" s="39"/>
+      <c r="E604" s="30"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="20"/>
+      <c r="C605" s="38"/>
+      <c r="D605" s="39"/>
+      <c r="E605" s="30"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="20"/>
+      <c r="C606" s="38"/>
+      <c r="D606" s="39"/>
+      <c r="E606" s="30"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="20"/>
+      <c r="C607" s="38"/>
+      <c r="D607" s="39"/>
+      <c r="E607" s="30"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="20"/>
+      <c r="C608" s="38"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="30"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="20"/>
+      <c r="C609" s="38"/>
+      <c r="D609" s="39"/>
+      <c r="E609" s="30"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="20"/>
+      <c r="C610" s="38"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="30"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="20"/>
+      <c r="C611" s="38"/>
+      <c r="D611" s="39"/>
+      <c r="E611" s="30"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="20"/>
+      <c r="C612" s="38"/>
+      <c r="D612" s="39"/>
+      <c r="E612" s="30"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="20"/>
+      <c r="C613" s="38"/>
+      <c r="D613" s="39"/>
+      <c r="E613" s="30"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="20"/>
+      <c r="C614" s="38"/>
+      <c r="D614" s="39"/>
+      <c r="E614" s="30"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="20"/>
+      <c r="C615" s="38"/>
+      <c r="D615" s="39"/>
+      <c r="E615" s="30"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="20"/>
+      <c r="C616" s="38"/>
+      <c r="D616" s="39"/>
+      <c r="E616" s="30"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="20"/>
+      <c r="C617" s="38"/>
+      <c r="D617" s="39"/>
+      <c r="E617" s="30"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="20"/>
+      <c r="C618" s="38"/>
+      <c r="D618" s="39"/>
+      <c r="E618" s="30"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="20"/>
+      <c r="C619" s="38"/>
+      <c r="D619" s="39"/>
+      <c r="E619" s="30"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="20"/>
+      <c r="C620" s="38"/>
+      <c r="D620" s="39"/>
+      <c r="E620" s="30"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="20"/>
+      <c r="C621" s="38"/>
+      <c r="D621" s="39"/>
+      <c r="E621" s="30"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="20"/>
+      <c r="C622" s="38"/>
+      <c r="D622" s="39"/>
+      <c r="E622" s="30"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="20"/>
+      <c r="C623" s="38"/>
+      <c r="D623" s="39"/>
+      <c r="E623" s="30"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="20"/>
+      <c r="C624" s="38"/>
+      <c r="D624" s="39"/>
+      <c r="E624" s="30"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="20"/>
+      <c r="C625" s="38"/>
+      <c r="D625" s="39"/>
+      <c r="E625" s="30"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="20"/>
+      <c r="C626" s="38"/>
+      <c r="D626" s="39"/>
+      <c r="E626" s="30"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="20"/>
+      <c r="C627" s="38"/>
+      <c r="D627" s="39"/>
+      <c r="E627" s="30"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="20"/>
+      <c r="C628" s="38"/>
+      <c r="D628" s="39"/>
+      <c r="E628" s="30"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="20"/>
+      <c r="C629" s="38"/>
+      <c r="D629" s="39"/>
+      <c r="E629" s="30"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="20"/>
+      <c r="C630" s="38"/>
+      <c r="D630" s="39"/>
+      <c r="E630" s="30"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="20"/>
+      <c r="C631" s="38"/>
+      <c r="D631" s="39"/>
+      <c r="E631" s="30"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="20"/>
+      <c r="C632" s="38"/>
+      <c r="D632" s="39"/>
+      <c r="E632" s="30"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="20"/>
+      <c r="C633" s="38"/>
+      <c r="D633" s="39"/>
+      <c r="E633" s="30"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="20"/>
+      <c r="C634" s="38"/>
+      <c r="D634" s="39"/>
+      <c r="E634" s="30"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="20"/>
+      <c r="C635" s="38"/>
+      <c r="D635" s="39"/>
+      <c r="E635" s="30"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="20"/>
+      <c r="C636" s="38"/>
+      <c r="D636" s="39"/>
+      <c r="E636" s="30"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="20"/>
+      <c r="C637" s="38"/>
+      <c r="D637" s="39"/>
+      <c r="E637" s="30"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="20"/>
+      <c r="C638" s="38"/>
+      <c r="D638" s="39"/>
+      <c r="E638" s="30"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="20"/>
+      <c r="C639" s="38"/>
+      <c r="D639" s="39"/>
+      <c r="E639" s="30"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="20"/>
+      <c r="C640" s="38"/>
+      <c r="D640" s="39"/>
+      <c r="E640" s="30"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="20"/>
+      <c r="C641" s="38"/>
+      <c r="D641" s="39"/>
+      <c r="E641" s="30"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="20"/>
+      <c r="C642" s="38"/>
+      <c r="D642" s="39"/>
+      <c r="E642" s="30"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="20"/>
+      <c r="C643" s="38"/>
+      <c r="D643" s="39"/>
+      <c r="E643" s="30"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="20"/>
+      <c r="C644" s="38"/>
+      <c r="D644" s="39"/>
+      <c r="E644" s="30"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="20"/>
+      <c r="C645" s="38"/>
+      <c r="D645" s="39"/>
+      <c r="E645" s="30"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="20"/>
+      <c r="C646" s="38"/>
+      <c r="D646" s="39"/>
+      <c r="E646" s="30"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="20"/>
+      <c r="C647" s="38"/>
+      <c r="D647" s="39"/>
+      <c r="E647" s="30"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="20"/>
+      <c r="C648" s="38"/>
+      <c r="D648" s="39"/>
+      <c r="E648" s="30"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="20"/>
+      <c r="C649" s="38"/>
+      <c r="D649" s="39"/>
+      <c r="E649" s="30"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="20"/>
+      <c r="C650" s="38"/>
+      <c r="D650" s="39"/>
+      <c r="E650" s="30"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="20"/>
+      <c r="C651" s="38"/>
+      <c r="D651" s="39"/>
+      <c r="E651" s="30"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="20"/>
+      <c r="C652" s="38"/>
+      <c r="D652" s="39"/>
+      <c r="E652" s="30"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="20"/>
+      <c r="C653" s="38"/>
+      <c r="D653" s="39"/>
+      <c r="E653" s="30"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="20"/>
+      <c r="C654" s="38"/>
+      <c r="D654" s="39"/>
+      <c r="E654" s="30"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="20"/>
+      <c r="C655" s="38"/>
+      <c r="D655" s="39"/>
+      <c r="E655" s="30"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="20"/>
+      <c r="C656" s="38"/>
+      <c r="D656" s="39"/>
+      <c r="E656" s="30"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="20"/>
+      <c r="C657" s="38"/>
+      <c r="D657" s="39"/>
+      <c r="E657" s="30"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="20"/>
+      <c r="C658" s="38"/>
+      <c r="D658" s="39"/>
+      <c r="E658" s="30"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="20"/>
+      <c r="C659" s="38"/>
+      <c r="D659" s="39"/>
+      <c r="E659" s="30"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="20"/>
+      <c r="C660" s="38"/>
+      <c r="D660" s="39"/>
+      <c r="E660" s="30"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="20"/>
+      <c r="C661" s="38"/>
+      <c r="D661" s="39"/>
+      <c r="E661" s="30"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="20"/>
+      <c r="C662" s="38"/>
+      <c r="D662" s="39"/>
+      <c r="E662" s="30"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="20"/>
+      <c r="C663" s="38"/>
+      <c r="D663" s="39"/>
+      <c r="E663" s="30"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="20"/>
+      <c r="C664" s="38"/>
+      <c r="D664" s="39"/>
+      <c r="E664" s="30"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="20"/>
+      <c r="C665" s="38"/>
+      <c r="D665" s="39"/>
+      <c r="E665" s="30"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="20"/>
+      <c r="C666" s="38"/>
+      <c r="D666" s="39"/>
+      <c r="E666" s="30"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="20"/>
+      <c r="C667" s="38"/>
+      <c r="D667" s="39"/>
+      <c r="E667" s="30"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="20"/>
+      <c r="C668" s="38"/>
+      <c r="D668" s="39"/>
+      <c r="E668" s="30"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="20"/>
+      <c r="C669" s="38"/>
+      <c r="D669" s="39"/>
+      <c r="E669" s="30"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="20"/>
+      <c r="C670" s="38"/>
+      <c r="D670" s="39"/>
+      <c r="E670" s="30"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="20"/>
+      <c r="C671" s="38"/>
+      <c r="D671" s="39"/>
+      <c r="E671" s="30"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="20"/>
+      <c r="C672" s="38"/>
+      <c r="D672" s="39"/>
+      <c r="E672" s="30"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="20"/>
+      <c r="C673" s="38"/>
+      <c r="D673" s="39"/>
+      <c r="E673" s="30"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="20"/>
+      <c r="C674" s="38"/>
+      <c r="D674" s="39"/>
+      <c r="E674" s="30"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="20"/>
+      <c r="C675" s="38"/>
+      <c r="D675" s="39"/>
+      <c r="E675" s="30"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="20"/>
+      <c r="C676" s="38"/>
+      <c r="D676" s="39"/>
+      <c r="E676" s="30"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="20"/>
+      <c r="C677" s="38"/>
+      <c r="D677" s="39"/>
+      <c r="E677" s="30"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="20"/>
+      <c r="C678" s="38"/>
+      <c r="D678" s="39"/>
+      <c r="E678" s="30"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="20"/>
+      <c r="C679" s="38"/>
+      <c r="D679" s="39"/>
+      <c r="E679" s="30"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="20"/>
+      <c r="C680" s="38"/>
+      <c r="D680" s="39"/>
+      <c r="E680" s="30"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="20"/>
+      <c r="C681" s="38"/>
+      <c r="D681" s="39"/>
+      <c r="E681" s="30"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="20"/>
+      <c r="C682" s="38"/>
+      <c r="D682" s="39"/>
+      <c r="E682" s="30"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="20"/>
+      <c r="C683" s="38"/>
+      <c r="D683" s="39"/>
+      <c r="E683" s="30"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="20"/>
+      <c r="C684" s="38"/>
+      <c r="D684" s="39"/>
+      <c r="E684" s="30"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="20"/>
+      <c r="C685" s="38"/>
+      <c r="D685" s="39"/>
+      <c r="E685" s="30"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="20"/>
+      <c r="C686" s="38"/>
+      <c r="D686" s="39"/>
+      <c r="E686" s="30"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="20"/>
+      <c r="C687" s="38"/>
+      <c r="D687" s="39"/>
+      <c r="E687" s="30"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="20"/>
+      <c r="C688" s="38"/>
+      <c r="D688" s="39"/>
+      <c r="E688" s="30"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="20"/>
+      <c r="C689" s="38"/>
+      <c r="D689" s="39"/>
+      <c r="E689" s="30"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="20"/>
+      <c r="C690" s="38"/>
+      <c r="D690" s="39"/>
+      <c r="E690" s="30"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="20"/>
+      <c r="C691" s="38"/>
+      <c r="D691" s="39"/>
+      <c r="E691" s="30"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="20"/>
+      <c r="C692" s="38"/>
+      <c r="D692" s="39"/>
+      <c r="E692" s="30"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="20"/>
+      <c r="C693" s="38"/>
+      <c r="D693" s="39"/>
+      <c r="E693" s="30"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="20"/>
+      <c r="C694" s="38"/>
+      <c r="D694" s="39"/>
+      <c r="E694" s="30"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="20"/>
+      <c r="C695" s="38"/>
+      <c r="D695" s="39"/>
+      <c r="E695" s="30"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="20"/>
+      <c r="C696" s="38"/>
+      <c r="D696" s="39"/>
+      <c r="E696" s="30"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="20"/>
+      <c r="C697" s="38"/>
+      <c r="D697" s="39"/>
+      <c r="E697" s="30"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="20"/>
+      <c r="C698" s="38"/>
+      <c r="D698" s="39"/>
+      <c r="E698" s="30"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="20"/>
+      <c r="C699" s="38"/>
+      <c r="D699" s="39"/>
+      <c r="E699" s="30"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="20"/>
+      <c r="C700" s="38"/>
+      <c r="D700" s="39"/>
+      <c r="E700" s="30"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="20"/>
+      <c r="C701" s="38"/>
+      <c r="D701" s="39"/>
+      <c r="E701" s="30"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="20"/>
+      <c r="C702" s="38"/>
+      <c r="D702" s="39"/>
+      <c r="E702" s="30"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="20"/>
+      <c r="C703" s="38"/>
+      <c r="D703" s="39"/>
+      <c r="E703" s="30"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="20"/>
+      <c r="C704" s="38"/>
+      <c r="D704" s="39"/>
+      <c r="E704" s="30"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="20"/>
+      <c r="C705" s="38"/>
+      <c r="D705" s="39"/>
+      <c r="E705" s="30"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="20"/>
+      <c r="C706" s="38"/>
+      <c r="D706" s="39"/>
+      <c r="E706" s="30"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="20"/>
+      <c r="C707" s="38"/>
+      <c r="D707" s="39"/>
+      <c r="E707" s="30"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="20"/>
+      <c r="C708" s="38"/>
+      <c r="D708" s="39"/>
+      <c r="E708" s="30"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="20"/>
+      <c r="C709" s="38"/>
+      <c r="D709" s="39"/>
+      <c r="E709" s="30"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="20"/>
+      <c r="C710" s="38"/>
+      <c r="D710" s="39"/>
+      <c r="E710" s="30"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="20"/>
+      <c r="C711" s="38"/>
+      <c r="D711" s="39"/>
+      <c r="E711" s="30"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="20"/>
+      <c r="C712" s="38"/>
+      <c r="D712" s="39"/>
+      <c r="E712" s="30"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="20"/>
+      <c r="C713" s="38"/>
+      <c r="D713" s="39"/>
+      <c r="E713" s="30"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="20"/>
+      <c r="C714" s="38"/>
+      <c r="D714" s="39"/>
+      <c r="E714" s="30"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="20"/>
+      <c r="C715" s="38"/>
+      <c r="D715" s="39"/>
+      <c r="E715" s="30"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="20"/>
+      <c r="C716" s="38"/>
+      <c r="D716" s="39"/>
+      <c r="E716" s="30"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="20"/>
+      <c r="C717" s="38"/>
+      <c r="D717" s="39"/>
+      <c r="E717" s="30"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="20"/>
+      <c r="C718" s="38"/>
+      <c r="D718" s="39"/>
+      <c r="E718" s="30"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="20"/>
+      <c r="C719" s="38"/>
+      <c r="D719" s="39"/>
+      <c r="E719" s="30"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="20"/>
+      <c r="C720" s="38"/>
+      <c r="D720" s="39"/>
+      <c r="E720" s="30"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="20"/>
+      <c r="C721" s="38"/>
+      <c r="D721" s="39"/>
+      <c r="E721" s="30"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="20"/>
+      <c r="C722" s="38"/>
+      <c r="D722" s="39"/>
+      <c r="E722" s="30"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="20"/>
+      <c r="C723" s="38"/>
+      <c r="D723" s="39"/>
+      <c r="E723" s="30"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="20"/>
+      <c r="C724" s="38"/>
+      <c r="D724" s="39"/>
+      <c r="E724" s="30"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="20"/>
+      <c r="C725" s="38"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="30"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="20"/>
+      <c r="C726" s="38"/>
+      <c r="D726" s="39"/>
+      <c r="E726" s="30"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="20"/>
+      <c r="C727" s="38"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="30"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="20"/>
+      <c r="C728" s="38"/>
+      <c r="D728" s="39"/>
+      <c r="E728" s="30"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="20"/>
+      <c r="C729" s="38"/>
+      <c r="D729" s="39"/>
+      <c r="E729" s="30"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="20"/>
+      <c r="C730" s="38"/>
+      <c r="D730" s="39"/>
+      <c r="E730" s="30"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="20"/>
+      <c r="C731" s="38"/>
+      <c r="D731" s="39"/>
+      <c r="E731" s="30"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="20"/>
+      <c r="C732" s="38"/>
+      <c r="D732" s="39"/>
+      <c r="E732" s="30"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="20"/>
+      <c r="C733" s="38"/>
+      <c r="D733" s="39"/>
+      <c r="E733" s="30"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="20"/>
+      <c r="C734" s="38"/>
+      <c r="D734" s="39"/>
+      <c r="E734" s="30"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="20"/>
+      <c r="C735" s="38"/>
+      <c r="D735" s="39"/>
+      <c r="E735" s="30"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="20"/>
+      <c r="C736" s="38"/>
+      <c r="D736" s="39"/>
+      <c r="E736" s="30"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="20"/>
+      <c r="C737" s="38"/>
+      <c r="D737" s="39"/>
+      <c r="E737" s="30"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="20"/>
+      <c r="C738" s="38"/>
+      <c r="D738" s="39"/>
+      <c r="E738" s="30"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="20"/>
+      <c r="C739" s="38"/>
+      <c r="D739" s="39"/>
+      <c r="E739" s="30"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="20"/>
+      <c r="C740" s="38"/>
+      <c r="D740" s="39"/>
+      <c r="E740" s="30"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="20"/>
+      <c r="C741" s="38"/>
+      <c r="D741" s="39"/>
+      <c r="E741" s="30"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="20"/>
+      <c r="C742" s="38"/>
+      <c r="D742" s="39"/>
+      <c r="E742" s="30"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="20"/>
+      <c r="C743" s="38"/>
+      <c r="D743" s="39"/>
+      <c r="E743" s="30"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="20"/>
+      <c r="C744" s="38"/>
+      <c r="D744" s="39"/>
+      <c r="E744" s="30"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="20"/>
+      <c r="C745" s="38"/>
+      <c r="D745" s="39"/>
+      <c r="E745" s="30"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="20"/>
+      <c r="C746" s="38"/>
+      <c r="D746" s="39"/>
+      <c r="E746" s="30"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="20"/>
+      <c r="C747" s="38"/>
+      <c r="D747" s="39"/>
+      <c r="E747" s="30"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="20"/>
+      <c r="C748" s="38"/>
+      <c r="D748" s="39"/>
+      <c r="E748" s="30"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="20"/>
+      <c r="C749" s="38"/>
+      <c r="D749" s="39"/>
+      <c r="E749" s="30"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="20"/>
+      <c r="C750" s="38"/>
+      <c r="D750" s="39"/>
+      <c r="E750" s="30"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="20"/>
+      <c r="C751" s="38"/>
+      <c r="D751" s="39"/>
+      <c r="E751" s="30"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="20"/>
+      <c r="C752" s="38"/>
+      <c r="D752" s="39"/>
+      <c r="E752" s="30"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="20"/>
+      <c r="C753" s="38"/>
+      <c r="D753" s="39"/>
+      <c r="E753" s="30"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="20"/>
+      <c r="C754" s="38"/>
+      <c r="D754" s="39"/>
+      <c r="E754" s="30"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="20"/>
+      <c r="C755" s="38"/>
+      <c r="D755" s="39"/>
+      <c r="E755" s="30"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="20"/>
+      <c r="C756" s="38"/>
+      <c r="D756" s="39"/>
+      <c r="E756" s="30"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="20"/>
+      <c r="C757" s="38"/>
+      <c r="D757" s="39"/>
+      <c r="E757" s="30"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="20"/>
+      <c r="C758" s="38"/>
+      <c r="D758" s="39"/>
+      <c r="E758" s="30"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="20"/>
+      <c r="C759" s="38"/>
+      <c r="D759" s="39"/>
+      <c r="E759" s="30"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="20"/>
+      <c r="C760" s="38"/>
+      <c r="D760" s="39"/>
+      <c r="E760" s="30"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="20"/>
+      <c r="C761" s="38"/>
+      <c r="D761" s="39"/>
+      <c r="E761" s="30"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="20"/>
+      <c r="C762" s="38"/>
+      <c r="D762" s="39"/>
+      <c r="E762" s="30"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="20"/>
+      <c r="C763" s="38"/>
+      <c r="D763" s="39"/>
+      <c r="E763" s="30"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="20"/>
+      <c r="C764" s="38"/>
+      <c r="D764" s="39"/>
+      <c r="E764" s="30"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="20"/>
+      <c r="C765" s="38"/>
+      <c r="D765" s="39"/>
+      <c r="E765" s="30"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="20"/>
+      <c r="C766" s="38"/>
+      <c r="D766" s="39"/>
+      <c r="E766" s="30"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="20"/>
+      <c r="C767" s="38"/>
+      <c r="D767" s="39"/>
+      <c r="E767" s="30"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="20"/>
+      <c r="C768" s="38"/>
+      <c r="D768" s="39"/>
+      <c r="E768" s="30"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="20"/>
+      <c r="C769" s="38"/>
+      <c r="D769" s="39"/>
+      <c r="E769" s="30"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="20"/>
+      <c r="C770" s="38"/>
+      <c r="D770" s="39"/>
+      <c r="E770" s="30"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="20"/>
+      <c r="C771" s="38"/>
+      <c r="D771" s="39"/>
+      <c r="E771" s="30"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="20"/>
+      <c r="C772" s="38"/>
+      <c r="D772" s="39"/>
+      <c r="E772" s="30"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="20"/>
+      <c r="C773" s="38"/>
+      <c r="D773" s="39"/>
+      <c r="E773" s="30"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="20"/>
+      <c r="C774" s="38"/>
+      <c r="D774" s="39"/>
+      <c r="E774" s="30"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="20"/>
+      <c r="C775" s="38"/>
+      <c r="D775" s="39"/>
+      <c r="E775" s="30"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="20"/>
+      <c r="C776" s="38"/>
+      <c r="D776" s="39"/>
+      <c r="E776" s="30"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="20"/>
+      <c r="C777" s="38"/>
+      <c r="D777" s="39"/>
+      <c r="E777" s="30"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="20"/>
+      <c r="C778" s="38"/>
+      <c r="D778" s="39"/>
+      <c r="E778" s="30"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="20"/>
+      <c r="C779" s="38"/>
+      <c r="D779" s="39"/>
+      <c r="E779" s="30"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="20"/>
+      <c r="C780" s="38"/>
+      <c r="D780" s="39"/>
+      <c r="E780" s="30"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="20"/>
+      <c r="C781" s="38"/>
+      <c r="D781" s="39"/>
+      <c r="E781" s="30"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="20"/>
+      <c r="C782" s="38"/>
+      <c r="D782" s="39"/>
+      <c r="E782" s="30"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="20"/>
+      <c r="C783" s="38"/>
+      <c r="D783" s="39"/>
+      <c r="E783" s="30"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="20"/>
+      <c r="C784" s="38"/>
+      <c r="D784" s="39"/>
+      <c r="E784" s="30"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="20"/>
+      <c r="C785" s="38"/>
+      <c r="D785" s="39"/>
+      <c r="E785" s="30"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="20"/>
+      <c r="C786" s="38"/>
+      <c r="D786" s="39"/>
+      <c r="E786" s="30"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="20"/>
+      <c r="C787" s="38"/>
+      <c r="D787" s="39"/>
+      <c r="E787" s="30"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="20"/>
+      <c r="C788" s="38"/>
+      <c r="D788" s="39"/>
+      <c r="E788" s="30"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="20"/>
+      <c r="C789" s="38"/>
+      <c r="D789" s="39"/>
+      <c r="E789" s="30"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="20"/>
+      <c r="C790" s="38"/>
+      <c r="D790" s="39"/>
+      <c r="E790" s="30"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="20"/>
+      <c r="C791" s="38"/>
+      <c r="D791" s="39"/>
+      <c r="E791" s="30"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="20"/>
+      <c r="C792" s="38"/>
+      <c r="D792" s="39"/>
+      <c r="E792" s="30"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="20"/>
+      <c r="C793" s="38"/>
+      <c r="D793" s="39"/>
+      <c r="E793" s="30"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="20"/>
+      <c r="C794" s="38"/>
+      <c r="D794" s="39"/>
+      <c r="E794" s="30"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="20"/>
+      <c r="C795" s="38"/>
+      <c r="D795" s="39"/>
+      <c r="E795" s="30"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="20"/>
+      <c r="C796" s="38"/>
+      <c r="D796" s="39"/>
+      <c r="E796" s="30"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="20"/>
+      <c r="C797" s="38"/>
+      <c r="D797" s="39"/>
+      <c r="E797" s="30"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="20"/>
+      <c r="C798" s="38"/>
+      <c r="D798" s="39"/>
+      <c r="E798" s="30"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="20"/>
+      <c r="C799" s="38"/>
+      <c r="D799" s="39"/>
+      <c r="E799" s="30"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="20"/>
+      <c r="C800" s="38"/>
+      <c r="D800" s="39"/>
+      <c r="E800" s="30"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="20"/>
+      <c r="C801" s="38"/>
+      <c r="D801" s="39"/>
+      <c r="E801" s="30"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="20"/>
+      <c r="C802" s="38"/>
+      <c r="D802" s="39"/>
+      <c r="E802" s="30"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="20"/>
+      <c r="C803" s="38"/>
+      <c r="D803" s="39"/>
+      <c r="E803" s="30"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="20"/>
+      <c r="C804" s="38"/>
+      <c r="D804" s="39"/>
+      <c r="E804" s="30"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="20"/>
+      <c r="C805" s="38"/>
+      <c r="D805" s="39"/>
+      <c r="E805" s="30"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="20"/>
+      <c r="C806" s="38"/>
+      <c r="D806" s="39"/>
+      <c r="E806" s="30"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="20"/>
+      <c r="C807" s="38"/>
+      <c r="D807" s="39"/>
+      <c r="E807" s="30"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="20"/>
+      <c r="C808" s="38"/>
+      <c r="D808" s="39"/>
+      <c r="E808" s="30"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="20"/>
+      <c r="C809" s="38"/>
+      <c r="D809" s="39"/>
+      <c r="E809" s="30"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="20"/>
+      <c r="C810" s="38"/>
+      <c r="D810" s="39"/>
+      <c r="E810" s="30"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="20"/>
+      <c r="C811" s="38"/>
+      <c r="D811" s="39"/>
+      <c r="E811" s="30"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="20"/>
+      <c r="C812" s="38"/>
+      <c r="D812" s="39"/>
+      <c r="E812" s="30"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="20"/>
+      <c r="C813" s="38"/>
+      <c r="D813" s="39"/>
+      <c r="E813" s="30"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="20"/>
+      <c r="C814" s="38"/>
+      <c r="D814" s="39"/>
+      <c r="E814" s="30"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="20"/>
+      <c r="C815" s="38"/>
+      <c r="D815" s="39"/>
+      <c r="E815" s="30"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="20"/>
+      <c r="C816" s="38"/>
+      <c r="D816" s="39"/>
+      <c r="E816" s="30"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="20"/>
+      <c r="C817" s="38"/>
+      <c r="D817" s="39"/>
+      <c r="E817" s="30"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="20"/>
+      <c r="C818" s="38"/>
+      <c r="D818" s="39"/>
+      <c r="E818" s="30"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="20"/>
+      <c r="C819" s="38"/>
+      <c r="D819" s="39"/>
+      <c r="E819" s="30"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="20"/>
+      <c r="C820" s="38"/>
+      <c r="D820" s="39"/>
+      <c r="E820" s="30"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="20"/>
+      <c r="C821" s="38"/>
+      <c r="D821" s="39"/>
+      <c r="E821" s="30"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="20"/>
+      <c r="C822" s="38"/>
+      <c r="D822" s="39"/>
+      <c r="E822" s="30"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="20"/>
+      <c r="C823" s="38"/>
+      <c r="D823" s="39"/>
+      <c r="E823" s="30"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="20"/>
+      <c r="C824" s="38"/>
+      <c r="D824" s="39"/>
+      <c r="E824" s="30"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="20"/>
+      <c r="C825" s="38"/>
+      <c r="D825" s="39"/>
+      <c r="E825" s="30"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="20"/>
+      <c r="C826" s="38"/>
+      <c r="D826" s="39"/>
+      <c r="E826" s="30"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="20"/>
+      <c r="C827" s="38"/>
+      <c r="D827" s="39"/>
+      <c r="E827" s="30"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="20"/>
+      <c r="C828" s="38"/>
+      <c r="D828" s="39"/>
+      <c r="E828" s="30"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="20"/>
+      <c r="C829" s="38"/>
+      <c r="D829" s="39"/>
+      <c r="E829" s="30"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="20"/>
+      <c r="C830" s="38"/>
+      <c r="D830" s="39"/>
+      <c r="E830" s="30"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="20"/>
+      <c r="C831" s="38"/>
+      <c r="D831" s="39"/>
+      <c r="E831" s="30"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="20"/>
+      <c r="C832" s="38"/>
+      <c r="D832" s="39"/>
+      <c r="E832" s="30"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="20"/>
+      <c r="C833" s="38"/>
+      <c r="D833" s="39"/>
+      <c r="E833" s="30"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="20"/>
+      <c r="C834" s="38"/>
+      <c r="D834" s="39"/>
+      <c r="E834" s="30"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="20"/>
+      <c r="C835" s="38"/>
+      <c r="D835" s="39"/>
+      <c r="E835" s="30"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="20"/>
+      <c r="C836" s="38"/>
+      <c r="D836" s="39"/>
+      <c r="E836" s="30"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="20"/>
+      <c r="C837" s="38"/>
+      <c r="D837" s="39"/>
+      <c r="E837" s="30"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="20"/>
+      <c r="C838" s="38"/>
+      <c r="D838" s="39"/>
+      <c r="E838" s="30"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="20"/>
+      <c r="C839" s="38"/>
+      <c r="D839" s="39"/>
+      <c r="E839" s="30"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="20"/>
+      <c r="C840" s="38"/>
+      <c r="D840" s="39"/>
+      <c r="E840" s="30"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="20"/>
+      <c r="C841" s="38"/>
+      <c r="D841" s="39"/>
+      <c r="E841" s="30"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="20"/>
+      <c r="C842" s="38"/>
+      <c r="D842" s="39"/>
+      <c r="E842" s="30"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="20"/>
+      <c r="C843" s="38"/>
+      <c r="D843" s="39"/>
+      <c r="E843" s="30"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="20"/>
+      <c r="C844" s="38"/>
+      <c r="D844" s="39"/>
+      <c r="E844" s="30"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="20"/>
+      <c r="C845" s="38"/>
+      <c r="D845" s="39"/>
+      <c r="E845" s="30"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="20"/>
+      <c r="C846" s="38"/>
+      <c r="D846" s="39"/>
+      <c r="E846" s="30"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="20"/>
+      <c r="C847" s="38"/>
+      <c r="D847" s="39"/>
+      <c r="E847" s="30"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="20"/>
+      <c r="C848" s="38"/>
+      <c r="D848" s="39"/>
+      <c r="E848" s="30"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="20"/>
+      <c r="C849" s="38"/>
+      <c r="D849" s="39"/>
+      <c r="E849" s="30"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="20"/>
+      <c r="C850" s="38"/>
+      <c r="D850" s="39"/>
+      <c r="E850" s="30"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="20"/>
+      <c r="C851" s="38"/>
+      <c r="D851" s="39"/>
+      <c r="E851" s="30"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="20"/>
+      <c r="C852" s="38"/>
+      <c r="D852" s="39"/>
+      <c r="E852" s="30"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="20"/>
+      <c r="C853" s="38"/>
+      <c r="D853" s="39"/>
+      <c r="E853" s="30"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="20"/>
+      <c r="C854" s="38"/>
+      <c r="D854" s="39"/>
+      <c r="E854" s="30"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="20"/>
+      <c r="C855" s="38"/>
+      <c r="D855" s="39"/>
+      <c r="E855" s="30"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="20"/>
+      <c r="C856" s="38"/>
+      <c r="D856" s="39"/>
+      <c r="E856" s="30"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="20"/>
+      <c r="C857" s="38"/>
+      <c r="D857" s="39"/>
+      <c r="E857" s="30"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="20"/>
+      <c r="C858" s="38"/>
+      <c r="D858" s="39"/>
+      <c r="E858" s="30"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="20"/>
+      <c r="C859" s="38"/>
+      <c r="D859" s="39"/>
+      <c r="E859" s="30"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="20"/>
+      <c r="C860" s="38"/>
+      <c r="D860" s="39"/>
+      <c r="E860" s="30"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="20"/>
+      <c r="C861" s="38"/>
+      <c r="D861" s="39"/>
+      <c r="E861" s="30"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="20"/>
+      <c r="C862" s="38"/>
+      <c r="D862" s="39"/>
+      <c r="E862" s="30"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="20"/>
+      <c r="C863" s="38"/>
+      <c r="D863" s="39"/>
+      <c r="E863" s="30"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="20"/>
+      <c r="C864" s="38"/>
+      <c r="D864" s="39"/>
+      <c r="E864" s="30"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="20"/>
+      <c r="C865" s="38"/>
+      <c r="D865" s="39"/>
+      <c r="E865" s="30"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="20"/>
+      <c r="C866" s="38"/>
+      <c r="D866" s="39"/>
+      <c r="E866" s="30"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="20"/>
+      <c r="C867" s="38"/>
+      <c r="D867" s="39"/>
+      <c r="E867" s="30"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="20"/>
+      <c r="C868" s="38"/>
+      <c r="D868" s="39"/>
+      <c r="E868" s="30"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="20"/>
+      <c r="C869" s="38"/>
+      <c r="D869" s="39"/>
+      <c r="E869" s="30"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="20"/>
+      <c r="C870" s="38"/>
+      <c r="D870" s="39"/>
+      <c r="E870" s="30"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="20"/>
+      <c r="C871" s="38"/>
+      <c r="D871" s="39"/>
+      <c r="E871" s="30"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="20"/>
+      <c r="C872" s="38"/>
+      <c r="D872" s="39"/>
+      <c r="E872" s="30"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="20"/>
+      <c r="C873" s="38"/>
+      <c r="D873" s="39"/>
+      <c r="E873" s="30"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="20"/>
+      <c r="C874" s="38"/>
+      <c r="D874" s="39"/>
+      <c r="E874" s="30"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="20"/>
+      <c r="C875" s="38"/>
+      <c r="D875" s="39"/>
+      <c r="E875" s="30"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="20"/>
+      <c r="C876" s="38"/>
+      <c r="D876" s="39"/>
+      <c r="E876" s="30"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="20"/>
+      <c r="C877" s="38"/>
+      <c r="D877" s="39"/>
+      <c r="E877" s="30"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="20"/>
+      <c r="C878" s="38"/>
+      <c r="D878" s="39"/>
+      <c r="E878" s="30"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="20"/>
+      <c r="C879" s="38"/>
+      <c r="D879" s="39"/>
+      <c r="E879" s="30"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="20"/>
+      <c r="C880" s="38"/>
+      <c r="D880" s="39"/>
+      <c r="E880" s="30"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="20"/>
+      <c r="C881" s="38"/>
+      <c r="D881" s="39"/>
+      <c r="E881" s="30"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="20"/>
+      <c r="C882" s="38"/>
+      <c r="D882" s="39"/>
+      <c r="E882" s="30"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="20"/>
+      <c r="C883" s="38"/>
+      <c r="D883" s="39"/>
+      <c r="E883" s="30"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="20"/>
+      <c r="C884" s="38"/>
+      <c r="D884" s="39"/>
+      <c r="E884" s="30"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="20"/>
+      <c r="C885" s="38"/>
+      <c r="D885" s="39"/>
+      <c r="E885" s="30"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="20"/>
+      <c r="C886" s="38"/>
+      <c r="D886" s="39"/>
+      <c r="E886" s="30"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="20"/>
+      <c r="C887" s="38"/>
+      <c r="D887" s="39"/>
+      <c r="E887" s="30"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="20"/>
+      <c r="C888" s="38"/>
+      <c r="D888" s="39"/>
+      <c r="E888" s="30"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="20"/>
+      <c r="C889" s="38"/>
+      <c r="D889" s="39"/>
+      <c r="E889" s="30"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="20"/>
+      <c r="C890" s="38"/>
+      <c r="D890" s="39"/>
+      <c r="E890" s="30"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="20"/>
+      <c r="C891" s="38"/>
+      <c r="D891" s="39"/>
+      <c r="E891" s="30"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="20"/>
+      <c r="C892" s="38"/>
+      <c r="D892" s="39"/>
+      <c r="E892" s="30"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="20"/>
+      <c r="C893" s="38"/>
+      <c r="D893" s="39"/>
+      <c r="E893" s="30"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="20"/>
+      <c r="C894" s="38"/>
+      <c r="D894" s="39"/>
+      <c r="E894" s="30"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="20"/>
+      <c r="C895" s="38"/>
+      <c r="D895" s="39"/>
+      <c r="E895" s="30"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="20"/>
+      <c r="C896" s="38"/>
+      <c r="D896" s="39"/>
+      <c r="E896" s="30"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="20"/>
+      <c r="C897" s="38"/>
+      <c r="D897" s="39"/>
+      <c r="E897" s="30"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="20"/>
+      <c r="C898" s="38"/>
+      <c r="D898" s="39"/>
+      <c r="E898" s="30"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="20"/>
+      <c r="C899" s="38"/>
+      <c r="D899" s="39"/>
+      <c r="E899" s="30"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="20"/>
+      <c r="C900" s="38"/>
+      <c r="D900" s="39"/>
+      <c r="E900" s="30"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="20"/>
+      <c r="C901" s="38"/>
+      <c r="D901" s="39"/>
+      <c r="E901" s="30"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="20"/>
+      <c r="C902" s="38"/>
+      <c r="D902" s="39"/>
+      <c r="E902" s="30"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="20"/>
+      <c r="C903" s="38"/>
+      <c r="D903" s="39"/>
+      <c r="E903" s="30"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="20"/>
+      <c r="C904" s="38"/>
+      <c r="D904" s="39"/>
+      <c r="E904" s="30"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="20"/>
+      <c r="C905" s="38"/>
+      <c r="D905" s="39"/>
+      <c r="E905" s="30"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="20"/>
+      <c r="C906" s="38"/>
+      <c r="D906" s="39"/>
+      <c r="E906" s="30"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="20"/>
+      <c r="C907" s="38"/>
+      <c r="D907" s="39"/>
+      <c r="E907" s="30"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="20"/>
+      <c r="C908" s="38"/>
+      <c r="D908" s="39"/>
+      <c r="E908" s="30"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="20"/>
+      <c r="C909" s="38"/>
+      <c r="D909" s="39"/>
+      <c r="E909" s="30"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="20"/>
+      <c r="C910" s="38"/>
+      <c r="D910" s="39"/>
+      <c r="E910" s="30"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="20"/>
+      <c r="C911" s="38"/>
+      <c r="D911" s="39"/>
+      <c r="E911" s="30"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="20"/>
+      <c r="C912" s="38"/>
+      <c r="D912" s="39"/>
+      <c r="E912" s="30"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="20"/>
+      <c r="C913" s="38"/>
+      <c r="D913" s="39"/>
+      <c r="E913" s="30"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="20"/>
+      <c r="C914" s="38"/>
+      <c r="D914" s="39"/>
+      <c r="E914" s="30"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="20"/>
+      <c r="C915" s="38"/>
+      <c r="D915" s="39"/>
+      <c r="E915" s="30"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="20"/>
+      <c r="C916" s="38"/>
+      <c r="D916" s="39"/>
+      <c r="E916" s="30"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="20"/>
+      <c r="C917" s="38"/>
+      <c r="D917" s="39"/>
+      <c r="E917" s="30"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="20"/>
+      <c r="C918" s="38"/>
+      <c r="D918" s="39"/>
+      <c r="E918" s="30"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="20"/>
+      <c r="C919" s="38"/>
+      <c r="D919" s="39"/>
+      <c r="E919" s="30"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="20"/>
+      <c r="C920" s="38"/>
+      <c r="D920" s="39"/>
+      <c r="E920" s="30"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="20"/>
+      <c r="C921" s="38"/>
+      <c r="D921" s="39"/>
+      <c r="E921" s="30"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="20"/>
+      <c r="C922" s="38"/>
+      <c r="D922" s="39"/>
+      <c r="E922" s="30"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="20"/>
+      <c r="C923" s="38"/>
+      <c r="D923" s="39"/>
+      <c r="E923" s="30"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="20"/>
+      <c r="C924" s="38"/>
+      <c r="D924" s="39"/>
+      <c r="E924" s="30"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="20"/>
+      <c r="C925" s="38"/>
+      <c r="D925" s="39"/>
+      <c r="E925" s="30"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="20"/>
+      <c r="C926" s="38"/>
+      <c r="D926" s="39"/>
+      <c r="E926" s="30"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="20"/>
+      <c r="C927" s="38"/>
+      <c r="D927" s="39"/>
+      <c r="E927" s="30"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="20"/>
+      <c r="C928" s="38"/>
+      <c r="D928" s="39"/>
+      <c r="E928" s="30"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="20"/>
+      <c r="C929" s="38"/>
+      <c r="D929" s="39"/>
+      <c r="E929" s="30"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="20"/>
+      <c r="C930" s="38"/>
+      <c r="D930" s="39"/>
+      <c r="E930" s="30"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="20"/>
+      <c r="C931" s="38"/>
+      <c r="D931" s="39"/>
+      <c r="E931" s="30"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="20"/>
+      <c r="C932" s="38"/>
+      <c r="D932" s="39"/>
+      <c r="E932" s="30"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="20"/>
+      <c r="C933" s="38"/>
+      <c r="D933" s="39"/>
+      <c r="E933" s="30"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="20"/>
+      <c r="C934" s="38"/>
+      <c r="D934" s="39"/>
+      <c r="E934" s="30"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="20"/>
+      <c r="C935" s="38"/>
+      <c r="D935" s="39"/>
+      <c r="E935" s="30"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="20"/>
+      <c r="C936" s="38"/>
+      <c r="D936" s="39"/>
+      <c r="E936" s="30"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="20"/>
+      <c r="C937" s="38"/>
+      <c r="D937" s="39"/>
+      <c r="E937" s="30"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="20"/>
+      <c r="C938" s="38"/>
+      <c r="D938" s="39"/>
+      <c r="E938" s="30"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="20"/>
+      <c r="C939" s="38"/>
+      <c r="D939" s="39"/>
+      <c r="E939" s="30"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="20"/>
+      <c r="C940" s="38"/>
+      <c r="D940" s="39"/>
+      <c r="E940" s="30"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="20"/>
+      <c r="C941" s="38"/>
+      <c r="D941" s="39"/>
+      <c r="E941" s="30"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="20"/>
+      <c r="C942" s="38"/>
+      <c r="D942" s="39"/>
+      <c r="E942" s="30"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="20"/>
+      <c r="C943" s="38"/>
+      <c r="D943" s="39"/>
+      <c r="E943" s="30"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="20"/>
+      <c r="C944" s="38"/>
+      <c r="D944" s="39"/>
+      <c r="E944" s="30"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="20"/>
+      <c r="C945" s="38"/>
+      <c r="D945" s="39"/>
+      <c r="E945" s="30"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="20"/>
+      <c r="C946" s="38"/>
+      <c r="D946" s="39"/>
+      <c r="E946" s="30"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="20"/>
+      <c r="C947" s="38"/>
+      <c r="D947" s="39"/>
+      <c r="E947" s="30"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="20"/>
+      <c r="C948" s="38"/>
+      <c r="D948" s="39"/>
+      <c r="E948" s="30"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="20"/>
+      <c r="C949" s="38"/>
+      <c r="D949" s="39"/>
+      <c r="E949" s="30"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="20"/>
+      <c r="C950" s="38"/>
+      <c r="D950" s="39"/>
+      <c r="E950" s="30"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="20"/>
+      <c r="C951" s="38"/>
+      <c r="D951" s="39"/>
+      <c r="E951" s="30"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="20"/>
+      <c r="C952" s="38"/>
+      <c r="D952" s="39"/>
+      <c r="E952" s="30"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="20"/>
+      <c r="C953" s="38"/>
+      <c r="D953" s="39"/>
+      <c r="E953" s="30"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="20"/>
+      <c r="C954" s="38"/>
+      <c r="D954" s="39"/>
+      <c r="E954" s="30"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="20"/>
+      <c r="C955" s="38"/>
+      <c r="D955" s="39"/>
+      <c r="E955" s="30"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="20"/>
+      <c r="C956" s="38"/>
+      <c r="D956" s="39"/>
+      <c r="E956" s="30"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="20"/>
+      <c r="C957" s="38"/>
+      <c r="D957" s="39"/>
+      <c r="E957" s="30"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="20"/>
+      <c r="C958" s="38"/>
+      <c r="D958" s="39"/>
+      <c r="E958" s="30"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="20"/>
+      <c r="C959" s="38"/>
+      <c r="D959" s="39"/>
+      <c r="E959" s="30"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="20"/>
+      <c r="C960" s="38"/>
+      <c r="D960" s="39"/>
+      <c r="E960" s="30"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="20"/>
+      <c r="C961" s="38"/>
+      <c r="D961" s="39"/>
+      <c r="E961" s="30"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="20"/>
+      <c r="C962" s="38"/>
+      <c r="D962" s="39"/>
+      <c r="E962" s="30"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="20"/>
+      <c r="C963" s="38"/>
+      <c r="D963" s="39"/>
+      <c r="E963" s="30"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="20"/>
+      <c r="C964" s="38"/>
+      <c r="D964" s="39"/>
+      <c r="E964" s="30"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="20"/>
+      <c r="C965" s="38"/>
+      <c r="D965" s="39"/>
+      <c r="E965" s="30"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="20"/>
+      <c r="C966" s="38"/>
+      <c r="D966" s="39"/>
+      <c r="E966" s="30"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="20"/>
+      <c r="C967" s="38"/>
+      <c r="D967" s="39"/>
+      <c r="E967" s="30"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="20"/>
+      <c r="C968" s="38"/>
+      <c r="D968" s="39"/>
+      <c r="E968" s="30"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="20"/>
+      <c r="C969" s="38"/>
+      <c r="D969" s="39"/>
+      <c r="E969" s="30"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="20"/>
+      <c r="C970" s="38"/>
+      <c r="D970" s="39"/>
+      <c r="E970" s="30"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="20"/>
+      <c r="C971" s="38"/>
+      <c r="D971" s="39"/>
+      <c r="E971" s="30"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="20"/>
+      <c r="C972" s="38"/>
+      <c r="D972" s="39"/>
+      <c r="E972" s="30"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="20"/>
+      <c r="C973" s="38"/>
+      <c r="D973" s="39"/>
+      <c r="E973" s="30"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="20"/>
+      <c r="C974" s="38"/>
+      <c r="D974" s="39"/>
+      <c r="E974" s="30"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="20"/>
+      <c r="C975" s="38"/>
+      <c r="D975" s="39"/>
+      <c r="E975" s="30"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="20"/>
+      <c r="C976" s="38"/>
+      <c r="D976" s="39"/>
+      <c r="E976" s="30"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="20"/>
+      <c r="C977" s="38"/>
+      <c r="D977" s="39"/>
+      <c r="E977" s="30"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="20"/>
+      <c r="C978" s="38"/>
+      <c r="D978" s="39"/>
+      <c r="E978" s="30"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="20"/>
+      <c r="C979" s="38"/>
+      <c r="D979" s="39"/>
+      <c r="E979" s="30"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="20"/>
+      <c r="C980" s="38"/>
+      <c r="D980" s="39"/>
+      <c r="E980" s="30"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="20"/>
+      <c r="C981" s="38"/>
+      <c r="D981" s="39"/>
+      <c r="E981" s="30"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="20"/>
+      <c r="C982" s="38"/>
+      <c r="D982" s="39"/>
+      <c r="E982" s="30"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="20"/>
+      <c r="C983" s="38"/>
+      <c r="D983" s="39"/>
+      <c r="E983" s="30"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="20"/>
+      <c r="C984" s="38"/>
+      <c r="D984" s="39"/>
+      <c r="E984" s="30"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="20"/>
+      <c r="C985" s="38"/>
+      <c r="D985" s="39"/>
+      <c r="E985" s="30"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="20"/>
+      <c r="C986" s="38"/>
+      <c r="D986" s="39"/>
+      <c r="E986" s="30"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="20"/>
+      <c r="C987" s="38"/>
+      <c r="D987" s="39"/>
+      <c r="E987" s="30"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="20"/>
+      <c r="C988" s="38"/>
+      <c r="D988" s="39"/>
+      <c r="E988" s="30"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="20"/>
+      <c r="C989" s="38"/>
+      <c r="D989" s="39"/>
+      <c r="E989" s="30"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="20"/>
+      <c r="C990" s="38"/>
+      <c r="D990" s="39"/>
+      <c r="E990" s="30"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="20"/>
+      <c r="C991" s="38"/>
+      <c r="D991" s="39"/>
+      <c r="E991" s="30"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="20"/>
+      <c r="C992" s="38"/>
+      <c r="D992" s="39"/>
+      <c r="E992" s="30"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="20"/>
+      <c r="C993" s="38"/>
+      <c r="D993" s="39"/>
+      <c r="E993" s="30"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="20"/>
+      <c r="C994" s="38"/>
+      <c r="D994" s="39"/>
+      <c r="E994" s="30"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="20"/>
+      <c r="C995" s="38"/>
+      <c r="D995" s="39"/>
+      <c r="E995" s="30"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="20"/>
+      <c r="C996" s="38"/>
+      <c r="D996" s="39"/>
+      <c r="E996" s="30"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="20"/>
+      <c r="C997" s="38"/>
+      <c r="D997" s="39"/>
+      <c r="E997" s="30"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="20"/>
+      <c r="C998" s="38"/>
+      <c r="D998" s="39"/>
+      <c r="E998" s="30"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="20"/>
+      <c r="C999" s="38"/>
+      <c r="D999" s="39"/>
+      <c r="E999" s="30"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="20"/>
+      <c r="C1000" s="38"/>
+      <c r="D1000" s="39"/>
+      <c r="E1000" s="30"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/game_design/game_config.xlsx
+++ b/game_design/game_config.xlsx
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" ref="D2:D4" si="1">A3</f>

--- a/game_design/game_config.xlsx
+++ b/game_design/game_config.xlsx
@@ -4618,7 +4618,7 @@
         <v>1.0</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -4635,7 +4635,7 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -4652,7 +4652,7 @@
         <v>2.0</v>
       </c>
       <c r="D4" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -4669,7 +4669,7 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -5274,7 +5274,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>51</v>

--- a/game_design/game_config.xlsx
+++ b/game_design/game_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
   <si>
     <t>token_id</t>
   </si>
@@ -209,9 +209,6 @@
     <t>probs/chest</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>Ignore this line</t>
   </si>
   <si>
@@ -351,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -417,12 +414,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -508,7 +499,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A2:E16" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A2:E15" displayName="Table_1" id="1">
   <tableColumns count="5">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -5441,6026 +5432,6012 @@
       <c r="A2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28">
-        <v>20.0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="28">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0.0</v>
+      <c r="B2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28">
-        <v>40.0</v>
-      </c>
-      <c r="C3" s="28">
-        <v>20.0</v>
-      </c>
-      <c r="D3" s="28">
-        <v>20.0</v>
-      </c>
-      <c r="E3" s="28">
-        <v>20.0</v>
+      <c r="B3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="30">
-        <f t="shared" ref="B4:C4" si="1">SUM(B2:B3)</f>
-        <v>60</v>
-      </c>
-      <c r="C4" s="30">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="D4" s="30">
-        <v>20.0</v>
-      </c>
-      <c r="E4" s="30">
-        <v>20.0</v>
-      </c>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="24"/>
     </row>
     <row r="18">
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="24"/>
     </row>
     <row r="19">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="24"/>
     </row>
     <row r="20">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="24"/>
     </row>
     <row r="21">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="24"/>
     </row>
     <row r="22">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="24"/>
     </row>
     <row r="23">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="24"/>
     </row>
     <row r="24">
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="24"/>
     </row>
     <row r="25">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="24"/>
     </row>
     <row r="26">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="24"/>
     </row>
     <row r="27">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="24"/>
     </row>
     <row r="28">
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="24"/>
     </row>
     <row r="29">
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="24"/>
     </row>
     <row r="30">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="24"/>
     </row>
     <row r="31">
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="24"/>
     </row>
     <row r="32">
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="24"/>
     </row>
     <row r="33">
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="24"/>
     </row>
     <row r="34">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="24"/>
     </row>
     <row r="35">
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="24"/>
     </row>
     <row r="36">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="24"/>
     </row>
     <row r="37">
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="24"/>
     </row>
     <row r="38">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="24"/>
     </row>
     <row r="39">
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="24"/>
     </row>
     <row r="40">
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="24"/>
     </row>
     <row r="41">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="24"/>
     </row>
     <row r="42">
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="24"/>
     </row>
     <row r="43">
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="24"/>
     </row>
     <row r="44">
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="24"/>
     </row>
     <row r="45">
-      <c r="B45" s="33"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="24"/>
     </row>
     <row r="46">
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="24"/>
     </row>
     <row r="47">
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="24"/>
     </row>
     <row r="48">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="24"/>
     </row>
     <row r="49">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="24"/>
     </row>
     <row r="50">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="24"/>
     </row>
     <row r="51">
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="24"/>
     </row>
     <row r="52">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="24"/>
     </row>
     <row r="53">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="24"/>
     </row>
     <row r="54">
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="24"/>
     </row>
     <row r="55">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="33"/>
       <c r="E55" s="24"/>
     </row>
     <row r="56">
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="24"/>
     </row>
     <row r="57">
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="24"/>
     </row>
     <row r="58">
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="33"/>
       <c r="E58" s="24"/>
     </row>
     <row r="59">
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="24"/>
     </row>
     <row r="60">
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="24"/>
     </row>
     <row r="61">
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="24"/>
     </row>
     <row r="62">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="24"/>
     </row>
     <row r="63">
-      <c r="B63" s="33"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="24"/>
     </row>
     <row r="64">
-      <c r="B64" s="33"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="24"/>
     </row>
     <row r="65">
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="24"/>
     </row>
     <row r="66">
-      <c r="B66" s="33"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="33"/>
       <c r="E66" s="24"/>
     </row>
     <row r="67">
-      <c r="B67" s="33"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="24"/>
     </row>
     <row r="68">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="24"/>
     </row>
     <row r="69">
-      <c r="B69" s="33"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="35"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="24"/>
     </row>
     <row r="70">
-      <c r="B70" s="33"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="35"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="24"/>
     </row>
     <row r="71">
-      <c r="B71" s="33"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="24"/>
     </row>
     <row r="72">
-      <c r="B72" s="33"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="35"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="24"/>
     </row>
     <row r="73">
-      <c r="B73" s="33"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="35"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="24"/>
     </row>
     <row r="74">
-      <c r="B74" s="33"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="35"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="24"/>
     </row>
     <row r="75">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
       <c r="E75" s="24"/>
     </row>
     <row r="76">
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="35"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="24"/>
     </row>
     <row r="77">
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="35"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="24"/>
     </row>
     <row r="78">
-      <c r="B78" s="33"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="35"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="24"/>
     </row>
     <row r="79">
-      <c r="B79" s="33"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="35"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="24"/>
     </row>
     <row r="80">
-      <c r="B80" s="33"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="35"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="33"/>
       <c r="E80" s="24"/>
     </row>
     <row r="81">
-      <c r="B81" s="33"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="33"/>
       <c r="E81" s="24"/>
     </row>
     <row r="82">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
       <c r="E82" s="24"/>
     </row>
     <row r="83">
-      <c r="B83" s="33"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="35"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="24"/>
     </row>
     <row r="84">
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="35"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="24"/>
     </row>
     <row r="85">
-      <c r="B85" s="33"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="35"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="24"/>
     </row>
     <row r="86">
-      <c r="B86" s="33"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="35"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="24"/>
     </row>
     <row r="87">
-      <c r="B87" s="33"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="24"/>
     </row>
     <row r="88">
-      <c r="B88" s="33"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="35"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="24"/>
     </row>
     <row r="89">
-      <c r="B89" s="33"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="24"/>
     </row>
     <row r="90">
-      <c r="B90" s="33"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="35"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="24"/>
     </row>
     <row r="91">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="24"/>
     </row>
     <row r="92">
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="24"/>
     </row>
     <row r="93">
-      <c r="B93" s="33"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="33"/>
       <c r="E93" s="24"/>
     </row>
     <row r="94">
-      <c r="B94" s="33"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="35"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="33"/>
       <c r="E94" s="24"/>
     </row>
     <row r="95">
-      <c r="B95" s="33"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="35"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="24"/>
     </row>
     <row r="96">
-      <c r="B96" s="33"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="35"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="33"/>
       <c r="E96" s="24"/>
     </row>
     <row r="97">
-      <c r="B97" s="33"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="35"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="33"/>
       <c r="E97" s="24"/>
     </row>
     <row r="98">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="33"/>
       <c r="E98" s="24"/>
     </row>
     <row r="99">
-      <c r="B99" s="33"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="35"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="33"/>
       <c r="E99" s="24"/>
     </row>
     <row r="100">
-      <c r="B100" s="33"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="35"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="33"/>
       <c r="E100" s="24"/>
     </row>
     <row r="101">
-      <c r="B101" s="33"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="35"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="33"/>
       <c r="E101" s="24"/>
     </row>
     <row r="102">
-      <c r="B102" s="33"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="35"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="33"/>
       <c r="E102" s="24"/>
     </row>
     <row r="103">
-      <c r="B103" s="33"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="33"/>
       <c r="E103" s="24"/>
     </row>
     <row r="104">
-      <c r="B104" s="33"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="35"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="33"/>
       <c r="E104" s="24"/>
     </row>
     <row r="105">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="33"/>
       <c r="E105" s="24"/>
     </row>
     <row r="106">
-      <c r="B106" s="33"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="35"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="33"/>
       <c r="E106" s="24"/>
     </row>
     <row r="107">
-      <c r="B107" s="33"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="35"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="24"/>
     </row>
     <row r="108">
-      <c r="B108" s="33"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="35"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="33"/>
       <c r="E108" s="24"/>
     </row>
     <row r="109">
-      <c r="B109" s="33"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="35"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="33"/>
       <c r="E109" s="24"/>
     </row>
     <row r="110">
-      <c r="B110" s="33"/>
-      <c r="C110" s="34"/>
-      <c r="D110" s="35"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="33"/>
       <c r="E110" s="24"/>
     </row>
     <row r="111">
-      <c r="B111" s="33"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="35"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="33"/>
       <c r="E111" s="24"/>
     </row>
     <row r="112">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="33"/>
       <c r="E112" s="24"/>
     </row>
     <row r="113">
-      <c r="B113" s="33"/>
-      <c r="C113" s="34"/>
-      <c r="D113" s="35"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="33"/>
       <c r="E113" s="24"/>
     </row>
     <row r="114">
-      <c r="B114" s="33"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="35"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="33"/>
       <c r="E114" s="24"/>
     </row>
     <row r="115">
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="35"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
       <c r="E115" s="24"/>
     </row>
     <row r="116">
-      <c r="B116" s="33"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="35"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
       <c r="E116" s="24"/>
     </row>
     <row r="117">
-      <c r="B117" s="33"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="35"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="33"/>
       <c r="E117" s="24"/>
     </row>
     <row r="118">
-      <c r="B118" s="33"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="35"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="33"/>
       <c r="E118" s="24"/>
     </row>
     <row r="119">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="33"/>
       <c r="E119" s="24"/>
     </row>
     <row r="120">
-      <c r="B120" s="33"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="35"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
       <c r="E120" s="24"/>
     </row>
     <row r="121">
-      <c r="B121" s="33"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="35"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="33"/>
       <c r="E121" s="24"/>
     </row>
     <row r="122">
-      <c r="B122" s="33"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="35"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="33"/>
       <c r="E122" s="24"/>
     </row>
     <row r="123">
-      <c r="B123" s="33"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="35"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="33"/>
       <c r="E123" s="24"/>
     </row>
     <row r="124">
-      <c r="B124" s="33"/>
-      <c r="C124" s="34"/>
-      <c r="D124" s="35"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="33"/>
       <c r="E124" s="24"/>
     </row>
     <row r="125">
-      <c r="B125" s="33"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="35"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="24"/>
     </row>
     <row r="126">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="33"/>
       <c r="E126" s="24"/>
     </row>
     <row r="127">
-      <c r="B127" s="33"/>
-      <c r="C127" s="34"/>
-      <c r="D127" s="35"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="33"/>
       <c r="E127" s="24"/>
     </row>
     <row r="128">
-      <c r="B128" s="33"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="35"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="33"/>
       <c r="E128" s="24"/>
     </row>
     <row r="129">
-      <c r="B129" s="33"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="35"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="33"/>
       <c r="E129" s="24"/>
     </row>
     <row r="130">
-      <c r="B130" s="33"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="35"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="33"/>
       <c r="E130" s="24"/>
     </row>
     <row r="131">
-      <c r="B131" s="33"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="35"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="33"/>
       <c r="E131" s="24"/>
     </row>
     <row r="132">
-      <c r="B132" s="33"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="35"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="33"/>
       <c r="E132" s="24"/>
     </row>
     <row r="133">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="33"/>
       <c r="E133" s="24"/>
     </row>
     <row r="134">
-      <c r="B134" s="33"/>
-      <c r="C134" s="34"/>
-      <c r="D134" s="35"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="33"/>
       <c r="E134" s="24"/>
     </row>
     <row r="135">
-      <c r="B135" s="33"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="35"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="33"/>
       <c r="E135" s="24"/>
     </row>
     <row r="136">
-      <c r="B136" s="33"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="35"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="33"/>
       <c r="E136" s="24"/>
     </row>
     <row r="137">
-      <c r="B137" s="33"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="33"/>
       <c r="E137" s="24"/>
     </row>
     <row r="138">
-      <c r="B138" s="33"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="33"/>
       <c r="E138" s="24"/>
     </row>
     <row r="139">
-      <c r="B139" s="33"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="35"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="33"/>
       <c r="E139" s="24"/>
     </row>
     <row r="140">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="33"/>
       <c r="E140" s="24"/>
     </row>
     <row r="141">
-      <c r="B141" s="33"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="35"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="33"/>
       <c r="E141" s="24"/>
     </row>
     <row r="142">
-      <c r="B142" s="33"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="35"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="33"/>
       <c r="E142" s="24"/>
     </row>
     <row r="143">
-      <c r="B143" s="33"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="35"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="33"/>
       <c r="E143" s="24"/>
     </row>
     <row r="144">
-      <c r="B144" s="33"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="35"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="33"/>
       <c r="E144" s="24"/>
     </row>
     <row r="145">
-      <c r="B145" s="33"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="35"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="33"/>
       <c r="E145" s="24"/>
     </row>
     <row r="146">
-      <c r="B146" s="33"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="35"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="33"/>
       <c r="E146" s="24"/>
     </row>
     <row r="147">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="33"/>
       <c r="E147" s="24"/>
     </row>
     <row r="148">
-      <c r="B148" s="33"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="35"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="33"/>
       <c r="E148" s="24"/>
     </row>
     <row r="149">
-      <c r="B149" s="33"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="35"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="33"/>
       <c r="E149" s="24"/>
     </row>
     <row r="150">
-      <c r="B150" s="33"/>
-      <c r="C150" s="34"/>
-      <c r="D150" s="35"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="33"/>
       <c r="E150" s="24"/>
     </row>
     <row r="151">
-      <c r="B151" s="33"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="35"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="33"/>
       <c r="E151" s="24"/>
     </row>
     <row r="152">
-      <c r="B152" s="33"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="35"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="33"/>
       <c r="E152" s="24"/>
     </row>
     <row r="153">
-      <c r="B153" s="33"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="35"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="33"/>
       <c r="E153" s="24"/>
     </row>
     <row r="154">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="33"/>
       <c r="E154" s="24"/>
     </row>
     <row r="155">
-      <c r="B155" s="33"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="35"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="33"/>
       <c r="E155" s="24"/>
     </row>
     <row r="156">
-      <c r="B156" s="33"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="35"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="33"/>
       <c r="E156" s="24"/>
     </row>
     <row r="157">
-      <c r="B157" s="33"/>
-      <c r="C157" s="34"/>
-      <c r="D157" s="35"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="33"/>
       <c r="E157" s="24"/>
     </row>
     <row r="158">
-      <c r="B158" s="33"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="35"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="33"/>
       <c r="E158" s="24"/>
     </row>
     <row r="159">
-      <c r="B159" s="33"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="35"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="33"/>
       <c r="E159" s="24"/>
     </row>
     <row r="160">
-      <c r="B160" s="33"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="35"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="33"/>
       <c r="E160" s="24"/>
     </row>
     <row r="161">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="33"/>
       <c r="E161" s="24"/>
     </row>
     <row r="162">
-      <c r="B162" s="33"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="35"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="33"/>
       <c r="E162" s="24"/>
     </row>
     <row r="163">
-      <c r="B163" s="33"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="35"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="33"/>
       <c r="E163" s="24"/>
     </row>
     <row r="164">
-      <c r="B164" s="33"/>
-      <c r="C164" s="34"/>
-      <c r="D164" s="35"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="33"/>
       <c r="E164" s="24"/>
     </row>
     <row r="165">
-      <c r="B165" s="33"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="35"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="33"/>
       <c r="E165" s="24"/>
     </row>
     <row r="166">
-      <c r="B166" s="33"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="35"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="33"/>
       <c r="E166" s="24"/>
     </row>
     <row r="167">
-      <c r="B167" s="33"/>
-      <c r="C167" s="34"/>
-      <c r="D167" s="35"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="33"/>
       <c r="E167" s="24"/>
     </row>
     <row r="168">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="33"/>
       <c r="E168" s="24"/>
     </row>
     <row r="169">
-      <c r="B169" s="33"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="35"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="33"/>
       <c r="E169" s="24"/>
     </row>
     <row r="170">
-      <c r="B170" s="33"/>
-      <c r="C170" s="34"/>
-      <c r="D170" s="35"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="33"/>
       <c r="E170" s="24"/>
     </row>
     <row r="171">
-      <c r="B171" s="33"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="35"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="33"/>
       <c r="E171" s="24"/>
     </row>
     <row r="172">
-      <c r="B172" s="33"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="35"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="33"/>
       <c r="E172" s="24"/>
     </row>
     <row r="173">
-      <c r="B173" s="33"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="35"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="33"/>
       <c r="E173" s="24"/>
     </row>
     <row r="174">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="33"/>
       <c r="E174" s="24"/>
     </row>
     <row r="175">
-      <c r="B175" s="33"/>
-      <c r="C175" s="34"/>
-      <c r="D175" s="35"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="33"/>
       <c r="E175" s="24"/>
     </row>
     <row r="176">
-      <c r="B176" s="33"/>
-      <c r="C176" s="34"/>
-      <c r="D176" s="35"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="33"/>
       <c r="E176" s="24"/>
     </row>
     <row r="177">
-      <c r="B177" s="33"/>
-      <c r="C177" s="34"/>
-      <c r="D177" s="35"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="33"/>
       <c r="E177" s="24"/>
     </row>
     <row r="178">
-      <c r="B178" s="33"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="35"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="33"/>
       <c r="E178" s="24"/>
     </row>
     <row r="179">
-      <c r="B179" s="33"/>
-      <c r="C179" s="34"/>
-      <c r="D179" s="35"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="33"/>
       <c r="E179" s="24"/>
     </row>
     <row r="180">
-      <c r="B180" s="33"/>
-      <c r="C180" s="34"/>
-      <c r="D180" s="35"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="33"/>
       <c r="E180" s="24"/>
     </row>
     <row r="181">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="33"/>
       <c r="E181" s="24"/>
     </row>
     <row r="182">
-      <c r="B182" s="33"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="35"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="33"/>
       <c r="E182" s="24"/>
     </row>
     <row r="183">
-      <c r="B183" s="33"/>
-      <c r="C183" s="34"/>
-      <c r="D183" s="35"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="33"/>
       <c r="E183" s="24"/>
     </row>
     <row r="184">
-      <c r="B184" s="33"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="35"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="33"/>
       <c r="E184" s="24"/>
     </row>
     <row r="185">
-      <c r="B185" s="33"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="35"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="33"/>
       <c r="E185" s="24"/>
     </row>
     <row r="186">
-      <c r="B186" s="33"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="35"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="33"/>
       <c r="E186" s="24"/>
     </row>
     <row r="187">
-      <c r="B187" s="33"/>
-      <c r="C187" s="34"/>
-      <c r="D187" s="35"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="33"/>
       <c r="E187" s="24"/>
     </row>
     <row r="188">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="33"/>
       <c r="E188" s="24"/>
     </row>
     <row r="189">
-      <c r="B189" s="33"/>
-      <c r="C189" s="34"/>
-      <c r="D189" s="35"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="33"/>
       <c r="E189" s="24"/>
     </row>
     <row r="190">
-      <c r="B190" s="33"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="35"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="33"/>
       <c r="E190" s="24"/>
     </row>
     <row r="191">
-      <c r="B191" s="33"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="35"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="33"/>
       <c r="E191" s="24"/>
     </row>
     <row r="192">
-      <c r="B192" s="33"/>
-      <c r="C192" s="34"/>
-      <c r="D192" s="35"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="33"/>
       <c r="E192" s="24"/>
     </row>
     <row r="193">
-      <c r="B193" s="33"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="35"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="33"/>
       <c r="E193" s="24"/>
     </row>
     <row r="194">
-      <c r="B194" s="33"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="35"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="33"/>
       <c r="E194" s="24"/>
     </row>
     <row r="195">
-      <c r="B195" s="33"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="35"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="33"/>
       <c r="E195" s="24"/>
     </row>
     <row r="196">
-      <c r="B196" s="33"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="35"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="33"/>
       <c r="E196" s="24"/>
     </row>
     <row r="197">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="33"/>
       <c r="E197" s="24"/>
     </row>
     <row r="198">
-      <c r="B198" s="33"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="35"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="33"/>
       <c r="E198" s="24"/>
     </row>
     <row r="199">
-      <c r="B199" s="33"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="35"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="33"/>
       <c r="E199" s="24"/>
     </row>
     <row r="200">
-      <c r="B200" s="33"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="35"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="33"/>
       <c r="E200" s="24"/>
     </row>
     <row r="201">
-      <c r="B201" s="33"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="35"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="33"/>
       <c r="E201" s="24"/>
     </row>
     <row r="202">
-      <c r="B202" s="33"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="35"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="33"/>
       <c r="E202" s="24"/>
     </row>
     <row r="203">
-      <c r="B203" s="33"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="35"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="33"/>
       <c r="E203" s="24"/>
     </row>
     <row r="204">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="33"/>
       <c r="E204" s="24"/>
     </row>
     <row r="205">
-      <c r="B205" s="33"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="35"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="33"/>
       <c r="E205" s="24"/>
     </row>
     <row r="206">
-      <c r="B206" s="33"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="35"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="33"/>
       <c r="E206" s="24"/>
     </row>
     <row r="207">
-      <c r="B207" s="33"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="35"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="33"/>
       <c r="E207" s="24"/>
     </row>
     <row r="208">
-      <c r="B208" s="33"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="35"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="33"/>
       <c r="E208" s="24"/>
     </row>
     <row r="209">
-      <c r="B209" s="33"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="35"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="33"/>
       <c r="E209" s="24"/>
     </row>
     <row r="210">
-      <c r="B210" s="33"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="35"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="33"/>
       <c r="E210" s="24"/>
     </row>
     <row r="211">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="33"/>
       <c r="E211" s="24"/>
     </row>
     <row r="212">
-      <c r="B212" s="33"/>
-      <c r="C212" s="34"/>
-      <c r="D212" s="35"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="33"/>
       <c r="E212" s="24"/>
     </row>
     <row r="213">
-      <c r="B213" s="33"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="35"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="33"/>
       <c r="E213" s="24"/>
     </row>
     <row r="214">
-      <c r="B214" s="33"/>
-      <c r="C214" s="34"/>
-      <c r="D214" s="35"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="33"/>
       <c r="E214" s="24"/>
     </row>
     <row r="215">
-      <c r="B215" s="33"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="35"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="33"/>
       <c r="E215" s="24"/>
     </row>
     <row r="216">
-      <c r="B216" s="33"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="35"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="33"/>
       <c r="E216" s="24"/>
     </row>
     <row r="217">
-      <c r="B217" s="33"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="35"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="33"/>
       <c r="E217" s="24"/>
     </row>
     <row r="218">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="33"/>
       <c r="E218" s="24"/>
     </row>
     <row r="219">
-      <c r="B219" s="33"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="35"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="33"/>
       <c r="E219" s="24"/>
     </row>
     <row r="220">
-      <c r="B220" s="33"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="35"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="33"/>
       <c r="E220" s="24"/>
     </row>
     <row r="221">
-      <c r="B221" s="33"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="35"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="33"/>
       <c r="E221" s="24"/>
     </row>
     <row r="222">
-      <c r="B222" s="33"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="35"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="33"/>
       <c r="E222" s="24"/>
     </row>
     <row r="223">
-      <c r="B223" s="33"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="35"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="33"/>
       <c r="E223" s="24"/>
     </row>
     <row r="224">
-      <c r="B224" s="33"/>
-      <c r="C224" s="34"/>
-      <c r="D224" s="35"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="33"/>
       <c r="E224" s="24"/>
     </row>
     <row r="225">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="33"/>
       <c r="E225" s="24"/>
     </row>
     <row r="226">
-      <c r="B226" s="33"/>
-      <c r="C226" s="34"/>
-      <c r="D226" s="35"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="33"/>
       <c r="E226" s="24"/>
     </row>
     <row r="227">
-      <c r="B227" s="33"/>
-      <c r="C227" s="34"/>
-      <c r="D227" s="35"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="33"/>
       <c r="E227" s="24"/>
     </row>
     <row r="228">
-      <c r="B228" s="33"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="35"/>
+      <c r="B228" s="31"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="33"/>
       <c r="E228" s="24"/>
     </row>
     <row r="229">
-      <c r="B229" s="33"/>
-      <c r="C229" s="34"/>
-      <c r="D229" s="35"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="33"/>
       <c r="E229" s="24"/>
     </row>
     <row r="230">
-      <c r="B230" s="33"/>
-      <c r="C230" s="34"/>
-      <c r="D230" s="35"/>
+      <c r="B230" s="31"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="33"/>
       <c r="E230" s="24"/>
     </row>
     <row r="231">
-      <c r="B231" s="33"/>
-      <c r="C231" s="34"/>
-      <c r="D231" s="35"/>
+      <c r="B231" s="31"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="33"/>
       <c r="E231" s="24"/>
     </row>
     <row r="232">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="31"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="33"/>
       <c r="E232" s="24"/>
     </row>
     <row r="233">
-      <c r="B233" s="33"/>
-      <c r="C233" s="34"/>
-      <c r="D233" s="35"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="33"/>
       <c r="E233" s="24"/>
     </row>
     <row r="234">
-      <c r="B234" s="33"/>
-      <c r="C234" s="34"/>
-      <c r="D234" s="35"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="33"/>
       <c r="E234" s="24"/>
     </row>
     <row r="235">
-      <c r="B235" s="33"/>
-      <c r="C235" s="34"/>
-      <c r="D235" s="35"/>
+      <c r="B235" s="31"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="33"/>
       <c r="E235" s="24"/>
     </row>
     <row r="236">
-      <c r="B236" s="33"/>
-      <c r="C236" s="34"/>
-      <c r="D236" s="35"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="33"/>
       <c r="E236" s="24"/>
     </row>
     <row r="237">
-      <c r="B237" s="33"/>
-      <c r="C237" s="34"/>
-      <c r="D237" s="35"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="33"/>
       <c r="E237" s="24"/>
     </row>
     <row r="238">
-      <c r="B238" s="33"/>
-      <c r="C238" s="34"/>
-      <c r="D238" s="35"/>
+      <c r="B238" s="31"/>
+      <c r="C238" s="32"/>
+      <c r="D238" s="33"/>
       <c r="E238" s="24"/>
     </row>
     <row r="239">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="32"/>
+      <c r="D239" s="33"/>
       <c r="E239" s="24"/>
     </row>
     <row r="240">
-      <c r="B240" s="33"/>
-      <c r="C240" s="34"/>
-      <c r="D240" s="35"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="33"/>
       <c r="E240" s="24"/>
     </row>
     <row r="241">
-      <c r="B241" s="33"/>
-      <c r="C241" s="34"/>
-      <c r="D241" s="35"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="32"/>
+      <c r="D241" s="33"/>
       <c r="E241" s="24"/>
     </row>
     <row r="242">
-      <c r="B242" s="33"/>
-      <c r="C242" s="34"/>
-      <c r="D242" s="35"/>
+      <c r="B242" s="31"/>
+      <c r="C242" s="32"/>
+      <c r="D242" s="33"/>
       <c r="E242" s="24"/>
     </row>
     <row r="243">
-      <c r="B243" s="33"/>
-      <c r="C243" s="34"/>
-      <c r="D243" s="35"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="32"/>
+      <c r="D243" s="33"/>
       <c r="E243" s="24"/>
     </row>
     <row r="244">
-      <c r="B244" s="33"/>
-      <c r="C244" s="34"/>
-      <c r="D244" s="35"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="32"/>
+      <c r="D244" s="33"/>
       <c r="E244" s="24"/>
     </row>
     <row r="245">
-      <c r="B245" s="33"/>
-      <c r="C245" s="34"/>
-      <c r="D245" s="35"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="32"/>
+      <c r="D245" s="33"/>
       <c r="E245" s="24"/>
     </row>
     <row r="246">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="32"/>
+      <c r="D246" s="33"/>
       <c r="E246" s="24"/>
     </row>
     <row r="247">
-      <c r="B247" s="33"/>
-      <c r="C247" s="34"/>
-      <c r="D247" s="35"/>
+      <c r="B247" s="31"/>
+      <c r="C247" s="32"/>
+      <c r="D247" s="33"/>
       <c r="E247" s="24"/>
     </row>
     <row r="248">
-      <c r="B248" s="33"/>
-      <c r="C248" s="34"/>
-      <c r="D248" s="35"/>
+      <c r="B248" s="31"/>
+      <c r="C248" s="32"/>
+      <c r="D248" s="33"/>
       <c r="E248" s="24"/>
     </row>
     <row r="249">
-      <c r="B249" s="33"/>
-      <c r="C249" s="34"/>
-      <c r="D249" s="35"/>
+      <c r="B249" s="31"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="33"/>
       <c r="E249" s="24"/>
     </row>
     <row r="250">
-      <c r="B250" s="33"/>
-      <c r="C250" s="34"/>
-      <c r="D250" s="35"/>
+      <c r="B250" s="31"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="33"/>
       <c r="E250" s="24"/>
     </row>
     <row r="251">
-      <c r="B251" s="33"/>
-      <c r="C251" s="34"/>
-      <c r="D251" s="35"/>
+      <c r="B251" s="31"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="33"/>
       <c r="E251" s="24"/>
     </row>
     <row r="252">
-      <c r="B252" s="33"/>
-      <c r="C252" s="34"/>
-      <c r="D252" s="35"/>
+      <c r="B252" s="31"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="33"/>
       <c r="E252" s="24"/>
     </row>
     <row r="253">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="31"/>
+      <c r="C253" s="32"/>
+      <c r="D253" s="33"/>
       <c r="E253" s="24"/>
     </row>
     <row r="254">
-      <c r="B254" s="33"/>
-      <c r="C254" s="34"/>
-      <c r="D254" s="35"/>
+      <c r="B254" s="31"/>
+      <c r="C254" s="32"/>
+      <c r="D254" s="33"/>
       <c r="E254" s="24"/>
     </row>
     <row r="255">
-      <c r="B255" s="33"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="35"/>
+      <c r="B255" s="31"/>
+      <c r="C255" s="32"/>
+      <c r="D255" s="33"/>
       <c r="E255" s="24"/>
     </row>
     <row r="256">
-      <c r="B256" s="33"/>
-      <c r="C256" s="34"/>
-      <c r="D256" s="35"/>
+      <c r="B256" s="31"/>
+      <c r="C256" s="32"/>
+      <c r="D256" s="33"/>
       <c r="E256" s="24"/>
     </row>
     <row r="257">
-      <c r="B257" s="33"/>
-      <c r="C257" s="34"/>
-      <c r="D257" s="35"/>
+      <c r="B257" s="31"/>
+      <c r="C257" s="32"/>
+      <c r="D257" s="33"/>
       <c r="E257" s="24"/>
     </row>
     <row r="258">
-      <c r="B258" s="33"/>
-      <c r="C258" s="34"/>
-      <c r="D258" s="35"/>
+      <c r="B258" s="31"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="33"/>
       <c r="E258" s="24"/>
     </row>
     <row r="259">
-      <c r="B259" s="33"/>
-      <c r="C259" s="34"/>
-      <c r="D259" s="35"/>
+      <c r="B259" s="31"/>
+      <c r="C259" s="32"/>
+      <c r="D259" s="33"/>
       <c r="E259" s="24"/>
     </row>
     <row r="260">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="31"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="33"/>
       <c r="E260" s="24"/>
     </row>
     <row r="261">
-      <c r="B261" s="33"/>
-      <c r="C261" s="34"/>
-      <c r="D261" s="35"/>
+      <c r="B261" s="31"/>
+      <c r="C261" s="32"/>
+      <c r="D261" s="33"/>
       <c r="E261" s="24"/>
     </row>
     <row r="262">
-      <c r="B262" s="33"/>
-      <c r="C262" s="34"/>
-      <c r="D262" s="35"/>
+      <c r="B262" s="31"/>
+      <c r="C262" s="32"/>
+      <c r="D262" s="33"/>
       <c r="E262" s="24"/>
     </row>
     <row r="263">
-      <c r="B263" s="33"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="35"/>
+      <c r="B263" s="31"/>
+      <c r="C263" s="32"/>
+      <c r="D263" s="33"/>
       <c r="E263" s="24"/>
     </row>
     <row r="264">
-      <c r="B264" s="33"/>
-      <c r="C264" s="34"/>
-      <c r="D264" s="35"/>
+      <c r="B264" s="31"/>
+      <c r="C264" s="32"/>
+      <c r="D264" s="33"/>
       <c r="E264" s="24"/>
     </row>
     <row r="265">
-      <c r="B265" s="33"/>
-      <c r="C265" s="34"/>
-      <c r="D265" s="35"/>
+      <c r="B265" s="31"/>
+      <c r="C265" s="32"/>
+      <c r="D265" s="33"/>
       <c r="E265" s="24"/>
     </row>
     <row r="266">
-      <c r="B266" s="33"/>
-      <c r="C266" s="34"/>
-      <c r="D266" s="35"/>
+      <c r="B266" s="31"/>
+      <c r="C266" s="32"/>
+      <c r="D266" s="33"/>
       <c r="E266" s="24"/>
     </row>
     <row r="267">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="31"/>
+      <c r="C267" s="32"/>
+      <c r="D267" s="33"/>
       <c r="E267" s="24"/>
     </row>
     <row r="268">
-      <c r="B268" s="33"/>
-      <c r="C268" s="34"/>
-      <c r="D268" s="35"/>
+      <c r="B268" s="31"/>
+      <c r="C268" s="32"/>
+      <c r="D268" s="33"/>
       <c r="E268" s="24"/>
     </row>
     <row r="269">
-      <c r="B269" s="33"/>
-      <c r="C269" s="34"/>
-      <c r="D269" s="35"/>
+      <c r="B269" s="31"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="33"/>
       <c r="E269" s="24"/>
     </row>
     <row r="270">
-      <c r="B270" s="33"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="35"/>
+      <c r="B270" s="31"/>
+      <c r="C270" s="32"/>
+      <c r="D270" s="33"/>
       <c r="E270" s="24"/>
     </row>
     <row r="271">
-      <c r="B271" s="33"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="35"/>
+      <c r="B271" s="31"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="33"/>
       <c r="E271" s="24"/>
     </row>
     <row r="272">
-      <c r="B272" s="33"/>
-      <c r="C272" s="34"/>
-      <c r="D272" s="35"/>
+      <c r="B272" s="31"/>
+      <c r="C272" s="32"/>
+      <c r="D272" s="33"/>
       <c r="E272" s="24"/>
     </row>
     <row r="273">
-      <c r="B273" s="33"/>
-      <c r="C273" s="34"/>
-      <c r="D273" s="35"/>
+      <c r="B273" s="31"/>
+      <c r="C273" s="32"/>
+      <c r="D273" s="33"/>
       <c r="E273" s="24"/>
     </row>
     <row r="274">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="31"/>
+      <c r="C274" s="32"/>
+      <c r="D274" s="33"/>
       <c r="E274" s="24"/>
     </row>
     <row r="275">
-      <c r="B275" s="33"/>
-      <c r="C275" s="34"/>
-      <c r="D275" s="35"/>
+      <c r="B275" s="31"/>
+      <c r="C275" s="32"/>
+      <c r="D275" s="33"/>
       <c r="E275" s="24"/>
     </row>
     <row r="276">
-      <c r="B276" s="33"/>
-      <c r="C276" s="34"/>
-      <c r="D276" s="35"/>
+      <c r="B276" s="31"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="33"/>
       <c r="E276" s="24"/>
     </row>
     <row r="277">
-      <c r="B277" s="33"/>
-      <c r="C277" s="34"/>
-      <c r="D277" s="35"/>
+      <c r="B277" s="31"/>
+      <c r="C277" s="32"/>
+      <c r="D277" s="33"/>
       <c r="E277" s="24"/>
     </row>
     <row r="278">
-      <c r="B278" s="33"/>
-      <c r="C278" s="34"/>
-      <c r="D278" s="35"/>
+      <c r="B278" s="31"/>
+      <c r="C278" s="32"/>
+      <c r="D278" s="33"/>
       <c r="E278" s="24"/>
     </row>
     <row r="279">
-      <c r="B279" s="33"/>
-      <c r="C279" s="34"/>
-      <c r="D279" s="35"/>
+      <c r="B279" s="31"/>
+      <c r="C279" s="32"/>
+      <c r="D279" s="33"/>
       <c r="E279" s="24"/>
     </row>
     <row r="280">
-      <c r="B280" s="33"/>
-      <c r="C280" s="34"/>
-      <c r="D280" s="35"/>
+      <c r="B280" s="31"/>
+      <c r="C280" s="32"/>
+      <c r="D280" s="33"/>
       <c r="E280" s="24"/>
     </row>
     <row r="281">
-      <c r="B281" s="33"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="35"/>
+      <c r="B281" s="31"/>
+      <c r="C281" s="32"/>
+      <c r="D281" s="33"/>
       <c r="E281" s="24"/>
     </row>
     <row r="282">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="31"/>
+      <c r="C282" s="32"/>
+      <c r="D282" s="33"/>
       <c r="E282" s="24"/>
     </row>
     <row r="283">
-      <c r="B283" s="33"/>
-      <c r="C283" s="34"/>
-      <c r="D283" s="35"/>
+      <c r="B283" s="31"/>
+      <c r="C283" s="32"/>
+      <c r="D283" s="33"/>
       <c r="E283" s="24"/>
     </row>
     <row r="284">
-      <c r="B284" s="33"/>
-      <c r="C284" s="34"/>
-      <c r="D284" s="35"/>
+      <c r="B284" s="31"/>
+      <c r="C284" s="32"/>
+      <c r="D284" s="33"/>
       <c r="E284" s="24"/>
     </row>
     <row r="285">
-      <c r="B285" s="33"/>
-      <c r="C285" s="34"/>
-      <c r="D285" s="35"/>
+      <c r="B285" s="31"/>
+      <c r="C285" s="32"/>
+      <c r="D285" s="33"/>
       <c r="E285" s="24"/>
     </row>
     <row r="286">
-      <c r="B286" s="33"/>
-      <c r="C286" s="34"/>
-      <c r="D286" s="35"/>
+      <c r="B286" s="31"/>
+      <c r="C286" s="32"/>
+      <c r="D286" s="33"/>
       <c r="E286" s="24"/>
     </row>
     <row r="287">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="31"/>
+      <c r="C287" s="32"/>
+      <c r="D287" s="33"/>
       <c r="E287" s="24"/>
     </row>
     <row r="288">
-      <c r="B288" s="33"/>
-      <c r="C288" s="34"/>
-      <c r="D288" s="35"/>
+      <c r="B288" s="31"/>
+      <c r="C288" s="32"/>
+      <c r="D288" s="33"/>
       <c r="E288" s="24"/>
     </row>
     <row r="289">
-      <c r="B289" s="33"/>
-      <c r="C289" s="34"/>
-      <c r="D289" s="35"/>
+      <c r="B289" s="31"/>
+      <c r="C289" s="32"/>
+      <c r="D289" s="33"/>
       <c r="E289" s="24"/>
     </row>
     <row r="290">
-      <c r="B290" s="33"/>
-      <c r="C290" s="34"/>
-      <c r="D290" s="35"/>
+      <c r="B290" s="31"/>
+      <c r="C290" s="32"/>
+      <c r="D290" s="33"/>
       <c r="E290" s="24"/>
     </row>
     <row r="291">
-      <c r="B291" s="33"/>
-      <c r="C291" s="34"/>
-      <c r="D291" s="35"/>
+      <c r="B291" s="31"/>
+      <c r="C291" s="32"/>
+      <c r="D291" s="33"/>
       <c r="E291" s="24"/>
     </row>
     <row r="292">
-      <c r="B292" s="33"/>
-      <c r="C292" s="34"/>
-      <c r="D292" s="35"/>
+      <c r="B292" s="31"/>
+      <c r="C292" s="32"/>
+      <c r="D292" s="33"/>
       <c r="E292" s="24"/>
     </row>
     <row r="293">
-      <c r="B293" s="33"/>
-      <c r="C293" s="34"/>
-      <c r="D293" s="35"/>
+      <c r="B293" s="31"/>
+      <c r="C293" s="32"/>
+      <c r="D293" s="33"/>
       <c r="E293" s="24"/>
     </row>
     <row r="294">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="31"/>
+      <c r="C294" s="32"/>
+      <c r="D294" s="33"/>
       <c r="E294" s="24"/>
     </row>
     <row r="295">
-      <c r="B295" s="33"/>
-      <c r="C295" s="34"/>
-      <c r="D295" s="35"/>
+      <c r="B295" s="31"/>
+      <c r="C295" s="32"/>
+      <c r="D295" s="33"/>
       <c r="E295" s="24"/>
     </row>
     <row r="296">
-      <c r="B296" s="33"/>
-      <c r="C296" s="34"/>
-      <c r="D296" s="35"/>
+      <c r="B296" s="31"/>
+      <c r="C296" s="32"/>
+      <c r="D296" s="33"/>
       <c r="E296" s="24"/>
     </row>
     <row r="297">
-      <c r="B297" s="33"/>
-      <c r="C297" s="34"/>
-      <c r="D297" s="35"/>
+      <c r="B297" s="31"/>
+      <c r="C297" s="32"/>
+      <c r="D297" s="33"/>
       <c r="E297" s="24"/>
     </row>
     <row r="298">
-      <c r="B298" s="33"/>
-      <c r="C298" s="34"/>
-      <c r="D298" s="35"/>
+      <c r="B298" s="31"/>
+      <c r="C298" s="32"/>
+      <c r="D298" s="33"/>
       <c r="E298" s="24"/>
     </row>
     <row r="299">
-      <c r="B299" s="33"/>
-      <c r="C299" s="34"/>
-      <c r="D299" s="35"/>
+      <c r="B299" s="31"/>
+      <c r="C299" s="32"/>
+      <c r="D299" s="33"/>
       <c r="E299" s="24"/>
     </row>
     <row r="300">
-      <c r="B300" s="33"/>
-      <c r="C300" s="34"/>
-      <c r="D300" s="35"/>
+      <c r="B300" s="31"/>
+      <c r="C300" s="32"/>
+      <c r="D300" s="33"/>
       <c r="E300" s="24"/>
     </row>
     <row r="301">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="31"/>
+      <c r="C301" s="32"/>
+      <c r="D301" s="33"/>
       <c r="E301" s="24"/>
     </row>
     <row r="302">
-      <c r="B302" s="33"/>
-      <c r="C302" s="34"/>
-      <c r="D302" s="35"/>
+      <c r="B302" s="31"/>
+      <c r="C302" s="32"/>
+      <c r="D302" s="33"/>
       <c r="E302" s="24"/>
     </row>
     <row r="303">
-      <c r="B303" s="33"/>
-      <c r="C303" s="34"/>
-      <c r="D303" s="35"/>
+      <c r="B303" s="31"/>
+      <c r="C303" s="32"/>
+      <c r="D303" s="33"/>
       <c r="E303" s="24"/>
     </row>
     <row r="304">
-      <c r="B304" s="33"/>
-      <c r="C304" s="34"/>
-      <c r="D304" s="35"/>
+      <c r="B304" s="31"/>
+      <c r="C304" s="32"/>
+      <c r="D304" s="33"/>
       <c r="E304" s="24"/>
     </row>
     <row r="305">
-      <c r="B305" s="33"/>
-      <c r="C305" s="34"/>
-      <c r="D305" s="35"/>
+      <c r="B305" s="31"/>
+      <c r="C305" s="32"/>
+      <c r="D305" s="33"/>
       <c r="E305" s="24"/>
     </row>
     <row r="306">
-      <c r="B306" s="33"/>
-      <c r="C306" s="34"/>
-      <c r="D306" s="35"/>
+      <c r="B306" s="31"/>
+      <c r="C306" s="32"/>
+      <c r="D306" s="33"/>
       <c r="E306" s="24"/>
     </row>
     <row r="307">
-      <c r="B307" s="33"/>
-      <c r="C307" s="34"/>
-      <c r="D307" s="35"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="32"/>
+      <c r="D307" s="33"/>
       <c r="E307" s="24"/>
     </row>
     <row r="308">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="31"/>
+      <c r="C308" s="32"/>
+      <c r="D308" s="33"/>
       <c r="E308" s="24"/>
     </row>
     <row r="309">
-      <c r="B309" s="33"/>
-      <c r="C309" s="34"/>
-      <c r="D309" s="35"/>
+      <c r="B309" s="31"/>
+      <c r="C309" s="32"/>
+      <c r="D309" s="33"/>
       <c r="E309" s="24"/>
     </row>
     <row r="310">
-      <c r="B310" s="33"/>
-      <c r="C310" s="34"/>
-      <c r="D310" s="35"/>
+      <c r="B310" s="31"/>
+      <c r="C310" s="32"/>
+      <c r="D310" s="33"/>
       <c r="E310" s="24"/>
     </row>
     <row r="311">
-      <c r="B311" s="33"/>
-      <c r="C311" s="34"/>
-      <c r="D311" s="35"/>
+      <c r="B311" s="31"/>
+      <c r="C311" s="32"/>
+      <c r="D311" s="33"/>
       <c r="E311" s="24"/>
     </row>
     <row r="312">
-      <c r="B312" s="33"/>
-      <c r="C312" s="34"/>
-      <c r="D312" s="35"/>
+      <c r="B312" s="31"/>
+      <c r="C312" s="32"/>
+      <c r="D312" s="33"/>
       <c r="E312" s="24"/>
     </row>
     <row r="313">
-      <c r="B313" s="33"/>
-      <c r="C313" s="34"/>
-      <c r="D313" s="35"/>
+      <c r="B313" s="31"/>
+      <c r="C313" s="32"/>
+      <c r="D313" s="33"/>
       <c r="E313" s="24"/>
     </row>
     <row r="314">
-      <c r="B314" s="33"/>
-      <c r="C314" s="34"/>
-      <c r="D314" s="35"/>
+      <c r="B314" s="31"/>
+      <c r="C314" s="32"/>
+      <c r="D314" s="33"/>
       <c r="E314" s="24"/>
     </row>
     <row r="315">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="31"/>
+      <c r="C315" s="32"/>
+      <c r="D315" s="33"/>
       <c r="E315" s="24"/>
     </row>
     <row r="316">
-      <c r="B316" s="33"/>
-      <c r="C316" s="34"/>
-      <c r="D316" s="35"/>
+      <c r="B316" s="31"/>
+      <c r="C316" s="32"/>
+      <c r="D316" s="33"/>
       <c r="E316" s="24"/>
     </row>
     <row r="317">
-      <c r="B317" s="33"/>
-      <c r="C317" s="34"/>
-      <c r="D317" s="35"/>
+      <c r="B317" s="31"/>
+      <c r="C317" s="32"/>
+      <c r="D317" s="33"/>
       <c r="E317" s="24"/>
     </row>
     <row r="318">
-      <c r="B318" s="33"/>
-      <c r="C318" s="34"/>
-      <c r="D318" s="35"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="32"/>
+      <c r="D318" s="33"/>
       <c r="E318" s="24"/>
     </row>
     <row r="319">
-      <c r="B319" s="33"/>
-      <c r="C319" s="34"/>
-      <c r="D319" s="35"/>
+      <c r="B319" s="31"/>
+      <c r="C319" s="32"/>
+      <c r="D319" s="33"/>
       <c r="E319" s="24"/>
     </row>
     <row r="320">
-      <c r="B320" s="33"/>
-      <c r="C320" s="34"/>
-      <c r="D320" s="35"/>
+      <c r="B320" s="31"/>
+      <c r="C320" s="32"/>
+      <c r="D320" s="33"/>
       <c r="E320" s="24"/>
     </row>
     <row r="321">
-      <c r="B321" s="33"/>
-      <c r="C321" s="34"/>
-      <c r="D321" s="35"/>
+      <c r="B321" s="31"/>
+      <c r="C321" s="32"/>
+      <c r="D321" s="33"/>
       <c r="E321" s="24"/>
     </row>
     <row r="322">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="31"/>
+      <c r="C322" s="32"/>
+      <c r="D322" s="33"/>
       <c r="E322" s="24"/>
     </row>
     <row r="323">
-      <c r="B323" s="33"/>
-      <c r="C323" s="34"/>
-      <c r="D323" s="35"/>
+      <c r="B323" s="31"/>
+      <c r="C323" s="32"/>
+      <c r="D323" s="33"/>
       <c r="E323" s="24"/>
     </row>
     <row r="324">
-      <c r="B324" s="33"/>
-      <c r="C324" s="34"/>
-      <c r="D324" s="35"/>
+      <c r="B324" s="31"/>
+      <c r="C324" s="32"/>
+      <c r="D324" s="33"/>
       <c r="E324" s="24"/>
     </row>
     <row r="325">
-      <c r="B325" s="33"/>
-      <c r="C325" s="34"/>
-      <c r="D325" s="35"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="32"/>
+      <c r="D325" s="33"/>
       <c r="E325" s="24"/>
     </row>
     <row r="326">
-      <c r="B326" s="33"/>
-      <c r="C326" s="34"/>
-      <c r="D326" s="35"/>
+      <c r="B326" s="31"/>
+      <c r="C326" s="32"/>
+      <c r="D326" s="33"/>
       <c r="E326" s="24"/>
     </row>
     <row r="327">
-      <c r="B327" s="33"/>
-      <c r="C327" s="34"/>
-      <c r="D327" s="35"/>
+      <c r="B327" s="31"/>
+      <c r="C327" s="32"/>
+      <c r="D327" s="33"/>
       <c r="E327" s="24"/>
     </row>
     <row r="328">
-      <c r="B328" s="33"/>
-      <c r="C328" s="34"/>
-      <c r="D328" s="35"/>
+      <c r="B328" s="31"/>
+      <c r="C328" s="32"/>
+      <c r="D328" s="33"/>
       <c r="E328" s="24"/>
     </row>
     <row r="329">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="31"/>
+      <c r="C329" s="32"/>
+      <c r="D329" s="33"/>
       <c r="E329" s="24"/>
     </row>
     <row r="330">
-      <c r="B330" s="33"/>
-      <c r="C330" s="34"/>
-      <c r="D330" s="35"/>
+      <c r="B330" s="31"/>
+      <c r="C330" s="32"/>
+      <c r="D330" s="33"/>
       <c r="E330" s="24"/>
     </row>
     <row r="331">
-      <c r="B331" s="33"/>
-      <c r="C331" s="34"/>
-      <c r="D331" s="35"/>
+      <c r="B331" s="31"/>
+      <c r="C331" s="32"/>
+      <c r="D331" s="33"/>
       <c r="E331" s="24"/>
     </row>
     <row r="332">
-      <c r="B332" s="33"/>
-      <c r="C332" s="34"/>
-      <c r="D332" s="35"/>
+      <c r="B332" s="31"/>
+      <c r="C332" s="32"/>
+      <c r="D332" s="33"/>
       <c r="E332" s="24"/>
     </row>
     <row r="333">
-      <c r="B333" s="33"/>
-      <c r="C333" s="34"/>
-      <c r="D333" s="35"/>
+      <c r="B333" s="31"/>
+      <c r="C333" s="32"/>
+      <c r="D333" s="33"/>
       <c r="E333" s="24"/>
     </row>
     <row r="334">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="31"/>
+      <c r="C334" s="32"/>
+      <c r="D334" s="33"/>
       <c r="E334" s="24"/>
     </row>
     <row r="335">
-      <c r="B335" s="33"/>
-      <c r="C335" s="34"/>
-      <c r="D335" s="35"/>
+      <c r="B335" s="31"/>
+      <c r="C335" s="32"/>
+      <c r="D335" s="33"/>
       <c r="E335" s="24"/>
     </row>
     <row r="336">
-      <c r="B336" s="33"/>
-      <c r="C336" s="34"/>
-      <c r="D336" s="35"/>
+      <c r="B336" s="31"/>
+      <c r="C336" s="32"/>
+      <c r="D336" s="33"/>
       <c r="E336" s="24"/>
     </row>
     <row r="337">
-      <c r="B337" s="33"/>
-      <c r="C337" s="34"/>
-      <c r="D337" s="35"/>
+      <c r="B337" s="31"/>
+      <c r="C337" s="32"/>
+      <c r="D337" s="33"/>
       <c r="E337" s="24"/>
     </row>
     <row r="338">
-      <c r="B338" s="33"/>
-      <c r="C338" s="34"/>
-      <c r="D338" s="35"/>
+      <c r="B338" s="31"/>
+      <c r="C338" s="32"/>
+      <c r="D338" s="33"/>
       <c r="E338" s="24"/>
     </row>
     <row r="339">
-      <c r="B339" s="33"/>
-      <c r="C339" s="34"/>
-      <c r="D339" s="35"/>
+      <c r="B339" s="31"/>
+      <c r="C339" s="32"/>
+      <c r="D339" s="33"/>
       <c r="E339" s="24"/>
     </row>
     <row r="340">
-      <c r="B340" s="33"/>
-      <c r="C340" s="34"/>
-      <c r="D340" s="35"/>
+      <c r="B340" s="31"/>
+      <c r="C340" s="32"/>
+      <c r="D340" s="33"/>
       <c r="E340" s="24"/>
     </row>
     <row r="341">
-      <c r="B341" s="33"/>
-      <c r="C341" s="34"/>
-      <c r="D341" s="35"/>
+      <c r="B341" s="31"/>
+      <c r="C341" s="32"/>
+      <c r="D341" s="33"/>
       <c r="E341" s="24"/>
     </row>
     <row r="342">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="31"/>
+      <c r="C342" s="32"/>
+      <c r="D342" s="33"/>
       <c r="E342" s="24"/>
     </row>
     <row r="343">
-      <c r="B343" s="33"/>
-      <c r="C343" s="34"/>
-      <c r="D343" s="35"/>
+      <c r="B343" s="31"/>
+      <c r="C343" s="32"/>
+      <c r="D343" s="33"/>
       <c r="E343" s="24"/>
     </row>
     <row r="344">
-      <c r="B344" s="33"/>
-      <c r="C344" s="34"/>
-      <c r="D344" s="35"/>
+      <c r="B344" s="31"/>
+      <c r="C344" s="32"/>
+      <c r="D344" s="33"/>
       <c r="E344" s="24"/>
     </row>
     <row r="345">
-      <c r="B345" s="33"/>
-      <c r="C345" s="34"/>
-      <c r="D345" s="35"/>
+      <c r="B345" s="31"/>
+      <c r="C345" s="32"/>
+      <c r="D345" s="33"/>
       <c r="E345" s="24"/>
     </row>
     <row r="346">
-      <c r="B346" s="33"/>
-      <c r="C346" s="34"/>
-      <c r="D346" s="35"/>
+      <c r="B346" s="31"/>
+      <c r="C346" s="32"/>
+      <c r="D346" s="33"/>
       <c r="E346" s="24"/>
     </row>
     <row r="347">
-      <c r="B347" s="33"/>
-      <c r="C347" s="34"/>
-      <c r="D347" s="35"/>
+      <c r="B347" s="31"/>
+      <c r="C347" s="32"/>
+      <c r="D347" s="33"/>
       <c r="E347" s="24"/>
     </row>
     <row r="348">
-      <c r="B348" s="33"/>
-      <c r="C348" s="34"/>
-      <c r="D348" s="35"/>
+      <c r="B348" s="31"/>
+      <c r="C348" s="32"/>
+      <c r="D348" s="33"/>
       <c r="E348" s="24"/>
     </row>
     <row r="349">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="31"/>
+      <c r="C349" s="32"/>
+      <c r="D349" s="33"/>
       <c r="E349" s="24"/>
     </row>
     <row r="350">
-      <c r="B350" s="33"/>
-      <c r="C350" s="34"/>
-      <c r="D350" s="35"/>
+      <c r="B350" s="31"/>
+      <c r="C350" s="32"/>
+      <c r="D350" s="33"/>
       <c r="E350" s="24"/>
     </row>
     <row r="351">
-      <c r="B351" s="33"/>
-      <c r="C351" s="34"/>
-      <c r="D351" s="35"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="32"/>
+      <c r="D351" s="33"/>
       <c r="E351" s="24"/>
     </row>
     <row r="352">
-      <c r="B352" s="33"/>
-      <c r="C352" s="34"/>
-      <c r="D352" s="35"/>
+      <c r="B352" s="31"/>
+      <c r="C352" s="32"/>
+      <c r="D352" s="33"/>
       <c r="E352" s="24"/>
     </row>
     <row r="353">
-      <c r="B353" s="33"/>
-      <c r="C353" s="34"/>
-      <c r="D353" s="35"/>
+      <c r="B353" s="31"/>
+      <c r="C353" s="32"/>
+      <c r="D353" s="33"/>
       <c r="E353" s="24"/>
     </row>
     <row r="354">
-      <c r="B354" s="33"/>
-      <c r="C354" s="34"/>
-      <c r="D354" s="35"/>
+      <c r="B354" s="31"/>
+      <c r="C354" s="32"/>
+      <c r="D354" s="33"/>
       <c r="E354" s="24"/>
     </row>
     <row r="355">
-      <c r="B355" s="33"/>
-      <c r="C355" s="34"/>
-      <c r="D355" s="35"/>
+      <c r="B355" s="31"/>
+      <c r="C355" s="32"/>
+      <c r="D355" s="33"/>
       <c r="E355" s="24"/>
     </row>
     <row r="356">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="31"/>
+      <c r="C356" s="32"/>
+      <c r="D356" s="33"/>
       <c r="E356" s="24"/>
     </row>
     <row r="357">
-      <c r="B357" s="33"/>
-      <c r="C357" s="34"/>
-      <c r="D357" s="35"/>
+      <c r="B357" s="31"/>
+      <c r="C357" s="32"/>
+      <c r="D357" s="33"/>
       <c r="E357" s="24"/>
     </row>
     <row r="358">
-      <c r="B358" s="33"/>
-      <c r="C358" s="34"/>
-      <c r="D358" s="35"/>
+      <c r="B358" s="31"/>
+      <c r="C358" s="32"/>
+      <c r="D358" s="33"/>
       <c r="E358" s="24"/>
     </row>
     <row r="359">
-      <c r="B359" s="33"/>
-      <c r="C359" s="34"/>
-      <c r="D359" s="35"/>
+      <c r="B359" s="31"/>
+      <c r="C359" s="32"/>
+      <c r="D359" s="33"/>
       <c r="E359" s="24"/>
     </row>
     <row r="360">
-      <c r="B360" s="33"/>
-      <c r="C360" s="34"/>
-      <c r="D360" s="35"/>
+      <c r="B360" s="31"/>
+      <c r="C360" s="32"/>
+      <c r="D360" s="33"/>
       <c r="E360" s="24"/>
     </row>
     <row r="361">
-      <c r="B361" s="33"/>
-      <c r="C361" s="34"/>
-      <c r="D361" s="35"/>
+      <c r="B361" s="31"/>
+      <c r="C361" s="32"/>
+      <c r="D361" s="33"/>
       <c r="E361" s="24"/>
     </row>
     <row r="362">
-      <c r="B362" s="33"/>
-      <c r="C362" s="34"/>
-      <c r="D362" s="35"/>
+      <c r="B362" s="31"/>
+      <c r="C362" s="32"/>
+      <c r="D362" s="33"/>
       <c r="E362" s="24"/>
     </row>
     <row r="363">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="31"/>
+      <c r="C363" s="32"/>
+      <c r="D363" s="33"/>
       <c r="E363" s="24"/>
     </row>
     <row r="364">
-      <c r="B364" s="33"/>
-      <c r="C364" s="34"/>
-      <c r="D364" s="35"/>
+      <c r="B364" s="31"/>
+      <c r="C364" s="32"/>
+      <c r="D364" s="33"/>
       <c r="E364" s="24"/>
     </row>
     <row r="365">
-      <c r="B365" s="33"/>
-      <c r="C365" s="34"/>
-      <c r="D365" s="35"/>
+      <c r="B365" s="31"/>
+      <c r="C365" s="32"/>
+      <c r="D365" s="33"/>
       <c r="E365" s="24"/>
     </row>
     <row r="366">
-      <c r="B366" s="33"/>
-      <c r="C366" s="34"/>
-      <c r="D366" s="35"/>
+      <c r="B366" s="31"/>
+      <c r="C366" s="32"/>
+      <c r="D366" s="33"/>
       <c r="E366" s="24"/>
     </row>
     <row r="367">
-      <c r="B367" s="33"/>
-      <c r="C367" s="34"/>
-      <c r="D367" s="35"/>
+      <c r="B367" s="31"/>
+      <c r="C367" s="32"/>
+      <c r="D367" s="33"/>
       <c r="E367" s="24"/>
     </row>
     <row r="368">
-      <c r="B368" s="33"/>
-      <c r="C368" s="34"/>
-      <c r="D368" s="35"/>
+      <c r="B368" s="31"/>
+      <c r="C368" s="32"/>
+      <c r="D368" s="33"/>
       <c r="E368" s="24"/>
     </row>
     <row r="369">
-      <c r="B369" s="33"/>
-      <c r="C369" s="34"/>
-      <c r="D369" s="35"/>
+      <c r="B369" s="31"/>
+      <c r="C369" s="32"/>
+      <c r="D369" s="33"/>
       <c r="E369" s="24"/>
     </row>
     <row r="370">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="31"/>
+      <c r="C370" s="32"/>
+      <c r="D370" s="33"/>
       <c r="E370" s="24"/>
     </row>
     <row r="371">
-      <c r="B371" s="33"/>
-      <c r="C371" s="34"/>
-      <c r="D371" s="35"/>
+      <c r="B371" s="31"/>
+      <c r="C371" s="32"/>
+      <c r="D371" s="33"/>
       <c r="E371" s="24"/>
     </row>
     <row r="372">
-      <c r="B372" s="33"/>
-      <c r="C372" s="34"/>
-      <c r="D372" s="35"/>
+      <c r="B372" s="31"/>
+      <c r="C372" s="32"/>
+      <c r="D372" s="33"/>
       <c r="E372" s="24"/>
     </row>
     <row r="373">
-      <c r="B373" s="33"/>
-      <c r="C373" s="34"/>
-      <c r="D373" s="35"/>
+      <c r="B373" s="31"/>
+      <c r="C373" s="32"/>
+      <c r="D373" s="33"/>
       <c r="E373" s="24"/>
     </row>
     <row r="374">
-      <c r="B374" s="33"/>
-      <c r="C374" s="34"/>
-      <c r="D374" s="35"/>
+      <c r="B374" s="31"/>
+      <c r="C374" s="32"/>
+      <c r="D374" s="33"/>
       <c r="E374" s="24"/>
     </row>
     <row r="375">
-      <c r="B375" s="33"/>
-      <c r="C375" s="34"/>
-      <c r="D375" s="35"/>
+      <c r="B375" s="31"/>
+      <c r="C375" s="32"/>
+      <c r="D375" s="33"/>
       <c r="E375" s="24"/>
     </row>
     <row r="376">
-      <c r="B376" s="33"/>
-      <c r="C376" s="34"/>
-      <c r="D376" s="35"/>
+      <c r="B376" s="31"/>
+      <c r="C376" s="32"/>
+      <c r="D376" s="33"/>
       <c r="E376" s="24"/>
     </row>
     <row r="377">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="31"/>
+      <c r="C377" s="32"/>
+      <c r="D377" s="33"/>
       <c r="E377" s="24"/>
     </row>
     <row r="378">
-      <c r="B378" s="33"/>
-      <c r="C378" s="34"/>
-      <c r="D378" s="35"/>
+      <c r="B378" s="31"/>
+      <c r="C378" s="32"/>
+      <c r="D378" s="33"/>
       <c r="E378" s="24"/>
     </row>
     <row r="379">
-      <c r="B379" s="33"/>
-      <c r="C379" s="34"/>
-      <c r="D379" s="35"/>
+      <c r="B379" s="31"/>
+      <c r="C379" s="32"/>
+      <c r="D379" s="33"/>
       <c r="E379" s="24"/>
     </row>
     <row r="380">
-      <c r="B380" s="33"/>
-      <c r="C380" s="34"/>
-      <c r="D380" s="35"/>
+      <c r="B380" s="31"/>
+      <c r="C380" s="32"/>
+      <c r="D380" s="33"/>
       <c r="E380" s="24"/>
     </row>
     <row r="381">
-      <c r="B381" s="33"/>
-      <c r="C381" s="34"/>
-      <c r="D381" s="35"/>
+      <c r="B381" s="31"/>
+      <c r="C381" s="32"/>
+      <c r="D381" s="33"/>
       <c r="E381" s="24"/>
     </row>
     <row r="382">
-      <c r="B382" s="33"/>
-      <c r="C382" s="34"/>
-      <c r="D382" s="35"/>
+      <c r="B382" s="31"/>
+      <c r="C382" s="32"/>
+      <c r="D382" s="33"/>
       <c r="E382" s="24"/>
     </row>
     <row r="383">
-      <c r="B383" s="33"/>
-      <c r="C383" s="34"/>
-      <c r="D383" s="35"/>
+      <c r="B383" s="31"/>
+      <c r="C383" s="32"/>
+      <c r="D383" s="33"/>
       <c r="E383" s="24"/>
     </row>
     <row r="384">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="31"/>
+      <c r="C384" s="32"/>
+      <c r="D384" s="33"/>
       <c r="E384" s="24"/>
     </row>
     <row r="385">
-      <c r="B385" s="33"/>
-      <c r="C385" s="34"/>
-      <c r="D385" s="35"/>
+      <c r="B385" s="31"/>
+      <c r="C385" s="32"/>
+      <c r="D385" s="33"/>
       <c r="E385" s="24"/>
     </row>
     <row r="386">
-      <c r="B386" s="33"/>
-      <c r="C386" s="34"/>
-      <c r="D386" s="35"/>
+      <c r="B386" s="31"/>
+      <c r="C386" s="32"/>
+      <c r="D386" s="33"/>
       <c r="E386" s="24"/>
     </row>
     <row r="387">
-      <c r="B387" s="33"/>
-      <c r="C387" s="34"/>
-      <c r="D387" s="35"/>
+      <c r="B387" s="31"/>
+      <c r="C387" s="32"/>
+      <c r="D387" s="33"/>
       <c r="E387" s="24"/>
     </row>
     <row r="388">
-      <c r="B388" s="33"/>
-      <c r="C388" s="34"/>
-      <c r="D388" s="35"/>
+      <c r="B388" s="31"/>
+      <c r="C388" s="32"/>
+      <c r="D388" s="33"/>
       <c r="E388" s="24"/>
     </row>
     <row r="389">
-      <c r="B389" s="33"/>
-      <c r="C389" s="34"/>
-      <c r="D389" s="35"/>
+      <c r="B389" s="31"/>
+      <c r="C389" s="32"/>
+      <c r="D389" s="33"/>
       <c r="E389" s="24"/>
     </row>
     <row r="390">
-      <c r="B390" s="33"/>
-      <c r="C390" s="34"/>
-      <c r="D390" s="35"/>
+      <c r="B390" s="31"/>
+      <c r="C390" s="32"/>
+      <c r="D390" s="33"/>
       <c r="E390" s="24"/>
     </row>
     <row r="391">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="31"/>
+      <c r="C391" s="32"/>
+      <c r="D391" s="33"/>
       <c r="E391" s="24"/>
     </row>
     <row r="392">
-      <c r="B392" s="33"/>
-      <c r="C392" s="34"/>
-      <c r="D392" s="35"/>
+      <c r="B392" s="31"/>
+      <c r="C392" s="32"/>
+      <c r="D392" s="33"/>
       <c r="E392" s="24"/>
     </row>
     <row r="393">
-      <c r="B393" s="33"/>
-      <c r="C393" s="34"/>
-      <c r="D393" s="35"/>
+      <c r="B393" s="31"/>
+      <c r="C393" s="32"/>
+      <c r="D393" s="33"/>
       <c r="E393" s="24"/>
     </row>
     <row r="394">
-      <c r="B394" s="33"/>
-      <c r="C394" s="34"/>
-      <c r="D394" s="35"/>
+      <c r="B394" s="31"/>
+      <c r="C394" s="32"/>
+      <c r="D394" s="33"/>
       <c r="E394" s="24"/>
     </row>
     <row r="395">
-      <c r="B395" s="33"/>
-      <c r="C395" s="34"/>
-      <c r="D395" s="35"/>
+      <c r="B395" s="31"/>
+      <c r="C395" s="32"/>
+      <c r="D395" s="33"/>
       <c r="E395" s="24"/>
     </row>
     <row r="396">
-      <c r="B396" s="33"/>
-      <c r="C396" s="34"/>
-      <c r="D396" s="35"/>
+      <c r="B396" s="31"/>
+      <c r="C396" s="32"/>
+      <c r="D396" s="33"/>
       <c r="E396" s="24"/>
     </row>
     <row r="397">
-      <c r="B397" s="33"/>
-      <c r="C397" s="34"/>
-      <c r="D397" s="35"/>
+      <c r="B397" s="31"/>
+      <c r="C397" s="32"/>
+      <c r="D397" s="33"/>
       <c r="E397" s="24"/>
     </row>
     <row r="398">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="31"/>
+      <c r="C398" s="32"/>
+      <c r="D398" s="33"/>
       <c r="E398" s="24"/>
     </row>
     <row r="399">
-      <c r="B399" s="33"/>
-      <c r="C399" s="34"/>
-      <c r="D399" s="35"/>
+      <c r="B399" s="31"/>
+      <c r="C399" s="32"/>
+      <c r="D399" s="33"/>
       <c r="E399" s="24"/>
     </row>
     <row r="400">
-      <c r="B400" s="33"/>
-      <c r="C400" s="34"/>
-      <c r="D400" s="35"/>
+      <c r="B400" s="31"/>
+      <c r="C400" s="32"/>
+      <c r="D400" s="33"/>
       <c r="E400" s="24"/>
     </row>
     <row r="401">
-      <c r="B401" s="33"/>
-      <c r="C401" s="34"/>
-      <c r="D401" s="35"/>
+      <c r="B401" s="31"/>
+      <c r="C401" s="32"/>
+      <c r="D401" s="33"/>
       <c r="E401" s="24"/>
     </row>
     <row r="402">
-      <c r="B402" s="33"/>
-      <c r="C402" s="34"/>
-      <c r="D402" s="35"/>
+      <c r="B402" s="31"/>
+      <c r="C402" s="32"/>
+      <c r="D402" s="33"/>
       <c r="E402" s="24"/>
     </row>
     <row r="403">
-      <c r="B403" s="33"/>
-      <c r="C403" s="34"/>
-      <c r="D403" s="35"/>
+      <c r="B403" s="31"/>
+      <c r="C403" s="32"/>
+      <c r="D403" s="33"/>
       <c r="E403" s="24"/>
     </row>
     <row r="404">
-      <c r="B404" s="33"/>
-      <c r="C404" s="34"/>
-      <c r="D404" s="35"/>
+      <c r="B404" s="31"/>
+      <c r="C404" s="32"/>
+      <c r="D404" s="33"/>
       <c r="E404" s="24"/>
     </row>
     <row r="405">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="31"/>
+      <c r="C405" s="32"/>
+      <c r="D405" s="33"/>
       <c r="E405" s="24"/>
     </row>
     <row r="406">
-      <c r="B406" s="33"/>
-      <c r="C406" s="34"/>
-      <c r="D406" s="35"/>
+      <c r="B406" s="31"/>
+      <c r="C406" s="32"/>
+      <c r="D406" s="33"/>
       <c r="E406" s="24"/>
     </row>
     <row r="407">
-      <c r="B407" s="33"/>
-      <c r="C407" s="34"/>
-      <c r="D407" s="35"/>
+      <c r="B407" s="31"/>
+      <c r="C407" s="32"/>
+      <c r="D407" s="33"/>
       <c r="E407" s="24"/>
     </row>
     <row r="408">
-      <c r="B408" s="33"/>
-      <c r="C408" s="34"/>
-      <c r="D408" s="35"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="32"/>
+      <c r="D408" s="33"/>
       <c r="E408" s="24"/>
     </row>
     <row r="409">
-      <c r="B409" s="33"/>
-      <c r="C409" s="34"/>
-      <c r="D409" s="35"/>
+      <c r="B409" s="31"/>
+      <c r="C409" s="32"/>
+      <c r="D409" s="33"/>
       <c r="E409" s="24"/>
     </row>
     <row r="410">
-      <c r="B410" s="33"/>
-      <c r="C410" s="34"/>
-      <c r="D410" s="35"/>
+      <c r="B410" s="31"/>
+      <c r="C410" s="32"/>
+      <c r="D410" s="33"/>
       <c r="E410" s="24"/>
     </row>
     <row r="411">
-      <c r="B411" s="33"/>
-      <c r="C411" s="34"/>
-      <c r="D411" s="35"/>
+      <c r="B411" s="31"/>
+      <c r="C411" s="32"/>
+      <c r="D411" s="33"/>
       <c r="E411" s="24"/>
     </row>
     <row r="412">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="31"/>
+      <c r="C412" s="32"/>
+      <c r="D412" s="33"/>
       <c r="E412" s="24"/>
     </row>
     <row r="413">
-      <c r="B413" s="33"/>
-      <c r="C413" s="34"/>
-      <c r="D413" s="35"/>
+      <c r="B413" s="31"/>
+      <c r="C413" s="32"/>
+      <c r="D413" s="33"/>
       <c r="E413" s="24"/>
     </row>
     <row r="414">
-      <c r="B414" s="33"/>
-      <c r="C414" s="34"/>
-      <c r="D414" s="35"/>
+      <c r="B414" s="31"/>
+      <c r="C414" s="32"/>
+      <c r="D414" s="33"/>
       <c r="E414" s="24"/>
     </row>
     <row r="415">
-      <c r="B415" s="33"/>
-      <c r="C415" s="34"/>
-      <c r="D415" s="35"/>
+      <c r="B415" s="31"/>
+      <c r="C415" s="32"/>
+      <c r="D415" s="33"/>
       <c r="E415" s="24"/>
     </row>
     <row r="416">
-      <c r="B416" s="33"/>
-      <c r="C416" s="34"/>
-      <c r="D416" s="35"/>
+      <c r="B416" s="31"/>
+      <c r="C416" s="32"/>
+      <c r="D416" s="33"/>
       <c r="E416" s="24"/>
     </row>
     <row r="417">
-      <c r="B417" s="33"/>
-      <c r="C417" s="34"/>
-      <c r="D417" s="35"/>
+      <c r="B417" s="31"/>
+      <c r="C417" s="32"/>
+      <c r="D417" s="33"/>
       <c r="E417" s="24"/>
     </row>
     <row r="418">
-      <c r="B418" s="33"/>
-      <c r="C418" s="34"/>
-      <c r="D418" s="35"/>
+      <c r="B418" s="31"/>
+      <c r="C418" s="32"/>
+      <c r="D418" s="33"/>
       <c r="E418" s="24"/>
     </row>
     <row r="419">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="31"/>
+      <c r="C419" s="32"/>
+      <c r="D419" s="33"/>
       <c r="E419" s="24"/>
     </row>
     <row r="420">
-      <c r="B420" s="33"/>
-      <c r="C420" s="34"/>
-      <c r="D420" s="35"/>
+      <c r="B420" s="31"/>
+      <c r="C420" s="32"/>
+      <c r="D420" s="33"/>
       <c r="E420" s="24"/>
     </row>
     <row r="421">
-      <c r="B421" s="33"/>
-      <c r="C421" s="34"/>
-      <c r="D421" s="35"/>
+      <c r="B421" s="31"/>
+      <c r="C421" s="32"/>
+      <c r="D421" s="33"/>
       <c r="E421" s="24"/>
     </row>
     <row r="422">
-      <c r="B422" s="33"/>
-      <c r="C422" s="34"/>
-      <c r="D422" s="35"/>
+      <c r="B422" s="31"/>
+      <c r="C422" s="32"/>
+      <c r="D422" s="33"/>
       <c r="E422" s="24"/>
     </row>
     <row r="423">
-      <c r="B423" s="33"/>
-      <c r="C423" s="34"/>
-      <c r="D423" s="35"/>
+      <c r="B423" s="31"/>
+      <c r="C423" s="32"/>
+      <c r="D423" s="33"/>
       <c r="E423" s="24"/>
     </row>
     <row r="424">
-      <c r="B424" s="33"/>
-      <c r="C424" s="34"/>
-      <c r="D424" s="35"/>
+      <c r="B424" s="31"/>
+      <c r="C424" s="32"/>
+      <c r="D424" s="33"/>
       <c r="E424" s="24"/>
     </row>
     <row r="425">
-      <c r="B425" s="33"/>
-      <c r="C425" s="34"/>
-      <c r="D425" s="35"/>
+      <c r="B425" s="31"/>
+      <c r="C425" s="32"/>
+      <c r="D425" s="33"/>
       <c r="E425" s="24"/>
     </row>
     <row r="426">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="31"/>
+      <c r="C426" s="32"/>
+      <c r="D426" s="33"/>
       <c r="E426" s="24"/>
     </row>
     <row r="427">
-      <c r="B427" s="33"/>
-      <c r="C427" s="34"/>
-      <c r="D427" s="35"/>
+      <c r="B427" s="31"/>
+      <c r="C427" s="32"/>
+      <c r="D427" s="33"/>
       <c r="E427" s="24"/>
     </row>
     <row r="428">
-      <c r="B428" s="33"/>
-      <c r="C428" s="34"/>
-      <c r="D428" s="35"/>
+      <c r="B428" s="31"/>
+      <c r="C428" s="32"/>
+      <c r="D428" s="33"/>
       <c r="E428" s="24"/>
     </row>
     <row r="429">
-      <c r="B429" s="33"/>
-      <c r="C429" s="34"/>
-      <c r="D429" s="35"/>
+      <c r="B429" s="31"/>
+      <c r="C429" s="32"/>
+      <c r="D429" s="33"/>
       <c r="E429" s="24"/>
     </row>
     <row r="430">
-      <c r="B430" s="33"/>
-      <c r="C430" s="34"/>
-      <c r="D430" s="35"/>
+      <c r="B430" s="31"/>
+      <c r="C430" s="32"/>
+      <c r="D430" s="33"/>
       <c r="E430" s="24"/>
     </row>
     <row r="431">
-      <c r="B431" s="33"/>
-      <c r="C431" s="34"/>
-      <c r="D431" s="35"/>
+      <c r="B431" s="31"/>
+      <c r="C431" s="32"/>
+      <c r="D431" s="33"/>
       <c r="E431" s="24"/>
     </row>
     <row r="432">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="31"/>
+      <c r="C432" s="32"/>
+      <c r="D432" s="33"/>
       <c r="E432" s="24"/>
     </row>
     <row r="433">
-      <c r="B433" s="33"/>
-      <c r="C433" s="34"/>
-      <c r="D433" s="35"/>
+      <c r="B433" s="31"/>
+      <c r="C433" s="32"/>
+      <c r="D433" s="33"/>
       <c r="E433" s="24"/>
     </row>
     <row r="434">
-      <c r="B434" s="33"/>
-      <c r="C434" s="34"/>
-      <c r="D434" s="35"/>
+      <c r="B434" s="31"/>
+      <c r="C434" s="32"/>
+      <c r="D434" s="33"/>
       <c r="E434" s="24"/>
     </row>
     <row r="435">
-      <c r="B435" s="33"/>
-      <c r="C435" s="34"/>
-      <c r="D435" s="35"/>
+      <c r="B435" s="31"/>
+      <c r="C435" s="32"/>
+      <c r="D435" s="33"/>
       <c r="E435" s="24"/>
     </row>
     <row r="436">
-      <c r="B436" s="33"/>
-      <c r="C436" s="34"/>
-      <c r="D436" s="35"/>
+      <c r="B436" s="31"/>
+      <c r="C436" s="32"/>
+      <c r="D436" s="33"/>
       <c r="E436" s="24"/>
     </row>
     <row r="437">
-      <c r="B437" s="33"/>
-      <c r="C437" s="34"/>
-      <c r="D437" s="35"/>
+      <c r="B437" s="31"/>
+      <c r="C437" s="32"/>
+      <c r="D437" s="33"/>
       <c r="E437" s="24"/>
     </row>
     <row r="438">
-      <c r="B438" s="33"/>
-      <c r="C438" s="34"/>
-      <c r="D438" s="35"/>
+      <c r="B438" s="31"/>
+      <c r="C438" s="32"/>
+      <c r="D438" s="33"/>
       <c r="E438" s="24"/>
     </row>
     <row r="439">
-      <c r="B439" s="33"/>
-      <c r="C439" s="34"/>
-      <c r="D439" s="35"/>
+      <c r="B439" s="31"/>
+      <c r="C439" s="32"/>
+      <c r="D439" s="33"/>
       <c r="E439" s="24"/>
     </row>
     <row r="440">
-      <c r="B440" s="33"/>
-      <c r="C440" s="34"/>
-      <c r="D440" s="35"/>
+      <c r="B440" s="31"/>
+      <c r="C440" s="32"/>
+      <c r="D440" s="33"/>
       <c r="E440" s="24"/>
     </row>
     <row r="441">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="31"/>
+      <c r="C441" s="32"/>
+      <c r="D441" s="33"/>
       <c r="E441" s="24"/>
     </row>
     <row r="442">
-      <c r="B442" s="33"/>
-      <c r="C442" s="34"/>
-      <c r="D442" s="35"/>
+      <c r="B442" s="31"/>
+      <c r="C442" s="32"/>
+      <c r="D442" s="33"/>
       <c r="E442" s="24"/>
     </row>
     <row r="443">
-      <c r="B443" s="33"/>
-      <c r="C443" s="34"/>
-      <c r="D443" s="35"/>
+      <c r="B443" s="31"/>
+      <c r="C443" s="32"/>
+      <c r="D443" s="33"/>
       <c r="E443" s="24"/>
     </row>
     <row r="444">
-      <c r="B444" s="33"/>
-      <c r="C444" s="34"/>
-      <c r="D444" s="35"/>
+      <c r="B444" s="31"/>
+      <c r="C444" s="32"/>
+      <c r="D444" s="33"/>
       <c r="E444" s="24"/>
     </row>
     <row r="445">
-      <c r="B445" s="33"/>
-      <c r="C445" s="34"/>
-      <c r="D445" s="35"/>
+      <c r="B445" s="31"/>
+      <c r="C445" s="32"/>
+      <c r="D445" s="33"/>
       <c r="E445" s="24"/>
     </row>
     <row r="446">
-      <c r="B446" s="33"/>
-      <c r="C446" s="34"/>
-      <c r="D446" s="35"/>
+      <c r="B446" s="31"/>
+      <c r="C446" s="32"/>
+      <c r="D446" s="33"/>
       <c r="E446" s="24"/>
     </row>
     <row r="447">
-      <c r="B447" s="33"/>
-      <c r="C447" s="34"/>
-      <c r="D447" s="35"/>
+      <c r="B447" s="31"/>
+      <c r="C447" s="32"/>
+      <c r="D447" s="33"/>
       <c r="E447" s="24"/>
     </row>
     <row r="448">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="31"/>
+      <c r="C448" s="32"/>
+      <c r="D448" s="33"/>
       <c r="E448" s="24"/>
     </row>
     <row r="449">
-      <c r="B449" s="33"/>
-      <c r="C449" s="34"/>
-      <c r="D449" s="35"/>
+      <c r="B449" s="31"/>
+      <c r="C449" s="32"/>
+      <c r="D449" s="33"/>
       <c r="E449" s="24"/>
     </row>
     <row r="450">
-      <c r="B450" s="33"/>
-      <c r="C450" s="34"/>
-      <c r="D450" s="35"/>
+      <c r="B450" s="31"/>
+      <c r="C450" s="32"/>
+      <c r="D450" s="33"/>
       <c r="E450" s="24"/>
     </row>
     <row r="451">
-      <c r="B451" s="33"/>
-      <c r="C451" s="34"/>
-      <c r="D451" s="35"/>
+      <c r="B451" s="31"/>
+      <c r="C451" s="32"/>
+      <c r="D451" s="33"/>
       <c r="E451" s="24"/>
     </row>
     <row r="452">
-      <c r="B452" s="33"/>
-      <c r="C452" s="34"/>
-      <c r="D452" s="35"/>
+      <c r="B452" s="31"/>
+      <c r="C452" s="32"/>
+      <c r="D452" s="33"/>
       <c r="E452" s="24"/>
     </row>
     <row r="453">
-      <c r="B453" s="33"/>
-      <c r="C453" s="34"/>
-      <c r="D453" s="35"/>
+      <c r="B453" s="31"/>
+      <c r="C453" s="32"/>
+      <c r="D453" s="33"/>
       <c r="E453" s="24"/>
     </row>
     <row r="454">
-      <c r="B454" s="33"/>
-      <c r="C454" s="34"/>
-      <c r="D454" s="35"/>
+      <c r="B454" s="31"/>
+      <c r="C454" s="32"/>
+      <c r="D454" s="33"/>
       <c r="E454" s="24"/>
     </row>
     <row r="455">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="31"/>
+      <c r="C455" s="32"/>
+      <c r="D455" s="33"/>
       <c r="E455" s="24"/>
     </row>
     <row r="456">
-      <c r="B456" s="33"/>
-      <c r="C456" s="34"/>
-      <c r="D456" s="35"/>
+      <c r="B456" s="31"/>
+      <c r="C456" s="32"/>
+      <c r="D456" s="33"/>
       <c r="E456" s="24"/>
     </row>
     <row r="457">
-      <c r="B457" s="33"/>
-      <c r="C457" s="34"/>
-      <c r="D457" s="35"/>
+      <c r="B457" s="31"/>
+      <c r="C457" s="32"/>
+      <c r="D457" s="33"/>
       <c r="E457" s="24"/>
     </row>
     <row r="458">
-      <c r="B458" s="33"/>
-      <c r="C458" s="34"/>
-      <c r="D458" s="35"/>
+      <c r="B458" s="31"/>
+      <c r="C458" s="32"/>
+      <c r="D458" s="33"/>
       <c r="E458" s="24"/>
     </row>
     <row r="459">
-      <c r="B459" s="33"/>
-      <c r="C459" s="34"/>
-      <c r="D459" s="35"/>
+      <c r="B459" s="31"/>
+      <c r="C459" s="32"/>
+      <c r="D459" s="33"/>
       <c r="E459" s="24"/>
     </row>
     <row r="460">
-      <c r="B460" s="33"/>
-      <c r="C460" s="34"/>
-      <c r="D460" s="35"/>
+      <c r="B460" s="31"/>
+      <c r="C460" s="32"/>
+      <c r="D460" s="33"/>
       <c r="E460" s="24"/>
     </row>
     <row r="461">
-      <c r="B461" s="33"/>
-      <c r="C461" s="34"/>
-      <c r="D461" s="35"/>
+      <c r="B461" s="31"/>
+      <c r="C461" s="32"/>
+      <c r="D461" s="33"/>
       <c r="E461" s="24"/>
     </row>
     <row r="462">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="31"/>
+      <c r="C462" s="32"/>
+      <c r="D462" s="33"/>
       <c r="E462" s="24"/>
     </row>
     <row r="463">
-      <c r="B463" s="33"/>
-      <c r="C463" s="34"/>
-      <c r="D463" s="35"/>
+      <c r="B463" s="31"/>
+      <c r="C463" s="32"/>
+      <c r="D463" s="33"/>
       <c r="E463" s="24"/>
     </row>
     <row r="464">
-      <c r="B464" s="33"/>
-      <c r="C464" s="34"/>
-      <c r="D464" s="35"/>
+      <c r="B464" s="31"/>
+      <c r="C464" s="32"/>
+      <c r="D464" s="33"/>
       <c r="E464" s="24"/>
     </row>
     <row r="465">
-      <c r="B465" s="33"/>
-      <c r="C465" s="34"/>
-      <c r="D465" s="35"/>
+      <c r="B465" s="31"/>
+      <c r="C465" s="32"/>
+      <c r="D465" s="33"/>
       <c r="E465" s="24"/>
     </row>
     <row r="466">
-      <c r="B466" s="33"/>
-      <c r="C466" s="34"/>
-      <c r="D466" s="35"/>
+      <c r="B466" s="31"/>
+      <c r="C466" s="32"/>
+      <c r="D466" s="33"/>
       <c r="E466" s="24"/>
     </row>
     <row r="467">
-      <c r="B467" s="33"/>
-      <c r="C467" s="34"/>
-      <c r="D467" s="35"/>
+      <c r="B467" s="31"/>
+      <c r="C467" s="32"/>
+      <c r="D467" s="33"/>
       <c r="E467" s="24"/>
     </row>
     <row r="468">
-      <c r="B468" s="33"/>
-      <c r="C468" s="34"/>
-      <c r="D468" s="35"/>
+      <c r="B468" s="31"/>
+      <c r="C468" s="32"/>
+      <c r="D468" s="33"/>
       <c r="E468" s="24"/>
     </row>
     <row r="469">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="31"/>
+      <c r="C469" s="32"/>
+      <c r="D469" s="33"/>
       <c r="E469" s="24"/>
     </row>
     <row r="470">
-      <c r="B470" s="33"/>
-      <c r="C470" s="34"/>
-      <c r="D470" s="35"/>
+      <c r="B470" s="31"/>
+      <c r="C470" s="32"/>
+      <c r="D470" s="33"/>
       <c r="E470" s="24"/>
     </row>
     <row r="471">
-      <c r="B471" s="33"/>
-      <c r="C471" s="34"/>
-      <c r="D471" s="35"/>
+      <c r="B471" s="31"/>
+      <c r="C471" s="32"/>
+      <c r="D471" s="33"/>
       <c r="E471" s="24"/>
     </row>
     <row r="472">
-      <c r="B472" s="33"/>
-      <c r="C472" s="34"/>
-      <c r="D472" s="35"/>
+      <c r="B472" s="31"/>
+      <c r="C472" s="32"/>
+      <c r="D472" s="33"/>
       <c r="E472" s="24"/>
     </row>
     <row r="473">
-      <c r="B473" s="33"/>
-      <c r="C473" s="34"/>
-      <c r="D473" s="35"/>
+      <c r="B473" s="31"/>
+      <c r="C473" s="32"/>
+      <c r="D473" s="33"/>
       <c r="E473" s="24"/>
     </row>
     <row r="474">
-      <c r="B474" s="33"/>
-      <c r="C474" s="34"/>
-      <c r="D474" s="35"/>
+      <c r="B474" s="31"/>
+      <c r="C474" s="32"/>
+      <c r="D474" s="33"/>
       <c r="E474" s="24"/>
     </row>
     <row r="475">
-      <c r="B475" s="33"/>
-      <c r="C475" s="34"/>
-      <c r="D475" s="35"/>
+      <c r="B475" s="31"/>
+      <c r="C475" s="32"/>
+      <c r="D475" s="33"/>
       <c r="E475" s="24"/>
     </row>
     <row r="476">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="31"/>
+      <c r="C476" s="32"/>
+      <c r="D476" s="33"/>
       <c r="E476" s="24"/>
     </row>
     <row r="477">
-      <c r="B477" s="33"/>
-      <c r="C477" s="34"/>
-      <c r="D477" s="35"/>
+      <c r="B477" s="31"/>
+      <c r="C477" s="32"/>
+      <c r="D477" s="33"/>
       <c r="E477" s="24"/>
     </row>
     <row r="478">
-      <c r="B478" s="33"/>
-      <c r="C478" s="34"/>
-      <c r="D478" s="35"/>
+      <c r="B478" s="31"/>
+      <c r="C478" s="32"/>
+      <c r="D478" s="33"/>
       <c r="E478" s="24"/>
     </row>
     <row r="479">
-      <c r="B479" s="33"/>
-      <c r="C479" s="34"/>
-      <c r="D479" s="35"/>
+      <c r="B479" s="31"/>
+      <c r="C479" s="32"/>
+      <c r="D479" s="33"/>
       <c r="E479" s="24"/>
     </row>
     <row r="480">
-      <c r="B480" s="33"/>
-      <c r="C480" s="34"/>
-      <c r="D480" s="35"/>
+      <c r="B480" s="31"/>
+      <c r="C480" s="32"/>
+      <c r="D480" s="33"/>
       <c r="E480" s="24"/>
     </row>
     <row r="481">
-      <c r="B481" s="33"/>
-      <c r="C481" s="34"/>
-      <c r="D481" s="35"/>
+      <c r="B481" s="31"/>
+      <c r="C481" s="32"/>
+      <c r="D481" s="33"/>
       <c r="E481" s="24"/>
     </row>
     <row r="482">
-      <c r="B482" s="33"/>
-      <c r="C482" s="34"/>
-      <c r="D482" s="35"/>
+      <c r="B482" s="31"/>
+      <c r="C482" s="32"/>
+      <c r="D482" s="33"/>
       <c r="E482" s="24"/>
     </row>
     <row r="483">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="31"/>
+      <c r="C483" s="32"/>
+      <c r="D483" s="33"/>
       <c r="E483" s="24"/>
     </row>
     <row r="484">
-      <c r="B484" s="33"/>
-      <c r="C484" s="34"/>
-      <c r="D484" s="35"/>
+      <c r="B484" s="31"/>
+      <c r="C484" s="32"/>
+      <c r="D484" s="33"/>
       <c r="E484" s="24"/>
     </row>
     <row r="485">
-      <c r="B485" s="33"/>
-      <c r="C485" s="34"/>
-      <c r="D485" s="35"/>
+      <c r="B485" s="31"/>
+      <c r="C485" s="32"/>
+      <c r="D485" s="33"/>
       <c r="E485" s="24"/>
     </row>
     <row r="486">
-      <c r="B486" s="33"/>
-      <c r="C486" s="34"/>
-      <c r="D486" s="35"/>
+      <c r="B486" s="31"/>
+      <c r="C486" s="32"/>
+      <c r="D486" s="33"/>
       <c r="E486" s="24"/>
     </row>
     <row r="487">
-      <c r="B487" s="33"/>
-      <c r="C487" s="34"/>
-      <c r="D487" s="35"/>
+      <c r="B487" s="31"/>
+      <c r="C487" s="32"/>
+      <c r="D487" s="33"/>
       <c r="E487" s="24"/>
     </row>
     <row r="488">
-      <c r="B488" s="33"/>
-      <c r="C488" s="34"/>
-      <c r="D488" s="35"/>
+      <c r="B488" s="31"/>
+      <c r="C488" s="32"/>
+      <c r="D488" s="33"/>
       <c r="E488" s="24"/>
     </row>
     <row r="489">
-      <c r="B489" s="33"/>
-      <c r="C489" s="34"/>
-      <c r="D489" s="35"/>
+      <c r="B489" s="31"/>
+      <c r="C489" s="32"/>
+      <c r="D489" s="33"/>
       <c r="E489" s="24"/>
     </row>
     <row r="490">
-      <c r="B490" s="33"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="35"/>
+      <c r="B490" s="31"/>
+      <c r="C490" s="32"/>
+      <c r="D490" s="33"/>
       <c r="E490" s="24"/>
     </row>
     <row r="491">
-      <c r="B491" s="33"/>
-      <c r="C491" s="34"/>
-      <c r="D491" s="35"/>
+      <c r="B491" s="31"/>
+      <c r="C491" s="32"/>
+      <c r="D491" s="33"/>
       <c r="E491" s="24"/>
     </row>
     <row r="492">
-      <c r="B492" s="33"/>
-      <c r="C492" s="34"/>
-      <c r="D492" s="35"/>
+      <c r="B492" s="31"/>
+      <c r="C492" s="32"/>
+      <c r="D492" s="33"/>
       <c r="E492" s="24"/>
     </row>
     <row r="493">
-      <c r="B493" s="33"/>
-      <c r="C493" s="34"/>
-      <c r="D493" s="35"/>
+      <c r="B493" s="31"/>
+      <c r="C493" s="32"/>
+      <c r="D493" s="33"/>
       <c r="E493" s="24"/>
     </row>
     <row r="494">
-      <c r="B494" s="33"/>
-      <c r="C494" s="34"/>
-      <c r="D494" s="35"/>
+      <c r="B494" s="31"/>
+      <c r="C494" s="32"/>
+      <c r="D494" s="33"/>
       <c r="E494" s="24"/>
     </row>
     <row r="495">
-      <c r="B495" s="33"/>
-      <c r="C495" s="34"/>
-      <c r="D495" s="35"/>
+      <c r="B495" s="31"/>
+      <c r="C495" s="32"/>
+      <c r="D495" s="33"/>
       <c r="E495" s="24"/>
     </row>
     <row r="496">
-      <c r="B496" s="33"/>
-      <c r="C496" s="34"/>
-      <c r="D496" s="35"/>
+      <c r="B496" s="31"/>
+      <c r="C496" s="32"/>
+      <c r="D496" s="33"/>
       <c r="E496" s="24"/>
     </row>
     <row r="497">
-      <c r="B497" s="33"/>
-      <c r="C497" s="34"/>
-      <c r="D497" s="35"/>
+      <c r="B497" s="31"/>
+      <c r="C497" s="32"/>
+      <c r="D497" s="33"/>
       <c r="E497" s="24"/>
     </row>
     <row r="498">
-      <c r="B498" s="33"/>
-      <c r="C498" s="34"/>
-      <c r="D498" s="35"/>
+      <c r="B498" s="31"/>
+      <c r="C498" s="32"/>
+      <c r="D498" s="33"/>
       <c r="E498" s="24"/>
     </row>
     <row r="499">
-      <c r="B499" s="33"/>
-      <c r="C499" s="34"/>
-      <c r="D499" s="35"/>
+      <c r="B499" s="31"/>
+      <c r="C499" s="32"/>
+      <c r="D499" s="33"/>
       <c r="E499" s="24"/>
     </row>
     <row r="500">
-      <c r="B500" s="33"/>
-      <c r="C500" s="34"/>
-      <c r="D500" s="35"/>
+      <c r="B500" s="31"/>
+      <c r="C500" s="32"/>
+      <c r="D500" s="33"/>
       <c r="E500" s="24"/>
     </row>
     <row r="501">
-      <c r="B501" s="33"/>
-      <c r="C501" s="34"/>
-      <c r="D501" s="35"/>
+      <c r="B501" s="31"/>
+      <c r="C501" s="32"/>
+      <c r="D501" s="33"/>
       <c r="E501" s="24"/>
     </row>
     <row r="502">
-      <c r="B502" s="33"/>
-      <c r="C502" s="34"/>
-      <c r="D502" s="35"/>
+      <c r="B502" s="31"/>
+      <c r="C502" s="32"/>
+      <c r="D502" s="33"/>
       <c r="E502" s="24"/>
     </row>
     <row r="503">
-      <c r="B503" s="33"/>
-      <c r="C503" s="34"/>
-      <c r="D503" s="35"/>
+      <c r="B503" s="31"/>
+      <c r="C503" s="32"/>
+      <c r="D503" s="33"/>
       <c r="E503" s="24"/>
     </row>
     <row r="504">
-      <c r="B504" s="33"/>
-      <c r="C504" s="34"/>
-      <c r="D504" s="35"/>
+      <c r="B504" s="31"/>
+      <c r="C504" s="32"/>
+      <c r="D504" s="33"/>
       <c r="E504" s="24"/>
     </row>
     <row r="505">
-      <c r="B505" s="33"/>
-      <c r="C505" s="34"/>
-      <c r="D505" s="35"/>
+      <c r="B505" s="31"/>
+      <c r="C505" s="32"/>
+      <c r="D505" s="33"/>
       <c r="E505" s="24"/>
     </row>
     <row r="506">
-      <c r="B506" s="33"/>
-      <c r="C506" s="34"/>
-      <c r="D506" s="35"/>
+      <c r="B506" s="31"/>
+      <c r="C506" s="32"/>
+      <c r="D506" s="33"/>
       <c r="E506" s="24"/>
     </row>
     <row r="507">
-      <c r="B507" s="33"/>
-      <c r="C507" s="34"/>
-      <c r="D507" s="35"/>
+      <c r="B507" s="31"/>
+      <c r="C507" s="32"/>
+      <c r="D507" s="33"/>
       <c r="E507" s="24"/>
     </row>
     <row r="508">
-      <c r="B508" s="33"/>
-      <c r="C508" s="34"/>
-      <c r="D508" s="35"/>
+      <c r="B508" s="31"/>
+      <c r="C508" s="32"/>
+      <c r="D508" s="33"/>
       <c r="E508" s="24"/>
     </row>
     <row r="509">
-      <c r="B509" s="33"/>
-      <c r="C509" s="34"/>
-      <c r="D509" s="35"/>
+      <c r="B509" s="31"/>
+      <c r="C509" s="32"/>
+      <c r="D509" s="33"/>
       <c r="E509" s="24"/>
     </row>
     <row r="510">
-      <c r="B510" s="33"/>
-      <c r="C510" s="34"/>
-      <c r="D510" s="35"/>
+      <c r="B510" s="31"/>
+      <c r="C510" s="32"/>
+      <c r="D510" s="33"/>
       <c r="E510" s="24"/>
     </row>
     <row r="511">
-      <c r="B511" s="33"/>
-      <c r="C511" s="34"/>
-      <c r="D511" s="35"/>
+      <c r="B511" s="31"/>
+      <c r="C511" s="32"/>
+      <c r="D511" s="33"/>
       <c r="E511" s="24"/>
     </row>
     <row r="512">
-      <c r="B512" s="33"/>
-      <c r="C512" s="34"/>
-      <c r="D512" s="35"/>
+      <c r="B512" s="31"/>
+      <c r="C512" s="32"/>
+      <c r="D512" s="33"/>
       <c r="E512" s="24"/>
     </row>
     <row r="513">
-      <c r="B513" s="33"/>
-      <c r="C513" s="34"/>
-      <c r="D513" s="35"/>
+      <c r="B513" s="31"/>
+      <c r="C513" s="32"/>
+      <c r="D513" s="33"/>
       <c r="E513" s="24"/>
     </row>
     <row r="514">
-      <c r="B514" s="33"/>
-      <c r="C514" s="34"/>
-      <c r="D514" s="35"/>
+      <c r="B514" s="31"/>
+      <c r="C514" s="32"/>
+      <c r="D514" s="33"/>
       <c r="E514" s="24"/>
     </row>
     <row r="515">
-      <c r="B515" s="33"/>
-      <c r="C515" s="34"/>
-      <c r="D515" s="35"/>
+      <c r="B515" s="31"/>
+      <c r="C515" s="32"/>
+      <c r="D515" s="33"/>
       <c r="E515" s="24"/>
     </row>
     <row r="516">
-      <c r="B516" s="33"/>
-      <c r="C516" s="34"/>
-      <c r="D516" s="35"/>
+      <c r="B516" s="31"/>
+      <c r="C516" s="32"/>
+      <c r="D516" s="33"/>
       <c r="E516" s="24"/>
     </row>
     <row r="517">
-      <c r="B517" s="33"/>
-      <c r="C517" s="34"/>
-      <c r="D517" s="35"/>
+      <c r="B517" s="31"/>
+      <c r="C517" s="32"/>
+      <c r="D517" s="33"/>
       <c r="E517" s="24"/>
     </row>
     <row r="518">
-      <c r="B518" s="33"/>
-      <c r="C518" s="34"/>
-      <c r="D518" s="35"/>
+      <c r="B518" s="31"/>
+      <c r="C518" s="32"/>
+      <c r="D518" s="33"/>
       <c r="E518" s="24"/>
     </row>
     <row r="519">
-      <c r="B519" s="33"/>
-      <c r="C519" s="34"/>
-      <c r="D519" s="35"/>
+      <c r="B519" s="31"/>
+      <c r="C519" s="32"/>
+      <c r="D519" s="33"/>
       <c r="E519" s="24"/>
     </row>
     <row r="520">
-      <c r="B520" s="33"/>
-      <c r="C520" s="34"/>
-      <c r="D520" s="35"/>
+      <c r="B520" s="31"/>
+      <c r="C520" s="32"/>
+      <c r="D520" s="33"/>
       <c r="E520" s="24"/>
     </row>
     <row r="521">
-      <c r="B521" s="33"/>
-      <c r="C521" s="34"/>
-      <c r="D521" s="35"/>
+      <c r="B521" s="31"/>
+      <c r="C521" s="32"/>
+      <c r="D521" s="33"/>
       <c r="E521" s="24"/>
     </row>
     <row r="522">
-      <c r="B522" s="33"/>
-      <c r="C522" s="34"/>
-      <c r="D522" s="35"/>
+      <c r="B522" s="31"/>
+      <c r="C522" s="32"/>
+      <c r="D522" s="33"/>
       <c r="E522" s="24"/>
     </row>
     <row r="523">
-      <c r="B523" s="33"/>
-      <c r="C523" s="34"/>
-      <c r="D523" s="35"/>
+      <c r="B523" s="31"/>
+      <c r="C523" s="32"/>
+      <c r="D523" s="33"/>
       <c r="E523" s="24"/>
     </row>
     <row r="524">
-      <c r="B524" s="33"/>
-      <c r="C524" s="34"/>
-      <c r="D524" s="35"/>
+      <c r="B524" s="31"/>
+      <c r="C524" s="32"/>
+      <c r="D524" s="33"/>
       <c r="E524" s="24"/>
     </row>
     <row r="525">
-      <c r="B525" s="33"/>
-      <c r="C525" s="34"/>
-      <c r="D525" s="35"/>
+      <c r="B525" s="31"/>
+      <c r="C525" s="32"/>
+      <c r="D525" s="33"/>
       <c r="E525" s="24"/>
     </row>
     <row r="526">
-      <c r="B526" s="33"/>
-      <c r="C526" s="34"/>
-      <c r="D526" s="35"/>
+      <c r="B526" s="31"/>
+      <c r="C526" s="32"/>
+      <c r="D526" s="33"/>
       <c r="E526" s="24"/>
     </row>
     <row r="527">
-      <c r="B527" s="33"/>
-      <c r="C527" s="34"/>
-      <c r="D527" s="35"/>
+      <c r="B527" s="31"/>
+      <c r="C527" s="32"/>
+      <c r="D527" s="33"/>
       <c r="E527" s="24"/>
     </row>
     <row r="528">
-      <c r="B528" s="33"/>
-      <c r="C528" s="34"/>
-      <c r="D528" s="35"/>
+      <c r="B528" s="31"/>
+      <c r="C528" s="32"/>
+      <c r="D528" s="33"/>
       <c r="E528" s="24"/>
     </row>
     <row r="529">
-      <c r="B529" s="33"/>
-      <c r="C529" s="34"/>
-      <c r="D529" s="35"/>
+      <c r="B529" s="31"/>
+      <c r="C529" s="32"/>
+      <c r="D529" s="33"/>
       <c r="E529" s="24"/>
     </row>
     <row r="530">
-      <c r="B530" s="33"/>
-      <c r="C530" s="34"/>
-      <c r="D530" s="35"/>
+      <c r="B530" s="31"/>
+      <c r="C530" s="32"/>
+      <c r="D530" s="33"/>
       <c r="E530" s="24"/>
     </row>
     <row r="531">
-      <c r="B531" s="33"/>
-      <c r="C531" s="34"/>
-      <c r="D531" s="35"/>
+      <c r="B531" s="31"/>
+      <c r="C531" s="32"/>
+      <c r="D531" s="33"/>
       <c r="E531" s="24"/>
     </row>
     <row r="532">
-      <c r="B532" s="33"/>
-      <c r="C532" s="34"/>
-      <c r="D532" s="35"/>
+      <c r="B532" s="31"/>
+      <c r="C532" s="32"/>
+      <c r="D532" s="33"/>
       <c r="E532" s="24"/>
     </row>
     <row r="533">
-      <c r="B533" s="33"/>
-      <c r="C533" s="34"/>
-      <c r="D533" s="35"/>
+      <c r="B533" s="31"/>
+      <c r="C533" s="32"/>
+      <c r="D533" s="33"/>
       <c r="E533" s="24"/>
     </row>
     <row r="534">
-      <c r="B534" s="33"/>
-      <c r="C534" s="34"/>
-      <c r="D534" s="35"/>
+      <c r="B534" s="31"/>
+      <c r="C534" s="32"/>
+      <c r="D534" s="33"/>
       <c r="E534" s="24"/>
     </row>
     <row r="535">
-      <c r="B535" s="33"/>
-      <c r="C535" s="34"/>
-      <c r="D535" s="35"/>
+      <c r="B535" s="31"/>
+      <c r="C535" s="32"/>
+      <c r="D535" s="33"/>
       <c r="E535" s="24"/>
     </row>
     <row r="536">
-      <c r="B536" s="33"/>
-      <c r="C536" s="34"/>
-      <c r="D536" s="35"/>
+      <c r="B536" s="31"/>
+      <c r="C536" s="32"/>
+      <c r="D536" s="33"/>
       <c r="E536" s="24"/>
     </row>
     <row r="537">
-      <c r="B537" s="33"/>
-      <c r="C537" s="34"/>
-      <c r="D537" s="35"/>
+      <c r="B537" s="31"/>
+      <c r="C537" s="32"/>
+      <c r="D537" s="33"/>
       <c r="E537" s="24"/>
     </row>
     <row r="538">
-      <c r="B538" s="33"/>
-      <c r="C538" s="34"/>
-      <c r="D538" s="35"/>
+      <c r="B538" s="31"/>
+      <c r="C538" s="32"/>
+      <c r="D538" s="33"/>
       <c r="E538" s="24"/>
     </row>
     <row r="539">
-      <c r="B539" s="33"/>
-      <c r="C539" s="34"/>
-      <c r="D539" s="35"/>
+      <c r="B539" s="31"/>
+      <c r="C539" s="32"/>
+      <c r="D539" s="33"/>
       <c r="E539" s="24"/>
     </row>
     <row r="540">
-      <c r="B540" s="33"/>
-      <c r="C540" s="34"/>
-      <c r="D540" s="35"/>
+      <c r="B540" s="31"/>
+      <c r="C540" s="32"/>
+      <c r="D540" s="33"/>
       <c r="E540" s="24"/>
     </row>
     <row r="541">
-      <c r="B541" s="33"/>
-      <c r="C541" s="34"/>
-      <c r="D541" s="35"/>
+      <c r="B541" s="31"/>
+      <c r="C541" s="32"/>
+      <c r="D541" s="33"/>
       <c r="E541" s="24"/>
     </row>
     <row r="542">
-      <c r="B542" s="33"/>
-      <c r="C542" s="34"/>
-      <c r="D542" s="35"/>
+      <c r="B542" s="31"/>
+      <c r="C542" s="32"/>
+      <c r="D542" s="33"/>
       <c r="E542" s="24"/>
     </row>
     <row r="543">
-      <c r="B543" s="33"/>
-      <c r="C543" s="34"/>
-      <c r="D543" s="35"/>
+      <c r="B543" s="31"/>
+      <c r="C543" s="32"/>
+      <c r="D543" s="33"/>
       <c r="E543" s="24"/>
     </row>
     <row r="544">
-      <c r="B544" s="33"/>
-      <c r="C544" s="34"/>
-      <c r="D544" s="35"/>
+      <c r="B544" s="31"/>
+      <c r="C544" s="32"/>
+      <c r="D544" s="33"/>
       <c r="E544" s="24"/>
     </row>
     <row r="545">
-      <c r="B545" s="33"/>
-      <c r="C545" s="34"/>
-      <c r="D545" s="35"/>
+      <c r="B545" s="31"/>
+      <c r="C545" s="32"/>
+      <c r="D545" s="33"/>
       <c r="E545" s="24"/>
     </row>
     <row r="546">
-      <c r="B546" s="33"/>
-      <c r="C546" s="34"/>
-      <c r="D546" s="35"/>
+      <c r="B546" s="31"/>
+      <c r="C546" s="32"/>
+      <c r="D546" s="33"/>
       <c r="E546" s="24"/>
     </row>
     <row r="547">
-      <c r="B547" s="33"/>
-      <c r="C547" s="34"/>
-      <c r="D547" s="35"/>
+      <c r="B547" s="31"/>
+      <c r="C547" s="32"/>
+      <c r="D547" s="33"/>
       <c r="E547" s="24"/>
     </row>
     <row r="548">
-      <c r="B548" s="33"/>
-      <c r="C548" s="34"/>
-      <c r="D548" s="35"/>
+      <c r="B548" s="31"/>
+      <c r="C548" s="32"/>
+      <c r="D548" s="33"/>
       <c r="E548" s="24"/>
     </row>
     <row r="549">
-      <c r="B549" s="33"/>
-      <c r="C549" s="34"/>
-      <c r="D549" s="35"/>
+      <c r="B549" s="31"/>
+      <c r="C549" s="32"/>
+      <c r="D549" s="33"/>
       <c r="E549" s="24"/>
     </row>
     <row r="550">
-      <c r="B550" s="33"/>
-      <c r="C550" s="34"/>
-      <c r="D550" s="35"/>
+      <c r="B550" s="31"/>
+      <c r="C550" s="32"/>
+      <c r="D550" s="33"/>
       <c r="E550" s="24"/>
     </row>
     <row r="551">
-      <c r="B551" s="33"/>
-      <c r="C551" s="34"/>
-      <c r="D551" s="35"/>
+      <c r="B551" s="31"/>
+      <c r="C551" s="32"/>
+      <c r="D551" s="33"/>
       <c r="E551" s="24"/>
     </row>
     <row r="552">
-      <c r="B552" s="33"/>
-      <c r="C552" s="34"/>
-      <c r="D552" s="35"/>
+      <c r="B552" s="31"/>
+      <c r="C552" s="32"/>
+      <c r="D552" s="33"/>
       <c r="E552" s="24"/>
     </row>
     <row r="553">
-      <c r="B553" s="33"/>
-      <c r="C553" s="34"/>
-      <c r="D553" s="35"/>
+      <c r="B553" s="31"/>
+      <c r="C553" s="32"/>
+      <c r="D553" s="33"/>
       <c r="E553" s="24"/>
     </row>
     <row r="554">
-      <c r="B554" s="33"/>
-      <c r="C554" s="34"/>
-      <c r="D554" s="35"/>
+      <c r="B554" s="31"/>
+      <c r="C554" s="32"/>
+      <c r="D554" s="33"/>
       <c r="E554" s="24"/>
     </row>
     <row r="555">
-      <c r="B555" s="33"/>
-      <c r="C555" s="34"/>
-      <c r="D555" s="35"/>
+      <c r="B555" s="31"/>
+      <c r="C555" s="32"/>
+      <c r="D555" s="33"/>
       <c r="E555" s="24"/>
     </row>
     <row r="556">
-      <c r="B556" s="33"/>
-      <c r="C556" s="34"/>
-      <c r="D556" s="35"/>
+      <c r="B556" s="31"/>
+      <c r="C556" s="32"/>
+      <c r="D556" s="33"/>
       <c r="E556" s="24"/>
     </row>
     <row r="557">
-      <c r="B557" s="33"/>
-      <c r="C557" s="34"/>
-      <c r="D557" s="35"/>
+      <c r="B557" s="31"/>
+      <c r="C557" s="32"/>
+      <c r="D557" s="33"/>
       <c r="E557" s="24"/>
     </row>
     <row r="558">
-      <c r="B558" s="33"/>
-      <c r="C558" s="34"/>
-      <c r="D558" s="35"/>
+      <c r="B558" s="31"/>
+      <c r="C558" s="32"/>
+      <c r="D558" s="33"/>
       <c r="E558" s="24"/>
     </row>
     <row r="559">
-      <c r="B559" s="33"/>
-      <c r="C559" s="34"/>
-      <c r="D559" s="35"/>
+      <c r="B559" s="31"/>
+      <c r="C559" s="32"/>
+      <c r="D559" s="33"/>
       <c r="E559" s="24"/>
     </row>
     <row r="560">
-      <c r="B560" s="33"/>
-      <c r="C560" s="34"/>
-      <c r="D560" s="35"/>
+      <c r="B560" s="31"/>
+      <c r="C560" s="32"/>
+      <c r="D560" s="33"/>
       <c r="E560" s="24"/>
     </row>
     <row r="561">
-      <c r="B561" s="33"/>
-      <c r="C561" s="34"/>
-      <c r="D561" s="35"/>
+      <c r="B561" s="31"/>
+      <c r="C561" s="32"/>
+      <c r="D561" s="33"/>
       <c r="E561" s="24"/>
     </row>
     <row r="562">
-      <c r="B562" s="33"/>
-      <c r="C562" s="34"/>
-      <c r="D562" s="35"/>
+      <c r="B562" s="31"/>
+      <c r="C562" s="32"/>
+      <c r="D562" s="33"/>
       <c r="E562" s="24"/>
     </row>
     <row r="563">
-      <c r="B563" s="33"/>
-      <c r="C563" s="34"/>
-      <c r="D563" s="35"/>
+      <c r="B563" s="31"/>
+      <c r="C563" s="32"/>
+      <c r="D563" s="33"/>
       <c r="E563" s="24"/>
     </row>
     <row r="564">
-      <c r="B564" s="33"/>
-      <c r="C564" s="34"/>
-      <c r="D564" s="35"/>
+      <c r="B564" s="31"/>
+      <c r="C564" s="32"/>
+      <c r="D564" s="33"/>
       <c r="E564" s="24"/>
     </row>
     <row r="565">
-      <c r="B565" s="33"/>
-      <c r="C565" s="34"/>
-      <c r="D565" s="35"/>
+      <c r="B565" s="31"/>
+      <c r="C565" s="32"/>
+      <c r="D565" s="33"/>
       <c r="E565" s="24"/>
     </row>
     <row r="566">
-      <c r="B566" s="33"/>
-      <c r="C566" s="34"/>
-      <c r="D566" s="35"/>
+      <c r="B566" s="31"/>
+      <c r="C566" s="32"/>
+      <c r="D566" s="33"/>
       <c r="E566" s="24"/>
     </row>
     <row r="567">
-      <c r="B567" s="33"/>
-      <c r="C567" s="34"/>
-      <c r="D567" s="35"/>
+      <c r="B567" s="31"/>
+      <c r="C567" s="32"/>
+      <c r="D567" s="33"/>
       <c r="E567" s="24"/>
     </row>
     <row r="568">
-      <c r="B568" s="33"/>
-      <c r="C568" s="34"/>
-      <c r="D568" s="35"/>
+      <c r="B568" s="31"/>
+      <c r="C568" s="32"/>
+      <c r="D568" s="33"/>
       <c r="E568" s="24"/>
     </row>
     <row r="569">
-      <c r="B569" s="33"/>
-      <c r="C569" s="34"/>
-      <c r="D569" s="35"/>
+      <c r="B569" s="31"/>
+      <c r="C569" s="32"/>
+      <c r="D569" s="33"/>
       <c r="E569" s="24"/>
     </row>
     <row r="570">
-      <c r="B570" s="33"/>
-      <c r="C570" s="34"/>
-      <c r="D570" s="35"/>
+      <c r="B570" s="31"/>
+      <c r="C570" s="32"/>
+      <c r="D570" s="33"/>
       <c r="E570" s="24"/>
     </row>
     <row r="571">
-      <c r="B571" s="33"/>
-      <c r="C571" s="34"/>
-      <c r="D571" s="35"/>
+      <c r="B571" s="31"/>
+      <c r="C571" s="32"/>
+      <c r="D571" s="33"/>
       <c r="E571" s="24"/>
     </row>
     <row r="572">
-      <c r="B572" s="33"/>
-      <c r="C572" s="34"/>
-      <c r="D572" s="35"/>
+      <c r="B572" s="31"/>
+      <c r="C572" s="32"/>
+      <c r="D572" s="33"/>
       <c r="E572" s="24"/>
     </row>
     <row r="573">
-      <c r="B573" s="33"/>
-      <c r="C573" s="34"/>
-      <c r="D573" s="35"/>
+      <c r="B573" s="31"/>
+      <c r="C573" s="32"/>
+      <c r="D573" s="33"/>
       <c r="E573" s="24"/>
     </row>
     <row r="574">
-      <c r="B574" s="33"/>
-      <c r="C574" s="34"/>
-      <c r="D574" s="35"/>
+      <c r="B574" s="31"/>
+      <c r="C574" s="32"/>
+      <c r="D574" s="33"/>
       <c r="E574" s="24"/>
     </row>
     <row r="575">
-      <c r="B575" s="33"/>
-      <c r="C575" s="34"/>
-      <c r="D575" s="35"/>
+      <c r="B575" s="31"/>
+      <c r="C575" s="32"/>
+      <c r="D575" s="33"/>
       <c r="E575" s="24"/>
     </row>
     <row r="576">
-      <c r="B576" s="33"/>
-      <c r="C576" s="34"/>
-      <c r="D576" s="35"/>
+      <c r="B576" s="31"/>
+      <c r="C576" s="32"/>
+      <c r="D576" s="33"/>
       <c r="E576" s="24"/>
     </row>
     <row r="577">
-      <c r="B577" s="33"/>
-      <c r="C577" s="34"/>
-      <c r="D577" s="35"/>
+      <c r="B577" s="31"/>
+      <c r="C577" s="32"/>
+      <c r="D577" s="33"/>
       <c r="E577" s="24"/>
     </row>
     <row r="578">
-      <c r="B578" s="33"/>
-      <c r="C578" s="34"/>
-      <c r="D578" s="35"/>
+      <c r="B578" s="31"/>
+      <c r="C578" s="32"/>
+      <c r="D578" s="33"/>
       <c r="E578" s="24"/>
     </row>
     <row r="579">
-      <c r="B579" s="33"/>
-      <c r="C579" s="34"/>
-      <c r="D579" s="35"/>
+      <c r="B579" s="31"/>
+      <c r="C579" s="32"/>
+      <c r="D579" s="33"/>
       <c r="E579" s="24"/>
     </row>
     <row r="580">
-      <c r="B580" s="33"/>
-      <c r="C580" s="34"/>
-      <c r="D580" s="35"/>
+      <c r="B580" s="31"/>
+      <c r="C580" s="32"/>
+      <c r="D580" s="33"/>
       <c r="E580" s="24"/>
     </row>
     <row r="581">
-      <c r="B581" s="33"/>
-      <c r="C581" s="34"/>
-      <c r="D581" s="35"/>
+      <c r="B581" s="31"/>
+      <c r="C581" s="32"/>
+      <c r="D581" s="33"/>
       <c r="E581" s="24"/>
     </row>
     <row r="582">
-      <c r="B582" s="33"/>
-      <c r="C582" s="34"/>
-      <c r="D582" s="35"/>
+      <c r="B582" s="31"/>
+      <c r="C582" s="32"/>
+      <c r="D582" s="33"/>
       <c r="E582" s="24"/>
     </row>
     <row r="583">
-      <c r="B583" s="33"/>
-      <c r="C583" s="34"/>
-      <c r="D583" s="35"/>
+      <c r="B583" s="31"/>
+      <c r="C583" s="32"/>
+      <c r="D583" s="33"/>
       <c r="E583" s="24"/>
     </row>
     <row r="584">
-      <c r="B584" s="33"/>
-      <c r="C584" s="34"/>
-      <c r="D584" s="35"/>
+      <c r="B584" s="31"/>
+      <c r="C584" s="32"/>
+      <c r="D584" s="33"/>
       <c r="E584" s="24"/>
     </row>
     <row r="585">
-      <c r="B585" s="33"/>
-      <c r="C585" s="34"/>
-      <c r="D585" s="35"/>
+      <c r="B585" s="31"/>
+      <c r="C585" s="32"/>
+      <c r="D585" s="33"/>
       <c r="E585" s="24"/>
     </row>
     <row r="586">
-      <c r="B586" s="33"/>
-      <c r="C586" s="34"/>
-      <c r="D586" s="35"/>
+      <c r="B586" s="31"/>
+      <c r="C586" s="32"/>
+      <c r="D586" s="33"/>
       <c r="E586" s="24"/>
     </row>
     <row r="587">
-      <c r="B587" s="33"/>
-      <c r="C587" s="34"/>
-      <c r="D587" s="35"/>
+      <c r="B587" s="31"/>
+      <c r="C587" s="32"/>
+      <c r="D587" s="33"/>
       <c r="E587" s="24"/>
     </row>
     <row r="588">
-      <c r="B588" s="33"/>
-      <c r="C588" s="34"/>
-      <c r="D588" s="35"/>
+      <c r="B588" s="31"/>
+      <c r="C588" s="32"/>
+      <c r="D588" s="33"/>
       <c r="E588" s="24"/>
     </row>
     <row r="589">
-      <c r="B589" s="33"/>
-      <c r="C589" s="34"/>
-      <c r="D589" s="35"/>
+      <c r="B589" s="31"/>
+      <c r="C589" s="32"/>
+      <c r="D589" s="33"/>
       <c r="E589" s="24"/>
     </row>
     <row r="590">
-      <c r="B590" s="33"/>
-      <c r="C590" s="34"/>
-      <c r="D590" s="35"/>
+      <c r="B590" s="31"/>
+      <c r="C590" s="32"/>
+      <c r="D590" s="33"/>
       <c r="E590" s="24"/>
     </row>
     <row r="591">
-      <c r="B591" s="33"/>
-      <c r="C591" s="34"/>
-      <c r="D591" s="35"/>
+      <c r="B591" s="31"/>
+      <c r="C591" s="32"/>
+      <c r="D591" s="33"/>
       <c r="E591" s="24"/>
     </row>
     <row r="592">
-      <c r="B592" s="33"/>
-      <c r="C592" s="34"/>
-      <c r="D592" s="35"/>
+      <c r="B592" s="31"/>
+      <c r="C592" s="32"/>
+      <c r="D592" s="33"/>
       <c r="E592" s="24"/>
     </row>
     <row r="593">
-      <c r="B593" s="33"/>
-      <c r="C593" s="34"/>
-      <c r="D593" s="35"/>
+      <c r="B593" s="31"/>
+      <c r="C593" s="32"/>
+      <c r="D593" s="33"/>
       <c r="E593" s="24"/>
     </row>
     <row r="594">
-      <c r="B594" s="33"/>
-      <c r="C594" s="34"/>
-      <c r="D594" s="35"/>
+      <c r="B594" s="31"/>
+      <c r="C594" s="32"/>
+      <c r="D594" s="33"/>
       <c r="E594" s="24"/>
     </row>
     <row r="595">
-      <c r="B595" s="33"/>
-      <c r="C595" s="34"/>
-      <c r="D595" s="35"/>
+      <c r="B595" s="31"/>
+      <c r="C595" s="32"/>
+      <c r="D595" s="33"/>
       <c r="E595" s="24"/>
     </row>
     <row r="596">
-      <c r="B596" s="33"/>
-      <c r="C596" s="34"/>
-      <c r="D596" s="35"/>
+      <c r="B596" s="31"/>
+      <c r="C596" s="32"/>
+      <c r="D596" s="33"/>
       <c r="E596" s="24"/>
     </row>
     <row r="597">
-      <c r="B597" s="33"/>
-      <c r="C597" s="34"/>
-      <c r="D597" s="35"/>
+      <c r="B597" s="31"/>
+      <c r="C597" s="32"/>
+      <c r="D597" s="33"/>
       <c r="E597" s="24"/>
     </row>
     <row r="598">
-      <c r="B598" s="33"/>
-      <c r="C598" s="34"/>
-      <c r="D598" s="35"/>
+      <c r="B598" s="31"/>
+      <c r="C598" s="32"/>
+      <c r="D598" s="33"/>
       <c r="E598" s="24"/>
     </row>
     <row r="599">
-      <c r="B599" s="33"/>
-      <c r="C599" s="34"/>
-      <c r="D599" s="35"/>
+      <c r="B599" s="31"/>
+      <c r="C599" s="32"/>
+      <c r="D599" s="33"/>
       <c r="E599" s="24"/>
     </row>
     <row r="600">
-      <c r="B600" s="33"/>
-      <c r="C600" s="34"/>
-      <c r="D600" s="35"/>
+      <c r="B600" s="31"/>
+      <c r="C600" s="32"/>
+      <c r="D600" s="33"/>
       <c r="E600" s="24"/>
     </row>
     <row r="601">
-      <c r="B601" s="33"/>
-      <c r="C601" s="34"/>
-      <c r="D601" s="35"/>
+      <c r="B601" s="31"/>
+      <c r="C601" s="32"/>
+      <c r="D601" s="33"/>
       <c r="E601" s="24"/>
     </row>
     <row r="602">
-      <c r="B602" s="33"/>
-      <c r="C602" s="34"/>
-      <c r="D602" s="35"/>
+      <c r="B602" s="31"/>
+      <c r="C602" s="32"/>
+      <c r="D602" s="33"/>
       <c r="E602" s="24"/>
     </row>
     <row r="603">
-      <c r="B603" s="33"/>
-      <c r="C603" s="34"/>
-      <c r="D603" s="35"/>
+      <c r="B603" s="31"/>
+      <c r="C603" s="32"/>
+      <c r="D603" s="33"/>
       <c r="E603" s="24"/>
     </row>
     <row r="604">
-      <c r="B604" s="33"/>
-      <c r="C604" s="34"/>
-      <c r="D604" s="35"/>
+      <c r="B604" s="31"/>
+      <c r="C604" s="32"/>
+      <c r="D604" s="33"/>
       <c r="E604" s="24"/>
     </row>
     <row r="605">
-      <c r="B605" s="33"/>
-      <c r="C605" s="34"/>
-      <c r="D605" s="35"/>
+      <c r="B605" s="31"/>
+      <c r="C605" s="32"/>
+      <c r="D605" s="33"/>
       <c r="E605" s="24"/>
     </row>
     <row r="606">
-      <c r="B606" s="33"/>
-      <c r="C606" s="34"/>
-      <c r="D606" s="35"/>
+      <c r="B606" s="31"/>
+      <c r="C606" s="32"/>
+      <c r="D606" s="33"/>
       <c r="E606" s="24"/>
     </row>
     <row r="607">
-      <c r="B607" s="33"/>
-      <c r="C607" s="34"/>
-      <c r="D607" s="35"/>
+      <c r="B607" s="31"/>
+      <c r="C607" s="32"/>
+      <c r="D607" s="33"/>
       <c r="E607" s="24"/>
     </row>
     <row r="608">
-      <c r="B608" s="33"/>
-      <c r="C608" s="34"/>
-      <c r="D608" s="35"/>
+      <c r="B608" s="31"/>
+      <c r="C608" s="32"/>
+      <c r="D608" s="33"/>
       <c r="E608" s="24"/>
     </row>
     <row r="609">
-      <c r="B609" s="33"/>
-      <c r="C609" s="34"/>
-      <c r="D609" s="35"/>
+      <c r="B609" s="31"/>
+      <c r="C609" s="32"/>
+      <c r="D609" s="33"/>
       <c r="E609" s="24"/>
     </row>
     <row r="610">
-      <c r="B610" s="33"/>
-      <c r="C610" s="34"/>
-      <c r="D610" s="35"/>
+      <c r="B610" s="31"/>
+      <c r="C610" s="32"/>
+      <c r="D610" s="33"/>
       <c r="E610" s="24"/>
     </row>
     <row r="611">
-      <c r="B611" s="33"/>
-      <c r="C611" s="34"/>
-      <c r="D611" s="35"/>
+      <c r="B611" s="31"/>
+      <c r="C611" s="32"/>
+      <c r="D611" s="33"/>
       <c r="E611" s="24"/>
     </row>
     <row r="612">
-      <c r="B612" s="33"/>
-      <c r="C612" s="34"/>
-      <c r="D612" s="35"/>
+      <c r="B612" s="31"/>
+      <c r="C612" s="32"/>
+      <c r="D612" s="33"/>
       <c r="E612" s="24"/>
     </row>
     <row r="613">
-      <c r="B613" s="33"/>
-      <c r="C613" s="34"/>
-      <c r="D613" s="35"/>
+      <c r="B613" s="31"/>
+      <c r="C613" s="32"/>
+      <c r="D613" s="33"/>
       <c r="E613" s="24"/>
     </row>
     <row r="614">
-      <c r="B614" s="33"/>
-      <c r="C614" s="34"/>
-      <c r="D614" s="35"/>
+      <c r="B614" s="31"/>
+      <c r="C614" s="32"/>
+      <c r="D614" s="33"/>
       <c r="E614" s="24"/>
     </row>
     <row r="615">
-      <c r="B615" s="33"/>
-      <c r="C615" s="34"/>
-      <c r="D615" s="35"/>
+      <c r="B615" s="31"/>
+      <c r="C615" s="32"/>
+      <c r="D615" s="33"/>
       <c r="E615" s="24"/>
     </row>
     <row r="616">
-      <c r="B616" s="33"/>
-      <c r="C616" s="34"/>
-      <c r="D616" s="35"/>
+      <c r="B616" s="31"/>
+      <c r="C616" s="32"/>
+      <c r="D616" s="33"/>
       <c r="E616" s="24"/>
     </row>
     <row r="617">
-      <c r="B617" s="33"/>
-      <c r="C617" s="34"/>
-      <c r="D617" s="35"/>
+      <c r="B617" s="31"/>
+      <c r="C617" s="32"/>
+      <c r="D617" s="33"/>
       <c r="E617" s="24"/>
     </row>
     <row r="618">
-      <c r="B618" s="33"/>
-      <c r="C618" s="34"/>
-      <c r="D618" s="35"/>
+      <c r="B618" s="31"/>
+      <c r="C618" s="32"/>
+      <c r="D618" s="33"/>
       <c r="E618" s="24"/>
     </row>
     <row r="619">
-      <c r="B619" s="33"/>
-      <c r="C619" s="34"/>
-      <c r="D619" s="35"/>
+      <c r="B619" s="31"/>
+      <c r="C619" s="32"/>
+      <c r="D619" s="33"/>
       <c r="E619" s="24"/>
     </row>
     <row r="620">
-      <c r="B620" s="33"/>
-      <c r="C620" s="34"/>
-      <c r="D620" s="35"/>
+      <c r="B620" s="31"/>
+      <c r="C620" s="32"/>
+      <c r="D620" s="33"/>
       <c r="E620" s="24"/>
     </row>
     <row r="621">
-      <c r="B621" s="33"/>
-      <c r="C621" s="34"/>
-      <c r="D621" s="35"/>
+      <c r="B621" s="31"/>
+      <c r="C621" s="32"/>
+      <c r="D621" s="33"/>
       <c r="E621" s="24"/>
     </row>
     <row r="622">
-      <c r="B622" s="33"/>
-      <c r="C622" s="34"/>
-      <c r="D622" s="35"/>
+      <c r="B622" s="31"/>
+      <c r="C622" s="32"/>
+      <c r="D622" s="33"/>
       <c r="E622" s="24"/>
     </row>
     <row r="623">
-      <c r="B623" s="33"/>
-      <c r="C623" s="34"/>
-      <c r="D623" s="35"/>
+      <c r="B623" s="31"/>
+      <c r="C623" s="32"/>
+      <c r="D623" s="33"/>
       <c r="E623" s="24"/>
     </row>
     <row r="624">
-      <c r="B624" s="33"/>
-      <c r="C624" s="34"/>
-      <c r="D624" s="35"/>
+      <c r="B624" s="31"/>
+      <c r="C624" s="32"/>
+      <c r="D624" s="33"/>
       <c r="E624" s="24"/>
     </row>
     <row r="625">
-      <c r="B625" s="33"/>
-      <c r="C625" s="34"/>
-      <c r="D625" s="35"/>
+      <c r="B625" s="31"/>
+      <c r="C625" s="32"/>
+      <c r="D625" s="33"/>
       <c r="E625" s="24"/>
     </row>
     <row r="626">
-      <c r="B626" s="33"/>
-      <c r="C626" s="34"/>
-      <c r="D626" s="35"/>
+      <c r="B626" s="31"/>
+      <c r="C626" s="32"/>
+      <c r="D626" s="33"/>
       <c r="E626" s="24"/>
     </row>
     <row r="627">
-      <c r="B627" s="33"/>
-      <c r="C627" s="34"/>
-      <c r="D627" s="35"/>
+      <c r="B627" s="31"/>
+      <c r="C627" s="32"/>
+      <c r="D627" s="33"/>
       <c r="E627" s="24"/>
     </row>
     <row r="628">
-      <c r="B628" s="33"/>
-      <c r="C628" s="34"/>
-      <c r="D628" s="35"/>
+      <c r="B628" s="31"/>
+      <c r="C628" s="32"/>
+      <c r="D628" s="33"/>
       <c r="E628" s="24"/>
     </row>
     <row r="629">
-      <c r="B629" s="33"/>
-      <c r="C629" s="34"/>
-      <c r="D629" s="35"/>
+      <c r="B629" s="31"/>
+      <c r="C629" s="32"/>
+      <c r="D629" s="33"/>
       <c r="E629" s="24"/>
     </row>
     <row r="630">
-      <c r="B630" s="33"/>
-      <c r="C630" s="34"/>
-      <c r="D630" s="35"/>
+      <c r="B630" s="31"/>
+      <c r="C630" s="32"/>
+      <c r="D630" s="33"/>
       <c r="E630" s="24"/>
     </row>
     <row r="631">
-      <c r="B631" s="33"/>
-      <c r="C631" s="34"/>
-      <c r="D631" s="35"/>
+      <c r="B631" s="31"/>
+      <c r="C631" s="32"/>
+      <c r="D631" s="33"/>
       <c r="E631" s="24"/>
     </row>
     <row r="632">
-      <c r="B632" s="33"/>
-      <c r="C632" s="34"/>
-      <c r="D632" s="35"/>
+      <c r="B632" s="31"/>
+      <c r="C632" s="32"/>
+      <c r="D632" s="33"/>
       <c r="E632" s="24"/>
     </row>
     <row r="633">
-      <c r="B633" s="33"/>
-      <c r="C633" s="34"/>
-      <c r="D633" s="35"/>
+      <c r="B633" s="31"/>
+      <c r="C633" s="32"/>
+      <c r="D633" s="33"/>
       <c r="E633" s="24"/>
     </row>
     <row r="634">
-      <c r="B634" s="33"/>
-      <c r="C634" s="34"/>
-      <c r="D634" s="35"/>
+      <c r="B634" s="31"/>
+      <c r="C634" s="32"/>
+      <c r="D634" s="33"/>
       <c r="E634" s="24"/>
     </row>
     <row r="635">
-      <c r="B635" s="33"/>
-      <c r="C635" s="34"/>
-      <c r="D635" s="35"/>
+      <c r="B635" s="31"/>
+      <c r="C635" s="32"/>
+      <c r="D635" s="33"/>
       <c r="E635" s="24"/>
     </row>
     <row r="636">
-      <c r="B636" s="33"/>
-      <c r="C636" s="34"/>
-      <c r="D636" s="35"/>
+      <c r="B636" s="31"/>
+      <c r="C636" s="32"/>
+      <c r="D636" s="33"/>
       <c r="E636" s="24"/>
     </row>
     <row r="637">
-      <c r="B637" s="33"/>
-      <c r="C637" s="34"/>
-      <c r="D637" s="35"/>
+      <c r="B637" s="31"/>
+      <c r="C637" s="32"/>
+      <c r="D637" s="33"/>
       <c r="E637" s="24"/>
     </row>
     <row r="638">
-      <c r="B638" s="33"/>
-      <c r="C638" s="34"/>
-      <c r="D638" s="35"/>
+      <c r="B638" s="31"/>
+      <c r="C638" s="32"/>
+      <c r="D638" s="33"/>
       <c r="E638" s="24"/>
     </row>
     <row r="639">
-      <c r="B639" s="33"/>
-      <c r="C639" s="34"/>
-      <c r="D639" s="35"/>
+      <c r="B639" s="31"/>
+      <c r="C639" s="32"/>
+      <c r="D639" s="33"/>
       <c r="E639" s="24"/>
     </row>
     <row r="640">
-      <c r="B640" s="33"/>
-      <c r="C640" s="34"/>
-      <c r="D640" s="35"/>
+      <c r="B640" s="31"/>
+      <c r="C640" s="32"/>
+      <c r="D640" s="33"/>
       <c r="E640" s="24"/>
     </row>
     <row r="641">
-      <c r="B641" s="33"/>
-      <c r="C641" s="34"/>
-      <c r="D641" s="35"/>
+      <c r="B641" s="31"/>
+      <c r="C641" s="32"/>
+      <c r="D641" s="33"/>
       <c r="E641" s="24"/>
     </row>
     <row r="642">
-      <c r="B642" s="33"/>
-      <c r="C642" s="34"/>
-      <c r="D642" s="35"/>
+      <c r="B642" s="31"/>
+      <c r="C642" s="32"/>
+      <c r="D642" s="33"/>
       <c r="E642" s="24"/>
     </row>
     <row r="643">
-      <c r="B643" s="33"/>
-      <c r="C643" s="34"/>
-      <c r="D643" s="35"/>
+      <c r="B643" s="31"/>
+      <c r="C643" s="32"/>
+      <c r="D643" s="33"/>
       <c r="E643" s="24"/>
     </row>
     <row r="644">
-      <c r="B644" s="33"/>
-      <c r="C644" s="34"/>
-      <c r="D644" s="35"/>
+      <c r="B644" s="31"/>
+      <c r="C644" s="32"/>
+      <c r="D644" s="33"/>
       <c r="E644" s="24"/>
     </row>
     <row r="645">
-      <c r="B645" s="33"/>
-      <c r="C645" s="34"/>
-      <c r="D645" s="35"/>
+      <c r="B645" s="31"/>
+      <c r="C645" s="32"/>
+      <c r="D645" s="33"/>
       <c r="E645" s="24"/>
     </row>
     <row r="646">
-      <c r="B646" s="33"/>
-      <c r="C646" s="34"/>
-      <c r="D646" s="35"/>
+      <c r="B646" s="31"/>
+      <c r="C646" s="32"/>
+      <c r="D646" s="33"/>
       <c r="E646" s="24"/>
     </row>
     <row r="647">
-      <c r="B647" s="33"/>
-      <c r="C647" s="34"/>
-      <c r="D647" s="35"/>
+      <c r="B647" s="31"/>
+      <c r="C647" s="32"/>
+      <c r="D647" s="33"/>
       <c r="E647" s="24"/>
     </row>
     <row r="648">
-      <c r="B648" s="33"/>
-      <c r="C648" s="34"/>
-      <c r="D648" s="35"/>
+      <c r="B648" s="31"/>
+      <c r="C648" s="32"/>
+      <c r="D648" s="33"/>
       <c r="E648" s="24"/>
     </row>
     <row r="649">
-      <c r="B649" s="33"/>
-      <c r="C649" s="34"/>
-      <c r="D649" s="35"/>
+      <c r="B649" s="31"/>
+      <c r="C649" s="32"/>
+      <c r="D649" s="33"/>
       <c r="E649" s="24"/>
     </row>
     <row r="650">
-      <c r="B650" s="33"/>
-      <c r="C650" s="34"/>
-      <c r="D650" s="35"/>
+      <c r="B650" s="31"/>
+      <c r="C650" s="32"/>
+      <c r="D650" s="33"/>
       <c r="E650" s="24"/>
     </row>
     <row r="651">
-      <c r="B651" s="33"/>
-      <c r="C651" s="34"/>
-      <c r="D651" s="35"/>
+      <c r="B651" s="31"/>
+      <c r="C651" s="32"/>
+      <c r="D651" s="33"/>
       <c r="E651" s="24"/>
     </row>
     <row r="652">
-      <c r="B652" s="33"/>
-      <c r="C652" s="34"/>
-      <c r="D652" s="35"/>
+      <c r="B652" s="31"/>
+      <c r="C652" s="32"/>
+      <c r="D652" s="33"/>
       <c r="E652" s="24"/>
     </row>
     <row r="653">
-      <c r="B653" s="33"/>
-      <c r="C653" s="34"/>
-      <c r="D653" s="35"/>
+      <c r="B653" s="31"/>
+      <c r="C653" s="32"/>
+      <c r="D653" s="33"/>
       <c r="E653" s="24"/>
     </row>
     <row r="654">
-      <c r="B654" s="33"/>
-      <c r="C654" s="34"/>
-      <c r="D654" s="35"/>
+      <c r="B654" s="31"/>
+      <c r="C654" s="32"/>
+      <c r="D654" s="33"/>
       <c r="E654" s="24"/>
     </row>
     <row r="655">
-      <c r="B655" s="33"/>
-      <c r="C655" s="34"/>
-      <c r="D655" s="35"/>
+      <c r="B655" s="31"/>
+      <c r="C655" s="32"/>
+      <c r="D655" s="33"/>
       <c r="E655" s="24"/>
     </row>
     <row r="656">
-      <c r="B656" s="33"/>
-      <c r="C656" s="34"/>
-      <c r="D656" s="35"/>
+      <c r="B656" s="31"/>
+      <c r="C656" s="32"/>
+      <c r="D656" s="33"/>
       <c r="E656" s="24"/>
     </row>
     <row r="657">
-      <c r="B657" s="33"/>
-      <c r="C657" s="34"/>
-      <c r="D657" s="35"/>
+      <c r="B657" s="31"/>
+      <c r="C657" s="32"/>
+      <c r="D657" s="33"/>
       <c r="E657" s="24"/>
     </row>
     <row r="658">
-      <c r="B658" s="33"/>
-      <c r="C658" s="34"/>
-      <c r="D658" s="35"/>
+      <c r="B658" s="31"/>
+      <c r="C658" s="32"/>
+      <c r="D658" s="33"/>
       <c r="E658" s="24"/>
     </row>
     <row r="659">
-      <c r="B659" s="33"/>
-      <c r="C659" s="34"/>
-      <c r="D659" s="35"/>
+      <c r="B659" s="31"/>
+      <c r="C659" s="32"/>
+      <c r="D659" s="33"/>
       <c r="E659" s="24"/>
     </row>
     <row r="660">
-      <c r="B660" s="33"/>
-      <c r="C660" s="34"/>
-      <c r="D660" s="35"/>
+      <c r="B660" s="31"/>
+      <c r="C660" s="32"/>
+      <c r="D660" s="33"/>
       <c r="E660" s="24"/>
     </row>
     <row r="661">
-      <c r="B661" s="33"/>
-      <c r="C661" s="34"/>
-      <c r="D661" s="35"/>
+      <c r="B661" s="31"/>
+      <c r="C661" s="32"/>
+      <c r="D661" s="33"/>
       <c r="E661" s="24"/>
     </row>
     <row r="662">
-      <c r="B662" s="33"/>
-      <c r="C662" s="34"/>
-      <c r="D662" s="35"/>
+      <c r="B662" s="31"/>
+      <c r="C662" s="32"/>
+      <c r="D662" s="33"/>
       <c r="E662" s="24"/>
     </row>
     <row r="663">
-      <c r="B663" s="33"/>
-      <c r="C663" s="34"/>
-      <c r="D663" s="35"/>
+      <c r="B663" s="31"/>
+      <c r="C663" s="32"/>
+      <c r="D663" s="33"/>
       <c r="E663" s="24"/>
     </row>
     <row r="664">
-      <c r="B664" s="33"/>
-      <c r="C664" s="34"/>
-      <c r="D664" s="35"/>
+      <c r="B664" s="31"/>
+      <c r="C664" s="32"/>
+      <c r="D664" s="33"/>
       <c r="E664" s="24"/>
     </row>
     <row r="665">
-      <c r="B665" s="33"/>
-      <c r="C665" s="34"/>
-      <c r="D665" s="35"/>
+      <c r="B665" s="31"/>
+      <c r="C665" s="32"/>
+      <c r="D665" s="33"/>
       <c r="E665" s="24"/>
     </row>
     <row r="666">
-      <c r="B666" s="33"/>
-      <c r="C666" s="34"/>
-      <c r="D666" s="35"/>
+      <c r="B666" s="31"/>
+      <c r="C666" s="32"/>
+      <c r="D666" s="33"/>
       <c r="E666" s="24"/>
     </row>
     <row r="667">
-      <c r="B667" s="33"/>
-      <c r="C667" s="34"/>
-      <c r="D667" s="35"/>
+      <c r="B667" s="31"/>
+      <c r="C667" s="32"/>
+      <c r="D667" s="33"/>
       <c r="E667" s="24"/>
     </row>
     <row r="668">
-      <c r="B668" s="33"/>
-      <c r="C668" s="34"/>
-      <c r="D668" s="35"/>
+      <c r="B668" s="31"/>
+      <c r="C668" s="32"/>
+      <c r="D668" s="33"/>
       <c r="E668" s="24"/>
     </row>
     <row r="669">
-      <c r="B669" s="33"/>
-      <c r="C669" s="34"/>
-      <c r="D669" s="35"/>
+      <c r="B669" s="31"/>
+      <c r="C669" s="32"/>
+      <c r="D669" s="33"/>
       <c r="E669" s="24"/>
     </row>
     <row r="670">
-      <c r="B670" s="33"/>
-      <c r="C670" s="34"/>
-      <c r="D670" s="35"/>
+      <c r="B670" s="31"/>
+      <c r="C670" s="32"/>
+      <c r="D670" s="33"/>
       <c r="E670" s="24"/>
     </row>
     <row r="671">
-      <c r="B671" s="33"/>
-      <c r="C671" s="34"/>
-      <c r="D671" s="35"/>
+      <c r="B671" s="31"/>
+      <c r="C671" s="32"/>
+      <c r="D671" s="33"/>
       <c r="E671" s="24"/>
     </row>
     <row r="672">
-      <c r="B672" s="33"/>
-      <c r="C672" s="34"/>
-      <c r="D672" s="35"/>
+      <c r="B672" s="31"/>
+      <c r="C672" s="32"/>
+      <c r="D672" s="33"/>
       <c r="E672" s="24"/>
     </row>
     <row r="673">
-      <c r="B673" s="33"/>
-      <c r="C673" s="34"/>
-      <c r="D673" s="35"/>
+      <c r="B673" s="31"/>
+      <c r="C673" s="32"/>
+      <c r="D673" s="33"/>
       <c r="E673" s="24"/>
     </row>
     <row r="674">
-      <c r="B674" s="33"/>
-      <c r="C674" s="34"/>
-      <c r="D674" s="35"/>
+      <c r="B674" s="31"/>
+      <c r="C674" s="32"/>
+      <c r="D674" s="33"/>
       <c r="E674" s="24"/>
     </row>
     <row r="675">
-      <c r="B675" s="33"/>
-      <c r="C675" s="34"/>
-      <c r="D675" s="35"/>
+      <c r="B675" s="31"/>
+      <c r="C675" s="32"/>
+      <c r="D675" s="33"/>
       <c r="E675" s="24"/>
     </row>
     <row r="676">
-      <c r="B676" s="33"/>
-      <c r="C676" s="34"/>
-      <c r="D676" s="35"/>
+      <c r="B676" s="31"/>
+      <c r="C676" s="32"/>
+      <c r="D676" s="33"/>
       <c r="E676" s="24"/>
     </row>
     <row r="677">
-      <c r="B677" s="33"/>
-      <c r="C677" s="34"/>
-      <c r="D677" s="35"/>
+      <c r="B677" s="31"/>
+      <c r="C677" s="32"/>
+      <c r="D677" s="33"/>
       <c r="E677" s="24"/>
     </row>
     <row r="678">
-      <c r="B678" s="33"/>
-      <c r="C678" s="34"/>
-      <c r="D678" s="35"/>
+      <c r="B678" s="31"/>
+      <c r="C678" s="32"/>
+      <c r="D678" s="33"/>
       <c r="E678" s="24"/>
     </row>
     <row r="679">
-      <c r="B679" s="33"/>
-      <c r="C679" s="34"/>
-      <c r="D679" s="35"/>
+      <c r="B679" s="31"/>
+      <c r="C679" s="32"/>
+      <c r="D679" s="33"/>
       <c r="E679" s="24"/>
     </row>
     <row r="680">
-      <c r="B680" s="33"/>
-      <c r="C680" s="34"/>
-      <c r="D680" s="35"/>
+      <c r="B680" s="31"/>
+      <c r="C680" s="32"/>
+      <c r="D680" s="33"/>
       <c r="E680" s="24"/>
     </row>
     <row r="681">
-      <c r="B681" s="33"/>
-      <c r="C681" s="34"/>
-      <c r="D681" s="35"/>
+      <c r="B681" s="31"/>
+      <c r="C681" s="32"/>
+      <c r="D681" s="33"/>
       <c r="E681" s="24"/>
     </row>
     <row r="682">
-      <c r="B682" s="33"/>
-      <c r="C682" s="34"/>
-      <c r="D682" s="35"/>
+      <c r="B682" s="31"/>
+      <c r="C682" s="32"/>
+      <c r="D682" s="33"/>
       <c r="E682" s="24"/>
     </row>
     <row r="683">
-      <c r="B683" s="33"/>
-      <c r="C683" s="34"/>
-      <c r="D683" s="35"/>
+      <c r="B683" s="31"/>
+      <c r="C683" s="32"/>
+      <c r="D683" s="33"/>
       <c r="E683" s="24"/>
     </row>
     <row r="684">
-      <c r="B684" s="33"/>
-      <c r="C684" s="34"/>
-      <c r="D684" s="35"/>
+      <c r="B684" s="31"/>
+      <c r="C684" s="32"/>
+      <c r="D684" s="33"/>
       <c r="E684" s="24"/>
     </row>
     <row r="685">
-      <c r="B685" s="33"/>
-      <c r="C685" s="34"/>
-      <c r="D685" s="35"/>
+      <c r="B685" s="31"/>
+      <c r="C685" s="32"/>
+      <c r="D685" s="33"/>
       <c r="E685" s="24"/>
     </row>
     <row r="686">
-      <c r="B686" s="33"/>
-      <c r="C686" s="34"/>
-      <c r="D686" s="35"/>
+      <c r="B686" s="31"/>
+      <c r="C686" s="32"/>
+      <c r="D686" s="33"/>
       <c r="E686" s="24"/>
     </row>
     <row r="687">
-      <c r="B687" s="33"/>
-      <c r="C687" s="34"/>
-      <c r="D687" s="35"/>
+      <c r="B687" s="31"/>
+      <c r="C687" s="32"/>
+      <c r="D687" s="33"/>
       <c r="E687" s="24"/>
     </row>
     <row r="688">
-      <c r="B688" s="33"/>
-      <c r="C688" s="34"/>
-      <c r="D688" s="35"/>
+      <c r="B688" s="31"/>
+      <c r="C688" s="32"/>
+      <c r="D688" s="33"/>
       <c r="E688" s="24"/>
     </row>
     <row r="689">
-      <c r="B689" s="33"/>
-      <c r="C689" s="34"/>
-      <c r="D689" s="35"/>
+      <c r="B689" s="31"/>
+      <c r="C689" s="32"/>
+      <c r="D689" s="33"/>
       <c r="E689" s="24"/>
     </row>
     <row r="690">
-      <c r="B690" s="33"/>
-      <c r="C690" s="34"/>
-      <c r="D690" s="35"/>
+      <c r="B690" s="31"/>
+      <c r="C690" s="32"/>
+      <c r="D690" s="33"/>
       <c r="E690" s="24"/>
     </row>
     <row r="691">
-      <c r="B691" s="33"/>
-      <c r="C691" s="34"/>
-      <c r="D691" s="35"/>
+      <c r="B691" s="31"/>
+      <c r="C691" s="32"/>
+      <c r="D691" s="33"/>
       <c r="E691" s="24"/>
     </row>
     <row r="692">
-      <c r="B692" s="33"/>
-      <c r="C692" s="34"/>
-      <c r="D692" s="35"/>
+      <c r="B692" s="31"/>
+      <c r="C692" s="32"/>
+      <c r="D692" s="33"/>
       <c r="E692" s="24"/>
     </row>
     <row r="693">
-      <c r="B693" s="33"/>
-      <c r="C693" s="34"/>
-      <c r="D693" s="35"/>
+      <c r="B693" s="31"/>
+      <c r="C693" s="32"/>
+      <c r="D693" s="33"/>
       <c r="E693" s="24"/>
     </row>
     <row r="694">
-      <c r="B694" s="33"/>
-      <c r="C694" s="34"/>
-      <c r="D694" s="35"/>
+      <c r="B694" s="31"/>
+      <c r="C694" s="32"/>
+      <c r="D694" s="33"/>
       <c r="E694" s="24"/>
     </row>
     <row r="695">
-      <c r="B695" s="33"/>
-      <c r="C695" s="34"/>
-      <c r="D695" s="35"/>
+      <c r="B695" s="31"/>
+      <c r="C695" s="32"/>
+      <c r="D695" s="33"/>
       <c r="E695" s="24"/>
     </row>
     <row r="696">
-      <c r="B696" s="33"/>
-      <c r="C696" s="34"/>
-      <c r="D696" s="35"/>
+      <c r="B696" s="31"/>
+      <c r="C696" s="32"/>
+      <c r="D696" s="33"/>
       <c r="E696" s="24"/>
     </row>
     <row r="697">
-      <c r="B697" s="33"/>
-      <c r="C697" s="34"/>
-      <c r="D697" s="35"/>
+      <c r="B697" s="31"/>
+      <c r="C697" s="32"/>
+      <c r="D697" s="33"/>
       <c r="E697" s="24"/>
     </row>
     <row r="698">
-      <c r="B698" s="33"/>
-      <c r="C698" s="34"/>
-      <c r="D698" s="35"/>
+      <c r="B698" s="31"/>
+      <c r="C698" s="32"/>
+      <c r="D698" s="33"/>
       <c r="E698" s="24"/>
     </row>
     <row r="699">
-      <c r="B699" s="33"/>
-      <c r="C699" s="34"/>
-      <c r="D699" s="35"/>
+      <c r="B699" s="31"/>
+      <c r="C699" s="32"/>
+      <c r="D699" s="33"/>
       <c r="E699" s="24"/>
     </row>
     <row r="700">
-      <c r="B700" s="33"/>
-      <c r="C700" s="34"/>
-      <c r="D700" s="35"/>
+      <c r="B700" s="31"/>
+      <c r="C700" s="32"/>
+      <c r="D700" s="33"/>
       <c r="E700" s="24"/>
     </row>
     <row r="701">
-      <c r="B701" s="33"/>
-      <c r="C701" s="34"/>
-      <c r="D701" s="35"/>
+      <c r="B701" s="31"/>
+      <c r="C701" s="32"/>
+      <c r="D701" s="33"/>
       <c r="E701" s="24"/>
     </row>
     <row r="702">
-      <c r="B702" s="33"/>
-      <c r="C702" s="34"/>
-      <c r="D702" s="35"/>
+      <c r="B702" s="31"/>
+      <c r="C702" s="32"/>
+      <c r="D702" s="33"/>
       <c r="E702" s="24"/>
     </row>
     <row r="703">
-      <c r="B703" s="33"/>
-      <c r="C703" s="34"/>
-      <c r="D703" s="35"/>
+      <c r="B703" s="31"/>
+      <c r="C703" s="32"/>
+      <c r="D703" s="33"/>
       <c r="E703" s="24"/>
     </row>
     <row r="704">
-      <c r="B704" s="33"/>
-      <c r="C704" s="34"/>
-      <c r="D704" s="35"/>
+      <c r="B704" s="31"/>
+      <c r="C704" s="32"/>
+      <c r="D704" s="33"/>
       <c r="E704" s="24"/>
     </row>
     <row r="705">
-      <c r="B705" s="33"/>
-      <c r="C705" s="34"/>
-      <c r="D705" s="35"/>
+      <c r="B705" s="31"/>
+      <c r="C705" s="32"/>
+      <c r="D705" s="33"/>
       <c r="E705" s="24"/>
     </row>
     <row r="706">
-      <c r="B706" s="33"/>
-      <c r="C706" s="34"/>
-      <c r="D706" s="35"/>
+      <c r="B706" s="31"/>
+      <c r="C706" s="32"/>
+      <c r="D706" s="33"/>
       <c r="E706" s="24"/>
     </row>
     <row r="707">
-      <c r="B707" s="33"/>
-      <c r="C707" s="34"/>
-      <c r="D707" s="35"/>
+      <c r="B707" s="31"/>
+      <c r="C707" s="32"/>
+      <c r="D707" s="33"/>
       <c r="E707" s="24"/>
     </row>
     <row r="708">
-      <c r="B708" s="33"/>
-      <c r="C708" s="34"/>
-      <c r="D708" s="35"/>
+      <c r="B708" s="31"/>
+      <c r="C708" s="32"/>
+      <c r="D708" s="33"/>
       <c r="E708" s="24"/>
     </row>
     <row r="709">
-      <c r="B709" s="33"/>
-      <c r="C709" s="34"/>
-      <c r="D709" s="35"/>
+      <c r="B709" s="31"/>
+      <c r="C709" s="32"/>
+      <c r="D709" s="33"/>
       <c r="E709" s="24"/>
     </row>
     <row r="710">
-      <c r="B710" s="33"/>
-      <c r="C710" s="34"/>
-      <c r="D710" s="35"/>
+      <c r="B710" s="31"/>
+      <c r="C710" s="32"/>
+      <c r="D710" s="33"/>
       <c r="E710" s="24"/>
     </row>
     <row r="711">
-      <c r="B711" s="33"/>
-      <c r="C711" s="34"/>
-      <c r="D711" s="35"/>
+      <c r="B711" s="31"/>
+      <c r="C711" s="32"/>
+      <c r="D711" s="33"/>
       <c r="E711" s="24"/>
     </row>
     <row r="712">
-      <c r="B712" s="33"/>
-      <c r="C712" s="34"/>
-      <c r="D712" s="35"/>
+      <c r="B712" s="31"/>
+      <c r="C712" s="32"/>
+      <c r="D712" s="33"/>
       <c r="E712" s="24"/>
     </row>
     <row r="713">
-      <c r="B713" s="33"/>
-      <c r="C713" s="34"/>
-      <c r="D713" s="35"/>
+      <c r="B713" s="31"/>
+      <c r="C713" s="32"/>
+      <c r="D713" s="33"/>
       <c r="E713" s="24"/>
     </row>
     <row r="714">
-      <c r="B714" s="33"/>
-      <c r="C714" s="34"/>
-      <c r="D714" s="35"/>
+      <c r="B714" s="31"/>
+      <c r="C714" s="32"/>
+      <c r="D714" s="33"/>
       <c r="E714" s="24"/>
     </row>
     <row r="715">
-      <c r="B715" s="33"/>
-      <c r="C715" s="34"/>
-      <c r="D715" s="35"/>
+      <c r="B715" s="31"/>
+      <c r="C715" s="32"/>
+      <c r="D715" s="33"/>
       <c r="E715" s="24"/>
     </row>
     <row r="716">
-      <c r="B716" s="33"/>
-      <c r="C716" s="34"/>
-      <c r="D716" s="35"/>
+      <c r="B716" s="31"/>
+      <c r="C716" s="32"/>
+      <c r="D716" s="33"/>
       <c r="E716" s="24"/>
     </row>
     <row r="717">
-      <c r="B717" s="33"/>
-      <c r="C717" s="34"/>
-      <c r="D717" s="35"/>
+      <c r="B717" s="31"/>
+      <c r="C717" s="32"/>
+      <c r="D717" s="33"/>
       <c r="E717" s="24"/>
     </row>
     <row r="718">
-      <c r="B718" s="33"/>
-      <c r="C718" s="34"/>
-      <c r="D718" s="35"/>
+      <c r="B718" s="31"/>
+      <c r="C718" s="32"/>
+      <c r="D718" s="33"/>
       <c r="E718" s="24"/>
     </row>
     <row r="719">
-      <c r="B719" s="33"/>
-      <c r="C719" s="34"/>
-      <c r="D719" s="35"/>
+      <c r="B719" s="31"/>
+      <c r="C719" s="32"/>
+      <c r="D719" s="33"/>
       <c r="E719" s="24"/>
     </row>
     <row r="720">
-      <c r="B720" s="33"/>
-      <c r="C720" s="34"/>
-      <c r="D720" s="35"/>
+      <c r="B720" s="31"/>
+      <c r="C720" s="32"/>
+      <c r="D720" s="33"/>
       <c r="E720" s="24"/>
     </row>
     <row r="721">
-      <c r="B721" s="33"/>
-      <c r="C721" s="34"/>
-      <c r="D721" s="35"/>
+      <c r="B721" s="31"/>
+      <c r="C721" s="32"/>
+      <c r="D721" s="33"/>
       <c r="E721" s="24"/>
     </row>
     <row r="722">
-      <c r="B722" s="33"/>
-      <c r="C722" s="34"/>
-      <c r="D722" s="35"/>
+      <c r="B722" s="31"/>
+      <c r="C722" s="32"/>
+      <c r="D722" s="33"/>
       <c r="E722" s="24"/>
     </row>
     <row r="723">
-      <c r="B723" s="33"/>
-      <c r="C723" s="34"/>
-      <c r="D723" s="35"/>
+      <c r="B723" s="31"/>
+      <c r="C723" s="32"/>
+      <c r="D723" s="33"/>
       <c r="E723" s="24"/>
     </row>
     <row r="724">
-      <c r="B724" s="33"/>
-      <c r="C724" s="34"/>
-      <c r="D724" s="35"/>
+      <c r="B724" s="31"/>
+      <c r="C724" s="32"/>
+      <c r="D724" s="33"/>
       <c r="E724" s="24"/>
     </row>
     <row r="725">
-      <c r="B725" s="33"/>
-      <c r="C725" s="34"/>
-      <c r="D725" s="35"/>
+      <c r="B725" s="31"/>
+      <c r="C725" s="32"/>
+      <c r="D725" s="33"/>
       <c r="E725" s="24"/>
     </row>
     <row r="726">
-      <c r="B726" s="33"/>
-      <c r="C726" s="34"/>
-      <c r="D726" s="35"/>
+      <c r="B726" s="31"/>
+      <c r="C726" s="32"/>
+      <c r="D726" s="33"/>
       <c r="E726" s="24"/>
     </row>
     <row r="727">
-      <c r="B727" s="33"/>
-      <c r="C727" s="34"/>
-      <c r="D727" s="35"/>
+      <c r="B727" s="31"/>
+      <c r="C727" s="32"/>
+      <c r="D727" s="33"/>
       <c r="E727" s="24"/>
     </row>
     <row r="728">
-      <c r="B728" s="33"/>
-      <c r="C728" s="34"/>
-      <c r="D728" s="35"/>
+      <c r="B728" s="31"/>
+      <c r="C728" s="32"/>
+      <c r="D728" s="33"/>
       <c r="E728" s="24"/>
     </row>
     <row r="729">
-      <c r="B729" s="33"/>
-      <c r="C729" s="34"/>
-      <c r="D729" s="35"/>
+      <c r="B729" s="31"/>
+      <c r="C729" s="32"/>
+      <c r="D729" s="33"/>
       <c r="E729" s="24"/>
     </row>
     <row r="730">
-      <c r="B730" s="33"/>
-      <c r="C730" s="34"/>
-      <c r="D730" s="35"/>
+      <c r="B730" s="31"/>
+      <c r="C730" s="32"/>
+      <c r="D730" s="33"/>
       <c r="E730" s="24"/>
     </row>
     <row r="731">
-      <c r="B731" s="33"/>
-      <c r="C731" s="34"/>
-      <c r="D731" s="35"/>
+      <c r="B731" s="31"/>
+      <c r="C731" s="32"/>
+      <c r="D731" s="33"/>
       <c r="E731" s="24"/>
     </row>
     <row r="732">
-      <c r="B732" s="33"/>
-      <c r="C732" s="34"/>
-      <c r="D732" s="35"/>
+      <c r="B732" s="31"/>
+      <c r="C732" s="32"/>
+      <c r="D732" s="33"/>
       <c r="E732" s="24"/>
     </row>
     <row r="733">
-      <c r="B733" s="33"/>
-      <c r="C733" s="34"/>
-      <c r="D733" s="35"/>
+      <c r="B733" s="31"/>
+      <c r="C733" s="32"/>
+      <c r="D733" s="33"/>
       <c r="E733" s="24"/>
     </row>
     <row r="734">
-      <c r="B734" s="33"/>
-      <c r="C734" s="34"/>
-      <c r="D734" s="35"/>
+      <c r="B734" s="31"/>
+      <c r="C734" s="32"/>
+      <c r="D734" s="33"/>
       <c r="E734" s="24"/>
     </row>
     <row r="735">
-      <c r="B735" s="33"/>
-      <c r="C735" s="34"/>
-      <c r="D735" s="35"/>
+      <c r="B735" s="31"/>
+      <c r="C735" s="32"/>
+      <c r="D735" s="33"/>
       <c r="E735" s="24"/>
     </row>
     <row r="736">
-      <c r="B736" s="33"/>
-      <c r="C736" s="34"/>
-      <c r="D736" s="35"/>
+      <c r="B736" s="31"/>
+      <c r="C736" s="32"/>
+      <c r="D736" s="33"/>
       <c r="E736" s="24"/>
     </row>
     <row r="737">
-      <c r="B737" s="33"/>
-      <c r="C737" s="34"/>
-      <c r="D737" s="35"/>
+      <c r="B737" s="31"/>
+      <c r="C737" s="32"/>
+      <c r="D737" s="33"/>
       <c r="E737" s="24"/>
     </row>
     <row r="738">
-      <c r="B738" s="33"/>
-      <c r="C738" s="34"/>
-      <c r="D738" s="35"/>
+      <c r="B738" s="31"/>
+      <c r="C738" s="32"/>
+      <c r="D738" s="33"/>
       <c r="E738" s="24"/>
     </row>
     <row r="739">
-      <c r="B739" s="33"/>
-      <c r="C739" s="34"/>
-      <c r="D739" s="35"/>
+      <c r="B739" s="31"/>
+      <c r="C739" s="32"/>
+      <c r="D739" s="33"/>
       <c r="E739" s="24"/>
     </row>
     <row r="740">
-      <c r="B740" s="33"/>
-      <c r="C740" s="34"/>
-      <c r="D740" s="35"/>
+      <c r="B740" s="31"/>
+      <c r="C740" s="32"/>
+      <c r="D740" s="33"/>
       <c r="E740" s="24"/>
     </row>
     <row r="741">
-      <c r="B741" s="33"/>
-      <c r="C741" s="34"/>
-      <c r="D741" s="35"/>
+      <c r="B741" s="31"/>
+      <c r="C741" s="32"/>
+      <c r="D741" s="33"/>
       <c r="E741" s="24"/>
     </row>
     <row r="742">
-      <c r="B742" s="33"/>
-      <c r="C742" s="34"/>
-      <c r="D742" s="35"/>
+      <c r="B742" s="31"/>
+      <c r="C742" s="32"/>
+      <c r="D742" s="33"/>
       <c r="E742" s="24"/>
     </row>
     <row r="743">
-      <c r="B743" s="33"/>
-      <c r="C743" s="34"/>
-      <c r="D743" s="35"/>
+      <c r="B743" s="31"/>
+      <c r="C743" s="32"/>
+      <c r="D743" s="33"/>
       <c r="E743" s="24"/>
     </row>
     <row r="744">
-      <c r="B744" s="33"/>
-      <c r="C744" s="34"/>
-      <c r="D744" s="35"/>
+      <c r="B744" s="31"/>
+      <c r="C744" s="32"/>
+      <c r="D744" s="33"/>
       <c r="E744" s="24"/>
     </row>
     <row r="745">
-      <c r="B745" s="33"/>
-      <c r="C745" s="34"/>
-      <c r="D745" s="35"/>
+      <c r="B745" s="31"/>
+      <c r="C745" s="32"/>
+      <c r="D745" s="33"/>
       <c r="E745" s="24"/>
     </row>
     <row r="746">
-      <c r="B746" s="33"/>
-      <c r="C746" s="34"/>
-      <c r="D746" s="35"/>
+      <c r="B746" s="31"/>
+      <c r="C746" s="32"/>
+      <c r="D746" s="33"/>
       <c r="E746" s="24"/>
     </row>
     <row r="747">
-      <c r="B747" s="33"/>
-      <c r="C747" s="34"/>
-      <c r="D747" s="35"/>
+      <c r="B747" s="31"/>
+      <c r="C747" s="32"/>
+      <c r="D747" s="33"/>
       <c r="E747" s="24"/>
     </row>
     <row r="748">
-      <c r="B748" s="33"/>
-      <c r="C748" s="34"/>
-      <c r="D748" s="35"/>
+      <c r="B748" s="31"/>
+      <c r="C748" s="32"/>
+      <c r="D748" s="33"/>
       <c r="E748" s="24"/>
     </row>
     <row r="749">
-      <c r="B749" s="33"/>
-      <c r="C749" s="34"/>
-      <c r="D749" s="35"/>
+      <c r="B749" s="31"/>
+      <c r="C749" s="32"/>
+      <c r="D749" s="33"/>
       <c r="E749" s="24"/>
     </row>
     <row r="750">
-      <c r="B750" s="33"/>
-      <c r="C750" s="34"/>
-      <c r="D750" s="35"/>
+      <c r="B750" s="31"/>
+      <c r="C750" s="32"/>
+      <c r="D750" s="33"/>
       <c r="E750" s="24"/>
     </row>
     <row r="751">
-      <c r="B751" s="33"/>
-      <c r="C751" s="34"/>
-      <c r="D751" s="35"/>
+      <c r="B751" s="31"/>
+      <c r="C751" s="32"/>
+      <c r="D751" s="33"/>
       <c r="E751" s="24"/>
     </row>
     <row r="752">
-      <c r="B752" s="33"/>
-      <c r="C752" s="34"/>
-      <c r="D752" s="35"/>
+      <c r="B752" s="31"/>
+      <c r="C752" s="32"/>
+      <c r="D752" s="33"/>
       <c r="E752" s="24"/>
     </row>
     <row r="753">
-      <c r="B753" s="33"/>
-      <c r="C753" s="34"/>
-      <c r="D753" s="35"/>
+      <c r="B753" s="31"/>
+      <c r="C753" s="32"/>
+      <c r="D753" s="33"/>
       <c r="E753" s="24"/>
     </row>
     <row r="754">
-      <c r="B754" s="33"/>
-      <c r="C754" s="34"/>
-      <c r="D754" s="35"/>
+      <c r="B754" s="31"/>
+      <c r="C754" s="32"/>
+      <c r="D754" s="33"/>
       <c r="E754" s="24"/>
     </row>
     <row r="755">
-      <c r="B755" s="33"/>
-      <c r="C755" s="34"/>
-      <c r="D755" s="35"/>
+      <c r="B755" s="31"/>
+      <c r="C755" s="32"/>
+      <c r="D755" s="33"/>
       <c r="E755" s="24"/>
     </row>
     <row r="756">
-      <c r="B756" s="33"/>
-      <c r="C756" s="34"/>
-      <c r="D756" s="35"/>
+      <c r="B756" s="31"/>
+      <c r="C756" s="32"/>
+      <c r="D756" s="33"/>
       <c r="E756" s="24"/>
     </row>
     <row r="757">
-      <c r="B757" s="33"/>
-      <c r="C757" s="34"/>
-      <c r="D757" s="35"/>
+      <c r="B757" s="31"/>
+      <c r="C757" s="32"/>
+      <c r="D757" s="33"/>
       <c r="E757" s="24"/>
     </row>
     <row r="758">
-      <c r="B758" s="33"/>
-      <c r="C758" s="34"/>
-      <c r="D758" s="35"/>
+      <c r="B758" s="31"/>
+      <c r="C758" s="32"/>
+      <c r="D758" s="33"/>
       <c r="E758" s="24"/>
     </row>
     <row r="759">
-      <c r="B759" s="33"/>
-      <c r="C759" s="34"/>
-      <c r="D759" s="35"/>
+      <c r="B759" s="31"/>
+      <c r="C759" s="32"/>
+      <c r="D759" s="33"/>
       <c r="E759" s="24"/>
     </row>
     <row r="760">
-      <c r="B760" s="33"/>
-      <c r="C760" s="34"/>
-      <c r="D760" s="35"/>
+      <c r="B760" s="31"/>
+      <c r="C760" s="32"/>
+      <c r="D760" s="33"/>
       <c r="E760" s="24"/>
     </row>
     <row r="761">
-      <c r="B761" s="33"/>
-      <c r="C761" s="34"/>
-      <c r="D761" s="35"/>
+      <c r="B761" s="31"/>
+      <c r="C761" s="32"/>
+      <c r="D761" s="33"/>
       <c r="E761" s="24"/>
     </row>
     <row r="762">
-      <c r="B762" s="33"/>
-      <c r="C762" s="34"/>
-      <c r="D762" s="35"/>
+      <c r="B762" s="31"/>
+      <c r="C762" s="32"/>
+      <c r="D762" s="33"/>
       <c r="E762" s="24"/>
     </row>
     <row r="763">
-      <c r="B763" s="33"/>
-      <c r="C763" s="34"/>
-      <c r="D763" s="35"/>
+      <c r="B763" s="31"/>
+      <c r="C763" s="32"/>
+      <c r="D763" s="33"/>
       <c r="E763" s="24"/>
     </row>
     <row r="764">
-      <c r="B764" s="33"/>
-      <c r="C764" s="34"/>
-      <c r="D764" s="35"/>
+      <c r="B764" s="31"/>
+      <c r="C764" s="32"/>
+      <c r="D764" s="33"/>
       <c r="E764" s="24"/>
     </row>
     <row r="765">
-      <c r="B765" s="33"/>
-      <c r="C765" s="34"/>
-      <c r="D765" s="35"/>
+      <c r="B765" s="31"/>
+      <c r="C765" s="32"/>
+      <c r="D765" s="33"/>
       <c r="E765" s="24"/>
     </row>
     <row r="766">
-      <c r="B766" s="33"/>
-      <c r="C766" s="34"/>
-      <c r="D766" s="35"/>
+      <c r="B766" s="31"/>
+      <c r="C766" s="32"/>
+      <c r="D766" s="33"/>
       <c r="E766" s="24"/>
     </row>
     <row r="767">
-      <c r="B767" s="33"/>
-      <c r="C767" s="34"/>
-      <c r="D767" s="35"/>
+      <c r="B767" s="31"/>
+      <c r="C767" s="32"/>
+      <c r="D767" s="33"/>
       <c r="E767" s="24"/>
     </row>
     <row r="768">
-      <c r="B768" s="33"/>
-      <c r="C768" s="34"/>
-      <c r="D768" s="35"/>
+      <c r="B768" s="31"/>
+      <c r="C768" s="32"/>
+      <c r="D768" s="33"/>
       <c r="E768" s="24"/>
     </row>
     <row r="769">
-      <c r="B769" s="33"/>
-      <c r="C769" s="34"/>
-      <c r="D769" s="35"/>
+      <c r="B769" s="31"/>
+      <c r="C769" s="32"/>
+      <c r="D769" s="33"/>
       <c r="E769" s="24"/>
     </row>
     <row r="770">
-      <c r="B770" s="33"/>
-      <c r="C770" s="34"/>
-      <c r="D770" s="35"/>
+      <c r="B770" s="31"/>
+      <c r="C770" s="32"/>
+      <c r="D770" s="33"/>
       <c r="E770" s="24"/>
     </row>
     <row r="771">
-      <c r="B771" s="33"/>
-      <c r="C771" s="34"/>
-      <c r="D771" s="35"/>
+      <c r="B771" s="31"/>
+      <c r="C771" s="32"/>
+      <c r="D771" s="33"/>
       <c r="E771" s="24"/>
     </row>
     <row r="772">
-      <c r="B772" s="33"/>
-      <c r="C772" s="34"/>
-      <c r="D772" s="35"/>
+      <c r="B772" s="31"/>
+      <c r="C772" s="32"/>
+      <c r="D772" s="33"/>
       <c r="E772" s="24"/>
     </row>
     <row r="773">
-      <c r="B773" s="33"/>
-      <c r="C773" s="34"/>
-      <c r="D773" s="35"/>
+      <c r="B773" s="31"/>
+      <c r="C773" s="32"/>
+      <c r="D773" s="33"/>
       <c r="E773" s="24"/>
     </row>
     <row r="774">
-      <c r="B774" s="33"/>
-      <c r="C774" s="34"/>
-      <c r="D774" s="35"/>
+      <c r="B774" s="31"/>
+      <c r="C774" s="32"/>
+      <c r="D774" s="33"/>
       <c r="E774" s="24"/>
     </row>
     <row r="775">
-      <c r="B775" s="33"/>
-      <c r="C775" s="34"/>
-      <c r="D775" s="35"/>
+      <c r="B775" s="31"/>
+      <c r="C775" s="32"/>
+      <c r="D775" s="33"/>
       <c r="E775" s="24"/>
     </row>
     <row r="776">
-      <c r="B776" s="33"/>
-      <c r="C776" s="34"/>
-      <c r="D776" s="35"/>
+      <c r="B776" s="31"/>
+      <c r="C776" s="32"/>
+      <c r="D776" s="33"/>
       <c r="E776" s="24"/>
     </row>
     <row r="777">
-      <c r="B777" s="33"/>
-      <c r="C777" s="34"/>
-      <c r="D777" s="35"/>
+      <c r="B777" s="31"/>
+      <c r="C777" s="32"/>
+      <c r="D777" s="33"/>
       <c r="E777" s="24"/>
     </row>
     <row r="778">
-      <c r="B778" s="33"/>
-      <c r="C778" s="34"/>
-      <c r="D778" s="35"/>
+      <c r="B778" s="31"/>
+      <c r="C778" s="32"/>
+      <c r="D778" s="33"/>
       <c r="E778" s="24"/>
     </row>
     <row r="779">
-      <c r="B779" s="33"/>
-      <c r="C779" s="34"/>
-      <c r="D779" s="35"/>
+      <c r="B779" s="31"/>
+      <c r="C779" s="32"/>
+      <c r="D779" s="33"/>
       <c r="E779" s="24"/>
     </row>
     <row r="780">
-      <c r="B780" s="33"/>
-      <c r="C780" s="34"/>
-      <c r="D780" s="35"/>
+      <c r="B780" s="31"/>
+      <c r="C780" s="32"/>
+      <c r="D780" s="33"/>
       <c r="E780" s="24"/>
     </row>
     <row r="781">
-      <c r="B781" s="33"/>
-      <c r="C781" s="34"/>
-      <c r="D781" s="35"/>
+      <c r="B781" s="31"/>
+      <c r="C781" s="32"/>
+      <c r="D781" s="33"/>
       <c r="E781" s="24"/>
     </row>
     <row r="782">
-      <c r="B782" s="33"/>
-      <c r="C782" s="34"/>
-      <c r="D782" s="35"/>
+      <c r="B782" s="31"/>
+      <c r="C782" s="32"/>
+      <c r="D782" s="33"/>
       <c r="E782" s="24"/>
     </row>
     <row r="783">
-      <c r="B783" s="33"/>
-      <c r="C783" s="34"/>
-      <c r="D783" s="35"/>
+      <c r="B783" s="31"/>
+      <c r="C783" s="32"/>
+      <c r="D783" s="33"/>
       <c r="E783" s="24"/>
     </row>
     <row r="784">
-      <c r="B784" s="33"/>
-      <c r="C784" s="34"/>
-      <c r="D784" s="35"/>
+      <c r="B784" s="31"/>
+      <c r="C784" s="32"/>
+      <c r="D784" s="33"/>
       <c r="E784" s="24"/>
     </row>
     <row r="785">
-      <c r="B785" s="33"/>
-      <c r="C785" s="34"/>
-      <c r="D785" s="35"/>
+      <c r="B785" s="31"/>
+      <c r="C785" s="32"/>
+      <c r="D785" s="33"/>
       <c r="E785" s="24"/>
     </row>
     <row r="786">
-      <c r="B786" s="33"/>
-      <c r="C786" s="34"/>
-      <c r="D786" s="35"/>
+      <c r="B786" s="31"/>
+      <c r="C786" s="32"/>
+      <c r="D786" s="33"/>
       <c r="E786" s="24"/>
     </row>
     <row r="787">
-      <c r="B787" s="33"/>
-      <c r="C787" s="34"/>
-      <c r="D787" s="35"/>
+      <c r="B787" s="31"/>
+      <c r="C787" s="32"/>
+      <c r="D787" s="33"/>
       <c r="E787" s="24"/>
     </row>
     <row r="788">
-      <c r="B788" s="33"/>
-      <c r="C788" s="34"/>
-      <c r="D788" s="35"/>
+      <c r="B788" s="31"/>
+      <c r="C788" s="32"/>
+      <c r="D788" s="33"/>
       <c r="E788" s="24"/>
     </row>
     <row r="789">
-      <c r="B789" s="33"/>
-      <c r="C789" s="34"/>
-      <c r="D789" s="35"/>
+      <c r="B789" s="31"/>
+      <c r="C789" s="32"/>
+      <c r="D789" s="33"/>
       <c r="E789" s="24"/>
     </row>
     <row r="790">
-      <c r="B790" s="33"/>
-      <c r="C790" s="34"/>
-      <c r="D790" s="35"/>
+      <c r="B790" s="31"/>
+      <c r="C790" s="32"/>
+      <c r="D790" s="33"/>
       <c r="E790" s="24"/>
     </row>
     <row r="791">
-      <c r="B791" s="33"/>
-      <c r="C791" s="34"/>
-      <c r="D791" s="35"/>
+      <c r="B791" s="31"/>
+      <c r="C791" s="32"/>
+      <c r="D791" s="33"/>
       <c r="E791" s="24"/>
     </row>
     <row r="792">
-      <c r="B792" s="33"/>
-      <c r="C792" s="34"/>
-      <c r="D792" s="35"/>
+      <c r="B792" s="31"/>
+      <c r="C792" s="32"/>
+      <c r="D792" s="33"/>
       <c r="E792" s="24"/>
     </row>
     <row r="793">
-      <c r="B793" s="33"/>
-      <c r="C793" s="34"/>
-      <c r="D793" s="35"/>
+      <c r="B793" s="31"/>
+      <c r="C793" s="32"/>
+      <c r="D793" s="33"/>
       <c r="E793" s="24"/>
     </row>
     <row r="794">
-      <c r="B794" s="33"/>
-      <c r="C794" s="34"/>
-      <c r="D794" s="35"/>
+      <c r="B794" s="31"/>
+      <c r="C794" s="32"/>
+      <c r="D794" s="33"/>
       <c r="E794" s="24"/>
     </row>
     <row r="795">
-      <c r="B795" s="33"/>
-      <c r="C795" s="34"/>
-      <c r="D795" s="35"/>
+      <c r="B795" s="31"/>
+      <c r="C795" s="32"/>
+      <c r="D795" s="33"/>
       <c r="E795" s="24"/>
     </row>
     <row r="796">
-      <c r="B796" s="33"/>
-      <c r="C796" s="34"/>
-      <c r="D796" s="35"/>
+      <c r="B796" s="31"/>
+      <c r="C796" s="32"/>
+      <c r="D796" s="33"/>
       <c r="E796" s="24"/>
     </row>
     <row r="797">
-      <c r="B797" s="33"/>
-      <c r="C797" s="34"/>
-      <c r="D797" s="35"/>
+      <c r="B797" s="31"/>
+      <c r="C797" s="32"/>
+      <c r="D797" s="33"/>
       <c r="E797" s="24"/>
     </row>
     <row r="798">
-      <c r="B798" s="33"/>
-      <c r="C798" s="34"/>
-      <c r="D798" s="35"/>
+      <c r="B798" s="31"/>
+      <c r="C798" s="32"/>
+      <c r="D798" s="33"/>
       <c r="E798" s="24"/>
     </row>
     <row r="799">
-      <c r="B799" s="33"/>
-      <c r="C799" s="34"/>
-      <c r="D799" s="35"/>
+      <c r="B799" s="31"/>
+      <c r="C799" s="32"/>
+      <c r="D799" s="33"/>
       <c r="E799" s="24"/>
     </row>
     <row r="800">
-      <c r="B800" s="33"/>
-      <c r="C800" s="34"/>
-      <c r="D800" s="35"/>
+      <c r="B800" s="31"/>
+      <c r="C800" s="32"/>
+      <c r="D800" s="33"/>
       <c r="E800" s="24"/>
     </row>
     <row r="801">
-      <c r="B801" s="33"/>
-      <c r="C801" s="34"/>
-      <c r="D801" s="35"/>
+      <c r="B801" s="31"/>
+      <c r="C801" s="32"/>
+      <c r="D801" s="33"/>
       <c r="E801" s="24"/>
     </row>
     <row r="802">
-      <c r="B802" s="33"/>
-      <c r="C802" s="34"/>
-      <c r="D802" s="35"/>
+      <c r="B802" s="31"/>
+      <c r="C802" s="32"/>
+      <c r="D802" s="33"/>
       <c r="E802" s="24"/>
     </row>
     <row r="803">
-      <c r="B803" s="33"/>
-      <c r="C803" s="34"/>
-      <c r="D803" s="35"/>
+      <c r="B803" s="31"/>
+      <c r="C803" s="32"/>
+      <c r="D803" s="33"/>
       <c r="E803" s="24"/>
     </row>
     <row r="804">
-      <c r="B804" s="33"/>
-      <c r="C804" s="34"/>
-      <c r="D804" s="35"/>
+      <c r="B804" s="31"/>
+      <c r="C804" s="32"/>
+      <c r="D804" s="33"/>
       <c r="E804" s="24"/>
     </row>
     <row r="805">
-      <c r="B805" s="33"/>
-      <c r="C805" s="34"/>
-      <c r="D805" s="35"/>
+      <c r="B805" s="31"/>
+      <c r="C805" s="32"/>
+      <c r="D805" s="33"/>
       <c r="E805" s="24"/>
     </row>
     <row r="806">
-      <c r="B806" s="33"/>
-      <c r="C806" s="34"/>
-      <c r="D806" s="35"/>
+      <c r="B806" s="31"/>
+      <c r="C806" s="32"/>
+      <c r="D806" s="33"/>
       <c r="E806" s="24"/>
     </row>
     <row r="807">
-      <c r="B807" s="33"/>
-      <c r="C807" s="34"/>
-      <c r="D807" s="35"/>
+      <c r="B807" s="31"/>
+      <c r="C807" s="32"/>
+      <c r="D807" s="33"/>
       <c r="E807" s="24"/>
     </row>
     <row r="808">
-      <c r="B808" s="33"/>
-      <c r="C808" s="34"/>
-      <c r="D808" s="35"/>
+      <c r="B808" s="31"/>
+      <c r="C808" s="32"/>
+      <c r="D808" s="33"/>
       <c r="E808" s="24"/>
     </row>
     <row r="809">
-      <c r="B809" s="33"/>
-      <c r="C809" s="34"/>
-      <c r="D809" s="35"/>
+      <c r="B809" s="31"/>
+      <c r="C809" s="32"/>
+      <c r="D809" s="33"/>
       <c r="E809" s="24"/>
     </row>
     <row r="810">
-      <c r="B810" s="33"/>
-      <c r="C810" s="34"/>
-      <c r="D810" s="35"/>
+      <c r="B810" s="31"/>
+      <c r="C810" s="32"/>
+      <c r="D810" s="33"/>
       <c r="E810" s="24"/>
     </row>
     <row r="811">
-      <c r="B811" s="33"/>
-      <c r="C811" s="34"/>
-      <c r="D811" s="35"/>
+      <c r="B811" s="31"/>
+      <c r="C811" s="32"/>
+      <c r="D811" s="33"/>
       <c r="E811" s="24"/>
     </row>
     <row r="812">
-      <c r="B812" s="33"/>
-      <c r="C812" s="34"/>
-      <c r="D812" s="35"/>
+      <c r="B812" s="31"/>
+      <c r="C812" s="32"/>
+      <c r="D812" s="33"/>
       <c r="E812" s="24"/>
     </row>
     <row r="813">
-      <c r="B813" s="33"/>
-      <c r="C813" s="34"/>
-      <c r="D813" s="35"/>
+      <c r="B813" s="31"/>
+      <c r="C813" s="32"/>
+      <c r="D813" s="33"/>
       <c r="E813" s="24"/>
     </row>
     <row r="814">
-      <c r="B814" s="33"/>
-      <c r="C814" s="34"/>
-      <c r="D814" s="35"/>
+      <c r="B814" s="31"/>
+      <c r="C814" s="32"/>
+      <c r="D814" s="33"/>
       <c r="E814" s="24"/>
     </row>
     <row r="815">
-      <c r="B815" s="33"/>
-      <c r="C815" s="34"/>
-      <c r="D815" s="35"/>
+      <c r="B815" s="31"/>
+      <c r="C815" s="32"/>
+      <c r="D815" s="33"/>
       <c r="E815" s="24"/>
     </row>
     <row r="816">
-      <c r="B816" s="33"/>
-      <c r="C816" s="34"/>
-      <c r="D816" s="35"/>
+      <c r="B816" s="31"/>
+      <c r="C816" s="32"/>
+      <c r="D816" s="33"/>
       <c r="E816" s="24"/>
     </row>
     <row r="817">
-      <c r="B817" s="33"/>
-      <c r="C817" s="34"/>
-      <c r="D817" s="35"/>
+      <c r="B817" s="31"/>
+      <c r="C817" s="32"/>
+      <c r="D817" s="33"/>
       <c r="E817" s="24"/>
     </row>
     <row r="818">
-      <c r="B818" s="33"/>
-      <c r="C818" s="34"/>
-      <c r="D818" s="35"/>
+      <c r="B818" s="31"/>
+      <c r="C818" s="32"/>
+      <c r="D818" s="33"/>
       <c r="E818" s="24"/>
     </row>
     <row r="819">
-      <c r="B819" s="33"/>
-      <c r="C819" s="34"/>
-      <c r="D819" s="35"/>
+      <c r="B819" s="31"/>
+      <c r="C819" s="32"/>
+      <c r="D819" s="33"/>
       <c r="E819" s="24"/>
     </row>
     <row r="820">
-      <c r="B820" s="33"/>
-      <c r="C820" s="34"/>
-      <c r="D820" s="35"/>
+      <c r="B820" s="31"/>
+      <c r="C820" s="32"/>
+      <c r="D820" s="33"/>
       <c r="E820" s="24"/>
     </row>
     <row r="821">
-      <c r="B821" s="33"/>
-      <c r="C821" s="34"/>
-      <c r="D821" s="35"/>
+      <c r="B821" s="31"/>
+      <c r="C821" s="32"/>
+      <c r="D821" s="33"/>
       <c r="E821" s="24"/>
     </row>
     <row r="822">
-      <c r="B822" s="33"/>
-      <c r="C822" s="34"/>
-      <c r="D822" s="35"/>
+      <c r="B822" s="31"/>
+      <c r="C822" s="32"/>
+      <c r="D822" s="33"/>
       <c r="E822" s="24"/>
     </row>
     <row r="823">
-      <c r="B823" s="33"/>
-      <c r="C823" s="34"/>
-      <c r="D823" s="35"/>
+      <c r="B823" s="31"/>
+      <c r="C823" s="32"/>
+      <c r="D823" s="33"/>
       <c r="E823" s="24"/>
     </row>
     <row r="824">
-      <c r="B824" s="33"/>
-      <c r="C824" s="34"/>
-      <c r="D824" s="35"/>
+      <c r="B824" s="31"/>
+      <c r="C824" s="32"/>
+      <c r="D824" s="33"/>
       <c r="E824" s="24"/>
     </row>
     <row r="825">
-      <c r="B825" s="33"/>
-      <c r="C825" s="34"/>
-      <c r="D825" s="35"/>
+      <c r="B825" s="31"/>
+      <c r="C825" s="32"/>
+      <c r="D825" s="33"/>
       <c r="E825" s="24"/>
     </row>
     <row r="826">
-      <c r="B826" s="33"/>
-      <c r="C826" s="34"/>
-      <c r="D826" s="35"/>
+      <c r="B826" s="31"/>
+      <c r="C826" s="32"/>
+      <c r="D826" s="33"/>
       <c r="E826" s="24"/>
     </row>
     <row r="827">
-      <c r="B827" s="33"/>
-      <c r="C827" s="34"/>
-      <c r="D827" s="35"/>
+      <c r="B827" s="31"/>
+      <c r="C827" s="32"/>
+      <c r="D827" s="33"/>
       <c r="E827" s="24"/>
     </row>
     <row r="828">
-      <c r="B828" s="33"/>
-      <c r="C828" s="34"/>
-      <c r="D828" s="35"/>
+      <c r="B828" s="31"/>
+      <c r="C828" s="32"/>
+      <c r="D828" s="33"/>
       <c r="E828" s="24"/>
     </row>
     <row r="829">
-      <c r="B829" s="33"/>
-      <c r="C829" s="34"/>
-      <c r="D829" s="35"/>
+      <c r="B829" s="31"/>
+      <c r="C829" s="32"/>
+      <c r="D829" s="33"/>
       <c r="E829" s="24"/>
     </row>
     <row r="830">
-      <c r="B830" s="33"/>
-      <c r="C830" s="34"/>
-      <c r="D830" s="35"/>
+      <c r="B830" s="31"/>
+      <c r="C830" s="32"/>
+      <c r="D830" s="33"/>
       <c r="E830" s="24"/>
     </row>
     <row r="831">
-      <c r="B831" s="33"/>
-      <c r="C831" s="34"/>
-      <c r="D831" s="35"/>
+      <c r="B831" s="31"/>
+      <c r="C831" s="32"/>
+      <c r="D831" s="33"/>
       <c r="E831" s="24"/>
     </row>
     <row r="832">
-      <c r="B832" s="33"/>
-      <c r="C832" s="34"/>
-      <c r="D832" s="35"/>
+      <c r="B832" s="31"/>
+      <c r="C832" s="32"/>
+      <c r="D832" s="33"/>
       <c r="E832" s="24"/>
     </row>
     <row r="833">
-      <c r="B833" s="33"/>
-      <c r="C833" s="34"/>
-      <c r="D833" s="35"/>
+      <c r="B833" s="31"/>
+      <c r="C833" s="32"/>
+      <c r="D833" s="33"/>
       <c r="E833" s="24"/>
     </row>
     <row r="834">
-      <c r="B834" s="33"/>
-      <c r="C834" s="34"/>
-      <c r="D834" s="35"/>
+      <c r="B834" s="31"/>
+      <c r="C834" s="32"/>
+      <c r="D834" s="33"/>
       <c r="E834" s="24"/>
     </row>
     <row r="835">
-      <c r="B835" s="33"/>
-      <c r="C835" s="34"/>
-      <c r="D835" s="35"/>
+      <c r="B835" s="31"/>
+      <c r="C835" s="32"/>
+      <c r="D835" s="33"/>
       <c r="E835" s="24"/>
     </row>
     <row r="836">
-      <c r="B836" s="33"/>
-      <c r="C836" s="34"/>
-      <c r="D836" s="35"/>
+      <c r="B836" s="31"/>
+      <c r="C836" s="32"/>
+      <c r="D836" s="33"/>
       <c r="E836" s="24"/>
     </row>
     <row r="837">
-      <c r="B837" s="33"/>
-      <c r="C837" s="34"/>
-      <c r="D837" s="35"/>
+      <c r="B837" s="31"/>
+      <c r="C837" s="32"/>
+      <c r="D837" s="33"/>
       <c r="E837" s="24"/>
     </row>
     <row r="838">
-      <c r="B838" s="33"/>
-      <c r="C838" s="34"/>
-      <c r="D838" s="35"/>
+      <c r="B838" s="31"/>
+      <c r="C838" s="32"/>
+      <c r="D838" s="33"/>
       <c r="E838" s="24"/>
     </row>
     <row r="839">
-      <c r="B839" s="33"/>
-      <c r="C839" s="34"/>
-      <c r="D839" s="35"/>
+      <c r="B839" s="31"/>
+      <c r="C839" s="32"/>
+      <c r="D839" s="33"/>
       <c r="E839" s="24"/>
     </row>
     <row r="840">
-      <c r="B840" s="33"/>
-      <c r="C840" s="34"/>
-      <c r="D840" s="35"/>
+      <c r="B840" s="31"/>
+      <c r="C840" s="32"/>
+      <c r="D840" s="33"/>
       <c r="E840" s="24"/>
     </row>
     <row r="841">
-      <c r="B841" s="33"/>
-      <c r="C841" s="34"/>
-      <c r="D841" s="35"/>
+      <c r="B841" s="31"/>
+      <c r="C841" s="32"/>
+      <c r="D841" s="33"/>
       <c r="E841" s="24"/>
     </row>
     <row r="842">
-      <c r="B842" s="33"/>
-      <c r="C842" s="34"/>
-      <c r="D842" s="35"/>
+      <c r="B842" s="31"/>
+      <c r="C842" s="32"/>
+      <c r="D842" s="33"/>
       <c r="E842" s="24"/>
     </row>
     <row r="843">
-      <c r="B843" s="33"/>
-      <c r="C843" s="34"/>
-      <c r="D843" s="35"/>
+      <c r="B843" s="31"/>
+      <c r="C843" s="32"/>
+      <c r="D843" s="33"/>
       <c r="E843" s="24"/>
     </row>
     <row r="844">
-      <c r="B844" s="33"/>
-      <c r="C844" s="34"/>
-      <c r="D844" s="35"/>
+      <c r="B844" s="31"/>
+      <c r="C844" s="32"/>
+      <c r="D844" s="33"/>
       <c r="E844" s="24"/>
     </row>
     <row r="845">
-      <c r="B845" s="33"/>
-      <c r="C845" s="34"/>
-      <c r="D845" s="35"/>
+      <c r="B845" s="31"/>
+      <c r="C845" s="32"/>
+      <c r="D845" s="33"/>
       <c r="E845" s="24"/>
     </row>
     <row r="846">
-      <c r="B846" s="33"/>
-      <c r="C846" s="34"/>
-      <c r="D846" s="35"/>
+      <c r="B846" s="31"/>
+      <c r="C846" s="32"/>
+      <c r="D846" s="33"/>
       <c r="E846" s="24"/>
     </row>
     <row r="847">
-      <c r="B847" s="33"/>
-      <c r="C847" s="34"/>
-      <c r="D847" s="35"/>
+      <c r="B847" s="31"/>
+      <c r="C847" s="32"/>
+      <c r="D847" s="33"/>
       <c r="E847" s="24"/>
     </row>
     <row r="848">
-      <c r="B848" s="33"/>
-      <c r="C848" s="34"/>
-      <c r="D848" s="35"/>
+      <c r="B848" s="31"/>
+      <c r="C848" s="32"/>
+      <c r="D848" s="33"/>
       <c r="E848" s="24"/>
     </row>
     <row r="849">
-      <c r="B849" s="33"/>
-      <c r="C849" s="34"/>
-      <c r="D849" s="35"/>
+      <c r="B849" s="31"/>
+      <c r="C849" s="32"/>
+      <c r="D849" s="33"/>
       <c r="E849" s="24"/>
     </row>
     <row r="850">
-      <c r="B850" s="33"/>
-      <c r="C850" s="34"/>
-      <c r="D850" s="35"/>
+      <c r="B850" s="31"/>
+      <c r="C850" s="32"/>
+      <c r="D850" s="33"/>
       <c r="E850" s="24"/>
     </row>
     <row r="851">
-      <c r="B851" s="33"/>
-      <c r="C851" s="34"/>
-      <c r="D851" s="35"/>
+      <c r="B851" s="31"/>
+      <c r="C851" s="32"/>
+      <c r="D851" s="33"/>
       <c r="E851" s="24"/>
     </row>
     <row r="852">
-      <c r="B852" s="33"/>
-      <c r="C852" s="34"/>
-      <c r="D852" s="35"/>
+      <c r="B852" s="31"/>
+      <c r="C852" s="32"/>
+      <c r="D852" s="33"/>
       <c r="E852" s="24"/>
     </row>
     <row r="853">
-      <c r="B853" s="33"/>
-      <c r="C853" s="34"/>
-      <c r="D853" s="35"/>
+      <c r="B853" s="31"/>
+      <c r="C853" s="32"/>
+      <c r="D853" s="33"/>
       <c r="E853" s="24"/>
     </row>
     <row r="854">
-      <c r="B854" s="33"/>
-      <c r="C854" s="34"/>
-      <c r="D854" s="35"/>
+      <c r="B854" s="31"/>
+      <c r="C854" s="32"/>
+      <c r="D854" s="33"/>
       <c r="E854" s="24"/>
     </row>
     <row r="855">
-      <c r="B855" s="33"/>
-      <c r="C855" s="34"/>
-      <c r="D855" s="35"/>
+      <c r="B855" s="31"/>
+      <c r="C855" s="32"/>
+      <c r="D855" s="33"/>
       <c r="E855" s="24"/>
     </row>
     <row r="856">
-      <c r="B856" s="33"/>
-      <c r="C856" s="34"/>
-      <c r="D856" s="35"/>
+      <c r="B856" s="31"/>
+      <c r="C856" s="32"/>
+      <c r="D856" s="33"/>
       <c r="E856" s="24"/>
     </row>
     <row r="857">
-      <c r="B857" s="33"/>
-      <c r="C857" s="34"/>
-      <c r="D857" s="35"/>
+      <c r="B857" s="31"/>
+      <c r="C857" s="32"/>
+      <c r="D857" s="33"/>
       <c r="E857" s="24"/>
     </row>
     <row r="858">
-      <c r="B858" s="33"/>
-      <c r="C858" s="34"/>
-      <c r="D858" s="35"/>
+      <c r="B858" s="31"/>
+      <c r="C858" s="32"/>
+      <c r="D858" s="33"/>
       <c r="E858" s="24"/>
     </row>
     <row r="859">
-      <c r="B859" s="33"/>
-      <c r="C859" s="34"/>
-      <c r="D859" s="35"/>
+      <c r="B859" s="31"/>
+      <c r="C859" s="32"/>
+      <c r="D859" s="33"/>
       <c r="E859" s="24"/>
     </row>
     <row r="860">
-      <c r="B860" s="33"/>
-      <c r="C860" s="34"/>
-      <c r="D860" s="35"/>
+      <c r="B860" s="31"/>
+      <c r="C860" s="32"/>
+      <c r="D860" s="33"/>
       <c r="E860" s="24"/>
     </row>
     <row r="861">
-      <c r="B861" s="33"/>
-      <c r="C861" s="34"/>
-      <c r="D861" s="35"/>
+      <c r="B861" s="31"/>
+      <c r="C861" s="32"/>
+      <c r="D861" s="33"/>
       <c r="E861" s="24"/>
     </row>
     <row r="862">
-      <c r="B862" s="33"/>
-      <c r="C862" s="34"/>
-      <c r="D862" s="35"/>
+      <c r="B862" s="31"/>
+      <c r="C862" s="32"/>
+      <c r="D862" s="33"/>
       <c r="E862" s="24"/>
     </row>
     <row r="863">
-      <c r="B863" s="33"/>
-      <c r="C863" s="34"/>
-      <c r="D863" s="35"/>
+      <c r="B863" s="31"/>
+      <c r="C863" s="32"/>
+      <c r="D863" s="33"/>
       <c r="E863" s="24"/>
     </row>
     <row r="864">
-      <c r="B864" s="33"/>
-      <c r="C864" s="34"/>
-      <c r="D864" s="35"/>
+      <c r="B864" s="31"/>
+      <c r="C864" s="32"/>
+      <c r="D864" s="33"/>
       <c r="E864" s="24"/>
     </row>
     <row r="865">
-      <c r="B865" s="33"/>
-      <c r="C865" s="34"/>
-      <c r="D865" s="35"/>
+      <c r="B865" s="31"/>
+      <c r="C865" s="32"/>
+      <c r="D865" s="33"/>
       <c r="E865" s="24"/>
     </row>
     <row r="866">
-      <c r="B866" s="33"/>
-      <c r="C866" s="34"/>
-      <c r="D866" s="35"/>
+      <c r="B866" s="31"/>
+      <c r="C866" s="32"/>
+      <c r="D866" s="33"/>
       <c r="E866" s="24"/>
     </row>
     <row r="867">
-      <c r="B867" s="33"/>
-      <c r="C867" s="34"/>
-      <c r="D867" s="35"/>
+      <c r="B867" s="31"/>
+      <c r="C867" s="32"/>
+      <c r="D867" s="33"/>
       <c r="E867" s="24"/>
     </row>
     <row r="868">
-      <c r="B868" s="33"/>
-      <c r="C868" s="34"/>
-      <c r="D868" s="35"/>
+      <c r="B868" s="31"/>
+      <c r="C868" s="32"/>
+      <c r="D868" s="33"/>
       <c r="E868" s="24"/>
     </row>
     <row r="869">
-      <c r="B869" s="33"/>
-      <c r="C869" s="34"/>
-      <c r="D869" s="35"/>
+      <c r="B869" s="31"/>
+      <c r="C869" s="32"/>
+      <c r="D869" s="33"/>
       <c r="E869" s="24"/>
     </row>
     <row r="870">
-      <c r="B870" s="33"/>
-      <c r="C870" s="34"/>
-      <c r="D870" s="35"/>
+      <c r="B870" s="31"/>
+      <c r="C870" s="32"/>
+      <c r="D870" s="33"/>
       <c r="E870" s="24"/>
     </row>
     <row r="871">
-      <c r="B871" s="33"/>
-      <c r="C871" s="34"/>
-      <c r="D871" s="35"/>
+      <c r="B871" s="31"/>
+      <c r="C871" s="32"/>
+      <c r="D871" s="33"/>
       <c r="E871" s="24"/>
     </row>
     <row r="872">
-      <c r="B872" s="33"/>
-      <c r="C872" s="34"/>
-      <c r="D872" s="35"/>
+      <c r="B872" s="31"/>
+      <c r="C872" s="32"/>
+      <c r="D872" s="33"/>
       <c r="E872" s="24"/>
     </row>
     <row r="873">
-      <c r="B873" s="33"/>
-      <c r="C873" s="34"/>
-      <c r="D873" s="35"/>
+      <c r="B873" s="31"/>
+      <c r="C873" s="32"/>
+      <c r="D873" s="33"/>
       <c r="E873" s="24"/>
     </row>
     <row r="874">
-      <c r="B874" s="33"/>
-      <c r="C874" s="34"/>
-      <c r="D874" s="35"/>
+      <c r="B874" s="31"/>
+      <c r="C874" s="32"/>
+      <c r="D874" s="33"/>
       <c r="E874" s="24"/>
     </row>
     <row r="875">
-      <c r="B875" s="33"/>
-      <c r="C875" s="34"/>
-      <c r="D875" s="35"/>
+      <c r="B875" s="31"/>
+      <c r="C875" s="32"/>
+      <c r="D875" s="33"/>
       <c r="E875" s="24"/>
     </row>
     <row r="876">
-      <c r="B876" s="33"/>
-      <c r="C876" s="34"/>
-      <c r="D876" s="35"/>
+      <c r="B876" s="31"/>
+      <c r="C876" s="32"/>
+      <c r="D876" s="33"/>
       <c r="E876" s="24"/>
     </row>
     <row r="877">
-      <c r="B877" s="33"/>
-      <c r="C877" s="34"/>
-      <c r="D877" s="35"/>
+      <c r="B877" s="31"/>
+      <c r="C877" s="32"/>
+      <c r="D877" s="33"/>
       <c r="E877" s="24"/>
     </row>
     <row r="878">
-      <c r="B878" s="33"/>
-      <c r="C878" s="34"/>
-      <c r="D878" s="35"/>
+      <c r="B878" s="31"/>
+      <c r="C878" s="32"/>
+      <c r="D878" s="33"/>
       <c r="E878" s="24"/>
     </row>
     <row r="879">
-      <c r="B879" s="33"/>
-      <c r="C879" s="34"/>
-      <c r="D879" s="35"/>
+      <c r="B879" s="31"/>
+      <c r="C879" s="32"/>
+      <c r="D879" s="33"/>
       <c r="E879" s="24"/>
     </row>
     <row r="880">
-      <c r="B880" s="33"/>
-      <c r="C880" s="34"/>
-      <c r="D880" s="35"/>
+      <c r="B880" s="31"/>
+      <c r="C880" s="32"/>
+      <c r="D880" s="33"/>
       <c r="E880" s="24"/>
     </row>
     <row r="881">
-      <c r="B881" s="33"/>
-      <c r="C881" s="34"/>
-      <c r="D881" s="35"/>
+      <c r="B881" s="31"/>
+      <c r="C881" s="32"/>
+      <c r="D881" s="33"/>
       <c r="E881" s="24"/>
     </row>
     <row r="882">
-      <c r="B882" s="33"/>
-      <c r="C882" s="34"/>
-      <c r="D882" s="35"/>
+      <c r="B882" s="31"/>
+      <c r="C882" s="32"/>
+      <c r="D882" s="33"/>
       <c r="E882" s="24"/>
     </row>
     <row r="883">
-      <c r="B883" s="33"/>
-      <c r="C883" s="34"/>
-      <c r="D883" s="35"/>
+      <c r="B883" s="31"/>
+      <c r="C883" s="32"/>
+      <c r="D883" s="33"/>
       <c r="E883" s="24"/>
     </row>
     <row r="884">
-      <c r="B884" s="33"/>
-      <c r="C884" s="34"/>
-      <c r="D884" s="35"/>
+      <c r="B884" s="31"/>
+      <c r="C884" s="32"/>
+      <c r="D884" s="33"/>
       <c r="E884" s="24"/>
     </row>
     <row r="885">
-      <c r="B885" s="33"/>
-      <c r="C885" s="34"/>
-      <c r="D885" s="35"/>
+      <c r="B885" s="31"/>
+      <c r="C885" s="32"/>
+      <c r="D885" s="33"/>
       <c r="E885" s="24"/>
     </row>
     <row r="886">
-      <c r="B886" s="33"/>
-      <c r="C886" s="34"/>
-      <c r="D886" s="35"/>
+      <c r="B886" s="31"/>
+      <c r="C886" s="32"/>
+      <c r="D886" s="33"/>
       <c r="E886" s="24"/>
     </row>
     <row r="887">
-      <c r="B887" s="33"/>
-      <c r="C887" s="34"/>
-      <c r="D887" s="35"/>
+      <c r="B887" s="31"/>
+      <c r="C887" s="32"/>
+      <c r="D887" s="33"/>
       <c r="E887" s="24"/>
     </row>
     <row r="888">
-      <c r="B888" s="33"/>
-      <c r="C888" s="34"/>
-      <c r="D888" s="35"/>
+      <c r="B888" s="31"/>
+      <c r="C888" s="32"/>
+      <c r="D888" s="33"/>
       <c r="E888" s="24"/>
     </row>
     <row r="889">
-      <c r="B889" s="33"/>
-      <c r="C889" s="34"/>
-      <c r="D889" s="35"/>
+      <c r="B889" s="31"/>
+      <c r="C889" s="32"/>
+      <c r="D889" s="33"/>
       <c r="E889" s="24"/>
     </row>
     <row r="890">
-      <c r="B890" s="33"/>
-      <c r="C890" s="34"/>
-      <c r="D890" s="35"/>
+      <c r="B890" s="31"/>
+      <c r="C890" s="32"/>
+      <c r="D890" s="33"/>
       <c r="E890" s="24"/>
     </row>
     <row r="891">
-      <c r="B891" s="33"/>
-      <c r="C891" s="34"/>
-      <c r="D891" s="35"/>
+      <c r="B891" s="31"/>
+      <c r="C891" s="32"/>
+      <c r="D891" s="33"/>
       <c r="E891" s="24"/>
     </row>
     <row r="892">
-      <c r="B892" s="33"/>
-      <c r="C892" s="34"/>
-      <c r="D892" s="35"/>
+      <c r="B892" s="31"/>
+      <c r="C892" s="32"/>
+      <c r="D892" s="33"/>
       <c r="E892" s="24"/>
     </row>
     <row r="893">
-      <c r="B893" s="33"/>
-      <c r="C893" s="34"/>
-      <c r="D893" s="35"/>
+      <c r="B893" s="31"/>
+      <c r="C893" s="32"/>
+      <c r="D893" s="33"/>
       <c r="E893" s="24"/>
     </row>
     <row r="894">
-      <c r="B894" s="33"/>
-      <c r="C894" s="34"/>
-      <c r="D894" s="35"/>
+      <c r="B894" s="31"/>
+      <c r="C894" s="32"/>
+      <c r="D894" s="33"/>
       <c r="E894" s="24"/>
     </row>
     <row r="895">
-      <c r="B895" s="33"/>
-      <c r="C895" s="34"/>
-      <c r="D895" s="35"/>
+      <c r="B895" s="31"/>
+      <c r="C895" s="32"/>
+      <c r="D895" s="33"/>
       <c r="E895" s="24"/>
     </row>
     <row r="896">
-      <c r="B896" s="33"/>
-      <c r="C896" s="34"/>
-      <c r="D896" s="35"/>
+      <c r="B896" s="31"/>
+      <c r="C896" s="32"/>
+      <c r="D896" s="33"/>
       <c r="E896" s="24"/>
     </row>
     <row r="897">
-      <c r="B897" s="33"/>
-      <c r="C897" s="34"/>
-      <c r="D897" s="35"/>
+      <c r="B897" s="31"/>
+      <c r="C897" s="32"/>
+      <c r="D897" s="33"/>
       <c r="E897" s="24"/>
     </row>
     <row r="898">
-      <c r="B898" s="33"/>
-      <c r="C898" s="34"/>
-      <c r="D898" s="35"/>
+      <c r="B898" s="31"/>
+      <c r="C898" s="32"/>
+      <c r="D898" s="33"/>
       <c r="E898" s="24"/>
     </row>
     <row r="899">
-      <c r="B899" s="33"/>
-      <c r="C899" s="34"/>
-      <c r="D899" s="35"/>
+      <c r="B899" s="31"/>
+      <c r="C899" s="32"/>
+      <c r="D899" s="33"/>
       <c r="E899" s="24"/>
     </row>
     <row r="900">
-      <c r="B900" s="33"/>
-      <c r="C900" s="34"/>
-      <c r="D900" s="35"/>
+      <c r="B900" s="31"/>
+      <c r="C900" s="32"/>
+      <c r="D900" s="33"/>
       <c r="E900" s="24"/>
     </row>
     <row r="901">
-      <c r="B901" s="33"/>
-      <c r="C901" s="34"/>
-      <c r="D901" s="35"/>
+      <c r="B901" s="31"/>
+      <c r="C901" s="32"/>
+      <c r="D901" s="33"/>
       <c r="E901" s="24"/>
     </row>
     <row r="902">
-      <c r="B902" s="33"/>
-      <c r="C902" s="34"/>
-      <c r="D902" s="35"/>
+      <c r="B902" s="31"/>
+      <c r="C902" s="32"/>
+      <c r="D902" s="33"/>
       <c r="E902" s="24"/>
     </row>
     <row r="903">
-      <c r="B903" s="33"/>
-      <c r="C903" s="34"/>
-      <c r="D903" s="35"/>
+      <c r="B903" s="31"/>
+      <c r="C903" s="32"/>
+      <c r="D903" s="33"/>
       <c r="E903" s="24"/>
     </row>
     <row r="904">
-      <c r="B904" s="33"/>
-      <c r="C904" s="34"/>
-      <c r="D904" s="35"/>
+      <c r="B904" s="31"/>
+      <c r="C904" s="32"/>
+      <c r="D904" s="33"/>
       <c r="E904" s="24"/>
     </row>
     <row r="905">
-      <c r="B905" s="33"/>
-      <c r="C905" s="34"/>
-      <c r="D905" s="35"/>
+      <c r="B905" s="31"/>
+      <c r="C905" s="32"/>
+      <c r="D905" s="33"/>
       <c r="E905" s="24"/>
     </row>
     <row r="906">
-      <c r="B906" s="33"/>
-      <c r="C906" s="34"/>
-      <c r="D906" s="35"/>
+      <c r="B906" s="31"/>
+      <c r="C906" s="32"/>
+      <c r="D906" s="33"/>
       <c r="E906" s="24"/>
     </row>
     <row r="907">
-      <c r="B907" s="33"/>
-      <c r="C907" s="34"/>
-      <c r="D907" s="35"/>
+      <c r="B907" s="31"/>
+      <c r="C907" s="32"/>
+      <c r="D907" s="33"/>
       <c r="E907" s="24"/>
     </row>
     <row r="908">
-      <c r="B908" s="33"/>
-      <c r="C908" s="34"/>
-      <c r="D908" s="35"/>
+      <c r="B908" s="31"/>
+      <c r="C908" s="32"/>
+      <c r="D908" s="33"/>
       <c r="E908" s="24"/>
     </row>
     <row r="909">
-      <c r="B909" s="33"/>
-      <c r="C909" s="34"/>
-      <c r="D909" s="35"/>
+      <c r="B909" s="31"/>
+      <c r="C909" s="32"/>
+      <c r="D909" s="33"/>
       <c r="E909" s="24"/>
     </row>
     <row r="910">
-      <c r="B910" s="33"/>
-      <c r="C910" s="34"/>
-      <c r="D910" s="35"/>
+      <c r="B910" s="31"/>
+      <c r="C910" s="32"/>
+      <c r="D910" s="33"/>
       <c r="E910" s="24"/>
     </row>
     <row r="911">
-      <c r="B911" s="33"/>
-      <c r="C911" s="34"/>
-      <c r="D911" s="35"/>
+      <c r="B911" s="31"/>
+      <c r="C911" s="32"/>
+      <c r="D911" s="33"/>
       <c r="E911" s="24"/>
     </row>
     <row r="912">
-      <c r="B912" s="33"/>
-      <c r="C912" s="34"/>
-      <c r="D912" s="35"/>
+      <c r="B912" s="31"/>
+      <c r="C912" s="32"/>
+      <c r="D912" s="33"/>
       <c r="E912" s="24"/>
     </row>
     <row r="913">
-      <c r="B913" s="33"/>
-      <c r="C913" s="34"/>
-      <c r="D913" s="35"/>
+      <c r="B913" s="31"/>
+      <c r="C913" s="32"/>
+      <c r="D913" s="33"/>
       <c r="E913" s="24"/>
     </row>
     <row r="914">
-      <c r="B914" s="33"/>
-      <c r="C914" s="34"/>
-      <c r="D914" s="35"/>
+      <c r="B914" s="31"/>
+      <c r="C914" s="32"/>
+      <c r="D914" s="33"/>
       <c r="E914" s="24"/>
     </row>
     <row r="915">
-      <c r="B915" s="33"/>
-      <c r="C915" s="34"/>
-      <c r="D915" s="35"/>
+      <c r="B915" s="31"/>
+      <c r="C915" s="32"/>
+      <c r="D915" s="33"/>
       <c r="E915" s="24"/>
     </row>
     <row r="916">
-      <c r="B916" s="33"/>
-      <c r="C916" s="34"/>
-      <c r="D916" s="35"/>
+      <c r="B916" s="31"/>
+      <c r="C916" s="32"/>
+      <c r="D916" s="33"/>
       <c r="E916" s="24"/>
     </row>
     <row r="917">
-      <c r="B917" s="33"/>
-      <c r="C917" s="34"/>
-      <c r="D917" s="35"/>
+      <c r="B917" s="31"/>
+      <c r="C917" s="32"/>
+      <c r="D917" s="33"/>
       <c r="E917" s="24"/>
     </row>
     <row r="918">
-      <c r="B918" s="33"/>
-      <c r="C918" s="34"/>
-      <c r="D918" s="35"/>
+      <c r="B918" s="31"/>
+      <c r="C918" s="32"/>
+      <c r="D918" s="33"/>
       <c r="E918" s="24"/>
     </row>
     <row r="919">
-      <c r="B919" s="33"/>
-      <c r="C919" s="34"/>
-      <c r="D919" s="35"/>
+      <c r="B919" s="31"/>
+      <c r="C919" s="32"/>
+      <c r="D919" s="33"/>
       <c r="E919" s="24"/>
     </row>
     <row r="920">
-      <c r="B920" s="33"/>
-      <c r="C920" s="34"/>
-      <c r="D920" s="35"/>
+      <c r="B920" s="31"/>
+      <c r="C920" s="32"/>
+      <c r="D920" s="33"/>
       <c r="E920" s="24"/>
     </row>
     <row r="921">
-      <c r="B921" s="33"/>
-      <c r="C921" s="34"/>
-      <c r="D921" s="35"/>
+      <c r="B921" s="31"/>
+      <c r="C921" s="32"/>
+      <c r="D921" s="33"/>
       <c r="E921" s="24"/>
     </row>
     <row r="922">
-      <c r="B922" s="33"/>
-      <c r="C922" s="34"/>
-      <c r="D922" s="35"/>
+      <c r="B922" s="31"/>
+      <c r="C922" s="32"/>
+      <c r="D922" s="33"/>
       <c r="E922" s="24"/>
     </row>
     <row r="923">
-      <c r="B923" s="33"/>
-      <c r="C923" s="34"/>
-      <c r="D923" s="35"/>
+      <c r="B923" s="31"/>
+      <c r="C923" s="32"/>
+      <c r="D923" s="33"/>
       <c r="E923" s="24"/>
     </row>
     <row r="924">
-      <c r="B924" s="33"/>
-      <c r="C924" s="34"/>
-      <c r="D924" s="35"/>
+      <c r="B924" s="31"/>
+      <c r="C924" s="32"/>
+      <c r="D924" s="33"/>
       <c r="E924" s="24"/>
     </row>
     <row r="925">
-      <c r="B925" s="33"/>
-      <c r="C925" s="34"/>
-      <c r="D925" s="35"/>
+      <c r="B925" s="31"/>
+      <c r="C925" s="32"/>
+      <c r="D925" s="33"/>
       <c r="E925" s="24"/>
     </row>
     <row r="926">
-      <c r="B926" s="33"/>
-      <c r="C926" s="34"/>
-      <c r="D926" s="35"/>
+      <c r="B926" s="31"/>
+      <c r="C926" s="32"/>
+      <c r="D926" s="33"/>
       <c r="E926" s="24"/>
     </row>
     <row r="927">
-      <c r="B927" s="33"/>
-      <c r="C927" s="34"/>
-      <c r="D927" s="35"/>
+      <c r="B927" s="31"/>
+      <c r="C927" s="32"/>
+      <c r="D927" s="33"/>
       <c r="E927" s="24"/>
     </row>
     <row r="928">
-      <c r="B928" s="33"/>
-      <c r="C928" s="34"/>
-      <c r="D928" s="35"/>
+      <c r="B928" s="31"/>
+      <c r="C928" s="32"/>
+      <c r="D928" s="33"/>
       <c r="E928" s="24"/>
     </row>
     <row r="929">
-      <c r="B929" s="33"/>
-      <c r="C929" s="34"/>
-      <c r="D929" s="35"/>
+      <c r="B929" s="31"/>
+      <c r="C929" s="32"/>
+      <c r="D929" s="33"/>
       <c r="E929" s="24"/>
     </row>
     <row r="930">
-      <c r="B930" s="33"/>
-      <c r="C930" s="34"/>
-      <c r="D930" s="35"/>
+      <c r="B930" s="31"/>
+      <c r="C930" s="32"/>
+      <c r="D930" s="33"/>
       <c r="E930" s="24"/>
     </row>
     <row r="931">
-      <c r="B931" s="33"/>
-      <c r="C931" s="34"/>
-      <c r="D931" s="35"/>
+      <c r="B931" s="31"/>
+      <c r="C931" s="32"/>
+      <c r="D931" s="33"/>
       <c r="E931" s="24"/>
     </row>
     <row r="932">
-      <c r="B932" s="33"/>
-      <c r="C932" s="34"/>
-      <c r="D932" s="35"/>
+      <c r="B932" s="31"/>
+      <c r="C932" s="32"/>
+      <c r="D932" s="33"/>
       <c r="E932" s="24"/>
     </row>
     <row r="933">
-      <c r="B933" s="33"/>
-      <c r="C933" s="34"/>
-      <c r="D933" s="35"/>
+      <c r="B933" s="31"/>
+      <c r="C933" s="32"/>
+      <c r="D933" s="33"/>
       <c r="E933" s="24"/>
     </row>
     <row r="934">
-      <c r="B934" s="33"/>
-      <c r="C934" s="34"/>
-      <c r="D934" s="35"/>
+      <c r="B934" s="31"/>
+      <c r="C934" s="32"/>
+      <c r="D934" s="33"/>
       <c r="E934" s="24"/>
     </row>
     <row r="935">
-      <c r="B935" s="33"/>
-      <c r="C935" s="34"/>
-      <c r="D935" s="35"/>
+      <c r="B935" s="31"/>
+      <c r="C935" s="32"/>
+      <c r="D935" s="33"/>
       <c r="E935" s="24"/>
     </row>
     <row r="936">
-      <c r="B936" s="33"/>
-      <c r="C936" s="34"/>
-      <c r="D936" s="35"/>
+      <c r="B936" s="31"/>
+      <c r="C936" s="32"/>
+      <c r="D936" s="33"/>
       <c r="E936" s="24"/>
     </row>
     <row r="937">
-      <c r="B937" s="33"/>
-      <c r="C937" s="34"/>
-      <c r="D937" s="35"/>
+      <c r="B937" s="31"/>
+      <c r="C937" s="32"/>
+      <c r="D937" s="33"/>
       <c r="E937" s="24"/>
     </row>
     <row r="938">
-      <c r="B938" s="33"/>
-      <c r="C938" s="34"/>
-      <c r="D938" s="35"/>
+      <c r="B938" s="31"/>
+      <c r="C938" s="32"/>
+      <c r="D938" s="33"/>
       <c r="E938" s="24"/>
     </row>
     <row r="939">
-      <c r="B939" s="33"/>
-      <c r="C939" s="34"/>
-      <c r="D939" s="35"/>
+      <c r="B939" s="31"/>
+      <c r="C939" s="32"/>
+      <c r="D939" s="33"/>
       <c r="E939" s="24"/>
     </row>
     <row r="940">
-      <c r="B940" s="33"/>
-      <c r="C940" s="34"/>
-      <c r="D940" s="35"/>
+      <c r="B940" s="31"/>
+      <c r="C940" s="32"/>
+      <c r="D940" s="33"/>
       <c r="E940" s="24"/>
     </row>
     <row r="941">
-      <c r="B941" s="33"/>
-      <c r="C941" s="34"/>
-      <c r="D941" s="35"/>
+      <c r="B941" s="31"/>
+      <c r="C941" s="32"/>
+      <c r="D941" s="33"/>
       <c r="E941" s="24"/>
     </row>
     <row r="942">
-      <c r="B942" s="33"/>
-      <c r="C942" s="34"/>
-      <c r="D942" s="35"/>
+      <c r="B942" s="31"/>
+      <c r="C942" s="32"/>
+      <c r="D942" s="33"/>
       <c r="E942" s="24"/>
     </row>
     <row r="943">
-      <c r="B943" s="33"/>
-      <c r="C943" s="34"/>
-      <c r="D943" s="35"/>
+      <c r="B943" s="31"/>
+      <c r="C943" s="32"/>
+      <c r="D943" s="33"/>
       <c r="E943" s="24"/>
     </row>
     <row r="944">
-      <c r="B944" s="33"/>
-      <c r="C944" s="34"/>
-      <c r="D944" s="35"/>
+      <c r="B944" s="31"/>
+      <c r="C944" s="32"/>
+      <c r="D944" s="33"/>
       <c r="E944" s="24"/>
     </row>
     <row r="945">
-      <c r="B945" s="33"/>
-      <c r="C945" s="34"/>
-      <c r="D945" s="35"/>
+      <c r="B945" s="31"/>
+      <c r="C945" s="32"/>
+      <c r="D945" s="33"/>
       <c r="E945" s="24"/>
     </row>
     <row r="946">
-      <c r="B946" s="33"/>
-      <c r="C946" s="34"/>
-      <c r="D946" s="35"/>
+      <c r="B946" s="31"/>
+      <c r="C946" s="32"/>
+      <c r="D946" s="33"/>
       <c r="E946" s="24"/>
     </row>
     <row r="947">
-      <c r="B947" s="33"/>
-      <c r="C947" s="34"/>
-      <c r="D947" s="35"/>
+      <c r="B947" s="31"/>
+      <c r="C947" s="32"/>
+      <c r="D947" s="33"/>
       <c r="E947" s="24"/>
     </row>
     <row r="948">
-      <c r="B948" s="33"/>
-      <c r="C948" s="34"/>
-      <c r="D948" s="35"/>
+      <c r="B948" s="31"/>
+      <c r="C948" s="32"/>
+      <c r="D948" s="33"/>
       <c r="E948" s="24"/>
     </row>
     <row r="949">
-      <c r="B949" s="33"/>
-      <c r="C949" s="34"/>
-      <c r="D949" s="35"/>
+      <c r="B949" s="31"/>
+      <c r="C949" s="32"/>
+      <c r="D949" s="33"/>
       <c r="E949" s="24"/>
     </row>
     <row r="950">
-      <c r="B950" s="33"/>
-      <c r="C950" s="34"/>
-      <c r="D950" s="35"/>
+      <c r="B950" s="31"/>
+      <c r="C950" s="32"/>
+      <c r="D950" s="33"/>
       <c r="E950" s="24"/>
     </row>
     <row r="951">
-      <c r="B951" s="33"/>
-      <c r="C951" s="34"/>
-      <c r="D951" s="35"/>
+      <c r="B951" s="31"/>
+      <c r="C951" s="32"/>
+      <c r="D951" s="33"/>
       <c r="E951" s="24"/>
     </row>
     <row r="952">
-      <c r="B952" s="33"/>
-      <c r="C952" s="34"/>
-      <c r="D952" s="35"/>
+      <c r="B952" s="31"/>
+      <c r="C952" s="32"/>
+      <c r="D952" s="33"/>
       <c r="E952" s="24"/>
     </row>
     <row r="953">
-      <c r="B953" s="33"/>
-      <c r="C953" s="34"/>
-      <c r="D953" s="35"/>
+      <c r="B953" s="31"/>
+      <c r="C953" s="32"/>
+      <c r="D953" s="33"/>
       <c r="E953" s="24"/>
     </row>
     <row r="954">
-      <c r="B954" s="33"/>
-      <c r="C954" s="34"/>
-      <c r="D954" s="35"/>
+      <c r="B954" s="31"/>
+      <c r="C954" s="32"/>
+      <c r="D954" s="33"/>
       <c r="E954" s="24"/>
     </row>
     <row r="955">
-      <c r="B955" s="33"/>
-      <c r="C955" s="34"/>
-      <c r="D955" s="35"/>
+      <c r="B955" s="31"/>
+      <c r="C955" s="32"/>
+      <c r="D955" s="33"/>
       <c r="E955" s="24"/>
     </row>
     <row r="956">
-      <c r="B956" s="33"/>
-      <c r="C956" s="34"/>
-      <c r="D956" s="35"/>
+      <c r="B956" s="31"/>
+      <c r="C956" s="32"/>
+      <c r="D956" s="33"/>
       <c r="E956" s="24"/>
     </row>
     <row r="957">
-      <c r="B957" s="33"/>
-      <c r="C957" s="34"/>
-      <c r="D957" s="35"/>
+      <c r="B957" s="31"/>
+      <c r="C957" s="32"/>
+      <c r="D957" s="33"/>
       <c r="E957" s="24"/>
     </row>
     <row r="958">
-      <c r="B958" s="33"/>
-      <c r="C958" s="34"/>
-      <c r="D958" s="35"/>
+      <c r="B958" s="31"/>
+      <c r="C958" s="32"/>
+      <c r="D958" s="33"/>
       <c r="E958" s="24"/>
     </row>
     <row r="959">
-      <c r="B959" s="33"/>
-      <c r="C959" s="34"/>
-      <c r="D959" s="35"/>
+      <c r="B959" s="31"/>
+      <c r="C959" s="32"/>
+      <c r="D959" s="33"/>
       <c r="E959" s="24"/>
     </row>
     <row r="960">
-      <c r="B960" s="33"/>
-      <c r="C960" s="34"/>
-      <c r="D960" s="35"/>
+      <c r="B960" s="31"/>
+      <c r="C960" s="32"/>
+      <c r="D960" s="33"/>
       <c r="E960" s="24"/>
     </row>
     <row r="961">
-      <c r="B961" s="33"/>
-      <c r="C961" s="34"/>
-      <c r="D961" s="35"/>
+      <c r="B961" s="31"/>
+      <c r="C961" s="32"/>
+      <c r="D961" s="33"/>
       <c r="E961" s="24"/>
     </row>
     <row r="962">
-      <c r="B962" s="33"/>
-      <c r="C962" s="34"/>
-      <c r="D962" s="35"/>
+      <c r="B962" s="31"/>
+      <c r="C962" s="32"/>
+      <c r="D962" s="33"/>
       <c r="E962" s="24"/>
     </row>
     <row r="963">
-      <c r="B963" s="33"/>
-      <c r="C963" s="34"/>
-      <c r="D963" s="35"/>
+      <c r="B963" s="31"/>
+      <c r="C963" s="32"/>
+      <c r="D963" s="33"/>
       <c r="E963" s="24"/>
     </row>
     <row r="964">
-      <c r="B964" s="33"/>
-      <c r="C964" s="34"/>
-      <c r="D964" s="35"/>
+      <c r="B964" s="31"/>
+      <c r="C964" s="32"/>
+      <c r="D964" s="33"/>
       <c r="E964" s="24"/>
     </row>
     <row r="965">
-      <c r="B965" s="33"/>
-      <c r="C965" s="34"/>
-      <c r="D965" s="35"/>
+      <c r="B965" s="31"/>
+      <c r="C965" s="32"/>
+      <c r="D965" s="33"/>
       <c r="E965" s="24"/>
     </row>
     <row r="966">
-      <c r="B966" s="33"/>
-      <c r="C966" s="34"/>
-      <c r="D966" s="35"/>
+      <c r="B966" s="31"/>
+      <c r="C966" s="32"/>
+      <c r="D966" s="33"/>
       <c r="E966" s="24"/>
     </row>
     <row r="967">
-      <c r="B967" s="33"/>
-      <c r="C967" s="34"/>
-      <c r="D967" s="35"/>
+      <c r="B967" s="31"/>
+      <c r="C967" s="32"/>
+      <c r="D967" s="33"/>
       <c r="E967" s="24"/>
     </row>
     <row r="968">
-      <c r="B968" s="33"/>
-      <c r="C968" s="34"/>
-      <c r="D968" s="35"/>
+      <c r="B968" s="31"/>
+      <c r="C968" s="32"/>
+      <c r="D968" s="33"/>
       <c r="E968" s="24"/>
     </row>
     <row r="969">
-      <c r="B969" s="33"/>
-      <c r="C969" s="34"/>
-      <c r="D969" s="35"/>
+      <c r="B969" s="31"/>
+      <c r="C969" s="32"/>
+      <c r="D969" s="33"/>
       <c r="E969" s="24"/>
     </row>
     <row r="970">
-      <c r="B970" s="33"/>
-      <c r="C970" s="34"/>
-      <c r="D970" s="35"/>
+      <c r="B970" s="31"/>
+      <c r="C970" s="32"/>
+      <c r="D970" s="33"/>
       <c r="E970" s="24"/>
     </row>
     <row r="971">
-      <c r="B971" s="33"/>
-      <c r="C971" s="34"/>
-      <c r="D971" s="35"/>
+      <c r="B971" s="31"/>
+      <c r="C971" s="32"/>
+      <c r="D971" s="33"/>
       <c r="E971" s="24"/>
     </row>
     <row r="972">
-      <c r="B972" s="33"/>
-      <c r="C972" s="34"/>
-      <c r="D972" s="35"/>
+      <c r="B972" s="31"/>
+      <c r="C972" s="32"/>
+      <c r="D972" s="33"/>
       <c r="E972" s="24"/>
     </row>
     <row r="973">
-      <c r="B973" s="33"/>
-      <c r="C973" s="34"/>
-      <c r="D973" s="35"/>
+      <c r="B973" s="31"/>
+      <c r="C973" s="32"/>
+      <c r="D973" s="33"/>
       <c r="E973" s="24"/>
     </row>
     <row r="974">
-      <c r="B974" s="33"/>
-      <c r="C974" s="34"/>
-      <c r="D974" s="35"/>
+      <c r="B974" s="31"/>
+      <c r="C974" s="32"/>
+      <c r="D974" s="33"/>
       <c r="E974" s="24"/>
     </row>
     <row r="975">
-      <c r="B975" s="33"/>
-      <c r="C975" s="34"/>
-      <c r="D975" s="35"/>
+      <c r="B975" s="31"/>
+      <c r="C975" s="32"/>
+      <c r="D975" s="33"/>
       <c r="E975" s="24"/>
     </row>
     <row r="976">
-      <c r="B976" s="33"/>
-      <c r="C976" s="34"/>
-      <c r="D976" s="35"/>
+      <c r="B976" s="31"/>
+      <c r="C976" s="32"/>
+      <c r="D976" s="33"/>
       <c r="E976" s="24"/>
     </row>
     <row r="977">
-      <c r="B977" s="33"/>
-      <c r="C977" s="34"/>
-      <c r="D977" s="35"/>
+      <c r="B977" s="31"/>
+      <c r="C977" s="32"/>
+      <c r="D977" s="33"/>
       <c r="E977" s="24"/>
     </row>
     <row r="978">
-      <c r="B978" s="33"/>
-      <c r="C978" s="34"/>
-      <c r="D978" s="35"/>
+      <c r="B978" s="31"/>
+      <c r="C978" s="32"/>
+      <c r="D978" s="33"/>
       <c r="E978" s="24"/>
     </row>
     <row r="979">
-      <c r="B979" s="33"/>
-      <c r="C979" s="34"/>
-      <c r="D979" s="35"/>
+      <c r="B979" s="31"/>
+      <c r="C979" s="32"/>
+      <c r="D979" s="33"/>
       <c r="E979" s="24"/>
     </row>
     <row r="980">
-      <c r="B980" s="33"/>
-      <c r="C980" s="34"/>
-      <c r="D980" s="35"/>
+      <c r="B980" s="31"/>
+      <c r="C980" s="32"/>
+      <c r="D980" s="33"/>
       <c r="E980" s="24"/>
     </row>
     <row r="981">
-      <c r="B981" s="33"/>
-      <c r="C981" s="34"/>
-      <c r="D981" s="35"/>
+      <c r="B981" s="31"/>
+      <c r="C981" s="32"/>
+      <c r="D981" s="33"/>
       <c r="E981" s="24"/>
     </row>
     <row r="982">
-      <c r="B982" s="33"/>
-      <c r="C982" s="34"/>
-      <c r="D982" s="35"/>
+      <c r="B982" s="31"/>
+      <c r="C982" s="32"/>
+      <c r="D982" s="33"/>
       <c r="E982" s="24"/>
     </row>
     <row r="983">
-      <c r="B983" s="33"/>
-      <c r="C983" s="34"/>
-      <c r="D983" s="35"/>
+      <c r="B983" s="31"/>
+      <c r="C983" s="32"/>
+      <c r="D983" s="33"/>
       <c r="E983" s="24"/>
     </row>
     <row r="984">
-      <c r="B984" s="33"/>
-      <c r="C984" s="34"/>
-      <c r="D984" s="35"/>
+      <c r="B984" s="31"/>
+      <c r="C984" s="32"/>
+      <c r="D984" s="33"/>
       <c r="E984" s="24"/>
     </row>
     <row r="985">
-      <c r="B985" s="33"/>
-      <c r="C985" s="34"/>
-      <c r="D985" s="35"/>
+      <c r="B985" s="31"/>
+      <c r="C985" s="32"/>
+      <c r="D985" s="33"/>
       <c r="E985" s="24"/>
     </row>
     <row r="986">
-      <c r="B986" s="33"/>
-      <c r="C986" s="34"/>
-      <c r="D986" s="35"/>
+      <c r="B986" s="31"/>
+      <c r="C986" s="32"/>
+      <c r="D986" s="33"/>
       <c r="E986" s="24"/>
     </row>
     <row r="987">
-      <c r="B987" s="33"/>
-      <c r="C987" s="34"/>
-      <c r="D987" s="35"/>
+      <c r="B987" s="31"/>
+      <c r="C987" s="32"/>
+      <c r="D987" s="33"/>
       <c r="E987" s="24"/>
     </row>
     <row r="988">
-      <c r="B988" s="33"/>
-      <c r="C988" s="34"/>
-      <c r="D988" s="35"/>
+      <c r="B988" s="31"/>
+      <c r="C988" s="32"/>
+      <c r="D988" s="33"/>
       <c r="E988" s="24"/>
     </row>
     <row r="989">
-      <c r="B989" s="33"/>
-      <c r="C989" s="34"/>
-      <c r="D989" s="35"/>
+      <c r="B989" s="31"/>
+      <c r="C989" s="32"/>
+      <c r="D989" s="33"/>
       <c r="E989" s="24"/>
     </row>
     <row r="990">
-      <c r="B990" s="33"/>
-      <c r="C990" s="34"/>
-      <c r="D990" s="35"/>
+      <c r="B990" s="31"/>
+      <c r="C990" s="32"/>
+      <c r="D990" s="33"/>
       <c r="E990" s="24"/>
     </row>
     <row r="991">
-      <c r="B991" s="33"/>
-      <c r="C991" s="34"/>
-      <c r="D991" s="35"/>
+      <c r="B991" s="31"/>
+      <c r="C991" s="32"/>
+      <c r="D991" s="33"/>
       <c r="E991" s="24"/>
     </row>
     <row r="992">
-      <c r="B992" s="33"/>
-      <c r="C992" s="34"/>
-      <c r="D992" s="35"/>
+      <c r="B992" s="31"/>
+      <c r="C992" s="32"/>
+      <c r="D992" s="33"/>
       <c r="E992" s="24"/>
     </row>
     <row r="993">
-      <c r="B993" s="33"/>
-      <c r="C993" s="34"/>
-      <c r="D993" s="35"/>
+      <c r="B993" s="31"/>
+      <c r="C993" s="32"/>
+      <c r="D993" s="33"/>
       <c r="E993" s="24"/>
     </row>
     <row r="994">
-      <c r="B994" s="33"/>
-      <c r="C994" s="34"/>
-      <c r="D994" s="35"/>
+      <c r="B994" s="31"/>
+      <c r="C994" s="32"/>
+      <c r="D994" s="33"/>
       <c r="E994" s="24"/>
     </row>
     <row r="995">
-      <c r="B995" s="33"/>
-      <c r="C995" s="34"/>
-      <c r="D995" s="35"/>
+      <c r="B995" s="31"/>
+      <c r="C995" s="32"/>
+      <c r="D995" s="33"/>
       <c r="E995" s="24"/>
     </row>
     <row r="996">
-      <c r="B996" s="33"/>
-      <c r="C996" s="34"/>
-      <c r="D996" s="35"/>
+      <c r="B996" s="31"/>
+      <c r="C996" s="32"/>
+      <c r="D996" s="33"/>
       <c r="E996" s="24"/>
     </row>
-    <row r="997">
-      <c r="B997" s="33"/>
-      <c r="C997" s="34"/>
-      <c r="D997" s="35"/>
-      <c r="E997" s="24"/>
-    </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:E3">
+      <formula1>"0_common,1_frequent,2_rare,3_scarce,4_unique,5_never"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -11479,43 +11456,43 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/game_design/game_config.xlsx
+++ b/game_design/game_config.xlsx
@@ -4626,7 +4626,7 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -4643,7 +4643,7 @@
         <v>2.0</v>
       </c>
       <c r="D4" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -4660,7 +4660,7 @@
         <v>2.0</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
